--- a/AAII_Financials/Quarterly/CAKE_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/CAKE_QTR_FIN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Quarterly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\AAII_Financials\Quarterly\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="92">
   <si>
     <t>CAKE</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:P102"/>
+  <dimension ref="A5:Q102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,198 +665,211 @@
     <col min="1" max="1" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="15" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="16" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E7" s="2">
         <v>43739</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43648</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43557</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43466</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43375</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43284</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43193</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43102</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43011</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>42920</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>42829</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>42738</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42640</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>694000</v>
+      </c>
+      <c r="E8" s="3">
         <v>586500</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>602600</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>599500</v>
       </c>
-      <c r="G8" s="3">
-        <v>567600</v>
-      </c>
       <c r="H8" s="3">
+        <v>585200</v>
+      </c>
+      <c r="I8" s="3">
         <v>575200</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>587300</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>584700</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>571800</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>555400</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>569900</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>563400</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>603100</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>560000</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>158200</v>
+      </c>
+      <c r="E9" s="3">
         <v>132900</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>134400</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>136200</v>
       </c>
-      <c r="G9" s="3">
-        <v>130400</v>
-      </c>
       <c r="H9" s="3">
+        <v>134800</v>
+      </c>
+      <c r="I9" s="3">
         <v>132200</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>131700</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>134200</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>134000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>127500</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>128800</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>129100</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>140100</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>128800</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>535800</v>
+      </c>
+      <c r="E10" s="3">
         <v>453600</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>468200</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>463300</v>
       </c>
-      <c r="G10" s="3">
-        <v>437200</v>
-      </c>
       <c r="H10" s="3">
+        <v>450400</v>
+      </c>
+      <c r="I10" s="3">
         <v>443000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>455600</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>450500</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>437800</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>427900</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>441100</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>434300</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>463000</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>431200</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -873,8 +886,9 @@
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q11" s="3"/>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -917,8 +931,11 @@
       <c r="P12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -961,96 +978,105 @@
       <c r="P13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>0</v>
+        <v>23500</v>
       </c>
       <c r="E14" s="3">
         <v>0</v>
       </c>
-      <c r="F14" s="3" t="s">
+      <c r="F14" s="3">
+        <v>0</v>
+      </c>
+      <c r="G14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>15000</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>300</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>2600</v>
       </c>
-      <c r="J14" s="3" t="s">
+      <c r="K14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>9100</v>
       </c>
-      <c r="L14" s="3">
-        <v>0</v>
-      </c>
       <c r="M14" s="3">
+        <v>0</v>
+      </c>
+      <c r="N14" s="3">
         <v>400</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>800</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>100</v>
       </c>
-      <c r="P14" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>23800</v>
+      </c>
+      <c r="E15" s="3">
         <v>21300</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>21700</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>21400</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>24200</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>24100</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>23700</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>24000</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>23200</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>23000</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>23300</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>23200</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>23500</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>21600</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1064,96 +1090,103 @@
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
-    </row>
-    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q16" s="3"/>
+    </row>
+    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>687600</v>
+      </c>
+      <c r="E17" s="3">
         <v>559600</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>562500</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>569300</v>
       </c>
-      <c r="G17" s="3">
-        <v>548200</v>
-      </c>
       <c r="H17" s="3">
+        <v>565800</v>
+      </c>
+      <c r="I17" s="3">
         <v>541700</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>552800</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>553100</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>547100</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>521100</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>519700</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>519900</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>556000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>510000</v>
       </c>
     </row>
-    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>6400</v>
+      </c>
+      <c r="E18" s="3">
         <v>26900</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>40100</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>30200</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>19400</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>33500</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>34500</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>31600</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>24700</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>34300</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>50200</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>43500</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>47100</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>50000</v>
       </c>
     </row>
-    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1170,96 +1203,103 @@
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
-    </row>
-    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q19" s="3"/>
+    </row>
+    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>50200</v>
+      </c>
+      <c r="E20" s="3">
         <v>-10300</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-1600</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-1500</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-3900</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-3300</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-2900</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-1500</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-1900</v>
-      </c>
-      <c r="L20" s="3">
-        <v>-1600</v>
       </c>
       <c r="M20" s="3">
         <v>-1600</v>
       </c>
       <c r="N20" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="O20" s="3">
         <v>-1200</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-2200</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-2500</v>
       </c>
     </row>
-    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>80300</v>
+      </c>
+      <c r="E21" s="3">
         <v>38000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>60100</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>50100</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>39700</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>54300</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>55400</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>54000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>46000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>55700</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>71900</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>65500</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>68300</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>69200</v>
       </c>
     </row>
-    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1302,96 +1342,105 @@
       <c r="P22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>56600</v>
+      </c>
+      <c r="E23" s="3">
         <v>16600</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>38400</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>28700</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>15500</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>30200</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>31600</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>30000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>22800</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>32700</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>48600</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>42300</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>44900</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>47600</v>
       </c>
     </row>
-    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>7900</v>
+      </c>
+      <c r="E24" s="3">
         <v>500</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>2900</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>1700</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>-700</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>1700</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>3300</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>4000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>3600</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>6300</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>10500</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>7300</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>12500</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>13000</v>
       </c>
     </row>
-    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1434,96 +1483,105 @@
       <c r="P25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>48700</v>
+      </c>
+      <c r="E26" s="3">
         <v>16100</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>35500</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>27000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>16200</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>28500</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>28400</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>26000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>19200</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>26400</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>38200</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>35000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>32400</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>34600</v>
       </c>
     </row>
-    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>48700</v>
+      </c>
+      <c r="E27" s="3">
         <v>16100</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>35500</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>27000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>16200</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>28500</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>28400</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>26000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>19200</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>26400</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>38200</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>35000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>32400</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>34600</v>
       </c>
     </row>
-    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1566,8 +1624,11 @@
       <c r="P28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1592,11 +1653,11 @@
       <c r="J29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K29" s="3">
+      <c r="K29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L29" s="3">
         <v>38500</v>
-      </c>
-      <c r="L29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="M29" s="3" t="s">
         <v>8</v>
@@ -1610,8 +1671,11 @@
       <c r="P29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1654,8 +1718,11 @@
       <c r="P30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1698,96 +1765,105 @@
       <c r="P31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-50200</v>
+      </c>
+      <c r="E32" s="3">
         <v>10300</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>1600</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>1500</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>3900</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>3300</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>2900</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>1500</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>1900</v>
-      </c>
-      <c r="L32" s="3">
-        <v>1600</v>
       </c>
       <c r="M32" s="3">
         <v>1600</v>
       </c>
       <c r="N32" s="3">
+        <v>1600</v>
+      </c>
+      <c r="O32" s="3">
         <v>1200</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>2200</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>2500</v>
       </c>
     </row>
-    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>48700</v>
+      </c>
+      <c r="E33" s="3">
         <v>16100</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>35500</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>27000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>16200</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>28500</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>28400</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>26000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>57700</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>26400</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>38200</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>35000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>32400</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>34600</v>
       </c>
     </row>
-    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1830,101 +1906,110 @@
       <c r="P34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>48700</v>
+      </c>
+      <c r="E35" s="3">
         <v>16100</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>35500</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>27000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>16200</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>28500</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>28400</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>26000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>57700</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>26400</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>38200</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>35000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>32400</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>34600</v>
       </c>
     </row>
-    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E38" s="2">
         <v>43739</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43648</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43557</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43466</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43375</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43284</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43193</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43102</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43011</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>42920</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>42829</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>42738</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42640</v>
       </c>
     </row>
-    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1941,8 +2026,9 @@
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
-    </row>
-    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q39" s="3"/>
+    </row>
+    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1959,52 +2045,56 @@
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
-    </row>
-    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q40" s="3"/>
+    </row>
+    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>58400</v>
+      </c>
+      <c r="E41" s="3">
         <v>306300</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>22600</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>22500</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>26600</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>12600</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>29400</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>24800</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>6000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>19800</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>66300</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>65700</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>53800</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>65800</v>
       </c>
     </row>
-    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2047,201 +2137,216 @@
       <c r="P42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>94900</v>
+      </c>
+      <c r="E43" s="3">
         <v>56200</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>50100</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>46200</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>89100</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>54100</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>52100</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>44100</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>102400</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>52100</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>53000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>44800</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>80200</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>45200</v>
       </c>
     </row>
-    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>47200</v>
+      </c>
+      <c r="E44" s="3">
         <v>47800</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>46000</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>42000</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>38900</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>39800</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>34700</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>41000</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>42600</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>44200</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>40200</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>38500</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>34900</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>35500</v>
       </c>
     </row>
-    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>43900</v>
+      </c>
+      <c r="E45" s="3">
         <v>38900</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>39500</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>46800</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>40600</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>48300</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>52900</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>54000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>57700</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>48500</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>50900</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>52600</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>52400</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>36300</v>
       </c>
     </row>
-    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>244500</v>
+      </c>
+      <c r="E46" s="3">
         <v>449100</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>158200</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>157500</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>195200</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>154800</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>169100</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>163900</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>208600</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>164600</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>210500</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>201600</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>221400</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>182900</v>
       </c>
     </row>
-    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>0</v>
+      </c>
+      <c r="E47" s="3">
         <v>91800</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>97700</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>81300</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>79800</v>
-      </c>
-      <c r="H47" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="I47" s="3" t="s">
         <v>8</v>
@@ -2258,8 +2363,8 @@
       <c r="M47" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N47" s="3">
-        <v>0</v>
+      <c r="N47" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="O47" s="3">
         <v>0</v>
@@ -2267,96 +2372,105 @@
       <c r="P47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>2072600</v>
+      </c>
+      <c r="E48" s="3">
         <v>1744100</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>1722200</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>1732600</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>913300</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>940100</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>936500</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>935300</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>935000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>933500</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>913400</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>910600</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>910100</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>902600</v>
       </c>
     </row>
-    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>437200</v>
+      </c>
+      <c r="E49" s="3">
         <v>20300</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>20200</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>20100</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>26200</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>26300</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>24500</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>24200</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>24100</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>23500</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>23400</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>23200</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>23100</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>22800</v>
       </c>
     </row>
-    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2399,8 +2513,11 @@
       <c r="P50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2443,52 +2560,58 @@
       <c r="P51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>86300</v>
+      </c>
+      <c r="E52" s="3">
         <v>76400</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>75500</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>84500</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>99700</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>186800</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>176600</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>164000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>165300</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>153700</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>152100</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>141500</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>138700</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>96100</v>
       </c>
     </row>
-    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2531,52 +2654,58 @@
       <c r="P53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>2840600</v>
+      </c>
+      <c r="E54" s="3">
         <v>2381800</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>2073800</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>2076100</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>1314100</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>1308100</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>1306600</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>1287300</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>1333100</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>1275300</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>1299300</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>1276800</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>1293300</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>1204400</v>
       </c>
     </row>
-    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2593,8 +2722,9 @@
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
-    </row>
-    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q55" s="3"/>
+    </row>
+    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2611,52 +2741,56 @@
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
-    </row>
-    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q56" s="3"/>
+    </row>
+    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>61900</v>
+      </c>
+      <c r="E57" s="3">
         <v>36100</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>36000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>36400</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>49100</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>39100</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>38300</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>38800</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>51000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>46600</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>46200</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>34900</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>41600</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>38900</v>
       </c>
     </row>
-    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2699,129 +2833,138 @@
       <c r="P58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>552600</v>
+      </c>
+      <c r="E59" s="3">
         <v>397700</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>401000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>410200</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>367400</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>304400</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>316300</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>305500</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>347000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>276200</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>283700</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>288200</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>335000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>265200</v>
       </c>
     </row>
-    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>614600</v>
+      </c>
+      <c r="E60" s="3">
         <v>433800</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>437000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>446600</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>416500</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>343500</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>354600</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>344300</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>398000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>322800</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>329900</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>323100</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>376500</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>304100</v>
       </c>
     </row>
-    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>290000</v>
+      </c>
+      <c r="E61" s="3">
         <v>335000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>35000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>20000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>10000</v>
-      </c>
-      <c r="H61" s="3">
-        <v>20000</v>
       </c>
       <c r="I61" s="3">
         <v>20000</v>
       </c>
       <c r="J61" s="3">
+        <v>20000</v>
+      </c>
+      <c r="K61" s="3">
         <v>30000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>10000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>30000</v>
       </c>
-      <c r="M61" s="3">
-        <v>0</v>
-      </c>
       <c r="N61" s="3">
         <v>0</v>
       </c>
@@ -2831,52 +2974,58 @@
       <c r="P61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>1364300</v>
+      </c>
+      <c r="E62" s="3">
         <v>1079200</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>1061500</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>1067200</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>316600</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>331100</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>319300</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>318800</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>311600</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>339200</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>328900</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>326200</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>313600</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>310700</v>
       </c>
     </row>
-    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2919,8 +3068,11 @@
       <c r="P63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2963,8 +3115,11 @@
       <c r="P64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3007,52 +3162,58 @@
       <c r="P65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>2268900</v>
+      </c>
+      <c r="E66" s="3">
         <v>1848000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>1533500</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>1533800</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>743100</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>694700</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>693900</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>693200</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>719500</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>692000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>658800</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>649300</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>690100</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>614800</v>
       </c>
     </row>
-    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3069,8 +3230,9 @@
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
-    </row>
-    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q67" s="3"/>
+    </row>
+    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3113,8 +3275,11 @@
       <c r="P68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3157,8 +3322,11 @@
       <c r="P69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3201,8 +3369,11 @@
       <c r="P70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3245,52 +3416,58 @@
       <c r="P71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>1375700</v>
+        <v>1408300</v>
       </c>
       <c r="E72" s="3">
         <v>1375700</v>
       </c>
       <c r="F72" s="3">
+        <v>1375700</v>
+      </c>
+      <c r="G72" s="3">
         <v>1355100</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>1384500</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>1383300</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>1369900</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>1354900</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>1345700</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>1301200</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>1288200</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>1261600</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>1238000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>1217000</v>
       </c>
     </row>
-    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3333,8 +3510,11 @@
       <c r="P73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3377,8 +3557,11 @@
       <c r="P74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3421,52 +3604,58 @@
       <c r="P75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>571700</v>
+      </c>
+      <c r="E76" s="3">
         <v>533800</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>540300</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>542200</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>571100</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>613400</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>612800</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>594200</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>613500</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>583400</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>640500</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>627500</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>603200</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>589500</v>
       </c>
     </row>
-    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3509,101 +3698,110 @@
       <c r="P77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E80" s="2">
         <v>43739</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43648</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43557</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43466</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43375</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43284</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43193</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43102</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43011</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>42920</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>42829</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>42738</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42640</v>
       </c>
     </row>
-    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>48700</v>
+      </c>
+      <c r="E81" s="3">
         <v>16100</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>35500</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>27000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>16200</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>28500</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>28400</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>26000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>57700</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>26400</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>38200</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>35000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>32400</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>34600</v>
       </c>
     </row>
-    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3620,52 +3818,56 @@
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
-    </row>
-    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q82" s="3"/>
+    </row>
+    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>23800</v>
+      </c>
+      <c r="E83" s="3">
         <v>21300</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>21700</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>21400</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>24200</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>24100</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>23700</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>24000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>23200</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>23000</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>23300</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>23200</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>23500</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>21600</v>
       </c>
     </row>
-    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3708,8 +3910,11 @@
       <c r="P84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3752,8 +3957,11 @@
       <c r="P85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3796,8 +4004,11 @@
       <c r="P86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3840,8 +4051,11 @@
       <c r="P87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3884,52 +4098,58 @@
       <c r="P88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>102600</v>
+      </c>
+      <c r="E89" s="3">
         <v>32400</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>50300</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>33500</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>109200</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>41600</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>65600</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>74900</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>84600</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>40300</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>65800</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>48100</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>86000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>58100</v>
       </c>
     </row>
-    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3946,52 +4166,56 @@
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
-    </row>
-    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q90" s="3"/>
+    </row>
+    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-27100</v>
+      </c>
+      <c r="E91" s="3">
         <v>-17300</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-16000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-13400</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-24200</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-26800</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-21200</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-30700</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-47400</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-29700</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-24500</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-19500</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-45600</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>10400</v>
       </c>
     </row>
-    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4034,8 +4258,11 @@
       <c r="P92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4078,52 +4305,58 @@
       <c r="P93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-290500</v>
+      </c>
+      <c r="E94" s="3">
         <v>-22000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-23100</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-27400</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-24500</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-39800</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-35100</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-31000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-57100</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-30000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-33700</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-19600</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-87600</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-30800</v>
       </c>
     </row>
-    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4140,8 +4373,9 @@
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
-    </row>
-    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q95" s="3"/>
+    </row>
+    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4149,43 +4383,46 @@
         <v>-15700</v>
       </c>
       <c r="E96" s="3">
+        <v>-15700</v>
+      </c>
+      <c r="F96" s="3">
         <v>-14700</v>
       </c>
-      <c r="F96" s="3">
+      <c r="G96" s="3">
         <v>-14600</v>
       </c>
-      <c r="G96" s="3">
+      <c r="H96" s="3">
         <v>-14800</v>
       </c>
-      <c r="H96" s="3">
+      <c r="I96" s="3">
         <v>-14900</v>
       </c>
-      <c r="I96" s="3">
+      <c r="J96" s="3">
         <v>-13400</v>
       </c>
-      <c r="J96" s="3">
+      <c r="K96" s="3">
         <v>-13200</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-13300</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-13500</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-11500</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-11700</v>
       </c>
-      <c r="O96" s="3">
+      <c r="P96" s="3">
         <v>-11300</v>
       </c>
-      <c r="P96" s="3">
+      <c r="Q96" s="3">
         <v>-11500</v>
       </c>
     </row>
-    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4228,8 +4465,11 @@
       <c r="P97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4272,8 +4512,11 @@
       <c r="P98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4316,57 +4559,63 @@
       <c r="P99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-59900</v>
+      </c>
+      <c r="E100" s="3">
         <v>273200</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-27100</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-10200</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-70600</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-18500</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-25900</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-25200</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-41200</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-56800</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-31500</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-16700</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-10400</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-47700</v>
       </c>
     </row>
-    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E101" s="3">
         <v>0</v>
@@ -4375,11 +4624,11 @@
         <v>0</v>
       </c>
       <c r="G101" s="3">
+        <v>0</v>
+      </c>
+      <c r="H101" s="3">
         <v>-100</v>
       </c>
-      <c r="H101" s="3">
-        <v>0</v>
-      </c>
       <c r="I101" s="3">
         <v>0</v>
       </c>
@@ -4387,10 +4636,10 @@
         <v>0</v>
       </c>
       <c r="K101" s="3">
+        <v>0</v>
+      </c>
+      <c r="L101" s="3">
         <v>-100</v>
-      </c>
-      <c r="L101" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="M101" s="3" t="s">
         <v>8</v>
@@ -4404,48 +4653,54 @@
       <c r="P101" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q101" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-247800</v>
+      </c>
+      <c r="E102" s="3">
         <v>283600</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>100</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-4000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>13900</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-16700</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>4600</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>18800</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-13800</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-46500</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>600</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>11800</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-12000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-13800</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/CAKE_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/CAKE_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="92">
   <si>
     <t>CAKE</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Q102"/>
+  <dimension ref="A5:S102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,211 +665,237 @@
     <col min="1" max="1" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="16" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="18" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E7" s="2">
+        <v>43921</v>
+      </c>
+      <c r="F7" s="2">
         <v>43830</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>43739</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>43648</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>43557</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43466</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43375</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43284</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43193</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43102</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43011</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>42920</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>42829</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>42738</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>42640</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>295900</v>
+      </c>
+      <c r="E8" s="3">
+        <v>615100</v>
+      </c>
+      <c r="F8" s="3">
         <v>694000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="G8" s="3">
         <v>586500</v>
       </c>
-      <c r="F8" s="3">
+      <c r="H8" s="3">
         <v>602600</v>
       </c>
-      <c r="G8" s="3">
+      <c r="I8" s="3">
         <v>599500</v>
       </c>
-      <c r="H8" s="3">
+      <c r="J8" s="3">
         <v>585200</v>
       </c>
-      <c r="I8" s="3">
+      <c r="K8" s="3">
         <v>575200</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>587300</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>584700</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>571800</v>
       </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
         <v>555400</v>
       </c>
-      <c r="N8" s="3">
+      <c r="P8" s="3">
         <v>569900</v>
       </c>
-      <c r="O8" s="3">
+      <c r="Q8" s="3">
         <v>563400</v>
       </c>
-      <c r="P8" s="3">
+      <c r="R8" s="3">
         <v>603100</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="S8" s="3">
         <v>560000</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>72100</v>
+      </c>
+      <c r="E9" s="3">
+        <v>140900</v>
+      </c>
+      <c r="F9" s="3">
         <v>158200</v>
       </c>
-      <c r="E9" s="3">
+      <c r="G9" s="3">
         <v>132900</v>
       </c>
-      <c r="F9" s="3">
+      <c r="H9" s="3">
         <v>134400</v>
       </c>
-      <c r="G9" s="3">
+      <c r="I9" s="3">
         <v>136200</v>
       </c>
-      <c r="H9" s="3">
+      <c r="J9" s="3">
         <v>134800</v>
       </c>
-      <c r="I9" s="3">
+      <c r="K9" s="3">
         <v>132200</v>
       </c>
-      <c r="J9" s="3">
+      <c r="L9" s="3">
         <v>131700</v>
       </c>
-      <c r="K9" s="3">
+      <c r="M9" s="3">
         <v>134200</v>
       </c>
-      <c r="L9" s="3">
+      <c r="N9" s="3">
         <v>134000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="O9" s="3">
         <v>127500</v>
       </c>
-      <c r="N9" s="3">
+      <c r="P9" s="3">
         <v>128800</v>
       </c>
-      <c r="O9" s="3">
+      <c r="Q9" s="3">
         <v>129100</v>
       </c>
-      <c r="P9" s="3">
+      <c r="R9" s="3">
         <v>140100</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="S9" s="3">
         <v>128800</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>223800</v>
+      </c>
+      <c r="E10" s="3">
+        <v>474200</v>
+      </c>
+      <c r="F10" s="3">
         <v>535800</v>
       </c>
-      <c r="E10" s="3">
+      <c r="G10" s="3">
         <v>453600</v>
       </c>
-      <c r="F10" s="3">
+      <c r="H10" s="3">
         <v>468200</v>
       </c>
-      <c r="G10" s="3">
+      <c r="I10" s="3">
         <v>463300</v>
       </c>
-      <c r="H10" s="3">
+      <c r="J10" s="3">
         <v>450400</v>
       </c>
-      <c r="I10" s="3">
+      <c r="K10" s="3">
         <v>443000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="L10" s="3">
         <v>455600</v>
       </c>
-      <c r="K10" s="3">
+      <c r="M10" s="3">
         <v>450500</v>
       </c>
-      <c r="L10" s="3">
+      <c r="N10" s="3">
         <v>437800</v>
       </c>
-      <c r="M10" s="3">
+      <c r="O10" s="3">
         <v>427900</v>
       </c>
-      <c r="N10" s="3">
+      <c r="P10" s="3">
         <v>441100</v>
       </c>
-      <c r="O10" s="3">
+      <c r="Q10" s="3">
         <v>434300</v>
       </c>
-      <c r="P10" s="3">
+      <c r="R10" s="3">
         <v>463000</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="S10" s="3">
         <v>431200</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -887,8 +913,10 @@
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R11" s="3"/>
+      <c r="S11" s="3"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -934,8 +962,14 @@
       <c r="Q12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -981,102 +1015,120 @@
       <c r="Q13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R13" s="3">
+        <v>0</v>
+      </c>
+      <c r="S13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>2500</v>
+      </c>
+      <c r="E14" s="3">
+        <v>188700</v>
+      </c>
+      <c r="F14" s="3">
         <v>23500</v>
       </c>
-      <c r="E14" s="3">
-        <v>0</v>
-      </c>
-      <c r="F14" s="3">
-        <v>0</v>
-      </c>
-      <c r="G14" s="3" t="s">
+      <c r="G14" s="3">
+        <v>0</v>
+      </c>
+      <c r="H14" s="3">
+        <v>0</v>
+      </c>
+      <c r="I14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H14" s="3">
+      <c r="J14" s="3">
         <v>15000</v>
       </c>
-      <c r="I14" s="3">
+      <c r="K14" s="3">
         <v>300</v>
       </c>
-      <c r="J14" s="3">
+      <c r="L14" s="3">
         <v>2600</v>
       </c>
-      <c r="K14" s="3" t="s">
+      <c r="M14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L14" s="3">
+      <c r="N14" s="3">
         <v>9100</v>
       </c>
-      <c r="M14" s="3">
-        <v>0</v>
-      </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
+        <v>0</v>
+      </c>
+      <c r="P14" s="3">
         <v>400</v>
       </c>
-      <c r="O14" s="3">
+      <c r="Q14" s="3">
         <v>800</v>
       </c>
-      <c r="P14" s="3">
+      <c r="R14" s="3">
         <v>100</v>
       </c>
-      <c r="Q14" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="S14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>22600</v>
+      </c>
+      <c r="E15" s="3">
+        <v>23600</v>
+      </c>
+      <c r="F15" s="3">
         <v>23800</v>
       </c>
-      <c r="E15" s="3">
+      <c r="G15" s="3">
         <v>21300</v>
       </c>
-      <c r="F15" s="3">
+      <c r="H15" s="3">
         <v>21700</v>
       </c>
-      <c r="G15" s="3">
+      <c r="I15" s="3">
         <v>21400</v>
       </c>
-      <c r="H15" s="3">
+      <c r="J15" s="3">
         <v>24200</v>
       </c>
-      <c r="I15" s="3">
+      <c r="K15" s="3">
         <v>24100</v>
       </c>
-      <c r="J15" s="3">
+      <c r="L15" s="3">
         <v>23700</v>
       </c>
-      <c r="K15" s="3">
+      <c r="M15" s="3">
         <v>24000</v>
       </c>
-      <c r="L15" s="3">
+      <c r="N15" s="3">
         <v>23200</v>
       </c>
-      <c r="M15" s="3">
+      <c r="O15" s="3">
         <v>23000</v>
       </c>
-      <c r="N15" s="3">
+      <c r="P15" s="3">
         <v>23300</v>
       </c>
-      <c r="O15" s="3">
+      <c r="Q15" s="3">
         <v>23200</v>
       </c>
-      <c r="P15" s="3">
+      <c r="R15" s="3">
         <v>23500</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="S15" s="3">
         <v>21600</v>
       </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1091,102 +1143,116 @@
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
-    </row>
-    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R16" s="3"/>
+      <c r="S16" s="3"/>
+    </row>
+    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>379600</v>
+      </c>
+      <c r="E17" s="3">
+        <v>805200</v>
+      </c>
+      <c r="F17" s="3">
         <v>687600</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>559600</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>562500</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>569300</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>565800</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>541700</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>552800</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>553100</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>547100</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>521100</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>519700</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>519900</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>556000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="S17" s="3">
         <v>510000</v>
       </c>
     </row>
-    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-83700</v>
+      </c>
+      <c r="E18" s="3">
+        <v>-190100</v>
+      </c>
+      <c r="F18" s="3">
         <v>6400</v>
       </c>
-      <c r="E18" s="3">
+      <c r="G18" s="3">
         <v>26900</v>
       </c>
-      <c r="F18" s="3">
+      <c r="H18" s="3">
         <v>40100</v>
       </c>
-      <c r="G18" s="3">
+      <c r="I18" s="3">
         <v>30200</v>
       </c>
-      <c r="H18" s="3">
+      <c r="J18" s="3">
         <v>19400</v>
       </c>
-      <c r="I18" s="3">
+      <c r="K18" s="3">
         <v>33500</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>34500</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>31600</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>24700</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>34300</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>50200</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>43500</v>
       </c>
-      <c r="P18" s="3">
+      <c r="R18" s="3">
         <v>47100</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="S18" s="3">
         <v>50000</v>
       </c>
     </row>
-    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1204,102 +1270,116 @@
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
-    </row>
-    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R19" s="3"/>
+      <c r="S19" s="3"/>
+    </row>
+    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-2600</v>
+      </c>
+      <c r="E20" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="F20" s="3">
         <v>50200</v>
       </c>
-      <c r="E20" s="3">
+      <c r="G20" s="3">
         <v>-10300</v>
       </c>
-      <c r="F20" s="3">
+      <c r="H20" s="3">
         <v>-1600</v>
       </c>
-      <c r="G20" s="3">
+      <c r="I20" s="3">
         <v>-1500</v>
       </c>
-      <c r="H20" s="3">
+      <c r="J20" s="3">
         <v>-3900</v>
       </c>
-      <c r="I20" s="3">
+      <c r="K20" s="3">
         <v>-3300</v>
       </c>
-      <c r="J20" s="3">
+      <c r="L20" s="3">
         <v>-2900</v>
       </c>
-      <c r="K20" s="3">
+      <c r="M20" s="3">
         <v>-1500</v>
       </c>
-      <c r="L20" s="3">
+      <c r="N20" s="3">
         <v>-1900</v>
       </c>
-      <c r="M20" s="3">
+      <c r="O20" s="3">
         <v>-1600</v>
       </c>
-      <c r="N20" s="3">
+      <c r="P20" s="3">
         <v>-1600</v>
       </c>
-      <c r="O20" s="3">
+      <c r="Q20" s="3">
         <v>-1200</v>
       </c>
-      <c r="P20" s="3">
+      <c r="R20" s="3">
         <v>-2200</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="S20" s="3">
         <v>-2500</v>
       </c>
     </row>
-    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-63700</v>
+      </c>
+      <c r="E21" s="3">
+        <v>-168000</v>
+      </c>
+      <c r="F21" s="3">
         <v>80300</v>
       </c>
-      <c r="E21" s="3">
+      <c r="G21" s="3">
         <v>38000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="H21" s="3">
         <v>60100</v>
       </c>
-      <c r="G21" s="3">
+      <c r="I21" s="3">
         <v>50100</v>
       </c>
-      <c r="H21" s="3">
+      <c r="J21" s="3">
         <v>39700</v>
       </c>
-      <c r="I21" s="3">
+      <c r="K21" s="3">
         <v>54300</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>55400</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>54000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>46000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="O21" s="3">
         <v>55700</v>
       </c>
-      <c r="N21" s="3">
+      <c r="P21" s="3">
         <v>71900</v>
       </c>
-      <c r="O21" s="3">
+      <c r="Q21" s="3">
         <v>65500</v>
       </c>
-      <c r="P21" s="3">
+      <c r="R21" s="3">
         <v>68300</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="S21" s="3">
         <v>69200</v>
       </c>
     </row>
-    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1345,102 +1425,120 @@
       <c r="Q22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R22" s="3">
+        <v>0</v>
+      </c>
+      <c r="S22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-86300</v>
+      </c>
+      <c r="E23" s="3">
+        <v>-191600</v>
+      </c>
+      <c r="F23" s="3">
         <v>56600</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>16600</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>38400</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>28700</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>15500</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>30200</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>31600</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>30000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>22800</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>32700</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>48600</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>42300</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>44900</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="S23" s="3">
         <v>47600</v>
       </c>
     </row>
-    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>-29700</v>
+      </c>
+      <c r="E24" s="3">
+        <v>-55400</v>
+      </c>
+      <c r="F24" s="3">
         <v>7900</v>
       </c>
-      <c r="E24" s="3">
+      <c r="G24" s="3">
         <v>500</v>
       </c>
-      <c r="F24" s="3">
+      <c r="H24" s="3">
         <v>2900</v>
-      </c>
-      <c r="G24" s="3">
-        <v>1700</v>
-      </c>
-      <c r="H24" s="3">
-        <v>-700</v>
       </c>
       <c r="I24" s="3">
         <v>1700</v>
       </c>
       <c r="J24" s="3">
+        <v>-700</v>
+      </c>
+      <c r="K24" s="3">
+        <v>1700</v>
+      </c>
+      <c r="L24" s="3">
         <v>3300</v>
       </c>
-      <c r="K24" s="3">
+      <c r="M24" s="3">
         <v>4000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="N24" s="3">
         <v>3600</v>
       </c>
-      <c r="M24" s="3">
+      <c r="O24" s="3">
         <v>6300</v>
       </c>
-      <c r="N24" s="3">
+      <c r="P24" s="3">
         <v>10500</v>
       </c>
-      <c r="O24" s="3">
+      <c r="Q24" s="3">
         <v>7300</v>
       </c>
-      <c r="P24" s="3">
+      <c r="R24" s="3">
         <v>12500</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="S24" s="3">
         <v>13000</v>
       </c>
     </row>
-    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1486,102 +1584,120 @@
       <c r="Q25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R25" s="3">
+        <v>0</v>
+      </c>
+      <c r="S25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-56500</v>
+      </c>
+      <c r="E26" s="3">
+        <v>-136200</v>
+      </c>
+      <c r="F26" s="3">
         <v>48700</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>16100</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>35500</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>27000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>16200</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>28500</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>28400</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>26000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>19200</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>26400</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>38200</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>35000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>32400</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="S26" s="3">
         <v>34600</v>
       </c>
     </row>
-    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-70500</v>
+      </c>
+      <c r="E27" s="3">
+        <v>-136200</v>
+      </c>
+      <c r="F27" s="3">
         <v>48700</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>16100</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>35500</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>27000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>16200</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>28500</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>28400</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>26000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>19200</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>26400</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>38200</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>35000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>32400</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="S27" s="3">
         <v>34600</v>
       </c>
     </row>
-    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1627,8 +1743,14 @@
       <c r="Q28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R28" s="3">
+        <v>0</v>
+      </c>
+      <c r="S28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1656,14 +1778,14 @@
       <c r="K29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L29" s="3">
-        <v>38500</v>
+      <c r="L29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="M29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N29" s="3" t="s">
-        <v>8</v>
+      <c r="N29" s="3">
+        <v>38500</v>
       </c>
       <c r="O29" s="3" t="s">
         <v>8</v>
@@ -1674,8 +1796,14 @@
       <c r="Q29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1721,8 +1849,14 @@
       <c r="Q30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R30" s="3">
+        <v>0</v>
+      </c>
+      <c r="S30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1768,102 +1902,120 @@
       <c r="Q31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R31" s="3">
+        <v>0</v>
+      </c>
+      <c r="S31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>2600</v>
+      </c>
+      <c r="E32" s="3">
+        <v>1500</v>
+      </c>
+      <c r="F32" s="3">
         <v>-50200</v>
       </c>
-      <c r="E32" s="3">
+      <c r="G32" s="3">
         <v>10300</v>
       </c>
-      <c r="F32" s="3">
+      <c r="H32" s="3">
         <v>1600</v>
       </c>
-      <c r="G32" s="3">
+      <c r="I32" s="3">
         <v>1500</v>
       </c>
-      <c r="H32" s="3">
+      <c r="J32" s="3">
         <v>3900</v>
       </c>
-      <c r="I32" s="3">
+      <c r="K32" s="3">
         <v>3300</v>
       </c>
-      <c r="J32" s="3">
+      <c r="L32" s="3">
         <v>2900</v>
       </c>
-      <c r="K32" s="3">
+      <c r="M32" s="3">
         <v>1500</v>
       </c>
-      <c r="L32" s="3">
+      <c r="N32" s="3">
         <v>1900</v>
       </c>
-      <c r="M32" s="3">
+      <c r="O32" s="3">
         <v>1600</v>
       </c>
-      <c r="N32" s="3">
+      <c r="P32" s="3">
         <v>1600</v>
       </c>
-      <c r="O32" s="3">
+      <c r="Q32" s="3">
         <v>1200</v>
       </c>
-      <c r="P32" s="3">
+      <c r="R32" s="3">
         <v>2200</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="S32" s="3">
         <v>2500</v>
       </c>
     </row>
-    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-70500</v>
+      </c>
+      <c r="E33" s="3">
+        <v>-136200</v>
+      </c>
+      <c r="F33" s="3">
         <v>48700</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>16100</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>35500</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>27000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>16200</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>28500</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>28400</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>26000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>57700</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>26400</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>38200</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>35000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>32400</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="S33" s="3">
         <v>34600</v>
       </c>
     </row>
-    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1909,107 +2061,125 @@
       <c r="Q34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R34" s="3">
+        <v>0</v>
+      </c>
+      <c r="S34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-70500</v>
+      </c>
+      <c r="E35" s="3">
+        <v>-136200</v>
+      </c>
+      <c r="F35" s="3">
         <v>48700</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>16100</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>35500</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>27000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>16200</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>28500</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>28400</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>26000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>57700</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>26400</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>38200</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>35000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>32400</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="S35" s="3">
         <v>34600</v>
       </c>
     </row>
-    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E38" s="2">
+        <v>43921</v>
+      </c>
+      <c r="F38" s="2">
         <v>43830</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>43739</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>43648</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>43557</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43466</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43375</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43284</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43193</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43102</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43011</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>42920</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>42829</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>42738</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>42640</v>
       </c>
     </row>
-    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2027,8 +2197,10 @@
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
-    </row>
-    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R39" s="3"/>
+      <c r="S39" s="3"/>
+    </row>
+    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2046,55 +2218,63 @@
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
-    </row>
-    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R40" s="3"/>
+      <c r="S40" s="3"/>
+    </row>
+    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>250200</v>
+      </c>
+      <c r="E41" s="3">
+        <v>81000</v>
+      </c>
+      <c r="F41" s="3">
         <v>58400</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>306300</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>22600</v>
       </c>
-      <c r="G41" s="3">
+      <c r="I41" s="3">
         <v>22500</v>
       </c>
-      <c r="H41" s="3">
+      <c r="J41" s="3">
         <v>26600</v>
       </c>
-      <c r="I41" s="3">
+      <c r="K41" s="3">
         <v>12600</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>29400</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>24800</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>6000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>19800</v>
       </c>
-      <c r="N41" s="3">
+      <c r="P41" s="3">
         <v>66300</v>
       </c>
-      <c r="O41" s="3">
+      <c r="Q41" s="3">
         <v>65700</v>
       </c>
-      <c r="P41" s="3">
+      <c r="R41" s="3">
         <v>53800</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="S41" s="3">
         <v>65800</v>
       </c>
     </row>
-    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2140,219 +2320,249 @@
       <c r="Q42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R42" s="3">
+        <v>0</v>
+      </c>
+      <c r="S42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>94900</v>
+        <v>145900</v>
       </c>
       <c r="E43" s="3">
-        <v>56200</v>
+        <v>120000</v>
       </c>
       <c r="F43" s="3">
-        <v>50100</v>
+        <v>118100</v>
       </c>
       <c r="G43" s="3">
-        <v>46200</v>
+        <v>74500</v>
       </c>
       <c r="H43" s="3">
+        <v>70100</v>
+      </c>
+      <c r="I43" s="3">
+        <v>67500</v>
+      </c>
+      <c r="J43" s="3">
         <v>89100</v>
       </c>
-      <c r="I43" s="3">
+      <c r="K43" s="3">
         <v>54100</v>
       </c>
-      <c r="J43" s="3">
+      <c r="L43" s="3">
         <v>52100</v>
       </c>
-      <c r="K43" s="3">
+      <c r="M43" s="3">
         <v>44100</v>
       </c>
-      <c r="L43" s="3">
+      <c r="N43" s="3">
         <v>102400</v>
       </c>
-      <c r="M43" s="3">
+      <c r="O43" s="3">
         <v>52100</v>
       </c>
-      <c r="N43" s="3">
+      <c r="P43" s="3">
         <v>53000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="Q43" s="3">
         <v>44800</v>
       </c>
-      <c r="P43" s="3">
+      <c r="R43" s="3">
         <v>80200</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="S43" s="3">
         <v>45200</v>
       </c>
     </row>
-    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>47200</v>
+        <v>40500</v>
       </c>
       <c r="E44" s="3">
         <v>47800</v>
       </c>
       <c r="F44" s="3">
+        <v>47200</v>
+      </c>
+      <c r="G44" s="3">
+        <v>47800</v>
+      </c>
+      <c r="H44" s="3">
         <v>46000</v>
       </c>
-      <c r="G44" s="3">
+      <c r="I44" s="3">
         <v>42000</v>
       </c>
-      <c r="H44" s="3">
+      <c r="J44" s="3">
         <v>38900</v>
       </c>
-      <c r="I44" s="3">
+      <c r="K44" s="3">
         <v>39800</v>
       </c>
-      <c r="J44" s="3">
+      <c r="L44" s="3">
         <v>34700</v>
       </c>
-      <c r="K44" s="3">
+      <c r="M44" s="3">
         <v>41000</v>
       </c>
-      <c r="L44" s="3">
+      <c r="N44" s="3">
         <v>42600</v>
       </c>
-      <c r="M44" s="3">
+      <c r="O44" s="3">
         <v>44200</v>
       </c>
-      <c r="N44" s="3">
+      <c r="P44" s="3">
         <v>40200</v>
       </c>
-      <c r="O44" s="3">
+      <c r="Q44" s="3">
         <v>38500</v>
       </c>
-      <c r="P44" s="3">
+      <c r="R44" s="3">
         <v>34900</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="S44" s="3">
         <v>35500</v>
       </c>
     </row>
-    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>43900</v>
+        <v>18100</v>
       </c>
       <c r="E45" s="3">
-        <v>38900</v>
+        <v>21800</v>
       </c>
       <c r="F45" s="3">
-        <v>39500</v>
+        <v>20800</v>
       </c>
       <c r="G45" s="3">
-        <v>46800</v>
+        <v>20600</v>
       </c>
       <c r="H45" s="3">
+        <v>19400</v>
+      </c>
+      <c r="I45" s="3">
+        <v>25500</v>
+      </c>
+      <c r="J45" s="3">
         <v>40600</v>
       </c>
-      <c r="I45" s="3">
+      <c r="K45" s="3">
         <v>48300</v>
       </c>
-      <c r="J45" s="3">
+      <c r="L45" s="3">
         <v>52900</v>
       </c>
-      <c r="K45" s="3">
+      <c r="M45" s="3">
         <v>54000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="N45" s="3">
         <v>57700</v>
       </c>
-      <c r="M45" s="3">
+      <c r="O45" s="3">
         <v>48500</v>
       </c>
-      <c r="N45" s="3">
+      <c r="P45" s="3">
         <v>50900</v>
       </c>
-      <c r="O45" s="3">
+      <c r="Q45" s="3">
         <v>52600</v>
       </c>
-      <c r="P45" s="3">
+      <c r="R45" s="3">
         <v>52400</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="S45" s="3">
         <v>36300</v>
       </c>
     </row>
-    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>454600</v>
+      </c>
+      <c r="E46" s="3">
+        <v>270700</v>
+      </c>
+      <c r="F46" s="3">
         <v>244500</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>449100</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>158200</v>
       </c>
-      <c r="G46" s="3">
+      <c r="I46" s="3">
         <v>157500</v>
       </c>
-      <c r="H46" s="3">
+      <c r="J46" s="3">
         <v>195200</v>
       </c>
-      <c r="I46" s="3">
+      <c r="K46" s="3">
         <v>154800</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>169100</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>163900</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>208600</v>
       </c>
-      <c r="M46" s="3">
+      <c r="O46" s="3">
         <v>164600</v>
       </c>
-      <c r="N46" s="3">
+      <c r="P46" s="3">
         <v>210500</v>
       </c>
-      <c r="O46" s="3">
+      <c r="Q46" s="3">
         <v>201600</v>
       </c>
-      <c r="P46" s="3">
+      <c r="R46" s="3">
         <v>221400</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="S46" s="3">
         <v>182900</v>
       </c>
     </row>
-    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D47" s="3">
-        <v>0</v>
-      </c>
-      <c r="E47" s="3">
+      <c r="D47" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E47" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F47" s="3">
+        <v>0</v>
+      </c>
+      <c r="G47" s="3">
         <v>91800</v>
       </c>
-      <c r="F47" s="3">
+      <c r="H47" s="3">
         <v>97700</v>
       </c>
-      <c r="G47" s="3">
+      <c r="I47" s="3">
         <v>81300</v>
       </c>
-      <c r="H47" s="3">
+      <c r="J47" s="3">
         <v>79800</v>
-      </c>
-      <c r="I47" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J47" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="K47" s="3" t="s">
         <v>8</v>
@@ -2366,111 +2576,129 @@
       <c r="N47" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O47" s="3">
-        <v>0</v>
-      </c>
-      <c r="P47" s="3">
-        <v>0</v>
+      <c r="O47" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P47" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="Q47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R47" s="3">
+        <v>0</v>
+      </c>
+      <c r="S47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>2074000</v>
+      </c>
+      <c r="E48" s="3">
+        <v>2075700</v>
+      </c>
+      <c r="F48" s="3">
         <v>2072600</v>
       </c>
-      <c r="E48" s="3">
+      <c r="G48" s="3">
         <v>1744100</v>
       </c>
-      <c r="F48" s="3">
+      <c r="H48" s="3">
         <v>1722200</v>
       </c>
-      <c r="G48" s="3">
+      <c r="I48" s="3">
         <v>1732600</v>
       </c>
-      <c r="H48" s="3">
+      <c r="J48" s="3">
         <v>913300</v>
       </c>
-      <c r="I48" s="3">
+      <c r="K48" s="3">
         <v>940100</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>936500</v>
       </c>
-      <c r="K48" s="3">
+      <c r="M48" s="3">
         <v>935300</v>
       </c>
-      <c r="L48" s="3">
+      <c r="N48" s="3">
         <v>935000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="O48" s="3">
         <v>933500</v>
       </c>
-      <c r="N48" s="3">
+      <c r="P48" s="3">
         <v>913400</v>
       </c>
-      <c r="O48" s="3">
+      <c r="Q48" s="3">
         <v>910600</v>
       </c>
-      <c r="P48" s="3">
+      <c r="R48" s="3">
         <v>910100</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="S48" s="3">
         <v>902600</v>
       </c>
     </row>
-    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>254300</v>
+      </c>
+      <c r="E49" s="3">
+        <v>254400</v>
+      </c>
+      <c r="F49" s="3">
         <v>437200</v>
       </c>
-      <c r="E49" s="3">
+      <c r="G49" s="3">
         <v>20300</v>
       </c>
-      <c r="F49" s="3">
+      <c r="H49" s="3">
         <v>20200</v>
       </c>
-      <c r="G49" s="3">
+      <c r="I49" s="3">
         <v>20100</v>
       </c>
-      <c r="H49" s="3">
+      <c r="J49" s="3">
         <v>26200</v>
       </c>
-      <c r="I49" s="3">
+      <c r="K49" s="3">
         <v>26300</v>
       </c>
-      <c r="J49" s="3">
+      <c r="L49" s="3">
         <v>24500</v>
       </c>
-      <c r="K49" s="3">
+      <c r="M49" s="3">
         <v>24200</v>
       </c>
-      <c r="L49" s="3">
+      <c r="N49" s="3">
         <v>24100</v>
       </c>
-      <c r="M49" s="3">
+      <c r="O49" s="3">
         <v>23500</v>
       </c>
-      <c r="N49" s="3">
+      <c r="P49" s="3">
         <v>23400</v>
       </c>
-      <c r="O49" s="3">
+      <c r="Q49" s="3">
         <v>23200</v>
       </c>
-      <c r="P49" s="3">
+      <c r="R49" s="3">
         <v>23100</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="S49" s="3">
         <v>22800</v>
       </c>
     </row>
-    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2516,8 +2744,14 @@
       <c r="Q50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R50" s="3">
+        <v>0</v>
+      </c>
+      <c r="S50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2563,55 +2797,67 @@
       <c r="Q51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R51" s="3">
+        <v>0</v>
+      </c>
+      <c r="S51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>84300</v>
+      </c>
+      <c r="E52" s="3">
+        <v>75000</v>
+      </c>
+      <c r="F52" s="3">
         <v>86300</v>
       </c>
-      <c r="E52" s="3">
+      <c r="G52" s="3">
         <v>76400</v>
       </c>
-      <c r="F52" s="3">
+      <c r="H52" s="3">
         <v>75500</v>
       </c>
-      <c r="G52" s="3">
+      <c r="I52" s="3">
         <v>84500</v>
       </c>
-      <c r="H52" s="3">
+      <c r="J52" s="3">
         <v>99700</v>
       </c>
-      <c r="I52" s="3">
+      <c r="K52" s="3">
         <v>186800</v>
       </c>
-      <c r="J52" s="3">
+      <c r="L52" s="3">
         <v>176600</v>
       </c>
-      <c r="K52" s="3">
+      <c r="M52" s="3">
         <v>164000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="N52" s="3">
         <v>165300</v>
       </c>
-      <c r="M52" s="3">
+      <c r="O52" s="3">
         <v>153700</v>
       </c>
-      <c r="N52" s="3">
+      <c r="P52" s="3">
         <v>152100</v>
       </c>
-      <c r="O52" s="3">
+      <c r="Q52" s="3">
         <v>141500</v>
       </c>
-      <c r="P52" s="3">
+      <c r="R52" s="3">
         <v>138700</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="S52" s="3">
         <v>96100</v>
       </c>
     </row>
-    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2657,55 +2903,67 @@
       <c r="Q53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R53" s="3">
+        <v>0</v>
+      </c>
+      <c r="S53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>2867300</v>
+      </c>
+      <c r="E54" s="3">
+        <v>2675800</v>
+      </c>
+      <c r="F54" s="3">
         <v>2840600</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>2381800</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>2073800</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>2076100</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>1314100</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>1308100</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>1306600</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>1287300</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>1333100</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>1275300</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>1299300</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>1276800</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>1293300</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="S54" s="3">
         <v>1204400</v>
       </c>
     </row>
-    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2723,8 +2981,10 @@
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
-    </row>
-    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R55" s="3"/>
+      <c r="S55" s="3"/>
+    </row>
+    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2742,55 +3002,63 @@
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
-    </row>
-    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R56" s="3"/>
+      <c r="S56" s="3"/>
+    </row>
+    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>57500</v>
+      </c>
+      <c r="E57" s="3">
+        <v>55900</v>
+      </c>
+      <c r="F57" s="3">
         <v>61900</v>
       </c>
-      <c r="E57" s="3">
+      <c r="G57" s="3">
         <v>36100</v>
       </c>
-      <c r="F57" s="3">
+      <c r="H57" s="3">
         <v>36000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="I57" s="3">
         <v>36400</v>
       </c>
-      <c r="H57" s="3">
+      <c r="J57" s="3">
         <v>49100</v>
       </c>
-      <c r="I57" s="3">
+      <c r="K57" s="3">
         <v>39100</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>38300</v>
       </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
         <v>38800</v>
       </c>
-      <c r="L57" s="3">
+      <c r="N57" s="3">
         <v>51000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="O57" s="3">
         <v>46600</v>
       </c>
-      <c r="N57" s="3">
+      <c r="P57" s="3">
         <v>46200</v>
       </c>
-      <c r="O57" s="3">
+      <c r="Q57" s="3">
         <v>34900</v>
       </c>
-      <c r="P57" s="3">
+      <c r="R57" s="3">
         <v>41600</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="S57" s="3">
         <v>38900</v>
       </c>
     </row>
-    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2836,140 +3104,158 @@
       <c r="Q58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R58" s="3">
+        <v>0</v>
+      </c>
+      <c r="S58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>475100</v>
+      </c>
+      <c r="E59" s="3">
+        <v>451200</v>
+      </c>
+      <c r="F59" s="3">
         <v>552600</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3">
         <v>397700</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>401000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="I59" s="3">
         <v>410200</v>
       </c>
-      <c r="H59" s="3">
+      <c r="J59" s="3">
         <v>367400</v>
       </c>
-      <c r="I59" s="3">
+      <c r="K59" s="3">
         <v>304400</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>316300</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>305500</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>347000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="O59" s="3">
         <v>276200</v>
       </c>
-      <c r="N59" s="3">
+      <c r="P59" s="3">
         <v>283700</v>
       </c>
-      <c r="O59" s="3">
+      <c r="Q59" s="3">
         <v>288200</v>
       </c>
-      <c r="P59" s="3">
+      <c r="R59" s="3">
         <v>335000</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="S59" s="3">
         <v>265200</v>
       </c>
     </row>
-    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>532700</v>
+      </c>
+      <c r="E60" s="3">
+        <v>507100</v>
+      </c>
+      <c r="F60" s="3">
         <v>614600</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>433800</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>437000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>446600</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>416500</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>343500</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>354600</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>344300</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>398000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>322800</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>329900</v>
       </c>
-      <c r="O60" s="3">
+      <c r="Q60" s="3">
         <v>323100</v>
       </c>
-      <c r="P60" s="3">
+      <c r="R60" s="3">
         <v>376500</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="S60" s="3">
         <v>304100</v>
       </c>
     </row>
-    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>376000</v>
+      </c>
+      <c r="E61" s="3">
+        <v>380000</v>
+      </c>
+      <c r="F61" s="3">
         <v>290000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="G61" s="3">
         <v>335000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="H61" s="3">
         <v>35000</v>
-      </c>
-      <c r="G61" s="3">
-        <v>20000</v>
-      </c>
-      <c r="H61" s="3">
-        <v>10000</v>
       </c>
       <c r="I61" s="3">
         <v>20000</v>
       </c>
       <c r="J61" s="3">
+        <v>10000</v>
+      </c>
+      <c r="K61" s="3">
         <v>20000</v>
       </c>
-      <c r="K61" s="3">
-        <v>30000</v>
-      </c>
       <c r="L61" s="3">
-        <v>10000</v>
+        <v>20000</v>
       </c>
       <c r="M61" s="3">
         <v>30000</v>
       </c>
       <c r="N61" s="3">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="O61" s="3">
-        <v>0</v>
+        <v>30000</v>
       </c>
       <c r="P61" s="3">
         <v>0</v>
@@ -2977,55 +3263,67 @@
       <c r="Q61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R61" s="3">
+        <v>0</v>
+      </c>
+      <c r="S61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>1402600</v>
+      </c>
+      <c r="E62" s="3">
+        <v>1369700</v>
+      </c>
+      <c r="F62" s="3">
         <v>1364300</v>
       </c>
-      <c r="E62" s="3">
+      <c r="G62" s="3">
         <v>1079200</v>
       </c>
-      <c r="F62" s="3">
+      <c r="H62" s="3">
         <v>1061500</v>
       </c>
-      <c r="G62" s="3">
+      <c r="I62" s="3">
         <v>1067200</v>
       </c>
-      <c r="H62" s="3">
+      <c r="J62" s="3">
         <v>316600</v>
       </c>
-      <c r="I62" s="3">
+      <c r="K62" s="3">
         <v>331100</v>
       </c>
-      <c r="J62" s="3">
+      <c r="L62" s="3">
         <v>319300</v>
       </c>
-      <c r="K62" s="3">
+      <c r="M62" s="3">
         <v>318800</v>
       </c>
-      <c r="L62" s="3">
+      <c r="N62" s="3">
         <v>311600</v>
       </c>
-      <c r="M62" s="3">
+      <c r="O62" s="3">
         <v>339200</v>
       </c>
-      <c r="N62" s="3">
+      <c r="P62" s="3">
         <v>328900</v>
       </c>
-      <c r="O62" s="3">
+      <c r="Q62" s="3">
         <v>326200</v>
       </c>
-      <c r="P62" s="3">
+      <c r="R62" s="3">
         <v>313600</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="S62" s="3">
         <v>310700</v>
       </c>
     </row>
-    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3071,8 +3369,14 @@
       <c r="Q63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R63" s="3">
+        <v>0</v>
+      </c>
+      <c r="S63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3118,8 +3422,14 @@
       <c r="Q64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R64" s="3">
+        <v>0</v>
+      </c>
+      <c r="S64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3165,55 +3475,67 @@
       <c r="Q65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R65" s="3">
+        <v>0</v>
+      </c>
+      <c r="S65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>2311300</v>
+      </c>
+      <c r="E66" s="3">
+        <v>2256800</v>
+      </c>
+      <c r="F66" s="3">
         <v>2268900</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>1848000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>1533500</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>1533800</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>743100</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>694700</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>693900</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>693200</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>719500</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>692000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>658800</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>649300</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>690100</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="S66" s="3">
         <v>614800</v>
       </c>
     </row>
-    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3231,8 +3553,10 @@
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
-    </row>
-    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R67" s="3"/>
+      <c r="S67" s="3"/>
+    </row>
+    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3278,8 +3602,14 @@
       <c r="Q68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R68" s="3">
+        <v>0</v>
+      </c>
+      <c r="S68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3325,13 +3655,19 @@
       <c r="Q69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R69" s="3">
+        <v>0</v>
+      </c>
+      <c r="S69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
       <c r="D70" s="3">
-        <v>0</v>
+        <v>204100</v>
       </c>
       <c r="E70" s="3">
         <v>0</v>
@@ -3372,8 +3708,14 @@
       <c r="Q70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R70" s="3">
+        <v>0</v>
+      </c>
+      <c r="S70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3419,55 +3761,67 @@
       <c r="Q71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R71" s="3">
+        <v>0</v>
+      </c>
+      <c r="S71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>1184900</v>
+      </c>
+      <c r="E72" s="3">
+        <v>1255800</v>
+      </c>
+      <c r="F72" s="3">
         <v>1408300</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>1375700</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>1375700</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>1355100</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>1384500</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>1383300</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>1369900</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>1354900</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>1345700</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>1301200</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>1288200</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>1261600</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>1238000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="S72" s="3">
         <v>1217000</v>
       </c>
     </row>
-    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3513,8 +3867,14 @@
       <c r="Q73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R73" s="3">
+        <v>0</v>
+      </c>
+      <c r="S73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3560,8 +3920,14 @@
       <c r="Q74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R74" s="3">
+        <v>0</v>
+      </c>
+      <c r="S74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3607,55 +3973,67 @@
       <c r="Q75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R75" s="3">
+        <v>0</v>
+      </c>
+      <c r="S75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>351900</v>
+      </c>
+      <c r="E76" s="3">
+        <v>419000</v>
+      </c>
+      <c r="F76" s="3">
         <v>571700</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>533800</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>540300</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>542200</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>571100</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>613400</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>612800</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>594200</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>613500</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>583400</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>640500</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>627500</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>603200</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="S76" s="3">
         <v>589500</v>
       </c>
     </row>
-    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3701,107 +4079,125 @@
       <c r="Q77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R77" s="3">
+        <v>0</v>
+      </c>
+      <c r="S77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E80" s="2">
+        <v>43921</v>
+      </c>
+      <c r="F80" s="2">
         <v>43830</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>43739</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>43648</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>43557</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43466</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43375</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43284</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43193</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43102</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43011</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>42920</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>42829</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>42738</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>42640</v>
       </c>
     </row>
-    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-70500</v>
+      </c>
+      <c r="E81" s="3">
+        <v>-136200</v>
+      </c>
+      <c r="F81" s="3">
         <v>48700</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>16100</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>35500</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>27000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>16200</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>28500</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>28400</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>26000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>57700</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>26400</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>38200</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>35000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>32400</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="S81" s="3">
         <v>34600</v>
       </c>
     </row>
-    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3819,55 +4215,63 @@
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
-    </row>
-    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R82" s="3"/>
+      <c r="S82" s="3"/>
+    </row>
+    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>22600</v>
+      </c>
+      <c r="E83" s="3">
+        <v>23600</v>
+      </c>
+      <c r="F83" s="3">
         <v>23800</v>
       </c>
-      <c r="E83" s="3">
+      <c r="G83" s="3">
         <v>21300</v>
       </c>
-      <c r="F83" s="3">
+      <c r="H83" s="3">
         <v>21700</v>
       </c>
-      <c r="G83" s="3">
+      <c r="I83" s="3">
         <v>21400</v>
       </c>
-      <c r="H83" s="3">
+      <c r="J83" s="3">
         <v>24200</v>
       </c>
-      <c r="I83" s="3">
+      <c r="K83" s="3">
         <v>24100</v>
       </c>
-      <c r="J83" s="3">
+      <c r="L83" s="3">
         <v>23700</v>
       </c>
-      <c r="K83" s="3">
+      <c r="M83" s="3">
         <v>24000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="N83" s="3">
         <v>23200</v>
       </c>
-      <c r="M83" s="3">
+      <c r="O83" s="3">
         <v>23000</v>
       </c>
-      <c r="N83" s="3">
+      <c r="P83" s="3">
         <v>23300</v>
       </c>
-      <c r="O83" s="3">
+      <c r="Q83" s="3">
         <v>23200</v>
       </c>
-      <c r="P83" s="3">
+      <c r="R83" s="3">
         <v>23500</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="S83" s="3">
         <v>21600</v>
       </c>
     </row>
-    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3913,8 +4317,14 @@
       <c r="Q84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R84" s="3">
+        <v>0</v>
+      </c>
+      <c r="S84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3960,8 +4370,14 @@
       <c r="Q85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R85" s="3">
+        <v>0</v>
+      </c>
+      <c r="S85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4007,8 +4423,14 @@
       <c r="Q86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R86" s="3">
+        <v>0</v>
+      </c>
+      <c r="S86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4054,8 +4476,14 @@
       <c r="Q87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R87" s="3">
+        <v>0</v>
+      </c>
+      <c r="S87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4101,55 +4529,67 @@
       <c r="Q88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R88" s="3">
+        <v>0</v>
+      </c>
+      <c r="S88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-2700</v>
+      </c>
+      <c r="E89" s="3">
+        <v>-33000</v>
+      </c>
+      <c r="F89" s="3">
         <v>102600</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>32400</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>50300</v>
       </c>
-      <c r="G89" s="3">
+      <c r="I89" s="3">
         <v>33500</v>
       </c>
-      <c r="H89" s="3">
+      <c r="J89" s="3">
         <v>109200</v>
       </c>
-      <c r="I89" s="3">
+      <c r="K89" s="3">
         <v>41600</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>65600</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>74900</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>84600</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>40300</v>
       </c>
-      <c r="N89" s="3">
+      <c r="P89" s="3">
         <v>65800</v>
       </c>
-      <c r="O89" s="3">
+      <c r="Q89" s="3">
         <v>48100</v>
       </c>
-      <c r="P89" s="3">
+      <c r="R89" s="3">
         <v>86000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="S89" s="3">
         <v>58100</v>
       </c>
     </row>
-    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4167,55 +4607,63 @@
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
-    </row>
-    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R90" s="3"/>
+      <c r="S90" s="3"/>
+    </row>
+    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-13600</v>
+      </c>
+      <c r="E91" s="3">
+        <v>-15800</v>
+      </c>
+      <c r="F91" s="3">
         <v>-27100</v>
       </c>
-      <c r="E91" s="3">
+      <c r="G91" s="3">
         <v>-17300</v>
       </c>
-      <c r="F91" s="3">
+      <c r="H91" s="3">
         <v>-16000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="I91" s="3">
         <v>-13400</v>
       </c>
-      <c r="H91" s="3">
+      <c r="J91" s="3">
         <v>-24200</v>
       </c>
-      <c r="I91" s="3">
+      <c r="K91" s="3">
         <v>-26800</v>
       </c>
-      <c r="J91" s="3">
+      <c r="L91" s="3">
         <v>-21200</v>
       </c>
-      <c r="K91" s="3">
+      <c r="M91" s="3">
         <v>-30700</v>
       </c>
-      <c r="L91" s="3">
+      <c r="N91" s="3">
         <v>-47400</v>
       </c>
-      <c r="M91" s="3">
+      <c r="O91" s="3">
         <v>-29700</v>
       </c>
-      <c r="N91" s="3">
+      <c r="P91" s="3">
         <v>-24500</v>
       </c>
-      <c r="O91" s="3">
+      <c r="Q91" s="3">
         <v>-19500</v>
       </c>
-      <c r="P91" s="3">
+      <c r="R91" s="3">
         <v>-45600</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="S91" s="3">
         <v>10400</v>
       </c>
     </row>
-    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4261,8 +4709,14 @@
       <c r="Q92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R92" s="3">
+        <v>0</v>
+      </c>
+      <c r="S92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4308,55 +4762,67 @@
       <c r="Q93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R93" s="3">
+        <v>0</v>
+      </c>
+      <c r="S93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-13700</v>
+      </c>
+      <c r="E94" s="3">
+        <v>-15900</v>
+      </c>
+      <c r="F94" s="3">
         <v>-290500</v>
       </c>
-      <c r="E94" s="3">
+      <c r="G94" s="3">
         <v>-22000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="H94" s="3">
         <v>-23100</v>
       </c>
-      <c r="G94" s="3">
+      <c r="I94" s="3">
         <v>-27400</v>
       </c>
-      <c r="H94" s="3">
+      <c r="J94" s="3">
         <v>-24500</v>
       </c>
-      <c r="I94" s="3">
+      <c r="K94" s="3">
         <v>-39800</v>
       </c>
-      <c r="J94" s="3">
+      <c r="L94" s="3">
         <v>-35100</v>
       </c>
-      <c r="K94" s="3">
+      <c r="M94" s="3">
         <v>-31000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="N94" s="3">
         <v>-57100</v>
       </c>
-      <c r="M94" s="3">
+      <c r="O94" s="3">
         <v>-30000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="P94" s="3">
         <v>-33700</v>
       </c>
-      <c r="O94" s="3">
+      <c r="Q94" s="3">
         <v>-19600</v>
       </c>
-      <c r="P94" s="3">
+      <c r="R94" s="3">
         <v>-87600</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="S94" s="3">
         <v>-30800</v>
       </c>
     </row>
-    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4374,55 +4840,63 @@
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
-    </row>
-    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R95" s="3"/>
+      <c r="S95" s="3"/>
+    </row>
+    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>0</v>
+      </c>
+      <c r="E96" s="3">
+        <v>-15800</v>
+      </c>
+      <c r="F96" s="3">
         <v>-15700</v>
       </c>
-      <c r="E96" s="3">
+      <c r="G96" s="3">
         <v>-15700</v>
       </c>
-      <c r="F96" s="3">
+      <c r="H96" s="3">
         <v>-14700</v>
       </c>
-      <c r="G96" s="3">
+      <c r="I96" s="3">
         <v>-14600</v>
       </c>
-      <c r="H96" s="3">
+      <c r="J96" s="3">
         <v>-14800</v>
       </c>
-      <c r="I96" s="3">
+      <c r="K96" s="3">
         <v>-14900</v>
       </c>
-      <c r="J96" s="3">
+      <c r="L96" s="3">
         <v>-13400</v>
       </c>
-      <c r="K96" s="3">
+      <c r="M96" s="3">
         <v>-13200</v>
       </c>
-      <c r="L96" s="3">
+      <c r="N96" s="3">
         <v>-13300</v>
       </c>
-      <c r="M96" s="3">
+      <c r="O96" s="3">
         <v>-13500</v>
       </c>
-      <c r="N96" s="3">
+      <c r="P96" s="3">
         <v>-11500</v>
       </c>
-      <c r="O96" s="3">
+      <c r="Q96" s="3">
         <v>-11700</v>
       </c>
-      <c r="P96" s="3">
+      <c r="R96" s="3">
         <v>-11300</v>
       </c>
-      <c r="Q96" s="3">
+      <c r="S96" s="3">
         <v>-11500</v>
       </c>
     </row>
-    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4468,8 +4942,14 @@
       <c r="Q97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R97" s="3">
+        <v>0</v>
+      </c>
+      <c r="S97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4515,8 +4995,14 @@
       <c r="Q98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R98" s="3">
+        <v>0</v>
+      </c>
+      <c r="S98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4562,55 +5048,67 @@
       <c r="Q99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R99" s="3">
+        <v>0</v>
+      </c>
+      <c r="S99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>185500</v>
+      </c>
+      <c r="E100" s="3">
+        <v>71700</v>
+      </c>
+      <c r="F100" s="3">
         <v>-59900</v>
       </c>
-      <c r="E100" s="3">
+      <c r="G100" s="3">
         <v>273200</v>
       </c>
-      <c r="F100" s="3">
+      <c r="H100" s="3">
         <v>-27100</v>
       </c>
-      <c r="G100" s="3">
+      <c r="I100" s="3">
         <v>-10200</v>
       </c>
-      <c r="H100" s="3">
+      <c r="J100" s="3">
         <v>-70600</v>
       </c>
-      <c r="I100" s="3">
+      <c r="K100" s="3">
         <v>-18500</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>-25900</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>-25200</v>
       </c>
-      <c r="L100" s="3">
+      <c r="N100" s="3">
         <v>-41200</v>
       </c>
-      <c r="M100" s="3">
+      <c r="O100" s="3">
         <v>-56800</v>
       </c>
-      <c r="N100" s="3">
+      <c r="P100" s="3">
         <v>-31500</v>
       </c>
-      <c r="O100" s="3">
+      <c r="Q100" s="3">
         <v>-16700</v>
       </c>
-      <c r="P100" s="3">
+      <c r="R100" s="3">
         <v>-10400</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="S100" s="3">
         <v>-47700</v>
       </c>
     </row>
-    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4618,34 +5116,34 @@
         <v>100</v>
       </c>
       <c r="E101" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="F101" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G101" s="3">
         <v>0</v>
       </c>
       <c r="H101" s="3">
+        <v>0</v>
+      </c>
+      <c r="I101" s="3">
+        <v>0</v>
+      </c>
+      <c r="J101" s="3">
         <v>-100</v>
       </c>
-      <c r="I101" s="3">
-        <v>0</v>
-      </c>
-      <c r="J101" s="3">
-        <v>0</v>
-      </c>
       <c r="K101" s="3">
         <v>0</v>
       </c>
       <c r="L101" s="3">
+        <v>0</v>
+      </c>
+      <c r="M101" s="3">
+        <v>0</v>
+      </c>
+      <c r="N101" s="3">
         <v>-100</v>
-      </c>
-      <c r="M101" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="N101" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="O101" s="3" t="s">
         <v>8</v>
@@ -4656,51 +5154,63 @@
       <c r="Q101" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R101" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S101" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>169100</v>
+      </c>
+      <c r="E102" s="3">
+        <v>22600</v>
+      </c>
+      <c r="F102" s="3">
         <v>-247800</v>
       </c>
-      <c r="E102" s="3">
+      <c r="G102" s="3">
         <v>283600</v>
       </c>
-      <c r="F102" s="3">
+      <c r="H102" s="3">
         <v>100</v>
       </c>
-      <c r="G102" s="3">
+      <c r="I102" s="3">
         <v>-4000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="J102" s="3">
         <v>13900</v>
       </c>
-      <c r="I102" s="3">
+      <c r="K102" s="3">
         <v>-16700</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>4600</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>18800</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>-13800</v>
       </c>
-      <c r="M102" s="3">
+      <c r="O102" s="3">
         <v>-46500</v>
       </c>
-      <c r="N102" s="3">
+      <c r="P102" s="3">
         <v>600</v>
       </c>
-      <c r="O102" s="3">
+      <c r="Q102" s="3">
         <v>11800</v>
       </c>
-      <c r="P102" s="3">
+      <c r="R102" s="3">
         <v>-12000</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="S102" s="3">
         <v>-13800</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/CAKE_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/CAKE_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="92">
   <si>
     <t>CAKE</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:S102"/>
+  <dimension ref="A5:T102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,237 +665,250 @@
     <col min="1" max="1" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="18" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="19" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44103</v>
+      </c>
+      <c r="E7" s="2">
         <v>44012</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43921</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43830</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43739</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43648</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43557</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43466</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43375</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43284</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43193</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43102</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43011</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42920</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42829</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42738</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42640</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>517700</v>
+      </c>
+      <c r="E8" s="3">
         <v>295900</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>615100</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>694000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>586500</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>602600</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>599500</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>585200</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>575200</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>587300</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>584700</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>571800</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>555400</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>569900</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>563400</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>603100</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>560000</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>118100</v>
+      </c>
+      <c r="E9" s="3">
         <v>72100</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>140900</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>158200</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>132900</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>134400</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>136200</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>134800</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>132200</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>131700</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>134200</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>134000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>127500</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>128800</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>129100</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>140100</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>128800</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>399600</v>
+      </c>
+      <c r="E10" s="3">
         <v>223800</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>474200</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>535800</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>453600</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>468200</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>463300</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>450400</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>443000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>455600</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>450500</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>437800</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>427900</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>441100</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>434300</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>463000</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>431200</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -915,8 +928,9 @@
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T11" s="3"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -968,8 +982,11 @@
       <c r="S12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1021,114 +1038,123 @@
       <c r="S13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>11900</v>
+      </c>
+      <c r="E14" s="3">
         <v>2500</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>188700</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>23500</v>
       </c>
-      <c r="G14" s="3">
-        <v>0</v>
-      </c>
       <c r="H14" s="3">
         <v>0</v>
       </c>
-      <c r="I14" s="3" t="s">
+      <c r="I14" s="3">
+        <v>0</v>
+      </c>
+      <c r="J14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>15000</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>300</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>2600</v>
       </c>
-      <c r="M14" s="3" t="s">
+      <c r="N14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>9100</v>
       </c>
-      <c r="O14" s="3">
-        <v>0</v>
-      </c>
       <c r="P14" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="3">
         <v>400</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>800</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>100</v>
       </c>
-      <c r="S14" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>22700</v>
+      </c>
+      <c r="E15" s="3">
         <v>22600</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>23600</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>23800</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>21300</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>21700</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>21400</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>24200</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>24100</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>23700</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>24000</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>23200</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>23000</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>23300</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>23200</v>
       </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3">
         <v>23500</v>
       </c>
-      <c r="S15" s="3">
+      <c r="T15" s="3">
         <v>21600</v>
       </c>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1145,114 +1171,121 @@
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
-    </row>
-    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T16" s="3"/>
+    </row>
+    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>552600</v>
+      </c>
+      <c r="E17" s="3">
         <v>379600</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>805200</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>687600</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>559600</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>562500</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>569300</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>565800</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>541700</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>552800</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>553100</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>547100</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>521100</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>519700</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>519900</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>556000</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>510000</v>
       </c>
     </row>
-    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-34900</v>
+      </c>
+      <c r="E18" s="3">
         <v>-83700</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-190100</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>6400</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>26900</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>40100</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>30200</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>19400</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>33500</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>34500</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>31600</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>24700</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>34300</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>50200</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>43500</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>47100</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>50000</v>
       </c>
     </row>
-    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1272,114 +1305,121 @@
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
-    </row>
-    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T19" s="3"/>
+    </row>
+    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-2900</v>
+      </c>
+      <c r="E20" s="3">
         <v>-2600</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-1500</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>50200</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-10300</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-1600</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-1500</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-3900</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-3300</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-2900</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-1500</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-1900</v>
-      </c>
-      <c r="O20" s="3">
-        <v>-1600</v>
       </c>
       <c r="P20" s="3">
         <v>-1600</v>
       </c>
       <c r="Q20" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="R20" s="3">
         <v>-1200</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-2200</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-2500</v>
       </c>
     </row>
-    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-15100</v>
+      </c>
+      <c r="E21" s="3">
         <v>-63700</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-168000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>80300</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>38000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>60100</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>50100</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>39700</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>54300</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>55400</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>54000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>46000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>55700</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>71900</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>65500</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>68300</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>69200</v>
       </c>
     </row>
-    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1431,114 +1471,123 @@
       <c r="S22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-37800</v>
+      </c>
+      <c r="E23" s="3">
         <v>-86300</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-191600</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>56600</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>16600</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>38400</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>28700</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>15500</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>30200</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>31600</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>30000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>22800</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>32700</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>48600</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>42300</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>44900</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>47600</v>
       </c>
     </row>
-    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>-9400</v>
+      </c>
+      <c r="E24" s="3">
         <v>-29700</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>-55400</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>7900</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>500</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>2900</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>1700</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>-700</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>1700</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>3300</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>4000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>3600</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>6300</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>10500</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>7300</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>12500</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>13000</v>
       </c>
     </row>
-    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1590,114 +1639,123 @@
       <c r="S25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-28300</v>
+      </c>
+      <c r="E26" s="3">
         <v>-56500</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-136200</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>48700</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>16100</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>35500</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>27000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>16200</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>28500</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>28400</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>26000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>19200</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>26400</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>38200</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>35000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>32400</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>34600</v>
       </c>
     </row>
-    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-33200</v>
+      </c>
+      <c r="E27" s="3">
         <v>-70500</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-136200</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>48700</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>16100</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>35500</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>27000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>16200</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>28500</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>28400</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>26000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>19200</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>26400</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>38200</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>35000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>32400</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>34600</v>
       </c>
     </row>
-    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1749,8 +1807,11 @@
       <c r="S28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1784,11 +1845,11 @@
       <c r="M29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N29" s="3">
+      <c r="N29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O29" s="3">
         <v>38500</v>
-      </c>
-      <c r="O29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="P29" s="3" t="s">
         <v>8</v>
@@ -1802,8 +1863,11 @@
       <c r="S29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1855,8 +1919,11 @@
       <c r="S30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1908,114 +1975,123 @@
       <c r="S31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>2900</v>
+      </c>
+      <c r="E32" s="3">
         <v>2600</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>1500</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-50200</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>10300</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>1600</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>1500</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>3900</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>3300</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>2900</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>1500</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>1900</v>
-      </c>
-      <c r="O32" s="3">
-        <v>1600</v>
       </c>
       <c r="P32" s="3">
         <v>1600</v>
       </c>
       <c r="Q32" s="3">
+        <v>1600</v>
+      </c>
+      <c r="R32" s="3">
         <v>1200</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>2200</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>2500</v>
       </c>
     </row>
-    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-33200</v>
+      </c>
+      <c r="E33" s="3">
         <v>-70500</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-136200</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>48700</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>16100</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>35500</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>27000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>16200</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>28500</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>28400</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>26000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>57700</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>26400</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>38200</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>35000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>32400</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>34600</v>
       </c>
     </row>
-    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2067,119 +2143,128 @@
       <c r="S34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-33200</v>
+      </c>
+      <c r="E35" s="3">
         <v>-70500</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-136200</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>48700</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>16100</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>35500</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>27000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>16200</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>28500</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>28400</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>26000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>57700</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>26400</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>38200</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>35000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>32400</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>34600</v>
       </c>
     </row>
-    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44103</v>
+      </c>
+      <c r="E38" s="2">
         <v>44012</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43921</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43830</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43739</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43648</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43557</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43466</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43375</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43284</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43193</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43102</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43011</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42920</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42829</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42738</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42640</v>
       </c>
     </row>
-    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2199,8 +2284,9 @@
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
-    </row>
-    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T39" s="3"/>
+    </row>
+    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2220,61 +2306,65 @@
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
-    </row>
-    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T40" s="3"/>
+    </row>
+    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>243800</v>
+      </c>
+      <c r="E41" s="3">
         <v>250200</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>81000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>58400</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>306300</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>22600</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>22500</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>26600</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>12600</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>29400</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>24800</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>6000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>19800</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>66300</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>65700</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>53800</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>65800</v>
       </c>
     </row>
-    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2326,220 +2416,235 @@
       <c r="S42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>113100</v>
+      </c>
+      <c r="E43" s="3">
         <v>145900</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>120000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>118100</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>74500</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>70100</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>67500</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>89100</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>54100</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>52100</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>44100</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>102400</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>52100</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>53000</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>44800</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>80200</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>45200</v>
       </c>
     </row>
-    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>37700</v>
+      </c>
+      <c r="E44" s="3">
         <v>40500</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>47800</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>47200</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>47800</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>46000</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>42000</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>38900</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>39800</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>34700</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>41000</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>42600</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>44200</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>40200</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>38500</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>34900</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>35500</v>
       </c>
     </row>
-    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>16400</v>
+      </c>
+      <c r="E45" s="3">
         <v>18100</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>21800</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>20800</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>20600</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>19400</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>25500</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>40600</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>48300</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>52900</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>54000</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>57700</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>48500</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>50900</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>52600</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>52400</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>36300</v>
       </c>
     </row>
-    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>411000</v>
+      </c>
+      <c r="E46" s="3">
         <v>454600</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>270700</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>244500</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>449100</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>158200</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>157500</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>195200</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>154800</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>169100</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>163900</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>208600</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>164600</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>210500</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>201600</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>221400</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>182900</v>
       </c>
     </row>
-    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2549,23 +2654,23 @@
       <c r="E47" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F47" s="3">
-        <v>0</v>
+      <c r="F47" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="G47" s="3">
+        <v>0</v>
+      </c>
+      <c r="H47" s="3">
         <v>91800</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>97700</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>81300</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>79800</v>
-      </c>
-      <c r="K47" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="L47" s="3" t="s">
         <v>8</v>
@@ -2582,8 +2687,8 @@
       <c r="P47" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Q47" s="3">
-        <v>0</v>
+      <c r="Q47" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="R47" s="3">
         <v>0</v>
@@ -2591,114 +2696,123 @@
       <c r="S47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>2056900</v>
+      </c>
+      <c r="E48" s="3">
         <v>2074000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>2075700</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>2072600</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>1744100</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>1722200</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>1732600</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>913300</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>940100</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>936500</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>935300</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>935000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>933500</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>913400</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>910600</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>910100</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>902600</v>
       </c>
     </row>
-    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>253600</v>
+      </c>
+      <c r="E49" s="3">
         <v>254300</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>254400</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>437200</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>20300</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>20200</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>20100</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>26200</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>26300</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>24500</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>24200</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>24100</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>23500</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>23400</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>23200</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>23100</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>22800</v>
       </c>
     </row>
-    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2750,8 +2864,11 @@
       <c r="S50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2803,61 +2920,67 @@
       <c r="S51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>106600</v>
+      </c>
+      <c r="E52" s="3">
         <v>84300</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>75000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>86300</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>76400</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>75500</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>84500</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>99700</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>186800</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>176600</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>164000</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>165300</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>153700</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>152100</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>141500</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>138700</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>96100</v>
       </c>
     </row>
-    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2909,61 +3032,67 @@
       <c r="S53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>2828100</v>
+      </c>
+      <c r="E54" s="3">
         <v>2867300</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>2675800</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>2840600</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>2381800</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>2073800</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>2076100</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>1314100</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>1308100</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>1306600</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>1287300</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>1333100</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>1275300</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>1299300</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>1276800</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>1293300</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>1204400</v>
       </c>
     </row>
-    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2983,8 +3112,9 @@
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
-    </row>
-    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T55" s="3"/>
+    </row>
+    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3004,61 +3134,65 @@
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
-    </row>
-    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T56" s="3"/>
+    </row>
+    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>61500</v>
+      </c>
+      <c r="E57" s="3">
         <v>57500</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>55900</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>61900</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>36100</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>36000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>36400</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>49100</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>39100</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>38300</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>38800</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>51000</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>46600</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>46200</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>34900</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>41600</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>38900</v>
       </c>
     </row>
-    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3110,114 +3244,123 @@
       <c r="S58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>478800</v>
+      </c>
+      <c r="E59" s="3">
         <v>475100</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>451200</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>552600</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>397700</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>401000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>410200</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>367400</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>304400</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>316300</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>305500</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>347000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>276200</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>283700</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>288200</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>335000</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>265200</v>
       </c>
     </row>
-    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>540400</v>
+      </c>
+      <c r="E60" s="3">
         <v>532700</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>507100</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>614600</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>433800</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>437000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>446600</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>416500</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>343500</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>354600</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>344300</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>398000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>322800</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>329900</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>323100</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>376500</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>304100</v>
       </c>
     </row>
-    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3225,41 +3368,41 @@
         <v>376000</v>
       </c>
       <c r="E61" s="3">
+        <v>376000</v>
+      </c>
+      <c r="F61" s="3">
         <v>380000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>290000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>335000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>35000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>20000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>10000</v>
-      </c>
-      <c r="K61" s="3">
-        <v>20000</v>
       </c>
       <c r="L61" s="3">
         <v>20000</v>
       </c>
       <c r="M61" s="3">
+        <v>20000</v>
+      </c>
+      <c r="N61" s="3">
         <v>30000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>10000</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>30000</v>
       </c>
-      <c r="P61" s="3">
-        <v>0</v>
-      </c>
       <c r="Q61" s="3">
         <v>0</v>
       </c>
@@ -3269,61 +3412,67 @@
       <c r="S61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>1379500</v>
+      </c>
+      <c r="E62" s="3">
         <v>1402600</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>1369700</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>1364300</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>1079200</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>1061500</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>1067200</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>316600</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>331100</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>319300</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>318800</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>311600</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>339200</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>328900</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>326200</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>313600</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>310700</v>
       </c>
     </row>
-    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3375,8 +3524,11 @@
       <c r="S63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3428,8 +3580,11 @@
       <c r="S64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3481,61 +3636,67 @@
       <c r="S65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>2295900</v>
+      </c>
+      <c r="E66" s="3">
         <v>2311300</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>2256800</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>2268900</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>1848000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>1533500</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>1533800</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>743100</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>694700</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>693900</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>693200</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>719500</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>692000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>658800</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>649300</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>690100</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>614800</v>
       </c>
     </row>
-    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3555,8 +3716,9 @@
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
-    </row>
-    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T67" s="3"/>
+    </row>
+    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3608,8 +3770,11 @@
       <c r="S68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3661,17 +3826,20 @@
       <c r="S69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
       <c r="D70" s="3">
+        <v>209900</v>
+      </c>
+      <c r="E70" s="3">
         <v>204100</v>
       </c>
-      <c r="E70" s="3">
-        <v>0</v>
-      </c>
       <c r="F70" s="3">
         <v>0</v>
       </c>
@@ -3714,8 +3882,11 @@
       <c r="S70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3767,61 +3938,67 @@
       <c r="S71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>1150700</v>
+      </c>
+      <c r="E72" s="3">
         <v>1184900</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>1255800</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>1408300</v>
-      </c>
-      <c r="G72" s="3">
-        <v>1375700</v>
       </c>
       <c r="H72" s="3">
         <v>1375700</v>
       </c>
       <c r="I72" s="3">
+        <v>1375700</v>
+      </c>
+      <c r="J72" s="3">
         <v>1355100</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>1384500</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>1383300</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>1369900</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>1354900</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>1345700</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>1301200</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>1288200</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>1261600</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>1238000</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>1217000</v>
       </c>
     </row>
-    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3873,8 +4050,11 @@
       <c r="S73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3926,8 +4106,11 @@
       <c r="S74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3979,61 +4162,67 @@
       <c r="S75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>322300</v>
+      </c>
+      <c r="E76" s="3">
         <v>351900</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>419000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>571700</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>533800</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>540300</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>542200</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>571100</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>613400</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>612800</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>594200</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>613500</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>583400</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>640500</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>627500</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>603200</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>589500</v>
       </c>
     </row>
-    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4085,119 +4274,128 @@
       <c r="S77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44103</v>
+      </c>
+      <c r="E80" s="2">
         <v>44012</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43921</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43830</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43739</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43648</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43557</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43466</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43375</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43284</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43193</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43102</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43011</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42920</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42829</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42738</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42640</v>
       </c>
     </row>
-    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-33200</v>
+      </c>
+      <c r="E81" s="3">
         <v>-70500</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-136200</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>48700</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>16100</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>35500</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>27000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>16200</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>28500</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>28400</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>26000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>57700</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>26400</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>38200</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>35000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>32400</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>34600</v>
       </c>
     </row>
-    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4217,61 +4415,65 @@
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
-    </row>
-    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T82" s="3"/>
+    </row>
+    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>22700</v>
+      </c>
+      <c r="E83" s="3">
         <v>22600</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>23600</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>23800</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>21300</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>21700</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>21400</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>24200</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>24100</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>23700</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>24000</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>23200</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>23000</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>23300</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>23200</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>23500</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>21600</v>
       </c>
     </row>
-    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4323,8 +4525,11 @@
       <c r="S84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4376,8 +4581,11 @@
       <c r="S85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4429,8 +4637,11 @@
       <c r="S86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4482,8 +4693,11 @@
       <c r="S87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4535,61 +4749,67 @@
       <c r="S88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>2900</v>
+      </c>
+      <c r="E89" s="3">
         <v>-2700</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-33000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>102600</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>32400</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>50300</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>33500</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>109200</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>41600</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>65600</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>74900</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>84600</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>40300</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>65800</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>48100</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>86000</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>58100</v>
       </c>
     </row>
-    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4609,61 +4829,65 @@
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
-    </row>
-    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T90" s="3"/>
+    </row>
+    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-8800</v>
+      </c>
+      <c r="E91" s="3">
         <v>-13600</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-15800</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-27100</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-17300</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-16000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-13400</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-24200</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-26800</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-21200</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-30700</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-47400</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-29700</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-24500</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-19500</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-45600</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>10400</v>
       </c>
     </row>
-    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4715,8 +4939,11 @@
       <c r="S92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4768,61 +4995,67 @@
       <c r="S93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-9000</v>
+      </c>
+      <c r="E94" s="3">
         <v>-13700</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-15900</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-290500</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-22000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-23100</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-27400</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-24500</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-39800</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-35100</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-31000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-57100</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-30000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-33700</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-19600</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-87600</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-30800</v>
       </c>
     </row>
-    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4842,8 +5075,9 @@
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
-    </row>
-    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T95" s="3"/>
+    </row>
+    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4851,52 +5085,55 @@
         <v>0</v>
       </c>
       <c r="E96" s="3">
+        <v>0</v>
+      </c>
+      <c r="F96" s="3">
         <v>-15800</v>
-      </c>
-      <c r="F96" s="3">
-        <v>-15700</v>
       </c>
       <c r="G96" s="3">
         <v>-15700</v>
       </c>
       <c r="H96" s="3">
+        <v>-15700</v>
+      </c>
+      <c r="I96" s="3">
         <v>-14700</v>
       </c>
-      <c r="I96" s="3">
+      <c r="J96" s="3">
         <v>-14600</v>
       </c>
-      <c r="J96" s="3">
+      <c r="K96" s="3">
         <v>-14800</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-14900</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-13400</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-13200</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-13300</v>
       </c>
-      <c r="O96" s="3">
+      <c r="P96" s="3">
         <v>-13500</v>
       </c>
-      <c r="P96" s="3">
+      <c r="Q96" s="3">
         <v>-11500</v>
       </c>
-      <c r="Q96" s="3">
+      <c r="R96" s="3">
         <v>-11700</v>
       </c>
-      <c r="R96" s="3">
+      <c r="S96" s="3">
         <v>-11300</v>
       </c>
-      <c r="S96" s="3">
+      <c r="T96" s="3">
         <v>-11500</v>
       </c>
     </row>
-    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4948,8 +5185,11 @@
       <c r="S97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5001,8 +5241,11 @@
       <c r="S98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5054,76 +5297,82 @@
       <c r="S99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-400</v>
+      </c>
+      <c r="E100" s="3">
         <v>185500</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>71700</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-59900</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>273200</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-27100</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-10200</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-70600</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-18500</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-25900</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-25200</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-41200</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-56800</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-31500</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-16700</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-10400</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-47700</v>
       </c>
     </row>
-    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>0</v>
+      </c>
+      <c r="E101" s="3">
         <v>100</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>-200</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>100</v>
       </c>
-      <c r="G101" s="3">
-        <v>0</v>
-      </c>
       <c r="H101" s="3">
         <v>0</v>
       </c>
@@ -5131,11 +5380,11 @@
         <v>0</v>
       </c>
       <c r="J101" s="3">
+        <v>0</v>
+      </c>
+      <c r="K101" s="3">
         <v>-100</v>
       </c>
-      <c r="K101" s="3">
-        <v>0</v>
-      </c>
       <c r="L101" s="3">
         <v>0</v>
       </c>
@@ -5143,10 +5392,10 @@
         <v>0</v>
       </c>
       <c r="N101" s="3">
+        <v>0</v>
+      </c>
+      <c r="O101" s="3">
         <v>-100</v>
-      </c>
-      <c r="O101" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="P101" s="3" t="s">
         <v>8</v>
@@ -5160,57 +5409,63 @@
       <c r="S101" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T101" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-6400</v>
+      </c>
+      <c r="E102" s="3">
         <v>169100</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>22600</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-247800</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>283600</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>100</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-4000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>13900</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-16700</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>4600</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>18800</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-13800</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-46500</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>600</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>11800</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-12000</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-13800</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/CAKE_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/CAKE_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="92">
   <si>
     <t>CAKE</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:T102"/>
+  <dimension ref="A5:U102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,250 +665,262 @@
     <col min="1" max="1" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="19" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="20" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44194</v>
+      </c>
+      <c r="E7" s="2">
         <v>44103</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44012</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43921</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43830</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43739</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43648</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43557</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43466</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43375</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43284</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43193</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43102</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43011</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42920</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42829</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42738</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42640</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>554600</v>
+      </c>
+      <c r="E8" s="3">
         <v>517700</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>295900</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>615100</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>694000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>586500</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>602600</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>599500</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>585200</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>575200</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>587300</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>584700</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>571800</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>555400</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>569900</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>563400</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>603100</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>560000</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>127200</v>
+      </c>
+      <c r="E9" s="3">
         <v>118100</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>72100</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>140900</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>158200</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>132900</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>134400</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>136200</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>134800</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>132200</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>131700</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>134200</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>134000</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>127500</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>128800</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>129100</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>140100</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>128800</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>427400</v>
+      </c>
+      <c r="E10" s="3">
         <v>399600</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>223800</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>474200</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>535800</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>453600</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>468200</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>463300</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>450400</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>443000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>455600</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>450500</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>437800</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>427900</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>441100</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>434300</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>463000</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>431200</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -929,8 +941,9 @@
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U11" s="3"/>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -985,8 +998,11 @@
       <c r="T12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1041,120 +1057,129 @@
       <c r="T13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>15100</v>
+      </c>
+      <c r="E14" s="3">
         <v>11900</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>2500</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>188700</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>23500</v>
       </c>
-      <c r="H14" s="3">
-        <v>0</v>
-      </c>
       <c r="I14" s="3">
         <v>0</v>
       </c>
-      <c r="J14" s="3" t="s">
+      <c r="J14" s="3">
+        <v>0</v>
+      </c>
+      <c r="K14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>15000</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>300</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>2600</v>
       </c>
-      <c r="N14" s="3" t="s">
+      <c r="O14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>9100</v>
       </c>
-      <c r="P14" s="3">
-        <v>0</v>
-      </c>
       <c r="Q14" s="3">
+        <v>0</v>
+      </c>
+      <c r="R14" s="3">
         <v>400</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>800</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>100</v>
       </c>
-      <c r="T14" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>22600</v>
+      </c>
+      <c r="E15" s="3">
         <v>22700</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>22600</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>23600</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>23800</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>21300</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>21700</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>21400</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>24200</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>24100</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>23700</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>24000</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>23200</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>23000</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>23300</v>
       </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3">
         <v>23200</v>
       </c>
-      <c r="S15" s="3">
+      <c r="T15" s="3">
         <v>23500</v>
       </c>
-      <c r="T15" s="3">
+      <c r="U15" s="3">
         <v>21600</v>
       </c>
     </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1172,120 +1197,127 @@
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
-    </row>
-    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U16" s="3"/>
+    </row>
+    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>593400</v>
+      </c>
+      <c r="E17" s="3">
         <v>552600</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>379600</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>805200</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>687600</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>559600</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>562500</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>569300</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>565800</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>541700</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>552800</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>553100</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>547100</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>521100</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>519700</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>519900</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>556000</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>510000</v>
       </c>
     </row>
-    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-38800</v>
+      </c>
+      <c r="E18" s="3">
         <v>-34900</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-83700</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-190100</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>6400</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>26900</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>40100</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>30200</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>19400</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>33500</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>34500</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>31600</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>24700</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>34300</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>50200</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>43500</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>47100</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>50000</v>
       </c>
     </row>
-    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1306,120 +1338,127 @@
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
-    </row>
-    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U19" s="3"/>
+    </row>
+    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="E20" s="3">
         <v>-2900</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-2600</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-1500</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>50200</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-10300</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-1600</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-1500</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-3900</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-3300</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-2900</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-1500</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-1900</v>
-      </c>
-      <c r="P20" s="3">
-        <v>-1600</v>
       </c>
       <c r="Q20" s="3">
         <v>-1600</v>
       </c>
       <c r="R20" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="S20" s="3">
         <v>-1200</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-2200</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-2500</v>
       </c>
     </row>
-    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-17800</v>
+      </c>
+      <c r="E21" s="3">
         <v>-15100</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-63700</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-168000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>80300</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>38000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>60100</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>50100</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>39700</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>54300</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>55400</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>54000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>46000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>55700</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>71900</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>65500</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>68300</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>69200</v>
       </c>
     </row>
-    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1474,120 +1513,129 @@
       <c r="T22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-40400</v>
+      </c>
+      <c r="E23" s="3">
         <v>-37800</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-86300</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-191600</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>56600</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>16600</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>38400</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>28700</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>15500</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>30200</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>31600</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>30000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>22800</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>32700</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>48600</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>42300</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>44900</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>47600</v>
       </c>
     </row>
-    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>-8100</v>
+      </c>
+      <c r="E24" s="3">
         <v>-9400</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>-29700</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>-55400</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>7900</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>500</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>2900</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>1700</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>-700</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>1700</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>3300</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>4000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>3600</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>6300</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>10500</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>7300</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>12500</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>13000</v>
       </c>
     </row>
-    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1642,120 +1690,129 @@
       <c r="T25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-32300</v>
+      </c>
+      <c r="E26" s="3">
         <v>-28300</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-56500</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-136200</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>48700</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>16100</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>35500</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>27000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>16200</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>28500</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>28400</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>26000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>19200</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>26400</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>38200</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>35000</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>32400</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>34600</v>
       </c>
     </row>
-    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-37300</v>
+      </c>
+      <c r="E27" s="3">
         <v>-33200</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-70500</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-136200</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>48700</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>16100</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>35500</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>27000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>16200</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>28500</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>28400</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>26000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>19200</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>26400</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>38200</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>35000</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>32400</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>34600</v>
       </c>
     </row>
-    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1810,8 +1867,11 @@
       <c r="T28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1848,11 +1908,11 @@
       <c r="N29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O29" s="3">
+      <c r="O29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P29" s="3">
         <v>38500</v>
-      </c>
-      <c r="P29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="Q29" s="3" t="s">
         <v>8</v>
@@ -1866,8 +1926,11 @@
       <c r="T29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1922,8 +1985,11 @@
       <c r="T30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1978,120 +2044,129 @@
       <c r="T31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>1600</v>
+      </c>
+      <c r="E32" s="3">
         <v>2900</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>2600</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>1500</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-50200</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>10300</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>1600</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>1500</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>3900</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>3300</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>2900</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>1500</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>1900</v>
-      </c>
-      <c r="P32" s="3">
-        <v>1600</v>
       </c>
       <c r="Q32" s="3">
         <v>1600</v>
       </c>
       <c r="R32" s="3">
+        <v>1600</v>
+      </c>
+      <c r="S32" s="3">
         <v>1200</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>2200</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>2500</v>
       </c>
     </row>
-    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-37300</v>
+      </c>
+      <c r="E33" s="3">
         <v>-33200</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-70500</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-136200</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>48700</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>16100</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>35500</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>27000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>16200</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>28500</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>28400</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>26000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>57700</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>26400</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>38200</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>35000</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>32400</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>34600</v>
       </c>
     </row>
-    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2146,125 +2221,134 @@
       <c r="T34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-37300</v>
+      </c>
+      <c r="E35" s="3">
         <v>-33200</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-70500</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-136200</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>48700</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>16100</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>35500</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>27000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>16200</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>28500</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>28400</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>26000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>57700</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>26400</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>38200</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>35000</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>32400</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>34600</v>
       </c>
     </row>
-    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44194</v>
+      </c>
+      <c r="E38" s="2">
         <v>44103</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44012</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43921</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43830</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43739</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43648</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43557</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43466</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43375</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43284</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43193</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43102</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43011</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42920</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42829</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42738</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42640</v>
       </c>
     </row>
-    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2285,8 +2369,9 @@
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
-    </row>
-    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U39" s="3"/>
+    </row>
+    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2307,64 +2392,68 @@
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
-    </row>
-    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U40" s="3"/>
+    </row>
+    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>154100</v>
+      </c>
+      <c r="E41" s="3">
         <v>243800</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>250200</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>81000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>58400</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>306300</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>22600</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>22500</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>26600</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>12600</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>29400</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>24800</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>6000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>19800</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>66300</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>65700</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>53800</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>65800</v>
       </c>
     </row>
-    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2419,232 +2508,247 @@
       <c r="T42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>130600</v>
+      </c>
+      <c r="E43" s="3">
         <v>113100</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>145900</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>120000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>118100</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>74500</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>70100</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>67500</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>89100</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>54100</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>52100</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>44100</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>102400</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>52100</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>53000</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>44800</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>80200</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>45200</v>
       </c>
     </row>
-    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>39300</v>
+      </c>
+      <c r="E44" s="3">
         <v>37700</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>40500</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>47800</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>47200</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>47800</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>46000</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>42000</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>38900</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>39800</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>34700</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>41000</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>42600</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>44200</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>40200</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>38500</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>34900</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>35500</v>
       </c>
     </row>
-    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>17400</v>
+      </c>
+      <c r="E45" s="3">
         <v>16400</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>18100</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>21800</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>20800</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>20600</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>19400</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>25500</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>40600</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>48300</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>52900</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>54000</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>57700</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>48500</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>50900</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>52600</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>52400</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>36300</v>
       </c>
     </row>
-    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>341400</v>
+      </c>
+      <c r="E46" s="3">
         <v>411000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>454600</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>270700</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>244500</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>449100</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>158200</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>157500</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>195200</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>154800</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>169100</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>163900</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>208600</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>164600</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>210500</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>201600</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>221400</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>182900</v>
       </c>
     </row>
-    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2657,23 +2761,23 @@
       <c r="F47" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G47" s="3">
-        <v>0</v>
+      <c r="G47" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="H47" s="3">
+        <v>0</v>
+      </c>
+      <c r="I47" s="3">
         <v>91800</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>97700</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>81300</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>79800</v>
-      </c>
-      <c r="L47" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="M47" s="3" t="s">
         <v>8</v>
@@ -2690,8 +2794,8 @@
       <c r="Q47" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="R47" s="3">
-        <v>0</v>
+      <c r="R47" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="S47" s="3">
         <v>0</v>
@@ -2699,120 +2803,129 @@
       <c r="T47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>2025200</v>
+      </c>
+      <c r="E48" s="3">
         <v>2056900</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>2074000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>2075700</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>2072600</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>1744100</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>1722200</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>1732600</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>913300</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>940100</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>936500</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>935300</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>935000</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>933500</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>913400</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>910600</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>910100</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>902600</v>
       </c>
     </row>
-    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>253200</v>
+      </c>
+      <c r="E49" s="3">
         <v>253600</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>254300</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>254400</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>437200</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>20300</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>20200</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>20100</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>26200</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>26300</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>24500</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>24200</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>24100</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>23500</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>23400</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>23200</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>23100</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>22800</v>
       </c>
     </row>
-    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2867,8 +2980,11 @@
       <c r="T50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2923,64 +3039,70 @@
       <c r="T51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>127400</v>
+      </c>
+      <c r="E52" s="3">
         <v>106600</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>84300</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>75000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>86300</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>76400</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>75500</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>84500</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>99700</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>186800</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>176600</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>164000</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>165300</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>153700</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>152100</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>141500</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>138700</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>96100</v>
       </c>
     </row>
-    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3035,64 +3157,70 @@
       <c r="T53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>2747100</v>
+      </c>
+      <c r="E54" s="3">
         <v>2828100</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>2867300</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>2675800</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>2840600</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>2381800</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>2073800</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>2076100</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>1314100</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>1308100</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>1306600</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>1287300</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>1333100</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>1275300</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>1299300</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>1276800</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>1293300</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>1204400</v>
       </c>
     </row>
-    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3113,8 +3241,9 @@
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
-    </row>
-    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U55" s="3"/>
+    </row>
+    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3135,64 +3264,68 @@
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
-    </row>
-    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U56" s="3"/>
+    </row>
+    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>58400</v>
+      </c>
+      <c r="E57" s="3">
         <v>61500</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>57500</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>55900</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>61900</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>36100</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>36000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>36400</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>49100</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>39100</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>38300</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>38800</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>51000</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>46600</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>46200</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>34900</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>41600</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>38900</v>
       </c>
     </row>
-    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3247,165 +3380,174 @@
       <c r="T58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>527600</v>
+      </c>
+      <c r="E59" s="3">
         <v>478800</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>475100</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>451200</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>552600</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>397700</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>401000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>410200</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>367400</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>304400</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>316300</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>305500</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>347000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>276200</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>283700</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>288200</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>335000</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>265200</v>
       </c>
     </row>
-    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>586100</v>
+      </c>
+      <c r="E60" s="3">
         <v>540400</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>532700</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>507100</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>614600</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>433800</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>437000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>446600</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>416500</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>343500</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>354600</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>344300</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>398000</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>322800</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>329900</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>323100</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>376500</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>304100</v>
       </c>
     </row>
-    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>376000</v>
+        <v>280000</v>
       </c>
       <c r="E61" s="3">
         <v>376000</v>
       </c>
       <c r="F61" s="3">
+        <v>376000</v>
+      </c>
+      <c r="G61" s="3">
         <v>380000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>290000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>335000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>35000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>20000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>10000</v>
-      </c>
-      <c r="L61" s="3">
-        <v>20000</v>
       </c>
       <c r="M61" s="3">
         <v>20000</v>
       </c>
       <c r="N61" s="3">
+        <v>20000</v>
+      </c>
+      <c r="O61" s="3">
         <v>30000</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>10000</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>30000</v>
       </c>
-      <c r="Q61" s="3">
-        <v>0</v>
-      </c>
       <c r="R61" s="3">
         <v>0</v>
       </c>
@@ -3415,64 +3557,70 @@
       <c r="T61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>1374000</v>
+      </c>
+      <c r="E62" s="3">
         <v>1379500</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>1402600</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>1369700</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>1364300</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>1079200</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>1061500</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>1067200</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>316600</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>331100</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>319300</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>318800</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>311600</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>339200</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>328900</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>326200</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>313600</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>310700</v>
       </c>
     </row>
-    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3527,8 +3675,11 @@
       <c r="T63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3583,8 +3734,11 @@
       <c r="T64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3639,64 +3793,70 @@
       <c r="T65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>2240100</v>
+      </c>
+      <c r="E66" s="3">
         <v>2295900</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>2311300</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>2256800</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>2268900</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>1848000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>1533500</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>1533800</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>743100</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>694700</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>693900</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>693200</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>719500</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>692000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>658800</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>649300</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>690100</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>614800</v>
       </c>
     </row>
-    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3717,8 +3877,9 @@
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
-    </row>
-    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U67" s="3"/>
+    </row>
+    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3773,8 +3934,11 @@
       <c r="T68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3829,20 +3993,23 @@
       <c r="T69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
       <c r="D70" s="3">
+        <v>218200</v>
+      </c>
+      <c r="E70" s="3">
         <v>209900</v>
       </c>
-      <c r="E70" s="3">
+      <c r="F70" s="3">
         <v>204100</v>
       </c>
-      <c r="F70" s="3">
-        <v>0</v>
-      </c>
       <c r="G70" s="3">
         <v>0</v>
       </c>
@@ -3885,8 +4052,11 @@
       <c r="T70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3941,64 +4111,70 @@
       <c r="T71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>1110100</v>
+      </c>
+      <c r="E72" s="3">
         <v>1150700</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>1184900</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>1255800</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>1408300</v>
-      </c>
-      <c r="H72" s="3">
-        <v>1375700</v>
       </c>
       <c r="I72" s="3">
         <v>1375700</v>
       </c>
       <c r="J72" s="3">
+        <v>1375700</v>
+      </c>
+      <c r="K72" s="3">
         <v>1355100</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>1384500</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>1383300</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>1369900</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>1354900</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>1345700</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>1301200</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>1288200</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>1261600</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>1238000</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>1217000</v>
       </c>
     </row>
-    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4053,8 +4229,11 @@
       <c r="T73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4109,8 +4288,11 @@
       <c r="T74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4165,64 +4347,70 @@
       <c r="T75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>288700</v>
+      </c>
+      <c r="E76" s="3">
         <v>322300</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>351900</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>419000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>571700</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>533800</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>540300</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>542200</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>571100</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>613400</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>612800</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>594200</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>613500</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>583400</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>640500</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>627500</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>603200</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>589500</v>
       </c>
     </row>
-    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4277,125 +4465,134 @@
       <c r="T77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44194</v>
+      </c>
+      <c r="E80" s="2">
         <v>44103</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44012</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43921</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43830</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43739</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43648</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43557</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43466</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43375</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43284</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43193</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43102</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43011</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42920</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42829</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42738</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42640</v>
       </c>
     </row>
-    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-37300</v>
+      </c>
+      <c r="E81" s="3">
         <v>-33200</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-70500</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-136200</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>48700</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>16100</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>35500</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>27000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>16200</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>28500</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>28400</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>26000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>57700</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>26400</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>38200</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>35000</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>32400</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>34600</v>
       </c>
     </row>
-    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4416,64 +4613,68 @@
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
-    </row>
-    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U82" s="3"/>
+    </row>
+    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>22600</v>
+      </c>
+      <c r="E83" s="3">
         <v>22700</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>22600</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>23600</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>23800</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>21300</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>21700</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>21400</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>24200</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>24100</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>23700</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>24000</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>23200</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>23000</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>23300</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>23200</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>23500</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>21600</v>
       </c>
     </row>
-    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4528,8 +4729,11 @@
       <c r="T84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4584,8 +4788,11 @@
       <c r="T85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4640,8 +4847,11 @@
       <c r="T86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4696,8 +4906,11 @@
       <c r="T87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4752,64 +4965,70 @@
       <c r="T88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>35600</v>
+      </c>
+      <c r="E89" s="3">
         <v>2900</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-2700</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-33000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>102600</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>32400</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>50300</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>33500</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>109200</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>41600</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>65600</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>74900</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>84600</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>40300</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>65800</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>48100</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>86000</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>58100</v>
       </c>
     </row>
-    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4830,64 +5049,68 @@
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
-    </row>
-    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U90" s="3"/>
+    </row>
+    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-12100</v>
+      </c>
+      <c r="E91" s="3">
         <v>-8800</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-13600</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-15800</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-27100</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-17300</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-16000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-13400</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-24200</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-26800</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-21200</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-30700</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-47400</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-29700</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-24500</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-19500</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-45600</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>10400</v>
       </c>
     </row>
-    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4942,8 +5165,11 @@
       <c r="T92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4998,64 +5224,70 @@
       <c r="T93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-12300</v>
+      </c>
+      <c r="E94" s="3">
         <v>-9000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-13700</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-15900</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-290500</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-22000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-23100</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-27400</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-24500</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-39800</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-35100</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-31000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-57100</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-30000</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-33700</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-19600</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-87600</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-30800</v>
       </c>
     </row>
-    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5076,8 +5308,9 @@
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
-    </row>
-    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U95" s="3"/>
+    </row>
+    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5088,52 +5321,55 @@
         <v>0</v>
       </c>
       <c r="F96" s="3">
+        <v>0</v>
+      </c>
+      <c r="G96" s="3">
         <v>-15800</v>
-      </c>
-      <c r="G96" s="3">
-        <v>-15700</v>
       </c>
       <c r="H96" s="3">
         <v>-15700</v>
       </c>
       <c r="I96" s="3">
+        <v>-15700</v>
+      </c>
+      <c r="J96" s="3">
         <v>-14700</v>
       </c>
-      <c r="J96" s="3">
+      <c r="K96" s="3">
         <v>-14600</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-14800</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-14900</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-13400</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-13200</v>
       </c>
-      <c r="O96" s="3">
+      <c r="P96" s="3">
         <v>-13300</v>
       </c>
-      <c r="P96" s="3">
+      <c r="Q96" s="3">
         <v>-13500</v>
       </c>
-      <c r="Q96" s="3">
+      <c r="R96" s="3">
         <v>-11500</v>
       </c>
-      <c r="R96" s="3">
+      <c r="S96" s="3">
         <v>-11700</v>
       </c>
-      <c r="S96" s="3">
+      <c r="T96" s="3">
         <v>-11300</v>
       </c>
-      <c r="T96" s="3">
+      <c r="U96" s="3">
         <v>-11500</v>
       </c>
     </row>
-    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5188,8 +5424,11 @@
       <c r="T97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5244,8 +5483,11 @@
       <c r="T98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5300,82 +5542,88 @@
       <c r="T99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-113100</v>
+      </c>
+      <c r="E100" s="3">
         <v>-400</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>185500</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>71700</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-59900</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>273200</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-27100</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-10200</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-70600</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-18500</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-25900</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-25200</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-41200</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-56800</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-31500</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-16700</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-10400</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-47700</v>
       </c>
     </row>
-    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E101" s="3">
+        <v>0</v>
+      </c>
+      <c r="F101" s="3">
         <v>100</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-200</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>100</v>
       </c>
-      <c r="H101" s="3">
-        <v>0</v>
-      </c>
       <c r="I101" s="3">
         <v>0</v>
       </c>
@@ -5383,11 +5631,11 @@
         <v>0</v>
       </c>
       <c r="K101" s="3">
+        <v>0</v>
+      </c>
+      <c r="L101" s="3">
         <v>-100</v>
       </c>
-      <c r="L101" s="3">
-        <v>0</v>
-      </c>
       <c r="M101" s="3">
         <v>0</v>
       </c>
@@ -5395,10 +5643,10 @@
         <v>0</v>
       </c>
       <c r="O101" s="3">
+        <v>0</v>
+      </c>
+      <c r="P101" s="3">
         <v>-100</v>
-      </c>
-      <c r="P101" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="Q101" s="3" t="s">
         <v>8</v>
@@ -5412,60 +5660,66 @@
       <c r="T101" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U101" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-89700</v>
+      </c>
+      <c r="E102" s="3">
         <v>-6400</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>169100</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>22600</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-247800</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>283600</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>100</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-4000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>13900</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-16700</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>4600</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>18800</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-13800</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-46500</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>600</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>11800</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-12000</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-13800</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/CAKE_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/CAKE_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="92">
   <si>
     <t>CAKE</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:U102"/>
+  <dimension ref="A5:V102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,262 +665,275 @@
     <col min="1" max="1" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="20" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="21" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44285</v>
+      </c>
+      <c r="E7" s="2">
         <v>44194</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44103</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44012</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43921</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43830</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43739</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43648</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43557</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43466</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43375</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43284</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43193</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43102</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43011</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42920</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42829</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42738</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42640</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>627400</v>
+      </c>
+      <c r="E8" s="3">
         <v>554600</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>517700</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>295900</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>615100</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>694000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>586500</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>602600</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>599500</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>585200</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>575200</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>587300</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>584700</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>571800</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>555400</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>569900</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>563400</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>603100</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>560000</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>135900</v>
+      </c>
+      <c r="E9" s="3">
         <v>127200</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>118100</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>72100</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>140900</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>158200</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>132900</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>134400</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>136200</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>134800</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>132200</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>131700</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>134200</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>134000</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>127500</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>128800</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>129100</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>140100</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>128800</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>491500</v>
+      </c>
+      <c r="E10" s="3">
         <v>427400</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>399600</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>223800</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>474200</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>535800</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>453600</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>468200</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>463300</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>450400</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>443000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>455600</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>450500</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>437800</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>427900</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>441100</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>434300</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>463000</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>431200</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -942,8 +955,9 @@
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V11" s="3"/>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1001,8 +1015,11 @@
       <c r="U12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1060,126 +1077,135 @@
       <c r="U13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>6000</v>
+      </c>
+      <c r="E14" s="3">
         <v>15100</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>11900</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>2500</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>188700</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>23500</v>
       </c>
-      <c r="I14" s="3">
-        <v>0</v>
-      </c>
       <c r="J14" s="3">
         <v>0</v>
       </c>
-      <c r="K14" s="3" t="s">
+      <c r="K14" s="3">
+        <v>0</v>
+      </c>
+      <c r="L14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>15000</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>300</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>2600</v>
       </c>
-      <c r="O14" s="3" t="s">
+      <c r="P14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>9100</v>
       </c>
-      <c r="Q14" s="3">
-        <v>0</v>
-      </c>
       <c r="R14" s="3">
+        <v>0</v>
+      </c>
+      <c r="S14" s="3">
         <v>400</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>800</v>
       </c>
-      <c r="T14" s="3">
+      <c r="U14" s="3">
         <v>100</v>
       </c>
-      <c r="U14" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>22000</v>
+      </c>
+      <c r="E15" s="3">
         <v>22600</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>22700</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>22600</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>23600</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>23800</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>21300</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>21700</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>21400</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>24200</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>24100</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>23700</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>24000</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>23200</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>23000</v>
       </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3">
         <v>23300</v>
       </c>
-      <c r="S15" s="3">
+      <c r="T15" s="3">
         <v>23200</v>
       </c>
-      <c r="T15" s="3">
+      <c r="U15" s="3">
         <v>23500</v>
       </c>
-      <c r="U15" s="3">
+      <c r="V15" s="3">
         <v>21600</v>
       </c>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1198,126 +1224,133 @@
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
-    </row>
-    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V16" s="3"/>
+    </row>
+    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>618600</v>
+      </c>
+      <c r="E17" s="3">
         <v>593400</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>552600</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>379600</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>805200</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>687600</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>559600</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>562500</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>569300</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>565800</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>541700</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>552800</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>553100</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>547100</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>521100</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>519700</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>519900</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>556000</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>510000</v>
       </c>
     </row>
-    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>8800</v>
+      </c>
+      <c r="E18" s="3">
         <v>-38800</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-34900</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-83700</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-190100</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>6400</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>26900</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>40100</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>30200</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>19400</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>33500</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>34500</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>31600</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>24700</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>34300</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>50200</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>43500</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>47100</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>50000</v>
       </c>
     </row>
-    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1339,126 +1372,133 @@
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
-    </row>
-    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V19" s="3"/>
+    </row>
+    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-2700</v>
+      </c>
+      <c r="E20" s="3">
         <v>-1600</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-2900</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-2600</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-1500</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>50200</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-10300</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-1600</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-1500</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-3900</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-3300</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-2900</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-1500</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-1900</v>
-      </c>
-      <c r="Q20" s="3">
-        <v>-1600</v>
       </c>
       <c r="R20" s="3">
         <v>-1600</v>
       </c>
       <c r="S20" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="T20" s="3">
         <v>-1200</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-2200</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>-2500</v>
       </c>
     </row>
-    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>28200</v>
+      </c>
+      <c r="E21" s="3">
         <v>-17800</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-15100</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-63700</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-168000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>80300</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>38000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>60100</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>50100</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>39700</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>54300</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>55400</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>54000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>46000</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>55700</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>71900</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>65500</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>68300</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>69200</v>
       </c>
     </row>
-    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1516,126 +1556,135 @@
       <c r="U22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>6200</v>
+      </c>
+      <c r="E23" s="3">
         <v>-40400</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-37800</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-86300</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-191600</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>56600</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>16600</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>38400</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>28700</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>15500</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>30200</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>31600</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>30000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>22800</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>32700</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>48600</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>42300</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>44900</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>47600</v>
       </c>
     </row>
-    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>2300</v>
+      </c>
+      <c r="E24" s="3">
         <v>-8100</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>-9400</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>-29700</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>-55400</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>7900</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>500</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>2900</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>1700</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>-700</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>1700</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>3300</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>4000</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>3600</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>6300</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>10500</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>7300</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>12500</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>13000</v>
       </c>
     </row>
-    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1693,126 +1742,135 @@
       <c r="U25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>3900</v>
+      </c>
+      <c r="E26" s="3">
         <v>-32300</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-28300</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-56500</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-136200</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>48700</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>16100</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>35500</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>27000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>16200</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>28500</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>28400</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>26000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>19200</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>26400</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>38200</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>35000</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>32400</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>34600</v>
       </c>
     </row>
-    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="E27" s="3">
         <v>-37300</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-33200</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-70500</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-136200</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>48700</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>16100</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>35500</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>27000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>16200</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>28500</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>28400</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>26000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>19200</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>26400</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>38200</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>35000</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>32400</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>34600</v>
       </c>
     </row>
-    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1870,31 +1928,34 @@
       <c r="U28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J29" s="3" t="s">
-        <v>8</v>
+      <c r="D29" s="3">
+        <v>0</v>
+      </c>
+      <c r="E29" s="3">
+        <v>0</v>
+      </c>
+      <c r="F29" s="3">
+        <v>0</v>
+      </c>
+      <c r="G29" s="3">
+        <v>0</v>
+      </c>
+      <c r="H29" s="3">
+        <v>0</v>
+      </c>
+      <c r="I29" s="3">
+        <v>0</v>
+      </c>
+      <c r="J29" s="3">
+        <v>0</v>
       </c>
       <c r="K29" s="3" t="s">
         <v>8</v>
@@ -1911,11 +1972,11 @@
       <c r="O29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="P29" s="3">
+      <c r="P29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q29" s="3">
         <v>38500</v>
-      </c>
-      <c r="Q29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="R29" s="3" t="s">
         <v>8</v>
@@ -1929,8 +1990,11 @@
       <c r="U29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1988,8 +2052,11 @@
       <c r="U30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2047,126 +2114,135 @@
       <c r="U31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>2700</v>
+      </c>
+      <c r="E32" s="3">
         <v>1600</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>2900</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>2600</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>1500</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-50200</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>10300</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>1600</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>1500</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>3900</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>3300</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>2900</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>1500</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>1900</v>
-      </c>
-      <c r="Q32" s="3">
-        <v>1600</v>
       </c>
       <c r="R32" s="3">
         <v>1600</v>
       </c>
       <c r="S32" s="3">
+        <v>1600</v>
+      </c>
+      <c r="T32" s="3">
         <v>1200</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>2200</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>2500</v>
       </c>
     </row>
-    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="E33" s="3">
         <v>-37300</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-33200</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-70500</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-136200</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>48700</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>16100</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>35500</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>27000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>16200</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>28500</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>28400</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>26000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>57700</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>26400</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>38200</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>35000</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>32400</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>34600</v>
       </c>
     </row>
-    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2224,131 +2300,140 @@
       <c r="U34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="E35" s="3">
         <v>-37300</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-33200</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-70500</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-136200</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>48700</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>16100</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>35500</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>27000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>16200</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>28500</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>28400</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>26000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>57700</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>26400</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>38200</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>35000</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>32400</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>34600</v>
       </c>
     </row>
-    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44285</v>
+      </c>
+      <c r="E38" s="2">
         <v>44194</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44103</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44012</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43921</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43830</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43739</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43648</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43557</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43466</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43375</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43284</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43193</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43102</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43011</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42920</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42829</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42738</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42640</v>
       </c>
     </row>
-    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2370,8 +2455,9 @@
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
-    </row>
-    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V39" s="3"/>
+    </row>
+    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2393,67 +2479,71 @@
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
-    </row>
-    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V40" s="3"/>
+    </row>
+    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>181300</v>
+      </c>
+      <c r="E41" s="3">
         <v>154100</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>243800</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>250200</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>81000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>58400</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>306300</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>22600</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>22500</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>26600</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>12600</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>29400</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>24800</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>6000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>19800</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>66300</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>65700</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>53800</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>65800</v>
       </c>
     </row>
-    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2511,244 +2601,259 @@
       <c r="U42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>109000</v>
+      </c>
+      <c r="E43" s="3">
         <v>130600</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>113100</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>145900</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>120000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>118100</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>74500</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>70100</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>67500</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>89100</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>54100</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>52100</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>44100</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>102400</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>52100</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>53000</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>44800</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>80200</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>45200</v>
       </c>
     </row>
-    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>39000</v>
+      </c>
+      <c r="E44" s="3">
         <v>39300</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>37700</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>40500</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>47800</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>47200</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>47800</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>46000</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>42000</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>38900</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>39800</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>34700</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>41000</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>42600</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>44200</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>40200</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>38500</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>34900</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>35500</v>
       </c>
     </row>
-    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>14500</v>
+      </c>
+      <c r="E45" s="3">
         <v>17400</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>16400</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>18100</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>21800</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>20800</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>20600</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>19400</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>25500</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>40600</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>48300</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>52900</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>54000</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>57700</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>48500</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>50900</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>52600</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>52400</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>36300</v>
       </c>
     </row>
-    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>343800</v>
+      </c>
+      <c r="E46" s="3">
         <v>341400</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>411000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>454600</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>270700</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>244500</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>449100</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>158200</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>157500</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>195200</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>154800</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>169100</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>163900</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>208600</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>164600</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>210500</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>201600</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>221400</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>182900</v>
       </c>
     </row>
-    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2764,23 +2869,23 @@
       <c r="G47" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H47" s="3">
-        <v>0</v>
+      <c r="H47" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="I47" s="3">
+        <v>0</v>
+      </c>
+      <c r="J47" s="3">
         <v>91800</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>97700</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>81300</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>79800</v>
-      </c>
-      <c r="M47" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="N47" s="3" t="s">
         <v>8</v>
@@ -2797,8 +2902,8 @@
       <c r="R47" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="S47" s="3">
-        <v>0</v>
+      <c r="S47" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="T47" s="3">
         <v>0</v>
@@ -2806,67 +2911,73 @@
       <c r="U47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>2006600</v>
+      </c>
+      <c r="E48" s="3">
         <v>2025200</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>2056900</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>2074000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>2075700</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>2072600</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>1744100</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>1722200</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>1732600</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>913300</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>940100</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>936500</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>935300</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>935000</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>933500</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>913400</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>910600</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>910100</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>902600</v>
       </c>
     </row>
-    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2874,58 +2985,61 @@
         <v>253200</v>
       </c>
       <c r="E49" s="3">
+        <v>253200</v>
+      </c>
+      <c r="F49" s="3">
         <v>253600</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>254300</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>254400</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>437200</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>20300</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>20200</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>20100</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>26200</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>26300</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>24500</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>24200</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>24100</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>23500</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>23400</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>23200</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>23100</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>22800</v>
       </c>
     </row>
-    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2983,8 +3097,11 @@
       <c r="U50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3042,67 +3159,73 @@
       <c r="U51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>131900</v>
+      </c>
+      <c r="E52" s="3">
         <v>127400</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>106600</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>84300</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>75000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>86300</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>76400</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>75500</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>84500</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>99700</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>186800</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>176600</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>164000</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>165300</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>153700</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>152100</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>141500</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>138700</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>96100</v>
       </c>
     </row>
-    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3160,67 +3283,73 @@
       <c r="U53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>2735400</v>
+      </c>
+      <c r="E54" s="3">
         <v>2747100</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>2828100</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>2867300</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>2675800</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>2840600</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>2381800</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>2073800</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>2076100</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>1314100</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>1308100</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>1306600</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>1287300</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>1333100</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>1275300</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>1299300</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>1276800</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>1293300</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>1204400</v>
       </c>
     </row>
-    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3242,8 +3371,9 @@
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
-    </row>
-    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V55" s="3"/>
+    </row>
+    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3265,67 +3395,71 @@
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
-    </row>
-    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V56" s="3"/>
+    </row>
+    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>56000</v>
+      </c>
+      <c r="E57" s="3">
         <v>58400</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>61500</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>57500</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>55900</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>61900</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>36100</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>36000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>36400</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>49100</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>39100</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>38300</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>38800</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>51000</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>46600</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>46200</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>34900</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>41600</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>38900</v>
       </c>
     </row>
-    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3383,126 +3517,135 @@
       <c r="U58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>501900</v>
+      </c>
+      <c r="E59" s="3">
         <v>527600</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>478800</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>475100</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>451200</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>552600</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>397700</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>401000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>410200</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>367400</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>304400</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>316300</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>305500</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>347000</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>276200</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>283700</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>288200</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>335000</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>265200</v>
       </c>
     </row>
-    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>558000</v>
+      </c>
+      <c r="E60" s="3">
         <v>586100</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>540400</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>532700</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>507100</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>614600</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>433800</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>437000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>446600</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>416500</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>343500</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>354600</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>344300</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>398000</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>322800</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>329900</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>323100</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>376500</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>304100</v>
       </c>
     </row>
-    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3510,47 +3653,47 @@
         <v>280000</v>
       </c>
       <c r="E61" s="3">
-        <v>376000</v>
+        <v>280000</v>
       </c>
       <c r="F61" s="3">
         <v>376000</v>
       </c>
       <c r="G61" s="3">
+        <v>376000</v>
+      </c>
+      <c r="H61" s="3">
         <v>380000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>290000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>335000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>35000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>20000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>10000</v>
-      </c>
-      <c r="M61" s="3">
-        <v>20000</v>
       </c>
       <c r="N61" s="3">
         <v>20000</v>
       </c>
       <c r="O61" s="3">
+        <v>20000</v>
+      </c>
+      <c r="P61" s="3">
         <v>30000</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>10000</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>30000</v>
       </c>
-      <c r="R61" s="3">
-        <v>0</v>
-      </c>
       <c r="S61" s="3">
         <v>0</v>
       </c>
@@ -3560,67 +3703,73 @@
       <c r="U61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>1367500</v>
+      </c>
+      <c r="E62" s="3">
         <v>1374000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>1379500</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>1402600</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>1369700</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>1364300</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>1079200</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>1061500</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>1067200</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>316600</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>331100</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>319300</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>318800</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>311600</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>339200</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>328900</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>326200</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>313600</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>310700</v>
       </c>
     </row>
-    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3678,8 +3827,11 @@
       <c r="U63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3737,8 +3889,11 @@
       <c r="U64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3796,67 +3951,73 @@
       <c r="U65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>2205400</v>
+      </c>
+      <c r="E66" s="3">
         <v>2240100</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>2295900</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>2311300</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>2256800</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>2268900</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>1848000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>1533500</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>1533800</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>743100</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>694700</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>693900</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>693200</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>719500</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>692000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>658800</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>649300</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>690100</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>614800</v>
       </c>
     </row>
-    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3878,8 +4039,9 @@
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
-    </row>
-    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V67" s="3"/>
+    </row>
+    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3937,8 +4099,11 @@
       <c r="U68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3996,23 +4161,26 @@
       <c r="U69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
       <c r="D70" s="3">
+        <v>213500</v>
+      </c>
+      <c r="E70" s="3">
         <v>218200</v>
       </c>
-      <c r="E70" s="3">
+      <c r="F70" s="3">
         <v>209900</v>
       </c>
-      <c r="F70" s="3">
+      <c r="G70" s="3">
         <v>204100</v>
       </c>
-      <c r="G70" s="3">
-        <v>0</v>
-      </c>
       <c r="H70" s="3">
         <v>0</v>
       </c>
@@ -4055,8 +4223,11 @@
       <c r="U70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4114,67 +4285,73 @@
       <c r="U71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>1114000</v>
+      </c>
+      <c r="E72" s="3">
         <v>1110100</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>1150700</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>1184900</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>1255800</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>1408300</v>
-      </c>
-      <c r="I72" s="3">
-        <v>1375700</v>
       </c>
       <c r="J72" s="3">
         <v>1375700</v>
       </c>
       <c r="K72" s="3">
+        <v>1375700</v>
+      </c>
+      <c r="L72" s="3">
         <v>1355100</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>1384500</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>1383300</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>1369900</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>1354900</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>1345700</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>1301200</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>1288200</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>1261600</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>1238000</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>1217000</v>
       </c>
     </row>
-    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4232,8 +4409,11 @@
       <c r="U73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4291,8 +4471,11 @@
       <c r="U74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4350,67 +4533,73 @@
       <c r="U75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>316500</v>
+      </c>
+      <c r="E76" s="3">
         <v>288700</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>322300</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>351900</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>419000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>571700</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>533800</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>540300</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>542200</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>571100</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>613400</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>612800</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>594200</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>613500</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>583400</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>640500</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>627500</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>603200</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>589500</v>
       </c>
     </row>
-    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4468,131 +4657,140 @@
       <c r="U77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44285</v>
+      </c>
+      <c r="E80" s="2">
         <v>44194</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44103</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44012</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43921</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43830</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43739</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43648</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43557</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43466</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43375</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43284</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43193</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43102</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43011</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42920</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42829</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42738</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42640</v>
       </c>
     </row>
-    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="E81" s="3">
         <v>-37300</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-33200</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-70500</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-136200</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>48700</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>16100</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>35500</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>27000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>16200</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>28500</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>28400</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>26000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>57700</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>26400</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>38200</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>35000</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>32400</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>34600</v>
       </c>
     </row>
-    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4614,67 +4812,71 @@
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
-    </row>
-    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V82" s="3"/>
+    </row>
+    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>22000</v>
+      </c>
+      <c r="E83" s="3">
         <v>22600</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>22700</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>22600</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>23600</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>23800</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>21300</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>21700</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>21400</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>24200</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>24100</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>23700</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>24000</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>23200</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>23000</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>23300</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>23200</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>23500</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>21600</v>
       </c>
     </row>
-    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4732,8 +4934,11 @@
       <c r="U84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4791,8 +4996,11 @@
       <c r="U85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4850,8 +5058,11 @@
       <c r="U86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4909,8 +5120,11 @@
       <c r="U87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4968,67 +5182,73 @@
       <c r="U88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>21600</v>
+      </c>
+      <c r="E89" s="3">
         <v>35600</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>2900</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-2700</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-33000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>102600</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>32400</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>50300</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>33500</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>109200</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>41600</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>65600</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>74900</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>84600</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>40300</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>65800</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>48100</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>86000</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>58100</v>
       </c>
     </row>
-    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5050,67 +5270,71 @@
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
-    </row>
-    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V90" s="3"/>
+    </row>
+    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-7200</v>
+      </c>
+      <c r="E91" s="3">
         <v>-12100</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-8800</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-13600</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-15800</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-27100</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-17300</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-16000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-13400</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-24200</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-26800</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-21200</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-30700</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-47400</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-29700</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-24500</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-19500</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-45600</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>10400</v>
       </c>
     </row>
-    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5168,8 +5392,11 @@
       <c r="U92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5227,67 +5454,73 @@
       <c r="U93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-8700</v>
+      </c>
+      <c r="E94" s="3">
         <v>-12300</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-9000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-13700</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-15900</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-290500</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-22000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-23100</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-27400</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-24500</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-39800</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-35100</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-31000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-57100</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-30000</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-33700</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-19600</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-87600</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-30800</v>
       </c>
     </row>
-    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5309,13 +5542,14 @@
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
-    </row>
-    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V95" s="3"/>
+    </row>
+    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>0</v>
+        <v>-2200</v>
       </c>
       <c r="E96" s="3">
         <v>0</v>
@@ -5324,52 +5558,55 @@
         <v>0</v>
       </c>
       <c r="G96" s="3">
+        <v>0</v>
+      </c>
+      <c r="H96" s="3">
         <v>-15800</v>
-      </c>
-      <c r="H96" s="3">
-        <v>-15700</v>
       </c>
       <c r="I96" s="3">
         <v>-15700</v>
       </c>
       <c r="J96" s="3">
+        <v>-15700</v>
+      </c>
+      <c r="K96" s="3">
         <v>-14700</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-14600</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-14800</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-14900</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-13400</v>
       </c>
-      <c r="O96" s="3">
+      <c r="P96" s="3">
         <v>-13200</v>
       </c>
-      <c r="P96" s="3">
+      <c r="Q96" s="3">
         <v>-13300</v>
       </c>
-      <c r="Q96" s="3">
+      <c r="R96" s="3">
         <v>-13500</v>
       </c>
-      <c r="R96" s="3">
+      <c r="S96" s="3">
         <v>-11500</v>
       </c>
-      <c r="S96" s="3">
+      <c r="T96" s="3">
         <v>-11700</v>
       </c>
-      <c r="T96" s="3">
+      <c r="U96" s="3">
         <v>-11300</v>
       </c>
-      <c r="U96" s="3">
+      <c r="V96" s="3">
         <v>-11500</v>
       </c>
     </row>
-    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5427,8 +5664,11 @@
       <c r="U97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5486,8 +5726,11 @@
       <c r="U98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5545,88 +5788,94 @@
       <c r="U99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>14300</v>
+      </c>
+      <c r="E100" s="3">
         <v>-113100</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-400</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>185500</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>71700</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-59900</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>273200</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-27100</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-10200</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-70600</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-18500</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-25900</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-25200</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-41200</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-56800</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-31500</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-16700</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-10400</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-47700</v>
       </c>
     </row>
-    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>0</v>
+      </c>
+      <c r="E101" s="3">
         <v>100</v>
       </c>
-      <c r="E101" s="3">
-        <v>0</v>
-      </c>
       <c r="F101" s="3">
+        <v>0</v>
+      </c>
+      <c r="G101" s="3">
         <v>100</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-200</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>100</v>
       </c>
-      <c r="I101" s="3">
-        <v>0</v>
-      </c>
       <c r="J101" s="3">
         <v>0</v>
       </c>
@@ -5634,11 +5883,11 @@
         <v>0</v>
       </c>
       <c r="L101" s="3">
+        <v>0</v>
+      </c>
+      <c r="M101" s="3">
         <v>-100</v>
       </c>
-      <c r="M101" s="3">
-        <v>0</v>
-      </c>
       <c r="N101" s="3">
         <v>0</v>
       </c>
@@ -5646,10 +5895,10 @@
         <v>0</v>
       </c>
       <c r="P101" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q101" s="3">
         <v>-100</v>
-      </c>
-      <c r="Q101" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="R101" s="3" t="s">
         <v>8</v>
@@ -5663,63 +5912,69 @@
       <c r="U101" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V101" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>27300</v>
+      </c>
+      <c r="E102" s="3">
         <v>-89700</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-6400</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>169100</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>22600</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-247800</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>283600</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>100</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-4000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>13900</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-16700</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>4600</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>18800</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-13800</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-46500</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>600</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>11800</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-12000</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-13800</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/CAKE_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/CAKE_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="92">
   <si>
     <t>CAKE</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:V102"/>
+  <dimension ref="A5:W102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,275 +665,288 @@
     <col min="1" max="1" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="21" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="22" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44376</v>
+      </c>
+      <c r="E7" s="2">
         <v>44285</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44194</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44103</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44012</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43921</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43830</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43739</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43648</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43557</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43466</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43375</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43284</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43193</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43102</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43011</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42920</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42829</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42738</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42640</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>769000</v>
+      </c>
+      <c r="E8" s="3">
         <v>627400</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>554600</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>517700</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>295900</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>615100</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>694000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>586500</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>602600</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>599500</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>585200</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>575200</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>587300</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>584700</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>571800</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>555400</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>569900</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>563400</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>603100</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>560000</v>
       </c>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>168900</v>
+      </c>
+      <c r="E9" s="3">
         <v>135900</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>127200</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>118100</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>72100</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>140900</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>158200</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>132900</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>134400</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>136200</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>134800</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>132200</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>131700</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>134200</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>134000</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>127500</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>128800</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>129100</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>140100</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>128800</v>
       </c>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>600100</v>
+      </c>
+      <c r="E10" s="3">
         <v>491500</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>427400</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>399600</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>223800</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>474200</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>535800</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>453600</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>468200</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>463300</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>450400</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>443000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>455600</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>450500</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>437800</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>427900</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>441100</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>434300</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>463000</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>431200</v>
       </c>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -956,8 +969,9 @@
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W11" s="3"/>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1018,8 +1032,11 @@
       <c r="V12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1080,132 +1097,141 @@
       <c r="V13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>11400</v>
+      </c>
+      <c r="E14" s="3">
         <v>6000</v>
       </c>
-      <c r="E14" s="3">
-        <v>15100</v>
-      </c>
       <c r="F14" s="3">
-        <v>11900</v>
+        <v>20500</v>
       </c>
       <c r="G14" s="3">
+        <v>14500</v>
+      </c>
+      <c r="H14" s="3">
         <v>2500</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>188700</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>23500</v>
       </c>
-      <c r="J14" s="3">
-        <v>0</v>
-      </c>
       <c r="K14" s="3">
         <v>0</v>
       </c>
-      <c r="L14" s="3" t="s">
+      <c r="L14" s="3">
+        <v>0</v>
+      </c>
+      <c r="M14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>15000</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>300</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>2600</v>
       </c>
-      <c r="P14" s="3" t="s">
+      <c r="Q14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>9100</v>
       </c>
-      <c r="R14" s="3">
-        <v>0</v>
-      </c>
       <c r="S14" s="3">
+        <v>0</v>
+      </c>
+      <c r="T14" s="3">
         <v>400</v>
       </c>
-      <c r="T14" s="3">
+      <c r="U14" s="3">
         <v>800</v>
       </c>
-      <c r="U14" s="3">
+      <c r="V14" s="3">
         <v>100</v>
       </c>
-      <c r="V14" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>22200</v>
+      </c>
+      <c r="E15" s="3">
         <v>22000</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>22600</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>22700</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>22600</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>23600</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>23800</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>21300</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>21700</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>21400</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>24200</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>24100</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>23700</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>24000</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>23200</v>
       </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3">
         <v>23000</v>
       </c>
-      <c r="S15" s="3">
+      <c r="T15" s="3">
         <v>23300</v>
       </c>
-      <c r="T15" s="3">
+      <c r="U15" s="3">
         <v>23200</v>
       </c>
-      <c r="U15" s="3">
+      <c r="V15" s="3">
         <v>23500</v>
       </c>
-      <c r="V15" s="3">
+      <c r="W15" s="3">
         <v>21600</v>
       </c>
     </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1225,132 +1251,139 @@
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
-    </row>
-    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W16" s="3"/>
+    </row>
+    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>727800</v>
+      </c>
+      <c r="E17" s="3">
         <v>618600</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>593400</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>552600</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>379600</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>805200</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>687600</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>559600</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>562500</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>569300</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>565800</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>541700</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>552800</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>553100</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>547100</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>521100</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>519700</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>519900</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>556000</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>510000</v>
       </c>
     </row>
-    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>41200</v>
+      </c>
+      <c r="E18" s="3">
         <v>8800</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-38800</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-34900</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-83700</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-190100</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>6400</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>26900</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>40100</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>30200</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>19400</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>33500</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>34500</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>31600</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>24700</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>34300</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>50200</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>43500</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>47100</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>50000</v>
       </c>
     </row>
-    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1373,132 +1406,139 @@
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
-    </row>
-    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W19" s="3"/>
+    </row>
+    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-4800</v>
+      </c>
+      <c r="E20" s="3">
         <v>-2700</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-1600</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-2900</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-2600</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-1500</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>50200</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-10300</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-1600</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-1500</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-3900</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-3300</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-2900</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-1500</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-1900</v>
-      </c>
-      <c r="R20" s="3">
-        <v>-1600</v>
       </c>
       <c r="S20" s="3">
         <v>-1600</v>
       </c>
       <c r="T20" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="U20" s="3">
         <v>-1200</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>-2200</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>-2500</v>
       </c>
     </row>
-    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>58600</v>
+      </c>
+      <c r="E21" s="3">
         <v>28200</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-17800</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-15100</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-63700</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-168000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>80300</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>38000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>60100</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>50100</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>39700</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>54300</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>55400</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>54000</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>46000</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>55700</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>71900</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>65500</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>68300</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>69200</v>
       </c>
     </row>
-    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1559,132 +1599,141 @@
       <c r="V22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>36400</v>
+      </c>
+      <c r="E23" s="3">
         <v>6200</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-40400</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-37800</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-86300</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-191600</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>56600</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>16600</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>38400</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>28700</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>15500</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>30200</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>31600</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>30000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>22800</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>32700</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>48600</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>42300</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>44900</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>47600</v>
       </c>
     </row>
-    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>2700</v>
+      </c>
+      <c r="E24" s="3">
         <v>2300</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>-8100</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>-9400</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>-29700</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>-55400</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>7900</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>500</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>2900</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>1700</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>-700</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>1700</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>3300</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>4000</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>3600</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>6300</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>10500</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>7300</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>12500</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>13000</v>
       </c>
     </row>
-    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1745,132 +1794,141 @@
       <c r="V25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>33700</v>
+      </c>
+      <c r="E26" s="3">
         <v>3900</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-32300</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-28300</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-56500</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-136200</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>48700</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>16100</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>35500</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>27000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>16200</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>28500</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>28400</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>26000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>19200</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>26400</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>38200</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>35000</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>32400</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>34600</v>
       </c>
     </row>
-    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-1200</v>
+        <v>17100</v>
       </c>
       <c r="E27" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="F27" s="3">
         <v>-37300</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-33200</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-70500</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-136200</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>48700</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>16100</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>35500</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>27000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>16200</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>28500</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>28400</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>26000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>19200</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>26400</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>38200</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>35000</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>32400</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>34600</v>
       </c>
     </row>
-    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1931,8 +1989,11 @@
       <c r="V28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1957,8 +2018,8 @@
       <c r="J29" s="3">
         <v>0</v>
       </c>
-      <c r="K29" s="3" t="s">
-        <v>8</v>
+      <c r="K29" s="3">
+        <v>0</v>
       </c>
       <c r="L29" s="3" t="s">
         <v>8</v>
@@ -1975,11 +2036,11 @@
       <c r="P29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Q29" s="3">
+      <c r="Q29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R29" s="3">
         <v>38500</v>
-      </c>
-      <c r="R29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="S29" s="3" t="s">
         <v>8</v>
@@ -1993,8 +2054,11 @@
       <c r="V29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2055,8 +2119,11 @@
       <c r="V30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2117,132 +2184,141 @@
       <c r="V31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>4800</v>
+      </c>
+      <c r="E32" s="3">
         <v>2700</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>1600</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>2900</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>2600</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>1500</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-50200</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>10300</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>1600</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>1500</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>3900</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>3300</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>2900</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>1500</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>1900</v>
-      </c>
-      <c r="R32" s="3">
-        <v>1600</v>
       </c>
       <c r="S32" s="3">
         <v>1600</v>
       </c>
       <c r="T32" s="3">
+        <v>1600</v>
+      </c>
+      <c r="U32" s="3">
         <v>1200</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>2200</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>2500</v>
       </c>
     </row>
-    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-1200</v>
+        <v>17100</v>
       </c>
       <c r="E33" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="F33" s="3">
         <v>-37300</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-33200</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-70500</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-136200</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>48700</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>16100</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>35500</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>27000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>16200</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>28500</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>28400</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>26000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>57700</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>26400</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>38200</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>35000</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>32400</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>34600</v>
       </c>
     </row>
-    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2303,137 +2379,146 @@
       <c r="V34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-1200</v>
+        <v>17100</v>
       </c>
       <c r="E35" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="F35" s="3">
         <v>-37300</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-33200</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-70500</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-136200</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>48700</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>16100</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>35500</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>27000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>16200</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>28500</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>28400</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>26000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>57700</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>26400</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>38200</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>35000</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>32400</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>34600</v>
       </c>
     </row>
-    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44376</v>
+      </c>
+      <c r="E38" s="2">
         <v>44285</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44194</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44103</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44012</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43921</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43830</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43739</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43648</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43557</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43466</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43375</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43284</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43193</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43102</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43011</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42920</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42829</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42738</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42640</v>
       </c>
     </row>
-    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2456,8 +2541,9 @@
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
-    </row>
-    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W39" s="3"/>
+    </row>
+    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2480,70 +2566,74 @@
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
-    </row>
-    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W40" s="3"/>
+    </row>
+    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>161800</v>
+      </c>
+      <c r="E41" s="3">
         <v>181300</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>154100</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>243800</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>250200</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>81000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>58400</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>306300</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>22600</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>22500</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>26600</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>12600</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>29400</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>24800</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>6000</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>19800</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>66300</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>65700</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>53800</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>65800</v>
       </c>
     </row>
-    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2604,256 +2694,271 @@
       <c r="V42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>108400</v>
+      </c>
+      <c r="E43" s="3">
         <v>109000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>130600</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>113100</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>145900</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>120000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>118100</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>74500</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>70100</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>67500</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>89100</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>54100</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>52100</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>44100</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>102400</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>52100</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>53000</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>44800</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>80200</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>45200</v>
       </c>
     </row>
-    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>41900</v>
+      </c>
+      <c r="E44" s="3">
         <v>39000</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>39300</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>37700</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>40500</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>47800</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>47200</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>47800</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>46000</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>42000</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>38900</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>39800</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>34700</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>41000</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>42600</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>44200</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>40200</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>38500</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>34900</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>35500</v>
       </c>
     </row>
-    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>16200</v>
+      </c>
+      <c r="E45" s="3">
         <v>14500</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>17400</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>16400</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>18100</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>21800</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>20800</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>20600</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>19400</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>25500</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>40600</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>48300</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>52900</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>54000</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>57700</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>48500</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>50900</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>52600</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>52400</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>36300</v>
       </c>
     </row>
-    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>328300</v>
+      </c>
+      <c r="E46" s="3">
         <v>343800</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>341400</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>411000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>454600</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>270700</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>244500</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>449100</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>158200</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>157500</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>195200</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>154800</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>169100</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>163900</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>208600</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>164600</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>210500</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>201600</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>221400</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>182900</v>
       </c>
     </row>
-    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2872,23 +2977,23 @@
       <c r="H47" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I47" s="3">
-        <v>0</v>
+      <c r="I47" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="J47" s="3">
+        <v>0</v>
+      </c>
+      <c r="K47" s="3">
         <v>91800</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>97700</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>81300</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>79800</v>
-      </c>
-      <c r="N47" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="O47" s="3" t="s">
         <v>8</v>
@@ -2905,8 +3010,8 @@
       <c r="S47" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="T47" s="3">
-        <v>0</v>
+      <c r="T47" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="U47" s="3">
         <v>0</v>
@@ -2914,132 +3019,141 @@
       <c r="V47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>2002800</v>
+      </c>
+      <c r="E48" s="3">
         <v>2006600</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>2025200</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>2056900</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>2074000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>2075700</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>2072600</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>1744100</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>1722200</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>1732600</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>913300</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>940100</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>936500</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>935300</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>935000</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>933500</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>913400</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>910600</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>910100</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>902600</v>
       </c>
     </row>
-    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>253200</v>
+        <v>253100</v>
       </c>
       <c r="E49" s="3">
         <v>253200</v>
       </c>
       <c r="F49" s="3">
+        <v>253200</v>
+      </c>
+      <c r="G49" s="3">
         <v>253600</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>254300</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>254400</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>437200</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>20300</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>20200</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>20100</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>26200</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>26300</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>24500</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>24200</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>24100</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>23500</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>23400</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>23200</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>23100</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>22800</v>
       </c>
     </row>
-    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3100,8 +3214,11 @@
       <c r="V50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3162,70 +3279,76 @@
       <c r="V51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>138100</v>
+      </c>
+      <c r="E52" s="3">
         <v>131900</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>127400</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>106600</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>84300</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>75000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>86300</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>76400</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>75500</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>84500</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>99700</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>186800</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>176600</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>164000</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>165300</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>153700</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>152100</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>141500</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>138700</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>96100</v>
       </c>
     </row>
-    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3286,70 +3409,76 @@
       <c r="V53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>2722300</v>
+      </c>
+      <c r="E54" s="3">
         <v>2735400</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>2747100</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>2828100</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>2867300</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>2675800</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>2840600</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>2381800</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>2073800</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>2076100</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>1314100</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>1308100</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>1306600</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>1287300</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>1333100</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>1275300</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>1299300</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>1276800</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>1293300</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>1204400</v>
       </c>
     </row>
-    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3372,8 +3501,9 @@
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
-    </row>
-    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W55" s="3"/>
+    </row>
+    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3396,70 +3526,74 @@
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
-    </row>
-    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W56" s="3"/>
+    </row>
+    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>55400</v>
+      </c>
+      <c r="E57" s="3">
         <v>56000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>58400</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>61500</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>57500</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>55900</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>61900</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>36100</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>36000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>36400</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>49100</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>39100</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>38300</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>38800</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>51000</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>46600</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>46200</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>34900</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>41600</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>38900</v>
       </c>
     </row>
-    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3520,183 +3654,192 @@
       <c r="V58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>541800</v>
+      </c>
+      <c r="E59" s="3">
         <v>501900</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>527600</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>478800</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>475100</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>451200</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>552600</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>397700</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>401000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>410200</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>367400</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>304400</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>316300</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>305500</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>347000</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>276200</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>283700</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>288200</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>335000</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>265200</v>
       </c>
     </row>
-    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>597200</v>
+      </c>
+      <c r="E60" s="3">
         <v>558000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>586100</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>540400</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>532700</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>507100</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>614600</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>433800</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>437000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>446600</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>416500</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>343500</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>354600</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>344300</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>398000</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>322800</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>329900</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>323100</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>376500</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>304100</v>
       </c>
     </row>
-    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>280000</v>
+        <v>465000</v>
       </c>
       <c r="E61" s="3">
         <v>280000</v>
       </c>
       <c r="F61" s="3">
-        <v>376000</v>
+        <v>280000</v>
       </c>
       <c r="G61" s="3">
         <v>376000</v>
       </c>
       <c r="H61" s="3">
+        <v>376000</v>
+      </c>
+      <c r="I61" s="3">
         <v>380000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>290000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>335000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>35000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>20000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>10000</v>
-      </c>
-      <c r="N61" s="3">
-        <v>20000</v>
       </c>
       <c r="O61" s="3">
         <v>20000</v>
       </c>
       <c r="P61" s="3">
+        <v>20000</v>
+      </c>
+      <c r="Q61" s="3">
         <v>30000</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>10000</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>30000</v>
       </c>
-      <c r="S61" s="3">
-        <v>0</v>
-      </c>
       <c r="T61" s="3">
         <v>0</v>
       </c>
@@ -3706,70 +3849,76 @@
       <c r="V61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>1375500</v>
+      </c>
+      <c r="E62" s="3">
         <v>1367500</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>1374000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>1379500</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>1402600</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>1369700</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>1364300</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>1079200</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>1061500</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>1067200</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>316600</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>331100</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>319300</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>318800</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>311600</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>339200</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>328900</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>326200</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>313600</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>310700</v>
       </c>
     </row>
-    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3830,8 +3979,11 @@
       <c r="V63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3892,8 +4044,11 @@
       <c r="V64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3954,70 +4109,76 @@
       <c r="V65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>2437700</v>
+      </c>
+      <c r="E66" s="3">
         <v>2205400</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>2240100</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>2295900</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>2311300</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>2256800</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>2268900</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>1848000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>1533500</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>1533800</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>743100</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>694700</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>693900</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>693200</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>719500</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>692000</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>658800</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>649300</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>690100</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>614800</v>
       </c>
     </row>
-    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4040,8 +4201,9 @@
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
-    </row>
-    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W67" s="3"/>
+    </row>
+    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4102,8 +4264,11 @@
       <c r="V68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4164,26 +4329,29 @@
       <c r="V69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
       <c r="D70" s="3">
+        <v>0</v>
+      </c>
+      <c r="E70" s="3">
         <v>213500</v>
       </c>
-      <c r="E70" s="3">
+      <c r="F70" s="3">
         <v>218200</v>
       </c>
-      <c r="F70" s="3">
+      <c r="G70" s="3">
         <v>209900</v>
       </c>
-      <c r="G70" s="3">
+      <c r="H70" s="3">
         <v>204100</v>
       </c>
-      <c r="H70" s="3">
-        <v>0</v>
-      </c>
       <c r="I70" s="3">
         <v>0</v>
       </c>
@@ -4226,8 +4394,11 @@
       <c r="V70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4288,70 +4459,76 @@
       <c r="V71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>1134200</v>
+      </c>
+      <c r="E72" s="3">
         <v>1114000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>1110100</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>1150700</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>1184900</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>1255800</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>1408300</v>
-      </c>
-      <c r="J72" s="3">
-        <v>1375700</v>
       </c>
       <c r="K72" s="3">
         <v>1375700</v>
       </c>
       <c r="L72" s="3">
+        <v>1375700</v>
+      </c>
+      <c r="M72" s="3">
         <v>1355100</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>1384500</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>1383300</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>1369900</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>1354900</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>1345700</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>1301200</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>1288200</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>1261600</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>1238000</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>1217000</v>
       </c>
     </row>
-    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4412,8 +4589,11 @@
       <c r="V73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4474,8 +4654,11 @@
       <c r="V74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4536,70 +4719,76 @@
       <c r="V75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>284600</v>
+      </c>
+      <c r="E76" s="3">
         <v>316500</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>288700</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>322300</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>351900</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>419000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>571700</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>533800</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>540300</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>542200</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>571100</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>613400</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>612800</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>594200</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>613500</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>583400</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>640500</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>627500</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>603200</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>589500</v>
       </c>
     </row>
-    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4660,137 +4849,146 @@
       <c r="V77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44376</v>
+      </c>
+      <c r="E80" s="2">
         <v>44285</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44194</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44103</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44012</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43921</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43830</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43739</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43648</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43557</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43466</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43375</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43284</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43193</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43102</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43011</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42920</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42829</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42738</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42640</v>
       </c>
     </row>
-    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-1200</v>
+        <v>17100</v>
       </c>
       <c r="E81" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="F81" s="3">
         <v>-37300</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-33200</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-70500</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-136200</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>48700</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>16100</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>35500</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>27000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>16200</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>28500</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>28400</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>26000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>57700</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>26400</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>38200</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>35000</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>32400</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>34600</v>
       </c>
     </row>
-    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4813,70 +5011,74 @@
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
-    </row>
-    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W82" s="3"/>
+    </row>
+    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>22200</v>
+      </c>
+      <c r="E83" s="3">
         <v>22000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>22600</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>22700</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>22600</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>23600</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>23800</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>21300</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>21700</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>21400</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>24200</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>24100</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>23700</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>24000</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>23200</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>23000</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>23300</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>23200</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>23500</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>21600</v>
       </c>
     </row>
-    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4937,8 +5139,11 @@
       <c r="V84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4999,8 +5204,11 @@
       <c r="V85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5061,8 +5269,11 @@
       <c r="V86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5123,8 +5334,11 @@
       <c r="V87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5185,70 +5399,76 @@
       <c r="V88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>108800</v>
+      </c>
+      <c r="E89" s="3">
         <v>21600</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>35600</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>2900</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-2700</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-33000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>102600</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>32400</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>50300</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>33500</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>109200</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>41600</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>65600</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>74900</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>84600</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>40300</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>65800</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>48100</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>86000</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>58100</v>
       </c>
     </row>
-    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5271,70 +5491,74 @@
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
-    </row>
-    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W90" s="3"/>
+    </row>
+    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-23700</v>
+      </c>
+      <c r="E91" s="3">
         <v>-7200</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-12100</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-8800</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-13600</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-15800</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-27100</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-17300</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-16000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-13400</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-24200</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-26800</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-21200</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-30700</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-47400</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-29700</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-24500</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-19500</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-45600</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>10400</v>
       </c>
     </row>
-    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5395,8 +5619,11 @@
       <c r="V92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5457,70 +5684,76 @@
       <c r="V93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-23500</v>
+      </c>
+      <c r="E94" s="3">
         <v>-8700</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-12300</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-9000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-13700</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-15900</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-290500</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-22000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-23100</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-27400</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-24500</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-39800</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-35100</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-31000</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-57100</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-30000</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-33700</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-19600</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-87600</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-30800</v>
       </c>
     </row>
-    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5543,17 +5776,18 @@
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
-    </row>
-    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W95" s="3"/>
+    </row>
+    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>1800</v>
+      </c>
+      <c r="E96" s="3">
         <v>-2200</v>
       </c>
-      <c r="E96" s="3">
-        <v>0</v>
-      </c>
       <c r="F96" s="3">
         <v>0</v>
       </c>
@@ -5561,52 +5795,55 @@
         <v>0</v>
       </c>
       <c r="H96" s="3">
+        <v>0</v>
+      </c>
+      <c r="I96" s="3">
         <v>-15800</v>
-      </c>
-      <c r="I96" s="3">
-        <v>-15700</v>
       </c>
       <c r="J96" s="3">
         <v>-15700</v>
       </c>
       <c r="K96" s="3">
+        <v>-15700</v>
+      </c>
+      <c r="L96" s="3">
         <v>-14700</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-14600</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-14800</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-14900</v>
       </c>
-      <c r="O96" s="3">
+      <c r="P96" s="3">
         <v>-13400</v>
       </c>
-      <c r="P96" s="3">
+      <c r="Q96" s="3">
         <v>-13200</v>
       </c>
-      <c r="Q96" s="3">
+      <c r="R96" s="3">
         <v>-13300</v>
       </c>
-      <c r="R96" s="3">
+      <c r="S96" s="3">
         <v>-13500</v>
       </c>
-      <c r="S96" s="3">
+      <c r="T96" s="3">
         <v>-11500</v>
       </c>
-      <c r="T96" s="3">
+      <c r="U96" s="3">
         <v>-11700</v>
       </c>
-      <c r="U96" s="3">
+      <c r="V96" s="3">
         <v>-11300</v>
       </c>
-      <c r="V96" s="3">
+      <c r="W96" s="3">
         <v>-11500</v>
       </c>
     </row>
-    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5667,8 +5904,11 @@
       <c r="V97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5729,8 +5969,11 @@
       <c r="V98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5791,70 +6034,76 @@
       <c r="V99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-104900</v>
+      </c>
+      <c r="E100" s="3">
         <v>14300</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-113100</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-400</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>185500</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>71700</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-59900</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>273200</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-27100</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-10200</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-70600</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-18500</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-25900</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-25200</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-41200</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-56800</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-31500</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-16700</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-10400</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-47700</v>
       </c>
     </row>
-    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5862,23 +6111,23 @@
         <v>0</v>
       </c>
       <c r="E101" s="3">
+        <v>0</v>
+      </c>
+      <c r="F101" s="3">
         <v>100</v>
       </c>
-      <c r="F101" s="3">
-        <v>0</v>
-      </c>
       <c r="G101" s="3">
+        <v>0</v>
+      </c>
+      <c r="H101" s="3">
         <v>100</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>-200</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>100</v>
       </c>
-      <c r="J101" s="3">
-        <v>0</v>
-      </c>
       <c r="K101" s="3">
         <v>0</v>
       </c>
@@ -5886,11 +6135,11 @@
         <v>0</v>
       </c>
       <c r="M101" s="3">
+        <v>0</v>
+      </c>
+      <c r="N101" s="3">
         <v>-100</v>
       </c>
-      <c r="N101" s="3">
-        <v>0</v>
-      </c>
       <c r="O101" s="3">
         <v>0</v>
       </c>
@@ -5898,10 +6147,10 @@
         <v>0</v>
       </c>
       <c r="Q101" s="3">
+        <v>0</v>
+      </c>
+      <c r="R101" s="3">
         <v>-100</v>
-      </c>
-      <c r="R101" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="S101" s="3" t="s">
         <v>8</v>
@@ -5915,66 +6164,72 @@
       <c r="V101" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W101" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-19600</v>
+      </c>
+      <c r="E102" s="3">
         <v>27300</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-89700</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-6400</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>169100</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>22600</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-247800</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>283600</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>100</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-4000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>13900</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-16700</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>4600</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>18800</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-13800</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-46500</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>600</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>11800</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-12000</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-13800</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/CAKE_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/CAKE_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="92">
   <si>
     <t>CAKE</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:W102"/>
+  <dimension ref="A5:X102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,288 +665,301 @@
     <col min="1" max="1" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="22" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="23" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44467</v>
+      </c>
+      <c r="E7" s="2">
         <v>44376</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44285</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44194</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44103</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44012</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43921</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43830</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43739</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43648</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43557</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43466</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43375</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43284</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43193</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43102</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43011</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42920</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42829</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42738</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42640</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>769000</v>
+        <v>754500</v>
       </c>
       <c r="E8" s="3">
+        <v>1396400</v>
+      </c>
+      <c r="F8" s="3">
         <v>627400</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>554600</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>517700</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>295900</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>615100</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>694000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>586500</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>602600</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>599500</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>585200</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>575200</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>587300</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>584700</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>571800</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>555400</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>569900</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>563400</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>603100</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>560000</v>
       </c>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>168900</v>
+        <v>169400</v>
       </c>
       <c r="E9" s="3">
+        <v>304800</v>
+      </c>
+      <c r="F9" s="3">
         <v>135900</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>127200</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>118100</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>72100</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>140900</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>158200</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>132900</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>134400</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>136200</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>134800</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>132200</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>131700</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>134200</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>134000</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>127500</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>128800</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>129100</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>140100</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>128800</v>
       </c>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>600100</v>
+        <v>585100</v>
       </c>
       <c r="E10" s="3">
+        <v>1091600</v>
+      </c>
+      <c r="F10" s="3">
         <v>491500</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>427400</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>399600</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>223800</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>474200</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>535800</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>453600</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>468200</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>463300</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>450400</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>443000</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>455600</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>450500</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>437800</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>427900</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>441100</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>434300</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>463000</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>431200</v>
       </c>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -970,8 +983,9 @@
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
-    </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X11" s="3"/>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1035,8 +1049,11 @@
       <c r="W12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1100,138 +1117,147 @@
       <c r="W13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>11400</v>
+        <v>700</v>
       </c>
       <c r="E14" s="3">
+        <v>12500</v>
+      </c>
+      <c r="F14" s="3">
         <v>6000</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>20500</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>14500</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>2500</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>188700</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>23500</v>
       </c>
-      <c r="K14" s="3">
-        <v>0</v>
-      </c>
       <c r="L14" s="3">
         <v>0</v>
       </c>
-      <c r="M14" s="3" t="s">
+      <c r="M14" s="3">
+        <v>0</v>
+      </c>
+      <c r="N14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>15000</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>300</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>2600</v>
       </c>
-      <c r="Q14" s="3" t="s">
+      <c r="R14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>9100</v>
       </c>
-      <c r="S14" s="3">
-        <v>0</v>
-      </c>
       <c r="T14" s="3">
+        <v>0</v>
+      </c>
+      <c r="U14" s="3">
         <v>400</v>
       </c>
-      <c r="U14" s="3">
+      <c r="V14" s="3">
         <v>800</v>
       </c>
-      <c r="V14" s="3">
+      <c r="W14" s="3">
         <v>100</v>
       </c>
-      <c r="W14" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>22200</v>
+        <v>22600</v>
       </c>
       <c r="E15" s="3">
+        <v>44200</v>
+      </c>
+      <c r="F15" s="3">
         <v>22000</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>22600</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>22700</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>22600</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>23600</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>23800</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>21300</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>21700</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>21400</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>24200</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>24100</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>23700</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>24000</v>
       </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3">
         <v>23200</v>
       </c>
-      <c r="S15" s="3">
+      <c r="T15" s="3">
         <v>23000</v>
       </c>
-      <c r="T15" s="3">
+      <c r="U15" s="3">
         <v>23300</v>
       </c>
-      <c r="U15" s="3">
+      <c r="V15" s="3">
         <v>23200</v>
       </c>
-      <c r="V15" s="3">
+      <c r="W15" s="3">
         <v>23500</v>
       </c>
-      <c r="W15" s="3">
+      <c r="X15" s="3">
         <v>21600</v>
       </c>
     </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1252,138 +1278,145 @@
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
-    </row>
-    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X16" s="3"/>
+    </row>
+    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>727800</v>
+        <v>723100</v>
       </c>
       <c r="E17" s="3">
+        <v>1346400</v>
+      </c>
+      <c r="F17" s="3">
         <v>618600</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>593400</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>552600</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>379600</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>805200</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>687600</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>559600</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>562500</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>569300</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>565800</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>541700</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>552800</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>553100</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>547100</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>521100</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>519700</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>519900</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>556000</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>510000</v>
       </c>
     </row>
-    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>41200</v>
+        <v>31400</v>
       </c>
       <c r="E18" s="3">
+        <v>50000</v>
+      </c>
+      <c r="F18" s="3">
         <v>8800</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-38800</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-34900</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-83700</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-190100</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>6400</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>26900</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>40100</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>30200</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>19400</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>33500</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>34500</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>31600</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>24700</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>34300</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>50200</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>43500</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>47100</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>50000</v>
       </c>
     </row>
-    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1407,138 +1440,145 @@
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
-    </row>
-    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X19" s="3"/>
+    </row>
+    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-4800</v>
+        <v>-1800</v>
       </c>
       <c r="E20" s="3">
+        <v>-7400</v>
+      </c>
+      <c r="F20" s="3">
         <v>-2700</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-1600</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-2900</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-2600</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-1500</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>50200</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-10300</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-1600</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-1500</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-3900</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-3300</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-2900</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-1500</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-1900</v>
-      </c>
-      <c r="S20" s="3">
-        <v>-1600</v>
       </c>
       <c r="T20" s="3">
         <v>-1600</v>
       </c>
       <c r="U20" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="V20" s="3">
         <v>-1200</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>-2200</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>-2500</v>
       </c>
     </row>
-    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>58600</v>
+        <v>52200</v>
       </c>
       <c r="E21" s="3">
+        <v>86800</v>
+      </c>
+      <c r="F21" s="3">
         <v>28200</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-17800</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-15100</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-63700</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-168000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>80300</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>38000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>60100</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>50100</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>39700</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>54300</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>55400</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>54000</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>46000</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>55700</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>71900</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>65500</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>68300</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>69200</v>
       </c>
     </row>
-    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1602,138 +1642,147 @@
       <c r="W22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>36400</v>
+        <v>29600</v>
       </c>
       <c r="E23" s="3">
+        <v>42600</v>
+      </c>
+      <c r="F23" s="3">
         <v>6200</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-40400</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-37800</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-86300</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-191600</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>56600</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>16600</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>38400</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>28700</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>15500</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>30200</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>31600</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>30000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>22800</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>32700</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>48600</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>42300</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>44900</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>47600</v>
       </c>
     </row>
-    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>2700</v>
+        <v>-3100</v>
       </c>
       <c r="E24" s="3">
+        <v>5000</v>
+      </c>
+      <c r="F24" s="3">
         <v>2300</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>-8100</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>-9400</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>-29700</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>-55400</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>7900</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>500</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>2900</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>1700</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>-700</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>1700</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>3300</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>4000</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>3600</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>6300</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>10500</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>7300</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>12500</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>13000</v>
       </c>
     </row>
-    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1797,138 +1846,147 @@
       <c r="W25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>33700</v>
+        <v>32700</v>
       </c>
       <c r="E26" s="3">
+        <v>37600</v>
+      </c>
+      <c r="F26" s="3">
         <v>3900</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-32300</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-28300</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-56500</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-136200</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>48700</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>16100</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>35500</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>27000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>16200</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>28500</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>28400</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>26000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>19200</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>26400</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>38200</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>35000</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>32400</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>34600</v>
       </c>
     </row>
-    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>17100</v>
+        <v>32700</v>
       </c>
       <c r="E27" s="3">
+        <v>13100</v>
+      </c>
+      <c r="F27" s="3">
         <v>-1300</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-37300</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-33200</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-70500</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-136200</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>48700</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>16100</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>35500</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>27000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>16200</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>28500</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>28400</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>26000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>19200</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>26400</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>38200</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>35000</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>32400</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>34600</v>
       </c>
     </row>
-    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1992,8 +2050,11 @@
       <c r="W28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2021,8 +2082,8 @@
       <c r="K29" s="3">
         <v>0</v>
       </c>
-      <c r="L29" s="3" t="s">
-        <v>8</v>
+      <c r="L29" s="3">
+        <v>0</v>
       </c>
       <c r="M29" s="3" t="s">
         <v>8</v>
@@ -2039,11 +2100,11 @@
       <c r="Q29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="R29" s="3">
+      <c r="R29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S29" s="3">
         <v>38500</v>
-      </c>
-      <c r="S29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="T29" s="3" t="s">
         <v>8</v>
@@ -2057,8 +2118,11 @@
       <c r="W29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2122,8 +2186,11 @@
       <c r="W30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2187,138 +2254,147 @@
       <c r="W31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>4800</v>
+        <v>1800</v>
       </c>
       <c r="E32" s="3">
+        <v>7400</v>
+      </c>
+      <c r="F32" s="3">
         <v>2700</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>1600</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>2900</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>2600</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>1500</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-50200</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>10300</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>1600</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>1500</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>3900</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>3300</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>2900</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>1500</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>1900</v>
-      </c>
-      <c r="S32" s="3">
-        <v>1600</v>
       </c>
       <c r="T32" s="3">
         <v>1600</v>
       </c>
       <c r="U32" s="3">
+        <v>1600</v>
+      </c>
+      <c r="V32" s="3">
         <v>1200</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>2200</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>2500</v>
       </c>
     </row>
-    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>17100</v>
+        <v>32700</v>
       </c>
       <c r="E33" s="3">
+        <v>13100</v>
+      </c>
+      <c r="F33" s="3">
         <v>-1300</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-37300</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-33200</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-70500</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-136200</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>48700</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>16100</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>35500</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>27000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>16200</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>28500</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>28400</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>26000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>57700</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>26400</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>38200</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>35000</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>32400</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>34600</v>
       </c>
     </row>
-    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2382,143 +2458,152 @@
       <c r="W34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>17100</v>
+        <v>32700</v>
       </c>
       <c r="E35" s="3">
+        <v>13100</v>
+      </c>
+      <c r="F35" s="3">
         <v>-1300</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-37300</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-33200</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-70500</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-136200</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>48700</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>16100</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>35500</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>27000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>16200</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>28500</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>28400</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>26000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>57700</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>26400</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>38200</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>35000</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>32400</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>34600</v>
       </c>
     </row>
-    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44467</v>
+      </c>
+      <c r="E38" s="2">
         <v>44376</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44285</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44194</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44103</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44012</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43921</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43830</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43739</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43648</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43557</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43466</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43375</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43284</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43193</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43102</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43011</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42920</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42829</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42738</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42640</v>
       </c>
     </row>
-    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2542,8 +2627,9 @@
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
-    </row>
-    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X39" s="3"/>
+    </row>
+    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2567,73 +2653,77 @@
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
-    </row>
-    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X40" s="3"/>
+    </row>
+    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>131000</v>
+      </c>
+      <c r="E41" s="3">
         <v>161800</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>181300</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>154100</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>243800</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>250200</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>81000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>58400</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>306300</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>22600</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>22500</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>26600</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>12600</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>29400</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>24800</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>6000</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>19800</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>66300</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>65700</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>53800</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>65800</v>
       </c>
     </row>
-    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2697,306 +2787,321 @@
       <c r="W42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>120400</v>
+      </c>
+      <c r="E43" s="3">
         <v>108400</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>109000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>130600</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>113100</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>145900</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>120000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>118100</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>74500</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>70100</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>67500</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>89100</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>54100</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>52100</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>44100</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>102400</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>52100</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>53000</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>44800</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>80200</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>45200</v>
       </c>
     </row>
-    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>43300</v>
+      </c>
+      <c r="E44" s="3">
         <v>41900</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>39000</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>39300</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>37700</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>40500</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>47800</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>47200</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>47800</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>46000</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>42000</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>38900</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>39800</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>34700</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>41000</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>42600</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>44200</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>40200</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>38500</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>34900</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>35500</v>
       </c>
     </row>
-    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>15400</v>
+      </c>
+      <c r="E45" s="3">
         <v>16200</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>14500</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>17400</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>16400</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>18100</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>21800</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>20800</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>20600</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>19400</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>25500</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>40600</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>48300</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>52900</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>54000</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>57700</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>48500</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>50900</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>52600</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>52400</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>36300</v>
       </c>
     </row>
-    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>310200</v>
+      </c>
+      <c r="E46" s="3">
         <v>328300</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>343800</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>341400</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>411000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>454600</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>270700</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>244500</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>449100</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>158200</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>157500</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>195200</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>154800</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>169100</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>163900</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>208600</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>164600</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>210500</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>201600</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>221400</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>182900</v>
       </c>
     </row>
-    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D47" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E47" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F47" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G47" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H47" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I47" s="3" t="s">
-        <v>8</v>
+      <c r="D47" s="3">
+        <v>0</v>
+      </c>
+      <c r="E47" s="3">
+        <v>0</v>
+      </c>
+      <c r="F47" s="3">
+        <v>0</v>
+      </c>
+      <c r="G47" s="3">
+        <v>0</v>
+      </c>
+      <c r="H47" s="3">
+        <v>0</v>
+      </c>
+      <c r="I47" s="3">
+        <v>0</v>
       </c>
       <c r="J47" s="3">
         <v>0</v>
       </c>
       <c r="K47" s="3">
+        <v>0</v>
+      </c>
+      <c r="L47" s="3">
         <v>91800</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>97700</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>81300</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>79800</v>
-      </c>
-      <c r="O47" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="P47" s="3" t="s">
         <v>8</v>
@@ -3013,8 +3118,8 @@
       <c r="T47" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="U47" s="3">
-        <v>0</v>
+      <c r="U47" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="V47" s="3">
         <v>0</v>
@@ -3022,138 +3127,147 @@
       <c r="W47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>2014500</v>
+      </c>
+      <c r="E48" s="3">
         <v>2002800</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>2006600</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>2025200</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>2056900</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>2074000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>2075700</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>2072600</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>1744100</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>1722200</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>1732600</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>913300</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>940100</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>936500</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>935300</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>935000</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>933500</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>913400</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>910600</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>910100</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>902600</v>
       </c>
     </row>
-    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>253200</v>
+      </c>
+      <c r="E49" s="3">
         <v>253100</v>
-      </c>
-      <c r="E49" s="3">
-        <v>253200</v>
       </c>
       <c r="F49" s="3">
         <v>253200</v>
       </c>
       <c r="G49" s="3">
+        <v>253200</v>
+      </c>
+      <c r="H49" s="3">
         <v>253600</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>254300</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>254400</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>437200</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>20300</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>20200</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>20100</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>26200</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>26300</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>24500</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>24200</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>24100</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>23500</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>23400</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>23200</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>23100</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>22800</v>
       </c>
     </row>
-    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3217,8 +3331,11 @@
       <c r="W50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3282,73 +3399,79 @@
       <c r="W51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>139900</v>
+      </c>
+      <c r="E52" s="3">
         <v>138100</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>131900</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>127400</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>106600</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>84300</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>75000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>86300</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>76400</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>75500</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>84500</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>99700</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>186800</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>176600</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>164000</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>165300</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>153700</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>152100</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>141500</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>138700</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>96100</v>
       </c>
     </row>
-    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3412,73 +3535,79 @@
       <c r="W53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>2717700</v>
+      </c>
+      <c r="E54" s="3">
         <v>2722300</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>2735400</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>2747100</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>2828100</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>2867300</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>2675800</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>2840600</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>2381800</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>2073800</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>2076100</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>1314100</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>1308100</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>1306600</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>1287300</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>1333100</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>1275300</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>1299300</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>1276800</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>1293300</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>1204400</v>
       </c>
     </row>
-    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3502,8 +3631,9 @@
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
-    </row>
-    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X55" s="3"/>
+    </row>
+    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3527,73 +3657,77 @@
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
-    </row>
-    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X56" s="3"/>
+    </row>
+    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>52900</v>
+      </c>
+      <c r="E57" s="3">
         <v>55400</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>56000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>58400</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>61500</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>57500</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>55900</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>61900</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>36100</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>36000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>36400</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>49100</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>39100</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>38300</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>38800</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>51000</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>46600</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>46200</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>34900</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>41600</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>38900</v>
       </c>
     </row>
-    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3657,192 +3791,201 @@
       <c r="W58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>504200</v>
+      </c>
+      <c r="E59" s="3">
         <v>541800</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>501900</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>527600</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>478800</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>475100</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>451200</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>552600</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>397700</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>401000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>410200</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>367400</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>304400</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>316300</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>305500</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>347000</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>276200</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>283700</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>288200</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>335000</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>265200</v>
       </c>
     </row>
-    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>557100</v>
+      </c>
+      <c r="E60" s="3">
         <v>597200</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>558000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>586100</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>540400</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>532700</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>507100</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>614600</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>433800</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>437000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>446600</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>416500</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>343500</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>354600</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>344300</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>398000</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>322800</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>329900</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>323100</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>376500</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>304100</v>
       </c>
     </row>
-    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>465500</v>
+      </c>
+      <c r="E61" s="3">
         <v>465000</v>
-      </c>
-      <c r="E61" s="3">
-        <v>280000</v>
       </c>
       <c r="F61" s="3">
         <v>280000</v>
       </c>
       <c r="G61" s="3">
-        <v>376000</v>
+        <v>280000</v>
       </c>
       <c r="H61" s="3">
         <v>376000</v>
       </c>
       <c r="I61" s="3">
+        <v>376000</v>
+      </c>
+      <c r="J61" s="3">
         <v>380000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>290000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>335000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>35000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>20000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>10000</v>
-      </c>
-      <c r="O61" s="3">
-        <v>20000</v>
       </c>
       <c r="P61" s="3">
         <v>20000</v>
       </c>
       <c r="Q61" s="3">
+        <v>20000</v>
+      </c>
+      <c r="R61" s="3">
         <v>30000</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>10000</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>30000</v>
       </c>
-      <c r="T61" s="3">
-        <v>0</v>
-      </c>
       <c r="U61" s="3">
         <v>0</v>
       </c>
@@ -3852,73 +3995,79 @@
       <c r="W61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>1373200</v>
+      </c>
+      <c r="E62" s="3">
         <v>1375500</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>1367500</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>1374000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>1379500</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>1402600</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>1369700</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>1364300</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>1079200</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>1061500</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>1067200</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>316600</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>331100</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>319300</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>318800</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>311600</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>339200</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>328900</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>326200</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>313600</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>310700</v>
       </c>
     </row>
-    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3982,8 +4131,11 @@
       <c r="W63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4047,8 +4199,11 @@
       <c r="W64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4112,73 +4267,79 @@
       <c r="W65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>2395800</v>
+      </c>
+      <c r="E66" s="3">
         <v>2437700</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>2205400</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>2240100</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>2295900</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>2311300</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>2256800</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>2268900</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>1848000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>1533500</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>1533800</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>743100</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>694700</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>693900</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>693200</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>719500</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>692000</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>658800</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>649300</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>690100</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>614800</v>
       </c>
     </row>
-    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4202,8 +4363,9 @@
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
-    </row>
-    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X67" s="3"/>
+    </row>
+    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4267,8 +4429,11 @@
       <c r="W68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4332,8 +4497,11 @@
       <c r="W69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4341,20 +4509,20 @@
         <v>0</v>
       </c>
       <c r="E70" s="3">
+        <v>0</v>
+      </c>
+      <c r="F70" s="3">
         <v>213500</v>
       </c>
-      <c r="F70" s="3">
+      <c r="G70" s="3">
         <v>218200</v>
       </c>
-      <c r="G70" s="3">
+      <c r="H70" s="3">
         <v>209900</v>
       </c>
-      <c r="H70" s="3">
+      <c r="I70" s="3">
         <v>204100</v>
       </c>
-      <c r="I70" s="3">
-        <v>0</v>
-      </c>
       <c r="J70" s="3">
         <v>0</v>
       </c>
@@ -4397,8 +4565,11 @@
       <c r="W70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4462,73 +4633,79 @@
       <c r="W71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>1167000</v>
+      </c>
+      <c r="E72" s="3">
         <v>1134200</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>1114000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>1110100</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>1150700</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>1184900</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>1255800</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>1408300</v>
-      </c>
-      <c r="K72" s="3">
-        <v>1375700</v>
       </c>
       <c r="L72" s="3">
         <v>1375700</v>
       </c>
       <c r="M72" s="3">
+        <v>1375700</v>
+      </c>
+      <c r="N72" s="3">
         <v>1355100</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>1384500</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>1383300</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>1369900</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>1354900</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>1345700</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>1301200</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>1288200</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>1261600</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>1238000</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>1217000</v>
       </c>
     </row>
-    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4592,8 +4769,11 @@
       <c r="W73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4657,8 +4837,11 @@
       <c r="W74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4722,73 +4905,79 @@
       <c r="W75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>321900</v>
+      </c>
+      <c r="E76" s="3">
         <v>284600</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>316500</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>288700</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>322300</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>351900</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>419000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>571700</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>533800</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>540300</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>542200</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>571100</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>613400</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>612800</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>594200</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>613500</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>583400</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>640500</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>627500</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>603200</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>589500</v>
       </c>
     </row>
-    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4852,143 +5041,152 @@
       <c r="W77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44467</v>
+      </c>
+      <c r="E80" s="2">
         <v>44376</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44285</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44194</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44103</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44012</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43921</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43830</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43739</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43648</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43557</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43466</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43375</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43284</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43193</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43102</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43011</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42920</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42829</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42738</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42640</v>
       </c>
     </row>
-    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>17100</v>
+        <v>32700</v>
       </c>
       <c r="E81" s="3">
+        <v>13100</v>
+      </c>
+      <c r="F81" s="3">
         <v>-1300</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-37300</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-33200</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-70500</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-136200</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>48700</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>16100</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>35500</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>27000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>16200</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>28500</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>28400</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>26000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>57700</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>26400</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>38200</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>35000</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>32400</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>34600</v>
       </c>
     </row>
-    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5012,73 +5210,77 @@
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
-    </row>
-    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X82" s="3"/>
+    </row>
+    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>22200</v>
+        <v>22600</v>
       </c>
       <c r="E83" s="3">
+        <v>44200</v>
+      </c>
+      <c r="F83" s="3">
         <v>22000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>22600</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>22700</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>22600</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>23600</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>23800</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>21300</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>21700</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>21400</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>24200</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>24100</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>23700</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>24000</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>23200</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>23000</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>23300</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>23200</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>23500</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>21600</v>
       </c>
     </row>
-    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5142,8 +5344,11 @@
       <c r="W84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5207,8 +5412,11 @@
       <c r="W85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5272,8 +5480,11 @@
       <c r="W86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5337,8 +5548,11 @@
       <c r="W87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5402,73 +5616,79 @@
       <c r="W88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>108800</v>
+        <v>-11300</v>
       </c>
       <c r="E89" s="3">
+        <v>130400</v>
+      </c>
+      <c r="F89" s="3">
         <v>21600</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>35600</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>2900</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-2700</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-33000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>102600</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>32400</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>50300</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>33500</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>109200</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>41600</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>65600</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>74900</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>84600</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>40300</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>65800</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>48100</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>86000</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>58100</v>
       </c>
     </row>
-    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5492,73 +5712,77 @@
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
-    </row>
-    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X90" s="3"/>
+    </row>
+    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-23700</v>
+        <v>-18300</v>
       </c>
       <c r="E91" s="3">
+        <v>-30900</v>
+      </c>
+      <c r="F91" s="3">
         <v>-7200</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-12100</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-8800</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-13600</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-15800</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-27100</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-17300</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-16000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-13400</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-24200</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-26800</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-21200</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-30700</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-47400</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-29700</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-24500</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-19500</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-45600</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>10400</v>
       </c>
     </row>
-    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5622,8 +5846,11 @@
       <c r="W92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5687,73 +5914,79 @@
       <c r="W93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-23500</v>
+        <v>-18700</v>
       </c>
       <c r="E94" s="3">
+        <v>-32200</v>
+      </c>
+      <c r="F94" s="3">
         <v>-8700</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-12300</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-9000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-13700</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-15900</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-290500</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-22000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-23100</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-27400</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-24500</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-39800</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-35100</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-31000</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-57100</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-30000</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-33700</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-19600</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-87600</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-30800</v>
       </c>
     </row>
-    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5777,20 +6010,21 @@
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
-    </row>
-    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X95" s="3"/>
+    </row>
+    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>1800</v>
+        <v>0</v>
       </c>
       <c r="E96" s="3">
+        <v>-300</v>
+      </c>
+      <c r="F96" s="3">
         <v>-2200</v>
       </c>
-      <c r="F96" s="3">
-        <v>0</v>
-      </c>
       <c r="G96" s="3">
         <v>0</v>
       </c>
@@ -5798,52 +6032,55 @@
         <v>0</v>
       </c>
       <c r="I96" s="3">
+        <v>0</v>
+      </c>
+      <c r="J96" s="3">
         <v>-15800</v>
-      </c>
-      <c r="J96" s="3">
-        <v>-15700</v>
       </c>
       <c r="K96" s="3">
         <v>-15700</v>
       </c>
       <c r="L96" s="3">
+        <v>-15700</v>
+      </c>
+      <c r="M96" s="3">
         <v>-14700</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-14600</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-14800</v>
       </c>
-      <c r="O96" s="3">
+      <c r="P96" s="3">
         <v>-14900</v>
       </c>
-      <c r="P96" s="3">
+      <c r="Q96" s="3">
         <v>-13400</v>
       </c>
-      <c r="Q96" s="3">
+      <c r="R96" s="3">
         <v>-13200</v>
       </c>
-      <c r="R96" s="3">
+      <c r="S96" s="3">
         <v>-13300</v>
       </c>
-      <c r="S96" s="3">
+      <c r="T96" s="3">
         <v>-13500</v>
       </c>
-      <c r="T96" s="3">
+      <c r="U96" s="3">
         <v>-11500</v>
       </c>
-      <c r="U96" s="3">
+      <c r="V96" s="3">
         <v>-11700</v>
       </c>
-      <c r="V96" s="3">
+      <c r="W96" s="3">
         <v>-11300</v>
       </c>
-      <c r="W96" s="3">
+      <c r="X96" s="3">
         <v>-11500</v>
       </c>
     </row>
-    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5907,8 +6144,11 @@
       <c r="W97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5972,8 +6212,11 @@
       <c r="W98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6037,100 +6280,106 @@
       <c r="W99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-104900</v>
+        <v>-700</v>
       </c>
       <c r="E100" s="3">
+        <v>-90600</v>
+      </c>
+      <c r="F100" s="3">
         <v>14300</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-113100</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-400</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>185500</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>71700</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-59900</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>273200</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-27100</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-10200</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-70600</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-18500</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-25900</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-25200</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-41200</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-56800</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-31500</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-16700</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-10400</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-47700</v>
       </c>
     </row>
-    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E101" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F101" s="3">
+        <v>0</v>
+      </c>
+      <c r="G101" s="3">
         <v>100</v>
       </c>
-      <c r="G101" s="3">
-        <v>0</v>
-      </c>
       <c r="H101" s="3">
+        <v>0</v>
+      </c>
+      <c r="I101" s="3">
         <v>100</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>-200</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>100</v>
       </c>
-      <c r="K101" s="3">
-        <v>0</v>
-      </c>
       <c r="L101" s="3">
         <v>0</v>
       </c>
@@ -6138,11 +6387,11 @@
         <v>0</v>
       </c>
       <c r="N101" s="3">
+        <v>0</v>
+      </c>
+      <c r="O101" s="3">
         <v>-100</v>
       </c>
-      <c r="O101" s="3">
-        <v>0</v>
-      </c>
       <c r="P101" s="3">
         <v>0</v>
       </c>
@@ -6150,10 +6399,10 @@
         <v>0</v>
       </c>
       <c r="R101" s="3">
+        <v>0</v>
+      </c>
+      <c r="S101" s="3">
         <v>-100</v>
-      </c>
-      <c r="S101" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="T101" s="3" t="s">
         <v>8</v>
@@ -6167,69 +6416,75 @@
       <c r="W101" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X101" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-19600</v>
+        <v>-30700</v>
       </c>
       <c r="E102" s="3">
+        <v>7700</v>
+      </c>
+      <c r="F102" s="3">
         <v>27300</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-89700</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-6400</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>169100</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>22600</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-247800</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>283600</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>100</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-4000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>13900</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-16700</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>4600</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>18800</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-13800</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-46500</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>600</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>11800</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-12000</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>-13800</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/CAKE_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/CAKE_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="92">
   <si>
     <t>CAKE</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:X102"/>
+  <dimension ref="A5:Y102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,301 +665,313 @@
     <col min="1" max="1" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="23" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="24" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44558</v>
+      </c>
+      <c r="E7" s="2">
         <v>44467</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44376</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44285</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44194</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44103</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44012</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43921</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43830</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43739</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43648</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43557</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43466</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43375</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43284</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43193</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43102</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43011</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42920</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42829</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42738</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42640</v>
       </c>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>776700</v>
+      </c>
+      <c r="E8" s="3">
         <v>754500</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>1396400</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>627400</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>554600</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>517700</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>295900</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>615100</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>694000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>586500</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>602600</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>599500</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>585200</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>575200</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>587300</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>584700</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>571800</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>555400</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>569900</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>563400</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>603100</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>560000</v>
       </c>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>178900</v>
+      </c>
+      <c r="E9" s="3">
         <v>169400</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>304800</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>135900</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>127200</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>118100</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>72100</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>140900</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>158200</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>132900</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>134400</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>136200</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>134800</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>132200</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>131700</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>134200</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>134000</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>127500</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>128800</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>129100</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>140100</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>128800</v>
       </c>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>597800</v>
+      </c>
+      <c r="E10" s="3">
         <v>585100</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>1091600</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>491500</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>427400</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>399600</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>223800</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>474200</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>535800</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>453600</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>468200</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>463300</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>450400</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>443000</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>455600</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>450500</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>437800</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>427900</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>441100</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>434300</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>463000</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>431200</v>
       </c>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -984,8 +996,9 @@
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
-    </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y11" s="3"/>
+    </row>
+    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1052,8 +1065,11 @@
       <c r="X12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1120,144 +1136,153 @@
       <c r="X13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>24500</v>
+      </c>
+      <c r="E14" s="3">
         <v>700</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>12500</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>6000</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>20500</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>14500</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>2500</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>188700</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>23500</v>
       </c>
-      <c r="L14" s="3">
-        <v>0</v>
-      </c>
       <c r="M14" s="3">
         <v>0</v>
       </c>
-      <c r="N14" s="3" t="s">
+      <c r="N14" s="3">
+        <v>0</v>
+      </c>
+      <c r="O14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>15000</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>300</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>2600</v>
       </c>
-      <c r="R14" s="3" t="s">
+      <c r="S14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>9100</v>
       </c>
-      <c r="T14" s="3">
-        <v>0</v>
-      </c>
       <c r="U14" s="3">
+        <v>0</v>
+      </c>
+      <c r="V14" s="3">
         <v>400</v>
       </c>
-      <c r="V14" s="3">
+      <c r="W14" s="3">
         <v>800</v>
       </c>
-      <c r="W14" s="3">
+      <c r="X14" s="3">
         <v>100</v>
       </c>
-      <c r="X14" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>22800</v>
+      </c>
+      <c r="E15" s="3">
         <v>22600</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>44200</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>22000</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>22600</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>22700</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>22600</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>23600</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>23800</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>21300</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>21700</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>21400</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>24200</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>24100</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>23700</v>
       </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3">
         <v>24000</v>
       </c>
-      <c r="S15" s="3">
+      <c r="T15" s="3">
         <v>23200</v>
       </c>
-      <c r="T15" s="3">
+      <c r="U15" s="3">
         <v>23000</v>
       </c>
-      <c r="U15" s="3">
+      <c r="V15" s="3">
         <v>23300</v>
       </c>
-      <c r="V15" s="3">
+      <c r="W15" s="3">
         <v>23200</v>
       </c>
-      <c r="W15" s="3">
+      <c r="X15" s="3">
         <v>23500</v>
       </c>
-      <c r="X15" s="3">
+      <c r="Y15" s="3">
         <v>21600</v>
       </c>
     </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1279,144 +1304,151 @@
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
-    </row>
-    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y16" s="3"/>
+    </row>
+    <row r="17" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>775700</v>
+      </c>
+      <c r="E17" s="3">
         <v>723100</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>1346400</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>618600</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>593400</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>552600</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>379600</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>805200</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>687600</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>559600</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>562500</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>569300</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>565800</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>541700</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>552800</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>553100</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>547100</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>521100</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>519700</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>519900</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>556000</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>510000</v>
       </c>
     </row>
-    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E18" s="3">
         <v>31400</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>50000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>8800</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-38800</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-34900</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-83700</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-190100</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>6400</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>26900</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>40100</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>30200</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>19400</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>33500</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>34500</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>31600</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>24700</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>34300</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>50200</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>43500</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>47100</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>50000</v>
       </c>
     </row>
-    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1441,144 +1473,151 @@
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
-    </row>
-    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y19" s="3"/>
+    </row>
+    <row r="20" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="E20" s="3">
         <v>-1800</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-7400</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-2700</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-1600</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-2900</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-2600</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-1500</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>50200</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-10300</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-1600</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-1500</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-3900</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-3300</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-2900</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-1500</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-1900</v>
-      </c>
-      <c r="T20" s="3">
-        <v>-1600</v>
       </c>
       <c r="U20" s="3">
         <v>-1600</v>
       </c>
       <c r="V20" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="W20" s="3">
         <v>-1200</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>-2200</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>-2500</v>
       </c>
     </row>
-    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>22300</v>
+      </c>
+      <c r="E21" s="3">
         <v>52200</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>86800</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>28200</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-17800</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-15100</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-63700</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-168000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>80300</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>38000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>60100</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>50100</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>39700</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>54300</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>55400</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>54000</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>46000</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>55700</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>71900</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>65500</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>68300</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>69200</v>
       </c>
     </row>
-    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1645,144 +1684,153 @@
       <c r="X22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-500</v>
+      </c>
+      <c r="E23" s="3">
         <v>29600</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>42600</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>6200</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-40400</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-37800</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-86300</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-191600</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>56600</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>16600</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>38400</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>28700</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>15500</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>30200</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>31600</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>30000</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>22800</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>32700</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>48600</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>42300</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>44900</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>47600</v>
       </c>
     </row>
-    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>-2600</v>
+      </c>
+      <c r="E24" s="3">
         <v>-3100</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>5000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>2300</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>-8100</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>-9400</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>-29700</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>-55400</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>7900</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>500</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>2900</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>1700</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>-700</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>1700</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>3300</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>4000</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>3600</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>6300</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>10500</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>7300</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>12500</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>13000</v>
       </c>
     </row>
-    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1849,144 +1897,153 @@
       <c r="X25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>2100</v>
+      </c>
+      <c r="E26" s="3">
         <v>32700</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>37600</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>3900</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-32300</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-28300</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-56500</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-136200</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>48700</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>16100</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>35500</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>27000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>16200</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>28500</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>28400</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>26000</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>19200</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>26400</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>38200</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>35000</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>32400</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>34600</v>
       </c>
     </row>
-    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>3300</v>
+      </c>
+      <c r="E27" s="3">
         <v>32700</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>13100</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-1300</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-37300</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-33200</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-70500</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-136200</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>48700</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>16100</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>35500</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>27000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>16200</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>28500</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>28400</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>26000</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>19200</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>26400</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>38200</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>35000</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>32400</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>34600</v>
       </c>
     </row>
-    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2053,8 +2110,11 @@
       <c r="X28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2085,8 +2145,8 @@
       <c r="L29" s="3">
         <v>0</v>
       </c>
-      <c r="M29" s="3" t="s">
-        <v>8</v>
+      <c r="M29" s="3">
+        <v>0</v>
       </c>
       <c r="N29" s="3" t="s">
         <v>8</v>
@@ -2103,11 +2163,11 @@
       <c r="R29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="S29" s="3">
+      <c r="S29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="T29" s="3">
         <v>38500</v>
-      </c>
-      <c r="T29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="U29" s="3" t="s">
         <v>8</v>
@@ -2121,8 +2181,11 @@
       <c r="X29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2189,8 +2252,11 @@
       <c r="X30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2257,144 +2323,153 @@
       <c r="X31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>1500</v>
+      </c>
+      <c r="E32" s="3">
         <v>1800</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>7400</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>2700</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>1600</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>2900</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>2600</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>1500</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-50200</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>10300</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>1600</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>1500</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>3900</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>3300</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>2900</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>1500</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>1900</v>
-      </c>
-      <c r="T32" s="3">
-        <v>1600</v>
       </c>
       <c r="U32" s="3">
         <v>1600</v>
       </c>
       <c r="V32" s="3">
+        <v>1600</v>
+      </c>
+      <c r="W32" s="3">
         <v>1200</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>2200</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>2500</v>
       </c>
     </row>
-    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>3300</v>
+      </c>
+      <c r="E33" s="3">
         <v>32700</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>13100</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-1300</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-37300</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-33200</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-70500</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-136200</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>48700</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>16100</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>35500</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>27000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>16200</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>28500</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>28400</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>26000</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>57700</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>26400</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>38200</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>35000</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>32400</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>34600</v>
       </c>
     </row>
-    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2461,149 +2536,158 @@
       <c r="X34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>3300</v>
+      </c>
+      <c r="E35" s="3">
         <v>32700</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>13100</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-1300</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-37300</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-33200</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-70500</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-136200</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>48700</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>16100</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>35500</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>27000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>16200</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>28500</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>28400</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>26000</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>57700</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>26400</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>38200</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>35000</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>32400</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>34600</v>
       </c>
     </row>
-    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44558</v>
+      </c>
+      <c r="E38" s="2">
         <v>44467</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44376</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44285</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44194</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44103</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44012</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43921</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43830</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43739</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43648</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43557</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43466</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43375</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43284</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43193</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43102</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43011</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42920</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42829</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42738</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42640</v>
       </c>
     </row>
-    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2628,8 +2712,9 @@
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
-    </row>
-    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y39" s="3"/>
+    </row>
+    <row r="40" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2654,76 +2739,80 @@
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
-    </row>
-    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y40" s="3"/>
+    </row>
+    <row r="41" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>189600</v>
+      </c>
+      <c r="E41" s="3">
         <v>131000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>161800</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>181300</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>154100</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>243800</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>250200</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>81000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>58400</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>306300</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>22600</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>22500</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>26600</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>12600</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>29400</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>24800</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>6000</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>19800</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>66300</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>65700</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>53800</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>65800</v>
       </c>
     </row>
-    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2790,280 +2879,295 @@
       <c r="X42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>155100</v>
+      </c>
+      <c r="E43" s="3">
         <v>120400</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>108400</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>109000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>130600</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>113100</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>145900</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>120000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>118100</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>74500</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>70100</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>67500</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>89100</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>54100</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>52100</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>44100</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>102400</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>52100</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>53000</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>44800</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>80200</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>45200</v>
       </c>
     </row>
-    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>42800</v>
+      </c>
+      <c r="E44" s="3">
         <v>43300</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>41900</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>39000</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>39300</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>37700</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>40500</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>47800</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>47200</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>47800</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>46000</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>42000</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>38900</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>39800</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>34700</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>41000</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>42600</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>44200</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>40200</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>38500</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>34900</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>35500</v>
       </c>
     </row>
-    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>18000</v>
+      </c>
+      <c r="E45" s="3">
         <v>15400</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>16200</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>14500</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>17400</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>16400</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>18100</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>21800</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>20800</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>20600</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>19400</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>25500</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>40600</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>48300</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>52900</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>54000</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>57700</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>48500</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>50900</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>52600</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>52400</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>36300</v>
       </c>
     </row>
-    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>405600</v>
+      </c>
+      <c r="E46" s="3">
         <v>310200</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>328300</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>343800</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>341400</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>411000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>454600</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>270700</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>244500</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>449100</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>158200</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>157500</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>195200</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>154800</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>169100</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>163900</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>208600</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>164600</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>210500</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>201600</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>221400</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>182900</v>
       </c>
     </row>
-    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3092,19 +3196,19 @@
         <v>0</v>
       </c>
       <c r="L47" s="3">
+        <v>0</v>
+      </c>
+      <c r="M47" s="3">
         <v>91800</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>97700</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>81300</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>79800</v>
-      </c>
-      <c r="P47" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="Q47" s="3" t="s">
         <v>8</v>
@@ -3121,8 +3225,8 @@
       <c r="U47" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="V47" s="3">
-        <v>0</v>
+      <c r="V47" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="W47" s="3">
         <v>0</v>
@@ -3130,144 +3234,153 @@
       <c r="X47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>1983000</v>
+      </c>
+      <c r="E48" s="3">
         <v>2014500</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>2002800</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>2006600</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>2025200</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>2056900</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>2074000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>2075700</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>2072600</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>1744100</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>1722200</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>1732600</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>913300</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>940100</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>936500</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>935300</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>935000</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>933500</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>913400</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>910600</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>910100</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>902600</v>
       </c>
     </row>
-    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>251700</v>
+      </c>
+      <c r="E49" s="3">
         <v>253200</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>253100</v>
-      </c>
-      <c r="F49" s="3">
-        <v>253200</v>
       </c>
       <c r="G49" s="3">
         <v>253200</v>
       </c>
       <c r="H49" s="3">
+        <v>253200</v>
+      </c>
+      <c r="I49" s="3">
         <v>253600</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>254300</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>254400</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>437200</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>20300</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>20200</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>20100</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>26200</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>26300</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>24500</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>24200</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>24100</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>23500</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>23400</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>23200</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>23100</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>22800</v>
       </c>
     </row>
-    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3334,8 +3447,11 @@
       <c r="X50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3402,76 +3518,82 @@
       <c r="X51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>157900</v>
+      </c>
+      <c r="E52" s="3">
         <v>139900</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>138100</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>131900</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>127400</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>106600</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>84300</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>75000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>86300</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>76400</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>75500</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>84500</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>99700</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>186800</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>176600</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>164000</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>165300</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>153700</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>152100</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>141500</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>138700</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>96100</v>
       </c>
     </row>
-    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3538,76 +3660,82 @@
       <c r="X53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>2798100</v>
+      </c>
+      <c r="E54" s="3">
         <v>2717700</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>2722300</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>2735400</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>2747100</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>2828100</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>2867300</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>2675800</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>2840600</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>2381800</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>2073800</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>2076100</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>1314100</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>1308100</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>1306600</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>1287300</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>1333100</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>1275300</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>1299300</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>1276800</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>1293300</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>1204400</v>
       </c>
     </row>
-    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3632,8 +3760,9 @@
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
-    </row>
-    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y55" s="3"/>
+    </row>
+    <row r="56" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3658,76 +3787,80 @@
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
-    </row>
-    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y56" s="3"/>
+    </row>
+    <row r="57" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>54100</v>
+      </c>
+      <c r="E57" s="3">
         <v>52900</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>55400</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>56000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>58400</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>61500</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>57500</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>55900</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>61900</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>36100</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>36000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>36400</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>49100</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>39100</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>38300</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>38800</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>51000</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>46600</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>46200</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>34900</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>41600</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>38900</v>
       </c>
     </row>
-    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3794,201 +3927,210 @@
       <c r="X58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>582200</v>
+      </c>
+      <c r="E59" s="3">
         <v>504200</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>541800</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>501900</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>527600</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>478800</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>475100</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>451200</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>552600</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>397700</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>401000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>410200</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>367400</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>304400</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>316300</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>305500</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>347000</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>276200</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>283700</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>288200</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>335000</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>265200</v>
       </c>
     </row>
-    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>636300</v>
+      </c>
+      <c r="E60" s="3">
         <v>557100</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>597200</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>558000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>586100</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>540400</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>532700</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>507100</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>614600</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>433800</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>437000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>446600</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>416500</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>343500</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>354600</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>344300</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>398000</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>322800</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>329900</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>323100</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>376500</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>304100</v>
       </c>
     </row>
-    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>466000</v>
+      </c>
+      <c r="E61" s="3">
         <v>465500</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>465000</v>
-      </c>
-      <c r="F61" s="3">
-        <v>280000</v>
       </c>
       <c r="G61" s="3">
         <v>280000</v>
       </c>
       <c r="H61" s="3">
-        <v>376000</v>
+        <v>280000</v>
       </c>
       <c r="I61" s="3">
         <v>376000</v>
       </c>
       <c r="J61" s="3">
+        <v>376000</v>
+      </c>
+      <c r="K61" s="3">
         <v>380000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>290000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>335000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>35000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>20000</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>10000</v>
-      </c>
-      <c r="P61" s="3">
-        <v>20000</v>
       </c>
       <c r="Q61" s="3">
         <v>20000</v>
       </c>
       <c r="R61" s="3">
+        <v>20000</v>
+      </c>
+      <c r="S61" s="3">
         <v>30000</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>10000</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>30000</v>
       </c>
-      <c r="U61" s="3">
-        <v>0</v>
-      </c>
       <c r="V61" s="3">
         <v>0</v>
       </c>
@@ -3998,76 +4140,82 @@
       <c r="X61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>1365700</v>
+      </c>
+      <c r="E62" s="3">
         <v>1373200</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>1375500</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>1367500</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>1374000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>1379500</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>1402600</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>1369700</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>1364300</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>1079200</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>1061500</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>1067200</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>316600</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>331100</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>319300</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>318800</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>311600</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>339200</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>328900</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>326200</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>313600</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>310700</v>
       </c>
     </row>
-    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4134,8 +4282,11 @@
       <c r="X63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4202,8 +4353,11 @@
       <c r="X64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4270,76 +4424,82 @@
       <c r="X65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>2468000</v>
+      </c>
+      <c r="E66" s="3">
         <v>2395800</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>2437700</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>2205400</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>2240100</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>2295900</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>2311300</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>2256800</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>2268900</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>1848000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>1533500</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>1533800</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>743100</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>694700</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>693900</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>693200</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>719500</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>692000</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>658800</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>649300</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>690100</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>614800</v>
       </c>
     </row>
-    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4364,8 +4524,9 @@
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
-    </row>
-    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y67" s="3"/>
+    </row>
+    <row r="68" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4432,8 +4593,11 @@
       <c r="X68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4500,8 +4664,11 @@
       <c r="X69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4512,20 +4679,20 @@
         <v>0</v>
       </c>
       <c r="F70" s="3">
+        <v>0</v>
+      </c>
+      <c r="G70" s="3">
         <v>213500</v>
       </c>
-      <c r="G70" s="3">
+      <c r="H70" s="3">
         <v>218200</v>
       </c>
-      <c r="H70" s="3">
+      <c r="I70" s="3">
         <v>209900</v>
       </c>
-      <c r="I70" s="3">
+      <c r="J70" s="3">
         <v>204100</v>
       </c>
-      <c r="J70" s="3">
-        <v>0</v>
-      </c>
       <c r="K70" s="3">
         <v>0</v>
       </c>
@@ -4568,8 +4735,11 @@
       <c r="X70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4636,76 +4806,82 @@
       <c r="X71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>1169200</v>
+      </c>
+      <c r="E72" s="3">
         <v>1167000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>1134200</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>1114000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>1110100</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>1150700</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>1184900</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>1255800</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>1408300</v>
-      </c>
-      <c r="L72" s="3">
-        <v>1375700</v>
       </c>
       <c r="M72" s="3">
         <v>1375700</v>
       </c>
       <c r="N72" s="3">
+        <v>1375700</v>
+      </c>
+      <c r="O72" s="3">
         <v>1355100</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>1384500</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>1383300</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>1369900</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>1354900</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>1345700</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>1301200</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>1288200</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>1261600</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>1238000</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>1217000</v>
       </c>
     </row>
-    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4772,8 +4948,11 @@
       <c r="X73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4840,8 +5019,11 @@
       <c r="X74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4908,76 +5090,82 @@
       <c r="X75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>330200</v>
+      </c>
+      <c r="E76" s="3">
         <v>321900</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>284600</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>316500</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>288700</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>322300</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>351900</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>419000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>571700</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>533800</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>540300</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>542200</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>571100</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>613400</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>612800</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>594200</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>613500</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>583400</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>640500</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>627500</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>603200</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>589500</v>
       </c>
     </row>
-    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5044,149 +5232,158 @@
       <c r="X77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44558</v>
+      </c>
+      <c r="E80" s="2">
         <v>44467</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44376</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44285</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44194</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44103</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44012</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43921</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43830</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43739</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43648</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43557</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43466</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43375</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43284</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43193</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43102</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43011</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42920</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42829</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42738</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42640</v>
       </c>
     </row>
-    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>3300</v>
+      </c>
+      <c r="E81" s="3">
         <v>32700</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>13100</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-1300</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-37300</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-33200</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-70500</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-136200</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>48700</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>16100</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>35500</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>27000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>16200</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>28500</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>28400</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>26000</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>57700</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>26400</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>38200</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>35000</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>32400</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>34600</v>
       </c>
     </row>
-    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5211,76 +5408,80 @@
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
       <c r="X82" s="3"/>
-    </row>
-    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y82" s="3"/>
+    </row>
+    <row r="83" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>22800</v>
+      </c>
+      <c r="E83" s="3">
         <v>22600</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>44200</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>22000</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>22600</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>22700</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>22600</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>23600</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>23800</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>21300</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>21700</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>21400</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>24200</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>24100</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>23700</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>24000</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>23200</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>23000</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>23300</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>23200</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>23500</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>21600</v>
       </c>
     </row>
-    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5347,8 +5548,11 @@
       <c r="X84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5415,8 +5619,11 @@
       <c r="X85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5483,8 +5690,11 @@
       <c r="X86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5551,8 +5761,11 @@
       <c r="X87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5619,76 +5832,82 @@
       <c r="X88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>93800</v>
+      </c>
+      <c r="E89" s="3">
         <v>-11300</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>130400</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>21600</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>35600</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>2900</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-2700</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-33000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>102600</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>32400</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>50300</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>33500</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>109200</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>41600</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>65600</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>74900</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>84600</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>40300</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>65800</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>48100</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>86000</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>58100</v>
       </c>
     </row>
-    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5713,76 +5932,80 @@
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
       <c r="X90" s="3"/>
-    </row>
-    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y90" s="3"/>
+    </row>
+    <row r="91" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-17800</v>
+      </c>
+      <c r="E91" s="3">
         <v>-18300</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-30900</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-7200</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-12100</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-8800</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-13600</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-15800</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-27100</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-17300</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-16000</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-13400</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-24200</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-26800</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-21200</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-30700</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-47400</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-29700</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-24500</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-19500</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-45600</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>10400</v>
       </c>
     </row>
-    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5849,8 +6072,11 @@
       <c r="X92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5917,76 +6143,82 @@
       <c r="X93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-17700</v>
+      </c>
+      <c r="E94" s="3">
         <v>-18700</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-32200</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-8700</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-12300</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-9000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-13700</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-15900</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-290500</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-22000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-23100</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-27400</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-24500</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-39800</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-35100</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-31000</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-57100</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-30000</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-33700</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-19600</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-87600</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-30800</v>
       </c>
     </row>
-    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6011,8 +6243,9 @@
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
       <c r="X95" s="3"/>
-    </row>
-    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y95" s="3"/>
+    </row>
+    <row r="96" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6020,14 +6253,14 @@
         <v>0</v>
       </c>
       <c r="E96" s="3">
+        <v>0</v>
+      </c>
+      <c r="F96" s="3">
         <v>-300</v>
       </c>
-      <c r="F96" s="3">
+      <c r="G96" s="3">
         <v>-2200</v>
       </c>
-      <c r="G96" s="3">
-        <v>0</v>
-      </c>
       <c r="H96" s="3">
         <v>0</v>
       </c>
@@ -6035,52 +6268,55 @@
         <v>0</v>
       </c>
       <c r="J96" s="3">
+        <v>0</v>
+      </c>
+      <c r="K96" s="3">
         <v>-15800</v>
-      </c>
-      <c r="K96" s="3">
-        <v>-15700</v>
       </c>
       <c r="L96" s="3">
         <v>-15700</v>
       </c>
       <c r="M96" s="3">
+        <v>-15700</v>
+      </c>
+      <c r="N96" s="3">
         <v>-14700</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-14600</v>
       </c>
-      <c r="O96" s="3">
+      <c r="P96" s="3">
         <v>-14800</v>
       </c>
-      <c r="P96" s="3">
+      <c r="Q96" s="3">
         <v>-14900</v>
       </c>
-      <c r="Q96" s="3">
+      <c r="R96" s="3">
         <v>-13400</v>
       </c>
-      <c r="R96" s="3">
+      <c r="S96" s="3">
         <v>-13200</v>
       </c>
-      <c r="S96" s="3">
+      <c r="T96" s="3">
         <v>-13300</v>
       </c>
-      <c r="T96" s="3">
+      <c r="U96" s="3">
         <v>-13500</v>
       </c>
-      <c r="U96" s="3">
+      <c r="V96" s="3">
         <v>-11500</v>
       </c>
-      <c r="V96" s="3">
+      <c r="W96" s="3">
         <v>-11700</v>
       </c>
-      <c r="W96" s="3">
+      <c r="X96" s="3">
         <v>-11300</v>
       </c>
-      <c r="X96" s="3">
+      <c r="Y96" s="3">
         <v>-11500</v>
       </c>
     </row>
-    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6147,8 +6383,11 @@
       <c r="X97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6215,8 +6454,11 @@
       <c r="X98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6283,106 +6525,112 @@
       <c r="X99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-17500</v>
+      </c>
+      <c r="E100" s="3">
         <v>-700</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-90600</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>14300</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-113100</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-400</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>185500</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>71700</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-59900</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>273200</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-27100</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-10200</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-70600</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-18500</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-25900</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-25200</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-41200</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-56800</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-31500</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-16700</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-10400</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>-47700</v>
       </c>
     </row>
-    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>0</v>
+      </c>
+      <c r="E101" s="3">
         <v>-100</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>100</v>
       </c>
-      <c r="F101" s="3">
-        <v>0</v>
-      </c>
       <c r="G101" s="3">
+        <v>0</v>
+      </c>
+      <c r="H101" s="3">
         <v>100</v>
       </c>
-      <c r="H101" s="3">
-        <v>0</v>
-      </c>
       <c r="I101" s="3">
+        <v>0</v>
+      </c>
+      <c r="J101" s="3">
         <v>100</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>-200</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>100</v>
       </c>
-      <c r="L101" s="3">
-        <v>0</v>
-      </c>
       <c r="M101" s="3">
         <v>0</v>
       </c>
@@ -6390,11 +6638,11 @@
         <v>0</v>
       </c>
       <c r="O101" s="3">
+        <v>0</v>
+      </c>
+      <c r="P101" s="3">
         <v>-100</v>
       </c>
-      <c r="P101" s="3">
-        <v>0</v>
-      </c>
       <c r="Q101" s="3">
         <v>0</v>
       </c>
@@ -6402,10 +6650,10 @@
         <v>0</v>
       </c>
       <c r="S101" s="3">
+        <v>0</v>
+      </c>
+      <c r="T101" s="3">
         <v>-100</v>
-      </c>
-      <c r="T101" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="U101" s="3" t="s">
         <v>8</v>
@@ -6419,72 +6667,78 @@
       <c r="X101" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y101" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="102" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>58600</v>
+      </c>
+      <c r="E102" s="3">
         <v>-30700</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>7700</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>27300</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-89700</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-6400</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>169100</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>22600</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-247800</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>283600</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>100</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-4000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>13900</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-16700</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>4600</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>18800</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-13800</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-46500</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>600</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>11800</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>-12000</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>-13800</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/CAKE_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/CAKE_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="92">
   <si>
     <t>CAKE</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Y102"/>
+  <dimension ref="A5:Z102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,313 +665,326 @@
     <col min="1" max="1" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="24" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="25" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44649</v>
+      </c>
+      <c r="E7" s="2">
         <v>44558</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44467</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44376</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44285</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44194</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44103</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44012</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43921</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43830</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43739</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43648</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43557</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43466</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43375</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43284</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43193</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43102</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43011</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42920</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42829</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42738</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42640</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>793700</v>
+      </c>
+      <c r="E8" s="3">
         <v>776700</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>754500</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>1396400</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>627400</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>554600</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>517700</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>295900</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>615100</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>694000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>586500</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>602600</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>599500</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>585200</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>575200</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>587300</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>584700</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>571800</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>555400</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>569900</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>563400</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>603100</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>560000</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>188500</v>
+      </c>
+      <c r="E9" s="3">
         <v>178900</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>169400</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>304800</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>135900</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>127200</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>118100</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>72100</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>140900</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>158200</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>132900</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>134400</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>136200</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>134800</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>132200</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>131700</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>134200</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>134000</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>127500</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>128800</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>129100</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>140100</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>128800</v>
       </c>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>605200</v>
+      </c>
+      <c r="E10" s="3">
         <v>597800</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>585100</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>1091600</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>491500</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>427400</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>399600</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>223800</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>474200</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>535800</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>453600</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>468200</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>463300</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>450400</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>443000</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>455600</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>450500</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>437800</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>427900</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>441100</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>434300</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>463000</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>431200</v>
       </c>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -997,8 +1010,9 @@
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
       <c r="Y11" s="3"/>
-    </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z11" s="3"/>
+    </row>
+    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1068,8 +1082,11 @@
       <c r="Y12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1139,150 +1156,159 @@
       <c r="Y13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>1100</v>
+      </c>
+      <c r="E14" s="3">
         <v>24500</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>700</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>12500</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>6000</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>20500</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>14500</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>2500</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>188700</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>23500</v>
       </c>
-      <c r="M14" s="3">
-        <v>0</v>
-      </c>
       <c r="N14" s="3">
         <v>0</v>
       </c>
-      <c r="O14" s="3" t="s">
+      <c r="O14" s="3">
+        <v>0</v>
+      </c>
+      <c r="P14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>15000</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>300</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>2600</v>
       </c>
-      <c r="S14" s="3" t="s">
+      <c r="T14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="T14" s="3">
+      <c r="U14" s="3">
         <v>9100</v>
       </c>
-      <c r="U14" s="3">
-        <v>0</v>
-      </c>
       <c r="V14" s="3">
+        <v>0</v>
+      </c>
+      <c r="W14" s="3">
         <v>400</v>
       </c>
-      <c r="W14" s="3">
+      <c r="X14" s="3">
         <v>800</v>
       </c>
-      <c r="X14" s="3">
+      <c r="Y14" s="3">
         <v>100</v>
       </c>
-      <c r="Y14" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>21500</v>
+      </c>
+      <c r="E15" s="3">
         <v>22800</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>22600</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>44200</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>22000</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>22600</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>22700</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>22600</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>23600</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>23800</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>21300</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>21700</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>21400</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>24200</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>24100</v>
       </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3">
         <v>23700</v>
       </c>
-      <c r="S15" s="3">
+      <c r="T15" s="3">
         <v>24000</v>
       </c>
-      <c r="T15" s="3">
+      <c r="U15" s="3">
         <v>23200</v>
       </c>
-      <c r="U15" s="3">
+      <c r="V15" s="3">
         <v>23000</v>
       </c>
-      <c r="V15" s="3">
+      <c r="W15" s="3">
         <v>23300</v>
       </c>
-      <c r="W15" s="3">
+      <c r="X15" s="3">
         <v>23200</v>
       </c>
-      <c r="X15" s="3">
+      <c r="Y15" s="3">
         <v>23500</v>
       </c>
-      <c r="Y15" s="3">
+      <c r="Z15" s="3">
         <v>21600</v>
       </c>
     </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1305,150 +1331,157 @@
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
       <c r="Y16" s="3"/>
-    </row>
-    <row r="17" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z16" s="3"/>
+    </row>
+    <row r="17" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>765400</v>
+      </c>
+      <c r="E17" s="3">
         <v>775700</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>723100</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>1346400</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>618600</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>593400</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>552600</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>379600</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>805200</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>687600</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>559600</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>562500</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>569300</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>565800</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>541700</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>552800</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>553100</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>547100</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>521100</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>519700</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>519900</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>556000</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>510000</v>
       </c>
     </row>
-    <row r="18" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>28300</v>
+      </c>
+      <c r="E18" s="3">
         <v>1000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>31400</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>50000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>8800</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-38800</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-34900</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-83700</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-190100</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>6400</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>26900</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>40100</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>30200</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>19400</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>33500</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>34500</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>31600</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>24700</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>34300</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>50200</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>43500</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>47100</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>50000</v>
       </c>
     </row>
-    <row r="19" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1474,8 +1507,9 @@
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
       <c r="Y19" s="3"/>
-    </row>
-    <row r="20" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z19" s="3"/>
+    </row>
+    <row r="20" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1483,141 +1517,147 @@
         <v>-1500</v>
       </c>
       <c r="E20" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="F20" s="3">
         <v>-1800</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-7400</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-2700</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-1600</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-2900</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-2600</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-1500</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>50200</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-10300</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-1600</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-1500</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-3900</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-3300</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-2900</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-1500</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-1900</v>
-      </c>
-      <c r="U20" s="3">
-        <v>-1600</v>
       </c>
       <c r="V20" s="3">
         <v>-1600</v>
       </c>
       <c r="W20" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="X20" s="3">
         <v>-1200</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>-2200</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>-2500</v>
       </c>
     </row>
-    <row r="21" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>48400</v>
+      </c>
+      <c r="E21" s="3">
         <v>22300</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>52200</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>86800</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>28200</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-17800</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-15100</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-63700</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-168000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>80300</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>38000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>60100</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>50100</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>39700</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>54300</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>55400</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>54000</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>46000</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>55700</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>71900</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>65500</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>68300</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>69200</v>
       </c>
     </row>
-    <row r="22" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1687,150 +1727,159 @@
       <c r="Y22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>26900</v>
+      </c>
+      <c r="E23" s="3">
         <v>-500</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>29600</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>42600</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>6200</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-40400</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-37800</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-86300</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-191600</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>56600</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>16600</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>38400</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>28700</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>15500</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>30200</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>31600</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>30000</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>22800</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>32700</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>48600</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>42300</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>44900</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>47600</v>
       </c>
     </row>
-    <row r="24" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>3700</v>
+      </c>
+      <c r="E24" s="3">
         <v>-2600</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>-3100</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>5000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>2300</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>-8100</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>-9400</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>-29700</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>-55400</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>7900</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>500</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>2900</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>1700</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>-700</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>1700</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>3300</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>4000</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>3600</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>6300</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>10500</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>7300</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>12500</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>13000</v>
       </c>
     </row>
-    <row r="25" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1900,150 +1949,159 @@
       <c r="Y25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>23200</v>
+      </c>
+      <c r="E26" s="3">
         <v>2100</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>32700</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>37600</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>3900</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-32300</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-28300</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-56500</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-136200</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>48700</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>16100</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>35500</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>27000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>16200</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>28500</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>28400</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>26000</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>19200</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>26400</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>38200</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>35000</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>32400</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>34600</v>
       </c>
     </row>
-    <row r="27" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>23200</v>
+      </c>
+      <c r="E27" s="3">
         <v>3300</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>32700</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>13100</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-1300</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-37300</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-33200</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-70500</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-136200</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>48700</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>16100</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>35500</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>27000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>16200</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>28500</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>28400</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>26000</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>19200</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>26400</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>38200</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>35000</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>32400</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>34600</v>
       </c>
     </row>
-    <row r="28" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2113,8 +2171,11 @@
       <c r="Y28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2148,8 +2209,8 @@
       <c r="M29" s="3">
         <v>0</v>
       </c>
-      <c r="N29" s="3" t="s">
-        <v>8</v>
+      <c r="N29" s="3">
+        <v>0</v>
       </c>
       <c r="O29" s="3" t="s">
         <v>8</v>
@@ -2166,11 +2227,11 @@
       <c r="S29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="T29" s="3">
+      <c r="T29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="U29" s="3">
         <v>38500</v>
-      </c>
-      <c r="U29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="V29" s="3" t="s">
         <v>8</v>
@@ -2184,8 +2245,11 @@
       <c r="Y29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2255,8 +2319,11 @@
       <c r="Y30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2326,8 +2393,11 @@
       <c r="Y31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2335,141 +2405,147 @@
         <v>1500</v>
       </c>
       <c r="E32" s="3">
+        <v>1500</v>
+      </c>
+      <c r="F32" s="3">
         <v>1800</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>7400</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>2700</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>1600</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>2900</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>2600</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>1500</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-50200</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>10300</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>1600</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>1500</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>3900</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>3300</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>2900</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>1500</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>1900</v>
-      </c>
-      <c r="U32" s="3">
-        <v>1600</v>
       </c>
       <c r="V32" s="3">
         <v>1600</v>
       </c>
       <c r="W32" s="3">
+        <v>1600</v>
+      </c>
+      <c r="X32" s="3">
         <v>1200</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>2200</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>2500</v>
       </c>
     </row>
-    <row r="33" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>23200</v>
+      </c>
+      <c r="E33" s="3">
         <v>3300</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>32700</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>13100</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-1300</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-37300</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-33200</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-70500</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-136200</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>48700</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>16100</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>35500</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>27000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>16200</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>28500</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>28400</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>26000</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>57700</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>26400</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>38200</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>35000</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>32400</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>34600</v>
       </c>
     </row>
-    <row r="34" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2539,155 +2615,164 @@
       <c r="Y34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>23200</v>
+      </c>
+      <c r="E35" s="3">
         <v>3300</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>32700</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>13100</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-1300</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-37300</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-33200</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-70500</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-136200</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>48700</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>16100</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>35500</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>27000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>16200</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>28500</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>28400</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>26000</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>57700</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>26400</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>38200</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>35000</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>32400</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>34600</v>
       </c>
     </row>
-    <row r="37" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44649</v>
+      </c>
+      <c r="E38" s="2">
         <v>44558</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44467</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44376</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44285</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44194</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44103</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44012</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43921</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43830</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43739</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43648</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43557</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43466</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43375</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43284</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43193</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43102</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43011</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42920</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42829</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42738</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42640</v>
       </c>
     </row>
-    <row r="39" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2713,8 +2798,9 @@
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
       <c r="Y39" s="3"/>
-    </row>
-    <row r="40" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z39" s="3"/>
+    </row>
+    <row r="40" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2740,79 +2826,83 @@
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
       <c r="Y40" s="3"/>
-    </row>
-    <row r="41" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z40" s="3"/>
+    </row>
+    <row r="41" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>183600</v>
+      </c>
+      <c r="E41" s="3">
         <v>189600</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>131000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>161800</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>181300</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>154100</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>243800</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>250200</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>81000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>58400</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>306300</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>22600</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>22500</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>26600</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>12600</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>29400</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>24800</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>6000</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>19800</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>66300</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>65700</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>53800</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>65800</v>
       </c>
     </row>
-    <row r="42" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2882,292 +2972,307 @@
       <c r="Y42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>120900</v>
+      </c>
+      <c r="E43" s="3">
         <v>155100</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>120400</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>108400</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>109000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>130600</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>113100</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>145900</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>120000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>118100</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>74500</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>70100</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>67500</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>89100</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>54100</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>52100</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>44100</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>102400</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>52100</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>53000</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>44800</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>80200</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>45200</v>
       </c>
     </row>
-    <row r="44" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>46700</v>
+      </c>
+      <c r="E44" s="3">
         <v>42800</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>43300</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>41900</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>39000</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>39300</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>37700</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>40500</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>47800</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>47200</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>47800</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>46000</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>42000</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>38900</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>39800</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>34700</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>41000</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>42600</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>44200</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>40200</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>38500</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>34900</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="Z44" s="3">
         <v>35500</v>
       </c>
     </row>
-    <row r="45" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>16200</v>
+      </c>
+      <c r="E45" s="3">
         <v>18000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>15400</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>16200</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>14500</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>17400</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>16400</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>18100</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>21800</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>20800</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>20600</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>19400</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>25500</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>40600</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>48300</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>52900</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>54000</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>57700</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>48500</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>50900</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>52600</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>52400</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>36300</v>
       </c>
     </row>
-    <row r="46" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>367300</v>
+      </c>
+      <c r="E46" s="3">
         <v>405600</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>310200</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>328300</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>343800</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>341400</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>411000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>454600</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>270700</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>244500</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>449100</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>158200</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>157500</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>195200</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>154800</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>169100</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>163900</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>208600</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>164600</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>210500</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>201600</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>221400</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>182900</v>
       </c>
     </row>
-    <row r="47" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3199,19 +3304,19 @@
         <v>0</v>
       </c>
       <c r="M47" s="3">
+        <v>0</v>
+      </c>
+      <c r="N47" s="3">
         <v>91800</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>97700</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>81300</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>79800</v>
-      </c>
-      <c r="Q47" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="R47" s="3" t="s">
         <v>8</v>
@@ -3228,8 +3333,8 @@
       <c r="V47" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="W47" s="3">
-        <v>0</v>
+      <c r="W47" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="X47" s="3">
         <v>0</v>
@@ -3237,79 +3342,85 @@
       <c r="Y47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>1985300</v>
+      </c>
+      <c r="E48" s="3">
         <v>1983000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>2014500</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>2002800</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>2006600</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>2025200</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>2056900</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>2074000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>2075700</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>2072600</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>1744100</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>1722200</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>1732600</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>913300</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>940100</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>936500</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>935300</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>935000</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>933500</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>913400</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>910600</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>910100</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>902600</v>
       </c>
     </row>
-    <row r="49" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3317,70 +3428,73 @@
         <v>251700</v>
       </c>
       <c r="E49" s="3">
+        <v>251700</v>
+      </c>
+      <c r="F49" s="3">
         <v>253200</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>253100</v>
-      </c>
-      <c r="G49" s="3">
-        <v>253200</v>
       </c>
       <c r="H49" s="3">
         <v>253200</v>
       </c>
       <c r="I49" s="3">
+        <v>253200</v>
+      </c>
+      <c r="J49" s="3">
         <v>253600</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>254300</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>254400</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>437200</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>20300</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>20200</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>20100</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>26200</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>26300</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>24500</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>24200</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>24100</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>23500</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>23400</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>23200</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>23100</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="Z49" s="3">
         <v>22800</v>
       </c>
     </row>
-    <row r="50" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3450,8 +3564,11 @@
       <c r="Y50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3521,79 +3638,85 @@
       <c r="Y51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>149500</v>
+      </c>
+      <c r="E52" s="3">
         <v>157900</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>139900</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>138100</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>131900</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>127400</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>106600</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>84300</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>75000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>86300</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>76400</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>75500</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>84500</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>99700</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>186800</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>176600</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>164000</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>165300</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>153700</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>152100</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>141500</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>138700</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Z52" s="3">
         <v>96100</v>
       </c>
     </row>
-    <row r="53" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3663,79 +3786,85 @@
       <c r="Y53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>2753700</v>
+      </c>
+      <c r="E54" s="3">
         <v>2798100</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>2717700</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>2722300</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>2735400</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>2747100</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>2828100</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>2867300</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>2675800</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>2840600</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>2381800</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>2073800</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>2076100</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>1314100</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>1308100</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>1306600</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>1287300</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>1333100</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>1275300</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>1299300</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>1276800</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>1293300</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>1204400</v>
       </c>
     </row>
-    <row r="55" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3761,8 +3890,9 @@
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
       <c r="Y55" s="3"/>
-    </row>
-    <row r="56" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z55" s="3"/>
+    </row>
+    <row r="56" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3788,79 +3918,83 @@
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
       <c r="Y56" s="3"/>
-    </row>
-    <row r="57" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z56" s="3"/>
+    </row>
+    <row r="57" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>61700</v>
+      </c>
+      <c r="E57" s="3">
         <v>54100</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>52900</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>55400</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>56000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>58400</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>61500</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>57500</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>55900</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>61900</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>36100</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>36000</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>36400</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>49100</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>39100</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>38300</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>38800</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>51000</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>46600</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>46200</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>34900</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>41600</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>38900</v>
       </c>
     </row>
-    <row r="58" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3930,210 +4064,219 @@
       <c r="Y58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>532700</v>
+      </c>
+      <c r="E59" s="3">
         <v>582200</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>504200</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>541800</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>501900</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>527600</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>478800</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>475100</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>451200</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>552600</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>397700</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>401000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>410200</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>367400</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>304400</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>316300</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>305500</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>347000</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>276200</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>283700</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>288200</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>335000</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>265200</v>
       </c>
     </row>
-    <row r="60" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>594400</v>
+      </c>
+      <c r="E60" s="3">
         <v>636300</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>557100</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>597200</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>558000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>586100</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>540400</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>532700</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>507100</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>614600</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>433800</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>437000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>446600</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>416500</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>343500</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>354600</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>344300</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>398000</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>322800</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>329900</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>323100</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>376500</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>304100</v>
       </c>
     </row>
-    <row r="61" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>466500</v>
+      </c>
+      <c r="E61" s="3">
         <v>466000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>465500</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>465000</v>
-      </c>
-      <c r="G61" s="3">
-        <v>280000</v>
       </c>
       <c r="H61" s="3">
         <v>280000</v>
       </c>
       <c r="I61" s="3">
-        <v>376000</v>
+        <v>280000</v>
       </c>
       <c r="J61" s="3">
         <v>376000</v>
       </c>
       <c r="K61" s="3">
+        <v>376000</v>
+      </c>
+      <c r="L61" s="3">
         <v>380000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>290000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>335000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>35000</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>20000</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>10000</v>
-      </c>
-      <c r="Q61" s="3">
-        <v>20000</v>
       </c>
       <c r="R61" s="3">
         <v>20000</v>
       </c>
       <c r="S61" s="3">
+        <v>20000</v>
+      </c>
+      <c r="T61" s="3">
         <v>30000</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>10000</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>30000</v>
       </c>
-      <c r="V61" s="3">
-        <v>0</v>
-      </c>
       <c r="W61" s="3">
         <v>0</v>
       </c>
@@ -4143,79 +4286,85 @@
       <c r="Y61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>1337500</v>
+      </c>
+      <c r="E62" s="3">
         <v>1365700</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>1373200</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>1375500</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>1367500</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>1374000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>1379500</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>1402600</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>1369700</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>1364300</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>1079200</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>1061500</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>1067200</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>316600</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>331100</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>319300</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>318800</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>311600</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>339200</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>328900</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>326200</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>313600</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>310700</v>
       </c>
     </row>
-    <row r="63" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4285,8 +4434,11 @@
       <c r="Y63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4356,8 +4508,11 @@
       <c r="Y64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4427,79 +4582,85 @@
       <c r="Y65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>2398400</v>
+      </c>
+      <c r="E66" s="3">
         <v>2468000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>2395800</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>2437700</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>2205400</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>2240100</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>2295900</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>2311300</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>2256800</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>2268900</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>1848000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>1533500</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>1533800</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>743100</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>694700</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>693900</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>693200</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>719500</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>692000</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>658800</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>649300</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>690100</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>614800</v>
       </c>
     </row>
-    <row r="67" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4525,8 +4686,9 @@
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
       <c r="Y67" s="3"/>
-    </row>
-    <row r="68" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z67" s="3"/>
+    </row>
+    <row r="68" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4596,8 +4758,11 @@
       <c r="Y68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4667,8 +4832,11 @@
       <c r="Y69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4682,20 +4850,20 @@
         <v>0</v>
       </c>
       <c r="G70" s="3">
+        <v>0</v>
+      </c>
+      <c r="H70" s="3">
         <v>213500</v>
       </c>
-      <c r="H70" s="3">
+      <c r="I70" s="3">
         <v>218200</v>
       </c>
-      <c r="I70" s="3">
+      <c r="J70" s="3">
         <v>209900</v>
       </c>
-      <c r="J70" s="3">
+      <c r="K70" s="3">
         <v>204100</v>
       </c>
-      <c r="K70" s="3">
-        <v>0</v>
-      </c>
       <c r="L70" s="3">
         <v>0</v>
       </c>
@@ -4738,8 +4906,11 @@
       <c r="Y70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4809,79 +4980,85 @@
       <c r="Y71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>1192300</v>
+      </c>
+      <c r="E72" s="3">
         <v>1169200</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>1167000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>1134200</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>1114000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>1110100</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>1150700</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>1184900</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>1255800</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>1408300</v>
-      </c>
-      <c r="M72" s="3">
-        <v>1375700</v>
       </c>
       <c r="N72" s="3">
         <v>1375700</v>
       </c>
       <c r="O72" s="3">
+        <v>1375700</v>
+      </c>
+      <c r="P72" s="3">
         <v>1355100</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>1384500</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>1383300</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>1369900</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>1354900</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>1345700</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>1301200</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>1288200</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>1261600</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>1238000</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>1217000</v>
       </c>
     </row>
-    <row r="73" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4951,8 +5128,11 @@
       <c r="Y73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5022,8 +5202,11 @@
       <c r="Y74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5093,79 +5276,85 @@
       <c r="Y75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>355300</v>
+      </c>
+      <c r="E76" s="3">
         <v>330200</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>321900</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>284600</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>316500</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>288700</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>322300</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>351900</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>419000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>571700</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>533800</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>540300</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>542200</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>571100</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>613400</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>612800</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>594200</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>613500</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>583400</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>640500</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>627500</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>603200</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>589500</v>
       </c>
     </row>
-    <row r="77" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5235,155 +5424,164 @@
       <c r="Y77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44649</v>
+      </c>
+      <c r="E80" s="2">
         <v>44558</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44467</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44376</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44285</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44194</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44103</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44012</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43921</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43830</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43739</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43648</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43557</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43466</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43375</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43284</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43193</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43102</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43011</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42920</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42829</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42738</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42640</v>
       </c>
     </row>
-    <row r="81" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>23200</v>
+      </c>
+      <c r="E81" s="3">
         <v>3300</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>32700</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>13100</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-1300</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-37300</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-33200</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-70500</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-136200</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>48700</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>16100</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>35500</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>27000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>16200</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>28500</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>28400</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>26000</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>57700</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>26400</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>38200</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>35000</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>32400</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>34600</v>
       </c>
     </row>
-    <row r="82" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5409,79 +5607,83 @@
       <c r="W82" s="3"/>
       <c r="X82" s="3"/>
       <c r="Y82" s="3"/>
-    </row>
-    <row r="83" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z82" s="3"/>
+    </row>
+    <row r="83" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>21500</v>
+      </c>
+      <c r="E83" s="3">
         <v>22800</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>22600</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>44200</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>22000</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>22600</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>22700</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>22600</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>23600</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>23800</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>21300</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>21700</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>21400</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>24200</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>24100</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>23700</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>24000</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>23200</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>23000</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>23300</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>23200</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>23500</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="Z83" s="3">
         <v>21600</v>
       </c>
     </row>
-    <row r="84" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5551,8 +5753,11 @@
       <c r="Y84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5622,8 +5827,11 @@
       <c r="Y85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5693,8 +5901,11 @@
       <c r="Y86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5764,8 +5975,11 @@
       <c r="Y87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5835,79 +6049,85 @@
       <c r="Y88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>33500</v>
+      </c>
+      <c r="E89" s="3">
         <v>93800</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-11300</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>130400</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>21600</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>35600</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>2900</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-2700</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-33000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>102600</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>32400</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>50300</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>33500</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>109200</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>41600</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>65600</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>74900</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>84600</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>40300</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>65800</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>48100</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>86000</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>58100</v>
       </c>
     </row>
-    <row r="90" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5933,79 +6153,83 @@
       <c r="W90" s="3"/>
       <c r="X90" s="3"/>
       <c r="Y90" s="3"/>
-    </row>
-    <row r="91" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z90" s="3"/>
+    </row>
+    <row r="91" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-29100</v>
+      </c>
+      <c r="E91" s="3">
         <v>-17800</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-18300</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-30900</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-7200</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-12100</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-8800</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-13600</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-15800</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-27100</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-17300</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-16000</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-13400</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-24200</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-26800</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-21200</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-30700</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-47400</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-29700</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-24500</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-19500</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-45600</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>10400</v>
       </c>
     </row>
-    <row r="92" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6075,8 +6299,11 @@
       <c r="Y92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6146,79 +6373,85 @@
       <c r="Y93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-28600</v>
+      </c>
+      <c r="E94" s="3">
         <v>-17700</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-18700</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-32200</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-8700</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-12300</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-9000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-13700</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-15900</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-290500</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-22000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-23100</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-27400</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-24500</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-39800</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-35100</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-31000</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-57100</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-30000</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-33700</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-19600</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-87600</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-30800</v>
       </c>
     </row>
-    <row r="95" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6244,8 +6477,9 @@
       <c r="W95" s="3"/>
       <c r="X95" s="3"/>
       <c r="Y95" s="3"/>
-    </row>
-    <row r="96" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z95" s="3"/>
+    </row>
+    <row r="96" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6256,14 +6490,14 @@
         <v>0</v>
       </c>
       <c r="F96" s="3">
+        <v>0</v>
+      </c>
+      <c r="G96" s="3">
         <v>-300</v>
       </c>
-      <c r="G96" s="3">
+      <c r="H96" s="3">
         <v>-2200</v>
       </c>
-      <c r="H96" s="3">
-        <v>0</v>
-      </c>
       <c r="I96" s="3">
         <v>0</v>
       </c>
@@ -6271,52 +6505,55 @@
         <v>0</v>
       </c>
       <c r="K96" s="3">
+        <v>0</v>
+      </c>
+      <c r="L96" s="3">
         <v>-15800</v>
-      </c>
-      <c r="L96" s="3">
-        <v>-15700</v>
       </c>
       <c r="M96" s="3">
         <v>-15700</v>
       </c>
       <c r="N96" s="3">
+        <v>-15700</v>
+      </c>
+      <c r="O96" s="3">
         <v>-14700</v>
       </c>
-      <c r="O96" s="3">
+      <c r="P96" s="3">
         <v>-14600</v>
       </c>
-      <c r="P96" s="3">
+      <c r="Q96" s="3">
         <v>-14800</v>
       </c>
-      <c r="Q96" s="3">
+      <c r="R96" s="3">
         <v>-14900</v>
       </c>
-      <c r="R96" s="3">
+      <c r="S96" s="3">
         <v>-13400</v>
       </c>
-      <c r="S96" s="3">
+      <c r="T96" s="3">
         <v>-13200</v>
       </c>
-      <c r="T96" s="3">
+      <c r="U96" s="3">
         <v>-13300</v>
       </c>
-      <c r="U96" s="3">
+      <c r="V96" s="3">
         <v>-13500</v>
       </c>
-      <c r="V96" s="3">
+      <c r="W96" s="3">
         <v>-11500</v>
       </c>
-      <c r="W96" s="3">
+      <c r="X96" s="3">
         <v>-11700</v>
       </c>
-      <c r="X96" s="3">
+      <c r="Y96" s="3">
         <v>-11300</v>
       </c>
-      <c r="Y96" s="3">
+      <c r="Z96" s="3">
         <v>-11500</v>
       </c>
     </row>
-    <row r="97" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6386,8 +6623,11 @@
       <c r="Y97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6457,8 +6697,11 @@
       <c r="Y98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6528,112 +6771,118 @@
       <c r="Y99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-11000</v>
+      </c>
+      <c r="E100" s="3">
         <v>-17500</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-700</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-90600</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>14300</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-113100</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-400</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>185500</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>71700</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-59900</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>273200</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-27100</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-10200</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-70600</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-18500</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-25900</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-25200</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-41200</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-56800</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-31500</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-16700</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>-10400</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>-47700</v>
       </c>
     </row>
-    <row r="101" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E101" s="3">
+        <v>0</v>
+      </c>
+      <c r="F101" s="3">
         <v>-100</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>100</v>
       </c>
-      <c r="G101" s="3">
-        <v>0</v>
-      </c>
       <c r="H101" s="3">
+        <v>0</v>
+      </c>
+      <c r="I101" s="3">
         <v>100</v>
       </c>
-      <c r="I101" s="3">
-        <v>0</v>
-      </c>
       <c r="J101" s="3">
+        <v>0</v>
+      </c>
+      <c r="K101" s="3">
         <v>100</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-200</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>100</v>
       </c>
-      <c r="M101" s="3">
-        <v>0</v>
-      </c>
       <c r="N101" s="3">
         <v>0</v>
       </c>
@@ -6641,11 +6890,11 @@
         <v>0</v>
       </c>
       <c r="P101" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q101" s="3">
         <v>-100</v>
       </c>
-      <c r="Q101" s="3">
-        <v>0</v>
-      </c>
       <c r="R101" s="3">
         <v>0</v>
       </c>
@@ -6653,10 +6902,10 @@
         <v>0</v>
       </c>
       <c r="T101" s="3">
+        <v>0</v>
+      </c>
+      <c r="U101" s="3">
         <v>-100</v>
-      </c>
-      <c r="U101" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="V101" s="3" t="s">
         <v>8</v>
@@ -6670,75 +6919,81 @@
       <c r="Y101" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="102" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z101" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="102" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-6100</v>
+      </c>
+      <c r="E102" s="3">
         <v>58600</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-30700</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>7700</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>27300</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-89700</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-6400</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>169100</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>22600</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-247800</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>283600</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>100</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-4000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>13900</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-16700</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>4600</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>18800</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-13800</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-46500</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>600</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>11800</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>-12000</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>-13800</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/CAKE_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/CAKE_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="92">
   <si>
     <t>CAKE</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Z102"/>
+  <dimension ref="A5:AA102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,326 +665,339 @@
     <col min="1" max="1" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="25" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="26" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44740</v>
+      </c>
+      <c r="E7" s="2">
         <v>44649</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44558</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44467</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44376</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44285</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44194</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44103</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44012</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43921</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43830</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43739</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43648</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43557</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43466</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43375</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43284</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43193</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43102</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43011</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42920</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42829</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42738</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42640</v>
       </c>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>832600</v>
+      </c>
+      <c r="E8" s="3">
         <v>793700</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>776700</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>754500</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>1396400</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>627400</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>554600</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>517700</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>295900</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>615100</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>694000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>586500</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>602600</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>599500</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>585200</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>575200</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>587300</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>584700</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>571800</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>555400</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>569900</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>563400</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>603100</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>560000</v>
       </c>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>204200</v>
+      </c>
+      <c r="E9" s="3">
         <v>188500</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>178900</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>169400</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>304800</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>135900</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>127200</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>118100</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>72100</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>140900</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>158200</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>132900</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>134400</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>136200</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>134800</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>132200</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>131700</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>134200</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>134000</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>127500</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>128800</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>129100</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>140100</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AA9" s="3">
         <v>128800</v>
       </c>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>628400</v>
+      </c>
+      <c r="E10" s="3">
         <v>605200</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>597800</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>585100</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>1091600</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>491500</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>427400</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>399600</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>223800</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>474200</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>535800</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>453600</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>468200</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>463300</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>450400</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>443000</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>455600</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>450500</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>437800</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>427900</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>441100</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>434300</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>463000</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AA10" s="3">
         <v>431200</v>
       </c>
     </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1011,8 +1024,9 @@
       <c r="X11" s="3"/>
       <c r="Y11" s="3"/>
       <c r="Z11" s="3"/>
-    </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA11" s="3"/>
+    </row>
+    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1085,8 +1099,11 @@
       <c r="Z12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1159,8 +1176,11 @@
       <c r="Z13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1168,147 +1188,153 @@
         <v>1100</v>
       </c>
       <c r="E14" s="3">
+        <v>1100</v>
+      </c>
+      <c r="F14" s="3">
         <v>24500</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>700</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>12500</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>6000</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>20500</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>14500</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>2500</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>188700</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>23500</v>
       </c>
-      <c r="N14" s="3">
-        <v>0</v>
-      </c>
       <c r="O14" s="3">
         <v>0</v>
       </c>
-      <c r="P14" s="3" t="s">
+      <c r="P14" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>15000</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>300</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>2600</v>
       </c>
-      <c r="T14" s="3" t="s">
+      <c r="U14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="U14" s="3">
+      <c r="V14" s="3">
         <v>9100</v>
       </c>
-      <c r="V14" s="3">
-        <v>0</v>
-      </c>
       <c r="W14" s="3">
+        <v>0</v>
+      </c>
+      <c r="X14" s="3">
         <v>400</v>
       </c>
-      <c r="X14" s="3">
+      <c r="Y14" s="3">
         <v>800</v>
       </c>
-      <c r="Y14" s="3">
+      <c r="Z14" s="3">
         <v>100</v>
       </c>
-      <c r="Z14" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>22600</v>
+      </c>
+      <c r="E15" s="3">
         <v>21500</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>22800</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>22600</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>44200</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>22000</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>22600</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>22700</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>22600</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>23600</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>23800</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>21300</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>21700</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>21400</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>24200</v>
       </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3">
         <v>24100</v>
       </c>
-      <c r="S15" s="3">
+      <c r="T15" s="3">
         <v>23700</v>
       </c>
-      <c r="T15" s="3">
+      <c r="U15" s="3">
         <v>24000</v>
       </c>
-      <c r="U15" s="3">
+      <c r="V15" s="3">
         <v>23200</v>
       </c>
-      <c r="V15" s="3">
+      <c r="W15" s="3">
         <v>23000</v>
       </c>
-      <c r="W15" s="3">
+      <c r="X15" s="3">
         <v>23300</v>
       </c>
-      <c r="X15" s="3">
+      <c r="Y15" s="3">
         <v>23200</v>
       </c>
-      <c r="Y15" s="3">
+      <c r="Z15" s="3">
         <v>23500</v>
       </c>
-      <c r="Z15" s="3">
+      <c r="AA15" s="3">
         <v>21600</v>
       </c>
     </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1332,156 +1358,163 @@
       <c r="X16" s="3"/>
       <c r="Y16" s="3"/>
       <c r="Z16" s="3"/>
-    </row>
-    <row r="17" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA16" s="3"/>
+    </row>
+    <row r="17" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>804700</v>
+      </c>
+      <c r="E17" s="3">
         <v>765400</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>775700</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>723100</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>1346400</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>618600</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>593400</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>552600</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>379600</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>805200</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>687600</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>559600</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>562500</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>569300</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>565800</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>541700</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>552800</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>553100</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>547100</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>521100</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>519700</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>519900</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>556000</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>510000</v>
       </c>
     </row>
-    <row r="18" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>27900</v>
+      </c>
+      <c r="E18" s="3">
         <v>28300</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>1000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>31400</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>50000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>8800</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-38800</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-34900</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-83700</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-190100</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>6400</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>26900</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>40100</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>30200</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>19400</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>33500</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>34500</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>31600</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>24700</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>34300</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>50200</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>43500</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>47100</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>50000</v>
       </c>
     </row>
-    <row r="19" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1508,156 +1541,163 @@
       <c r="X19" s="3"/>
       <c r="Y19" s="3"/>
       <c r="Z19" s="3"/>
-    </row>
-    <row r="20" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA19" s="3"/>
+    </row>
+    <row r="20" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-1500</v>
+        <v>-1100</v>
       </c>
       <c r="E20" s="3">
         <v>-1500</v>
       </c>
       <c r="F20" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="G20" s="3">
         <v>-1800</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-7400</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-2700</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-1600</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-2900</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-2600</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-1500</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>50200</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-10300</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-1600</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-1500</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-3900</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-3300</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-2900</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-1500</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>-1900</v>
-      </c>
-      <c r="V20" s="3">
-        <v>-1600</v>
       </c>
       <c r="W20" s="3">
         <v>-1600</v>
       </c>
       <c r="X20" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="Y20" s="3">
         <v>-1200</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>-2200</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AA20" s="3">
         <v>-2500</v>
       </c>
     </row>
-    <row r="21" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>49400</v>
+      </c>
+      <c r="E21" s="3">
         <v>48400</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>22300</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>52200</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>86800</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>28200</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-17800</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-15100</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-63700</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-168000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>80300</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>38000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>60100</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>50100</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>39700</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>54300</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>55400</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>54000</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>46000</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>55700</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>71900</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>65500</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>68300</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>69200</v>
       </c>
     </row>
-    <row r="22" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1730,156 +1770,165 @@
       <c r="Z22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>26800</v>
+      </c>
+      <c r="E23" s="3">
         <v>26900</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-500</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>29600</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>42600</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>6200</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-40400</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-37800</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-86300</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-191600</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>56600</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>16600</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>38400</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>28700</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>15500</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>30200</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>31600</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>30000</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>22800</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>32700</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>48600</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>42300</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>44900</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>47600</v>
       </c>
     </row>
-    <row r="24" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>1200</v>
+      </c>
+      <c r="E24" s="3">
         <v>3700</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>-2600</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>-3100</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>5000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>2300</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>-8100</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>-9400</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>-29700</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>-55400</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>7900</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>500</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>2900</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>1700</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>-700</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>1700</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>3300</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>4000</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>3600</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>6300</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>10500</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>7300</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>12500</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AA24" s="3">
         <v>13000</v>
       </c>
     </row>
-    <row r="25" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1952,156 +2001,165 @@
       <c r="Z25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>25700</v>
+      </c>
+      <c r="E26" s="3">
         <v>23200</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>2100</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>32700</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>37600</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>3900</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-32300</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-28300</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-56500</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-136200</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>48700</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>16100</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>35500</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>27000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>16200</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>28500</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>28400</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>26000</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>19200</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>26400</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>38200</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>35000</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>32400</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>34600</v>
       </c>
     </row>
-    <row r="27" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>25700</v>
+      </c>
+      <c r="E27" s="3">
         <v>23200</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>3300</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>32700</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>13100</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-1300</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-37300</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-33200</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-70500</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-136200</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>48700</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>16100</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>35500</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>27000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>16200</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>28500</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>28400</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>26000</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>19200</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>26400</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>38200</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>35000</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>32400</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>34600</v>
       </c>
     </row>
-    <row r="28" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2174,8 +2232,11 @@
       <c r="Z28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2212,8 +2273,8 @@
       <c r="N29" s="3">
         <v>0</v>
       </c>
-      <c r="O29" s="3" t="s">
-        <v>8</v>
+      <c r="O29" s="3">
+        <v>0</v>
       </c>
       <c r="P29" s="3" t="s">
         <v>8</v>
@@ -2230,11 +2291,11 @@
       <c r="T29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="U29" s="3">
+      <c r="U29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="V29" s="3">
         <v>38500</v>
-      </c>
-      <c r="V29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="W29" s="3" t="s">
         <v>8</v>
@@ -2248,8 +2309,11 @@
       <c r="Z29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2322,8 +2386,11 @@
       <c r="Z30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2396,156 +2463,165 @@
       <c r="Z31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>1500</v>
+        <v>1100</v>
       </c>
       <c r="E32" s="3">
         <v>1500</v>
       </c>
       <c r="F32" s="3">
+        <v>1500</v>
+      </c>
+      <c r="G32" s="3">
         <v>1800</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>7400</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>2700</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>1600</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>2900</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>2600</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>1500</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-50200</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>10300</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>1600</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>1500</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>3900</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>3300</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>2900</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>1500</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>1900</v>
-      </c>
-      <c r="V32" s="3">
-        <v>1600</v>
       </c>
       <c r="W32" s="3">
         <v>1600</v>
       </c>
       <c r="X32" s="3">
+        <v>1600</v>
+      </c>
+      <c r="Y32" s="3">
         <v>1200</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>2200</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AA32" s="3">
         <v>2500</v>
       </c>
     </row>
-    <row r="33" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>25700</v>
+      </c>
+      <c r="E33" s="3">
         <v>23200</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>3300</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>32700</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>13100</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-1300</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-37300</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-33200</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-70500</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-136200</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>48700</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>16100</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>35500</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>27000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>16200</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>28500</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>28400</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>26000</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>57700</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>26400</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>38200</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>35000</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>32400</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>34600</v>
       </c>
     </row>
-    <row r="34" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2618,161 +2694,170 @@
       <c r="Z34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>25700</v>
+      </c>
+      <c r="E35" s="3">
         <v>23200</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>3300</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>32700</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>13100</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-1300</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-37300</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-33200</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-70500</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-136200</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>48700</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>16100</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>35500</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>27000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>16200</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>28500</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>28400</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>26000</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>57700</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>26400</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>38200</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>35000</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>32400</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>34600</v>
       </c>
     </row>
-    <row r="37" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44740</v>
+      </c>
+      <c r="E38" s="2">
         <v>44649</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44558</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44467</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44376</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44285</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44194</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44103</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44012</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43921</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43830</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43739</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43648</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43557</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43466</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43375</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43284</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43193</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43102</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43011</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42920</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42829</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42738</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42640</v>
       </c>
     </row>
-    <row r="39" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2799,8 +2884,9 @@
       <c r="X39" s="3"/>
       <c r="Y39" s="3"/>
       <c r="Z39" s="3"/>
-    </row>
-    <row r="40" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA39" s="3"/>
+    </row>
+    <row r="40" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2827,82 +2913,86 @@
       <c r="X40" s="3"/>
       <c r="Y40" s="3"/>
       <c r="Z40" s="3"/>
-    </row>
-    <row r="41" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA40" s="3"/>
+    </row>
+    <row r="41" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>194900</v>
+      </c>
+      <c r="E41" s="3">
         <v>183600</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>189600</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>131000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>161800</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>181300</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>154100</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>243800</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>250200</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>81000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>58400</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>306300</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>22600</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>22500</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>26600</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>12600</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>29400</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>24800</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>6000</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>19800</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>66300</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>65700</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>53800</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>65800</v>
       </c>
     </row>
-    <row r="42" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2975,304 +3065,319 @@
       <c r="Z42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>128200</v>
+      </c>
+      <c r="E43" s="3">
         <v>120900</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>155100</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>120400</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>108400</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>109000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>130600</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>113100</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>145900</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>120000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>118100</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>74500</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>70100</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>67500</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>89100</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>54100</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>52100</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>44100</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>102400</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>52100</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>53000</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>44800</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>80200</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AA43" s="3">
         <v>45200</v>
       </c>
     </row>
-    <row r="44" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>52300</v>
+      </c>
+      <c r="E44" s="3">
         <v>46700</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>42800</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>43300</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>41900</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>39000</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>39300</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>37700</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>40500</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>47800</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>47200</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>47800</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>46000</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>42000</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>38900</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>39800</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>34700</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>41000</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>42600</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>44200</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>40200</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>38500</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="Z44" s="3">
         <v>34900</v>
       </c>
-      <c r="Z44" s="3">
+      <c r="AA44" s="3">
         <v>35500</v>
       </c>
     </row>
-    <row r="45" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>16300</v>
+      </c>
+      <c r="E45" s="3">
         <v>16200</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>18000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>15400</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>16200</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>14500</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>17400</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>16400</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>18100</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>21800</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>20800</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>20600</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>19400</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>25500</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>40600</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>48300</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>52900</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>54000</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>57700</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>48500</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>50900</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>52600</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>52400</v>
       </c>
-      <c r="Z45" s="3">
+      <c r="AA45" s="3">
         <v>36300</v>
       </c>
     </row>
-    <row r="46" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>391700</v>
+      </c>
+      <c r="E46" s="3">
         <v>367300</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>405600</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>310200</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>328300</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>343800</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>341400</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>411000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>454600</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>270700</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>244500</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>449100</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>158200</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>157500</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>195200</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>154800</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>169100</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>163900</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>208600</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>164600</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>210500</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>201600</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>221400</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>182900</v>
       </c>
     </row>
-    <row r="47" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3307,19 +3412,19 @@
         <v>0</v>
       </c>
       <c r="N47" s="3">
+        <v>0</v>
+      </c>
+      <c r="O47" s="3">
         <v>91800</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>97700</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>81300</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>79800</v>
-      </c>
-      <c r="R47" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="S47" s="3" t="s">
         <v>8</v>
@@ -3336,8 +3441,8 @@
       <c r="W47" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="X47" s="3">
-        <v>0</v>
+      <c r="X47" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="Y47" s="3">
         <v>0</v>
@@ -3345,156 +3450,165 @@
       <c r="Z47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>1987000</v>
+      </c>
+      <c r="E48" s="3">
         <v>1985300</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>1983000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>2014500</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>2002800</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>2006600</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>2025200</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>2056900</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>2074000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>2075700</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>2072600</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>1744100</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>1722200</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>1732600</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>913300</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>940100</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>936500</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>935300</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>935000</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>933500</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>913400</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>910600</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>910100</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AA48" s="3">
         <v>902600</v>
       </c>
     </row>
-    <row r="49" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>251700</v>
+        <v>251600</v>
       </c>
       <c r="E49" s="3">
         <v>251700</v>
       </c>
       <c r="F49" s="3">
+        <v>251700</v>
+      </c>
+      <c r="G49" s="3">
         <v>253200</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>253100</v>
-      </c>
-      <c r="H49" s="3">
-        <v>253200</v>
       </c>
       <c r="I49" s="3">
         <v>253200</v>
       </c>
       <c r="J49" s="3">
+        <v>253200</v>
+      </c>
+      <c r="K49" s="3">
         <v>253600</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>254300</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>254400</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>437200</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>20300</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>20200</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>20100</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>26200</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>26300</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>24500</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>24200</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>24100</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>23500</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>23400</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>23200</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="Z49" s="3">
         <v>23100</v>
       </c>
-      <c r="Z49" s="3">
+      <c r="AA49" s="3">
         <v>22800</v>
       </c>
     </row>
-    <row r="50" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3567,8 +3681,11 @@
       <c r="Z50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3641,82 +3758,88 @@
       <c r="Z51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>142200</v>
+      </c>
+      <c r="E52" s="3">
         <v>149500</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>157900</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>139900</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>138100</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>131900</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>127400</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>106600</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>84300</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>75000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>86300</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>76400</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>75500</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>84500</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>99700</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>186800</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>176600</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>164000</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>165300</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>153700</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>152100</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>141500</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Z52" s="3">
         <v>138700</v>
       </c>
-      <c r="Z52" s="3">
+      <c r="AA52" s="3">
         <v>96100</v>
       </c>
     </row>
-    <row r="53" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3789,82 +3912,88 @@
       <c r="Z53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>2772400</v>
+      </c>
+      <c r="E54" s="3">
         <v>2753700</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>2798100</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>2717700</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>2722300</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>2735400</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>2747100</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>2828100</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>2867300</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>2675800</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>2840600</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>2381800</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>2073800</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>2076100</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>1314100</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>1308100</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>1306600</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>1287300</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>1333100</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>1275300</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>1299300</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>1276800</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>1293300</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>1204400</v>
       </c>
     </row>
-    <row r="55" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3891,8 +4020,9 @@
       <c r="X55" s="3"/>
       <c r="Y55" s="3"/>
       <c r="Z55" s="3"/>
-    </row>
-    <row r="56" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA55" s="3"/>
+    </row>
+    <row r="56" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3919,82 +4049,86 @@
       <c r="X56" s="3"/>
       <c r="Y56" s="3"/>
       <c r="Z56" s="3"/>
-    </row>
-    <row r="57" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA56" s="3"/>
+    </row>
+    <row r="57" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>58900</v>
+      </c>
+      <c r="E57" s="3">
         <v>61700</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>54100</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>52900</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>55400</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>56000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>58400</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>61500</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>57500</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>55900</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>61900</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>36100</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>36000</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>36400</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>49100</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>39100</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>38300</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>38800</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>51000</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>46600</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>46200</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>34900</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>41600</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AA57" s="3">
         <v>38900</v>
       </c>
     </row>
-    <row r="58" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -4067,219 +4201,228 @@
       <c r="Z58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>564600</v>
+      </c>
+      <c r="E59" s="3">
         <v>532700</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>582200</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>504200</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>541800</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>501900</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>527600</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>478800</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>475100</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>451200</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>552600</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>397700</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>401000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>410200</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>367400</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>304400</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>316300</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>305500</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>347000</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>276200</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>283700</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>288200</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>335000</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>265200</v>
       </c>
     </row>
-    <row r="60" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>623500</v>
+      </c>
+      <c r="E60" s="3">
         <v>594400</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>636300</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>557100</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>597200</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>558000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>586100</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>540400</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>532700</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>507100</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>614600</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>433800</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>437000</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>446600</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>416500</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>343500</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>354600</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>344300</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>398000</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>322800</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>329900</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>323100</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>376500</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>304100</v>
       </c>
     </row>
-    <row r="61" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>467000</v>
+      </c>
+      <c r="E61" s="3">
         <v>466500</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>466000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>465500</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>465000</v>
-      </c>
-      <c r="H61" s="3">
-        <v>280000</v>
       </c>
       <c r="I61" s="3">
         <v>280000</v>
       </c>
       <c r="J61" s="3">
-        <v>376000</v>
+        <v>280000</v>
       </c>
       <c r="K61" s="3">
         <v>376000</v>
       </c>
       <c r="L61" s="3">
+        <v>376000</v>
+      </c>
+      <c r="M61" s="3">
         <v>380000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>290000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>335000</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>35000</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>20000</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>10000</v>
-      </c>
-      <c r="R61" s="3">
-        <v>20000</v>
       </c>
       <c r="S61" s="3">
         <v>20000</v>
       </c>
       <c r="T61" s="3">
+        <v>20000</v>
+      </c>
+      <c r="U61" s="3">
         <v>30000</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>10000</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>30000</v>
       </c>
-      <c r="W61" s="3">
-        <v>0</v>
-      </c>
       <c r="X61" s="3">
         <v>0</v>
       </c>
@@ -4289,82 +4432,88 @@
       <c r="Z61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>1320200</v>
+      </c>
+      <c r="E62" s="3">
         <v>1337500</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>1365700</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>1373200</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>1375500</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>1367500</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>1374000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>1379500</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>1402600</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>1369700</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>1364300</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>1079200</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>1061500</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>1067200</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>316600</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>331100</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>319300</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>318800</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>311600</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>339200</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>328900</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>326200</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>313600</v>
       </c>
-      <c r="Z62" s="3">
+      <c r="AA62" s="3">
         <v>310700</v>
       </c>
     </row>
-    <row r="63" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4437,8 +4586,11 @@
       <c r="Z63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4511,8 +4663,11 @@
       <c r="Z64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4585,82 +4740,88 @@
       <c r="Z65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>2410700</v>
+      </c>
+      <c r="E66" s="3">
         <v>2398400</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>2468000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>2395800</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>2437700</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>2205400</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>2240100</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>2295900</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>2311300</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>2256800</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>2268900</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>1848000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>1533500</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>1533800</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>743100</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>694700</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>693900</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>693200</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>719500</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>692000</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>658800</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>649300</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>690100</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>614800</v>
       </c>
     </row>
-    <row r="67" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4687,8 +4848,9 @@
       <c r="X67" s="3"/>
       <c r="Y67" s="3"/>
       <c r="Z67" s="3"/>
-    </row>
-    <row r="68" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA67" s="3"/>
+    </row>
+    <row r="68" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4761,8 +4923,11 @@
       <c r="Z68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4835,8 +5000,11 @@
       <c r="Z69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4853,20 +5021,20 @@
         <v>0</v>
       </c>
       <c r="H70" s="3">
+        <v>0</v>
+      </c>
+      <c r="I70" s="3">
         <v>213500</v>
       </c>
-      <c r="I70" s="3">
+      <c r="J70" s="3">
         <v>218200</v>
       </c>
-      <c r="J70" s="3">
+      <c r="K70" s="3">
         <v>209900</v>
       </c>
-      <c r="K70" s="3">
+      <c r="L70" s="3">
         <v>204100</v>
       </c>
-      <c r="L70" s="3">
-        <v>0</v>
-      </c>
       <c r="M70" s="3">
         <v>0</v>
       </c>
@@ -4909,8 +5077,11 @@
       <c r="Z70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4983,82 +5154,88 @@
       <c r="Z71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>1203700</v>
+      </c>
+      <c r="E72" s="3">
         <v>1192300</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>1169200</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>1167000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>1134200</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>1114000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>1110100</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>1150700</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>1184900</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>1255800</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>1408300</v>
-      </c>
-      <c r="N72" s="3">
-        <v>1375700</v>
       </c>
       <c r="O72" s="3">
         <v>1375700</v>
       </c>
       <c r="P72" s="3">
+        <v>1375700</v>
+      </c>
+      <c r="Q72" s="3">
         <v>1355100</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>1384500</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>1383300</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>1369900</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>1354900</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>1345700</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>1301200</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>1288200</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>1261600</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>1238000</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>1217000</v>
       </c>
     </row>
-    <row r="73" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5131,8 +5308,11 @@
       <c r="Z73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5205,8 +5385,11 @@
       <c r="Z74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5279,82 +5462,88 @@
       <c r="Z75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>361700</v>
+      </c>
+      <c r="E76" s="3">
         <v>355300</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>330200</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>321900</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>284600</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>316500</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>288700</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>322300</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>351900</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>419000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>571700</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>533800</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>540300</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>542200</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>571100</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>613400</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>612800</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>594200</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>613500</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>583400</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>640500</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>627500</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>603200</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>589500</v>
       </c>
     </row>
-    <row r="77" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5427,161 +5616,170 @@
       <c r="Z77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44740</v>
+      </c>
+      <c r="E80" s="2">
         <v>44649</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44558</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44467</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44376</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44285</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44194</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44103</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44012</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43921</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43830</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43739</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43648</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43557</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43466</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43375</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43284</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43193</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43102</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43011</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42920</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42829</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42738</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42640</v>
       </c>
     </row>
-    <row r="81" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>25700</v>
+      </c>
+      <c r="E81" s="3">
         <v>23200</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>3300</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>32700</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>13100</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-1300</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-37300</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-33200</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-70500</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-136200</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>48700</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>16100</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>35500</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>27000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>16200</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>28500</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>28400</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>26000</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>57700</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>26400</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>38200</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>35000</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>32400</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>34600</v>
       </c>
     </row>
-    <row r="82" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5608,82 +5806,86 @@
       <c r="X82" s="3"/>
       <c r="Y82" s="3"/>
       <c r="Z82" s="3"/>
-    </row>
-    <row r="83" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA82" s="3"/>
+    </row>
+    <row r="83" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>22600</v>
+      </c>
+      <c r="E83" s="3">
         <v>21500</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>22800</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>22600</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>44200</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>22000</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>22600</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>22700</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>22600</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>23600</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>23800</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>21300</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>21700</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>21400</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>24200</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>24100</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>23700</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>24000</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>23200</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>23000</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>23300</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>23200</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="Z83" s="3">
         <v>23500</v>
       </c>
-      <c r="Z83" s="3">
+      <c r="AA83" s="3">
         <v>21600</v>
       </c>
     </row>
-    <row r="84" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5756,8 +5958,11 @@
       <c r="Z84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5830,8 +6035,11 @@
       <c r="Z85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5904,8 +6112,11 @@
       <c r="Z86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5978,8 +6189,11 @@
       <c r="Z87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6052,82 +6266,88 @@
       <c r="Z88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>54000</v>
+      </c>
+      <c r="E89" s="3">
         <v>33500</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>93800</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-11300</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>130400</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>21600</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>35600</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>2900</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-2700</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-33000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>102600</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>32400</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>50300</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>33500</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>109200</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>41600</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>65600</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>74900</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>84600</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>40300</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>65800</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>48100</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>86000</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>58100</v>
       </c>
     </row>
-    <row r="90" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6154,82 +6374,86 @@
       <c r="X90" s="3"/>
       <c r="Y90" s="3"/>
       <c r="Z90" s="3"/>
-    </row>
-    <row r="91" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA90" s="3"/>
+    </row>
+    <row r="91" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-17300</v>
+      </c>
+      <c r="E91" s="3">
         <v>-29100</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-17800</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-18300</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-30900</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-7200</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-12100</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-8800</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-13600</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-15800</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-27100</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-17300</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-16000</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-13400</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-24200</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-26800</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-21200</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-30700</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-47400</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-29700</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-24500</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-19500</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-45600</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AA91" s="3">
         <v>10400</v>
       </c>
     </row>
-    <row r="92" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6302,8 +6526,11 @@
       <c r="Z92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6376,82 +6603,88 @@
       <c r="Z93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-17400</v>
+      </c>
+      <c r="E94" s="3">
         <v>-28600</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-17700</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-18700</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-32200</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-8700</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-12300</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-9000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-13700</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-15900</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-290500</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-22000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-23100</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-27400</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-24500</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-39800</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-35100</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-31000</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-57100</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-30000</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-33700</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-19600</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-87600</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>-30800</v>
       </c>
     </row>
-    <row r="95" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6478,8 +6711,9 @@
       <c r="X95" s="3"/>
       <c r="Y95" s="3"/>
       <c r="Z95" s="3"/>
-    </row>
-    <row r="96" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA95" s="3"/>
+    </row>
+    <row r="96" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6493,14 +6727,14 @@
         <v>0</v>
       </c>
       <c r="G96" s="3">
+        <v>0</v>
+      </c>
+      <c r="H96" s="3">
         <v>-300</v>
       </c>
-      <c r="H96" s="3">
+      <c r="I96" s="3">
         <v>-2200</v>
       </c>
-      <c r="I96" s="3">
-        <v>0</v>
-      </c>
       <c r="J96" s="3">
         <v>0</v>
       </c>
@@ -6508,52 +6742,55 @@
         <v>0</v>
       </c>
       <c r="L96" s="3">
+        <v>0</v>
+      </c>
+      <c r="M96" s="3">
         <v>-15800</v>
-      </c>
-      <c r="M96" s="3">
-        <v>-15700</v>
       </c>
       <c r="N96" s="3">
         <v>-15700</v>
       </c>
       <c r="O96" s="3">
+        <v>-15700</v>
+      </c>
+      <c r="P96" s="3">
         <v>-14700</v>
       </c>
-      <c r="P96" s="3">
+      <c r="Q96" s="3">
         <v>-14600</v>
       </c>
-      <c r="Q96" s="3">
+      <c r="R96" s="3">
         <v>-14800</v>
       </c>
-      <c r="R96" s="3">
+      <c r="S96" s="3">
         <v>-14900</v>
       </c>
-      <c r="S96" s="3">
+      <c r="T96" s="3">
         <v>-13400</v>
       </c>
-      <c r="T96" s="3">
+      <c r="U96" s="3">
         <v>-13200</v>
       </c>
-      <c r="U96" s="3">
+      <c r="V96" s="3">
         <v>-13300</v>
       </c>
-      <c r="V96" s="3">
+      <c r="W96" s="3">
         <v>-13500</v>
       </c>
-      <c r="W96" s="3">
+      <c r="X96" s="3">
         <v>-11500</v>
       </c>
-      <c r="X96" s="3">
+      <c r="Y96" s="3">
         <v>-11700</v>
       </c>
-      <c r="Y96" s="3">
+      <c r="Z96" s="3">
         <v>-11300</v>
       </c>
-      <c r="Z96" s="3">
+      <c r="AA96" s="3">
         <v>-11500</v>
       </c>
     </row>
-    <row r="97" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6626,8 +6863,11 @@
       <c r="Z97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6700,8 +6940,11 @@
       <c r="Z98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6774,118 +7017,124 @@
       <c r="Z99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-25200</v>
+      </c>
+      <c r="E100" s="3">
         <v>-11000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-17500</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-700</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-90600</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>14300</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-113100</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-400</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>185500</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>71700</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-59900</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>273200</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-27100</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-10200</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-70600</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-18500</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-25900</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-25200</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-41200</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-56800</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-31500</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>-16700</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>-10400</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>-47700</v>
       </c>
     </row>
-    <row r="101" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E101" s="3">
         <v>100</v>
       </c>
-      <c r="E101" s="3">
-        <v>0</v>
-      </c>
       <c r="F101" s="3">
+        <v>0</v>
+      </c>
+      <c r="G101" s="3">
         <v>-100</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>100</v>
       </c>
-      <c r="H101" s="3">
-        <v>0</v>
-      </c>
       <c r="I101" s="3">
+        <v>0</v>
+      </c>
+      <c r="J101" s="3">
         <v>100</v>
       </c>
-      <c r="J101" s="3">
-        <v>0</v>
-      </c>
       <c r="K101" s="3">
+        <v>0</v>
+      </c>
+      <c r="L101" s="3">
         <v>100</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-200</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>100</v>
       </c>
-      <c r="N101" s="3">
-        <v>0</v>
-      </c>
       <c r="O101" s="3">
         <v>0</v>
       </c>
@@ -6893,11 +7142,11 @@
         <v>0</v>
       </c>
       <c r="Q101" s="3">
+        <v>0</v>
+      </c>
+      <c r="R101" s="3">
         <v>-100</v>
       </c>
-      <c r="R101" s="3">
-        <v>0</v>
-      </c>
       <c r="S101" s="3">
         <v>0</v>
       </c>
@@ -6905,10 +7154,10 @@
         <v>0</v>
       </c>
       <c r="U101" s="3">
+        <v>0</v>
+      </c>
+      <c r="V101" s="3">
         <v>-100</v>
-      </c>
-      <c r="V101" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="W101" s="3" t="s">
         <v>8</v>
@@ -6922,78 +7171,84 @@
       <c r="Z101" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="102" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA101" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="102" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>11300</v>
+      </c>
+      <c r="E102" s="3">
         <v>-6100</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>58600</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-30700</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>7700</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>27300</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-89700</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-6400</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>169100</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>22600</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-247800</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>283600</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>100</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-4000</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>13900</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-16700</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>4600</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>18800</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-13800</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-46500</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>600</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>11800</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>-12000</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>-13800</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/CAKE_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/CAKE_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="92">
   <si>
     <t>CAKE</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AA102"/>
+  <dimension ref="A5:AB102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,339 +665,352 @@
     <col min="1" max="1" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="26" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="27" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44831</v>
+      </c>
+      <c r="E7" s="2">
         <v>44740</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44649</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44558</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44467</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44376</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44285</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44194</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44103</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44012</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43921</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43830</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43739</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43648</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43557</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43466</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43375</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43284</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43193</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43102</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43011</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42920</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42829</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42738</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42640</v>
       </c>
     </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>784000</v>
+      </c>
+      <c r="E8" s="3">
         <v>832600</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>793700</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>776700</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>754500</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>1396400</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>627400</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>554600</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>517700</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>295900</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>615100</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>694000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>586500</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>602600</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>599500</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>585200</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>575200</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>587300</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>584700</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>571800</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>555400</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>569900</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>563400</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>603100</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AB8" s="3">
         <v>560000</v>
       </c>
     </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>197800</v>
+      </c>
+      <c r="E9" s="3">
         <v>204200</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>188500</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>178900</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>169400</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>304800</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>135900</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>127200</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>118100</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>72100</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>140900</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>158200</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>132900</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>134400</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>136200</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>134800</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>132200</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>131700</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>134200</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>134000</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>127500</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>128800</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>129100</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AA9" s="3">
         <v>140100</v>
       </c>
-      <c r="AA9" s="3">
+      <c r="AB9" s="3">
         <v>128800</v>
       </c>
     </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>586200</v>
+      </c>
+      <c r="E10" s="3">
         <v>628400</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>605200</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>597800</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>585100</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>1091600</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>491500</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>427400</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>399600</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>223800</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>474200</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>535800</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>453600</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>468200</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>463300</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>450400</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>443000</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>455600</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>450500</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>437800</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>427900</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>441100</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>434300</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AA10" s="3">
         <v>463000</v>
       </c>
-      <c r="AA10" s="3">
+      <c r="AB10" s="3">
         <v>431200</v>
       </c>
     </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1025,8 +1038,9 @@
       <c r="Y11" s="3"/>
       <c r="Z11" s="3"/>
       <c r="AA11" s="3"/>
-    </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB11" s="3"/>
+    </row>
+    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1102,8 +1116,11 @@
       <c r="AA12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1179,8 +1196,11 @@
       <c r="AA13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1191,150 +1211,156 @@
         <v>1100</v>
       </c>
       <c r="F14" s="3">
+        <v>1100</v>
+      </c>
+      <c r="G14" s="3">
         <v>24500</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>700</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>12500</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>6000</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>20500</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>14500</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>2500</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>188700</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>23500</v>
       </c>
-      <c r="O14" s="3">
-        <v>0</v>
-      </c>
       <c r="P14" s="3">
         <v>0</v>
       </c>
-      <c r="Q14" s="3" t="s">
+      <c r="Q14" s="3">
+        <v>0</v>
+      </c>
+      <c r="R14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>15000</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>300</v>
       </c>
-      <c r="T14" s="3">
+      <c r="U14" s="3">
         <v>2600</v>
       </c>
-      <c r="U14" s="3" t="s">
+      <c r="V14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="V14" s="3">
+      <c r="W14" s="3">
         <v>9100</v>
       </c>
-      <c r="W14" s="3">
-        <v>0</v>
-      </c>
       <c r="X14" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y14" s="3">
         <v>400</v>
       </c>
-      <c r="Y14" s="3">
+      <c r="Z14" s="3">
         <v>800</v>
       </c>
-      <c r="Z14" s="3">
+      <c r="AA14" s="3">
         <v>100</v>
       </c>
-      <c r="AA14" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>22700</v>
+      </c>
+      <c r="E15" s="3">
         <v>22600</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>21500</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>22800</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>22600</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>44200</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>22000</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>22600</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>22700</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>22600</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>23600</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>23800</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>21300</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>21700</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>21400</v>
       </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3">
         <v>24200</v>
       </c>
-      <c r="S15" s="3">
+      <c r="T15" s="3">
         <v>24100</v>
       </c>
-      <c r="T15" s="3">
+      <c r="U15" s="3">
         <v>23700</v>
       </c>
-      <c r="U15" s="3">
+      <c r="V15" s="3">
         <v>24000</v>
       </c>
-      <c r="V15" s="3">
+      <c r="W15" s="3">
         <v>23200</v>
       </c>
-      <c r="W15" s="3">
+      <c r="X15" s="3">
         <v>23000</v>
       </c>
-      <c r="X15" s="3">
+      <c r="Y15" s="3">
         <v>23300</v>
       </c>
-      <c r="Y15" s="3">
+      <c r="Z15" s="3">
         <v>23200</v>
       </c>
-      <c r="Z15" s="3">
+      <c r="AA15" s="3">
         <v>23500</v>
       </c>
-      <c r="AA15" s="3">
+      <c r="AB15" s="3">
         <v>21600</v>
       </c>
     </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:28" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1359,162 +1385,169 @@
       <c r="Y16" s="3"/>
       <c r="Z16" s="3"/>
       <c r="AA16" s="3"/>
-    </row>
-    <row r="17" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB16" s="3"/>
+    </row>
+    <row r="17" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>786200</v>
+      </c>
+      <c r="E17" s="3">
         <v>804700</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>765400</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>775700</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>723100</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>1346400</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>618600</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>593400</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>552600</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>379600</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>805200</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>687600</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>559600</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>562500</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>569300</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>565800</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>541700</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>552800</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>553100</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>547100</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>521100</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>519700</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>519900</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>556000</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>510000</v>
       </c>
     </row>
-    <row r="18" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-2200</v>
+      </c>
+      <c r="E18" s="3">
         <v>27900</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>28300</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>1000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>31400</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>50000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>8800</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-38800</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-34900</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-83700</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-190100</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>6400</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>26900</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>40100</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>30200</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>19400</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>33500</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>34500</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>31600</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>24700</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>34300</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>50200</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>43500</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>47100</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3">
         <v>50000</v>
       </c>
     </row>
-    <row r="19" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1542,162 +1575,169 @@
       <c r="Y19" s="3"/>
       <c r="Z19" s="3"/>
       <c r="AA19" s="3"/>
-    </row>
-    <row r="20" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB19" s="3"/>
+    </row>
+    <row r="20" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="E20" s="3">
         <v>-1100</v>
-      </c>
-      <c r="E20" s="3">
-        <v>-1500</v>
       </c>
       <c r="F20" s="3">
         <v>-1500</v>
       </c>
       <c r="G20" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="H20" s="3">
         <v>-1800</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-7400</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-2700</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-1600</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-2900</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-2600</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-1500</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>50200</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-10300</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-1600</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-1500</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-3900</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-3300</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-2900</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>-1500</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>-1900</v>
-      </c>
-      <c r="W20" s="3">
-        <v>-1600</v>
       </c>
       <c r="X20" s="3">
         <v>-1600</v>
       </c>
       <c r="Y20" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="Z20" s="3">
         <v>-1200</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AA20" s="3">
         <v>-2200</v>
       </c>
-      <c r="AA20" s="3">
+      <c r="AB20" s="3">
         <v>-2500</v>
       </c>
     </row>
-    <row r="21" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>19100</v>
+      </c>
+      <c r="E21" s="3">
         <v>49400</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>48400</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>22300</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>52200</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>86800</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>28200</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-17800</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-15100</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-63700</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-168000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>80300</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>38000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>60100</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>50100</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>39700</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>54300</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>55400</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>54000</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>46000</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>55700</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>71900</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>65500</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>68300</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AB21" s="3">
         <v>69200</v>
       </c>
     </row>
-    <row r="22" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1773,162 +1813,171 @@
       <c r="AA22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-3500</v>
+      </c>
+      <c r="E23" s="3">
         <v>26800</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>26900</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-500</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>29600</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>42600</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>6200</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-40400</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-37800</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-86300</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-191600</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>56600</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>16600</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>38400</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>28700</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>15500</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>30200</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>31600</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>30000</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>22800</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>32700</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>48600</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>42300</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>44900</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>47600</v>
       </c>
     </row>
-    <row r="24" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="E24" s="3">
         <v>1200</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>3700</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>-2600</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>-3100</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>5000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>2300</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>-8100</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>-9400</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>-29700</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>-55400</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>7900</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>500</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>2900</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>1700</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>-700</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>1700</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>3300</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>4000</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>3600</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>6300</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>10500</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>7300</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AA24" s="3">
         <v>12500</v>
       </c>
-      <c r="AA24" s="3">
+      <c r="AB24" s="3">
         <v>13000</v>
       </c>
     </row>
-    <row r="25" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2004,162 +2053,171 @@
       <c r="AA25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-2400</v>
+      </c>
+      <c r="E26" s="3">
         <v>25700</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>23200</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>2100</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>32700</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>37600</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>3900</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-32300</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-28300</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-56500</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-136200</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>48700</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>16100</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>35500</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>27000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>16200</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>28500</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>28400</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>26000</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>19200</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>26400</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>38200</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>35000</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>32400</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>34600</v>
       </c>
     </row>
-    <row r="27" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-2400</v>
+      </c>
+      <c r="E27" s="3">
         <v>25700</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>23200</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>3300</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>32700</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>13100</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-1300</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-37300</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-33200</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-70500</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-136200</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>48700</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>16100</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>35500</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>27000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>16200</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>28500</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>28400</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>26000</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>19200</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>26400</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>38200</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>35000</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>32400</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>34600</v>
       </c>
     </row>
-    <row r="28" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2235,8 +2293,11 @@
       <c r="AA28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2276,8 +2337,8 @@
       <c r="O29" s="3">
         <v>0</v>
       </c>
-      <c r="P29" s="3" t="s">
-        <v>8</v>
+      <c r="P29" s="3">
+        <v>0</v>
       </c>
       <c r="Q29" s="3" t="s">
         <v>8</v>
@@ -2294,11 +2355,11 @@
       <c r="U29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="V29" s="3">
+      <c r="V29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="W29" s="3">
         <v>38500</v>
-      </c>
-      <c r="W29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="X29" s="3" t="s">
         <v>8</v>
@@ -2312,8 +2373,11 @@
       <c r="AA29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2389,8 +2453,11 @@
       <c r="AA30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2466,162 +2533,171 @@
       <c r="AA31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>1300</v>
+      </c>
+      <c r="E32" s="3">
         <v>1100</v>
-      </c>
-      <c r="E32" s="3">
-        <v>1500</v>
       </c>
       <c r="F32" s="3">
         <v>1500</v>
       </c>
       <c r="G32" s="3">
+        <v>1500</v>
+      </c>
+      <c r="H32" s="3">
         <v>1800</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>7400</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>2700</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>1600</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>2900</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>2600</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>1500</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-50200</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>10300</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>1600</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>1500</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>3900</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>3300</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>2900</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>1500</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>1900</v>
-      </c>
-      <c r="W32" s="3">
-        <v>1600</v>
       </c>
       <c r="X32" s="3">
         <v>1600</v>
       </c>
       <c r="Y32" s="3">
+        <v>1600</v>
+      </c>
+      <c r="Z32" s="3">
         <v>1200</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AA32" s="3">
         <v>2200</v>
       </c>
-      <c r="AA32" s="3">
+      <c r="AB32" s="3">
         <v>2500</v>
       </c>
     </row>
-    <row r="33" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-2400</v>
+      </c>
+      <c r="E33" s="3">
         <v>25700</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>23200</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>3300</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>32700</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>13100</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-1300</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-37300</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-33200</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-70500</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-136200</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>48700</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>16100</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>35500</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>27000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>16200</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>28500</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>28400</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>26000</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>57700</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>26400</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>38200</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>35000</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>32400</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>34600</v>
       </c>
     </row>
-    <row r="34" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2697,167 +2773,176 @@
       <c r="AA34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-2400</v>
+      </c>
+      <c r="E35" s="3">
         <v>25700</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>23200</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>3300</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>32700</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>13100</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-1300</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-37300</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-33200</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-70500</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-136200</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>48700</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>16100</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>35500</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>27000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>16200</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>28500</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>28400</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>26000</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>57700</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>26400</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>38200</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>35000</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>32400</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>34600</v>
       </c>
     </row>
-    <row r="37" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44831</v>
+      </c>
+      <c r="E38" s="2">
         <v>44740</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44649</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44558</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44467</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44376</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44285</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44194</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44103</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44012</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43921</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43830</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43739</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43648</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43557</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43466</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43375</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43284</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43193</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43102</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43011</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42920</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42829</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42738</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42640</v>
       </c>
     </row>
-    <row r="39" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2885,8 +2970,9 @@
       <c r="Y39" s="3"/>
       <c r="Z39" s="3"/>
       <c r="AA39" s="3"/>
-    </row>
-    <row r="40" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB39" s="3"/>
+    </row>
+    <row r="40" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2914,85 +3000,89 @@
       <c r="Y40" s="3"/>
       <c r="Z40" s="3"/>
       <c r="AA40" s="3"/>
-    </row>
-    <row r="41" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB40" s="3"/>
+    </row>
+    <row r="41" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>133200</v>
+      </c>
+      <c r="E41" s="3">
         <v>194900</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>183600</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>189600</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>131000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>161800</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>181300</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>154100</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>243800</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>250200</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>81000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>58400</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>306300</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>22600</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>22500</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>26600</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>12600</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>29400</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>24800</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>6000</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>19800</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>66300</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>65700</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>53800</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AB41" s="3">
         <v>65800</v>
       </c>
     </row>
-    <row r="42" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -3068,316 +3158,331 @@
       <c r="AA42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>107000</v>
+      </c>
+      <c r="E43" s="3">
         <v>128200</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>120900</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>155100</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>120400</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>108400</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>109000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>130600</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>113100</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>145900</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>120000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>118100</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>74500</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>70100</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>67500</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>89100</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>54100</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>52100</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>44100</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>102400</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>52100</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>53000</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>44800</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AA43" s="3">
         <v>80200</v>
       </c>
-      <c r="AA43" s="3">
+      <c r="AB43" s="3">
         <v>45200</v>
       </c>
     </row>
-    <row r="44" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>62300</v>
+      </c>
+      <c r="E44" s="3">
         <v>52300</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>46700</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>42800</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>43300</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>41900</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>39000</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>39300</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>37700</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>40500</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>47800</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>47200</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>47800</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>46000</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>42000</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>38900</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>39800</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>34700</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>41000</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>42600</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>44200</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>40200</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="Z44" s="3">
         <v>38500</v>
       </c>
-      <c r="Z44" s="3">
+      <c r="AA44" s="3">
         <v>34900</v>
       </c>
-      <c r="AA44" s="3">
+      <c r="AB44" s="3">
         <v>35500</v>
       </c>
     </row>
-    <row r="45" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>15300</v>
+      </c>
+      <c r="E45" s="3">
         <v>16300</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>16200</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>18000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>15400</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>16200</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>14500</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>17400</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>16400</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>18100</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>21800</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>20800</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>20600</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>19400</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>25500</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>40600</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>48300</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>52900</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>54000</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>57700</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>48500</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>50900</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>52600</v>
       </c>
-      <c r="Z45" s="3">
+      <c r="AA45" s="3">
         <v>52400</v>
       </c>
-      <c r="AA45" s="3">
+      <c r="AB45" s="3">
         <v>36300</v>
       </c>
     </row>
-    <row r="46" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>317700</v>
+      </c>
+      <c r="E46" s="3">
         <v>391700</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>367300</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>405600</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>310200</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>328300</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>343800</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>341400</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>411000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>454600</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>270700</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>244500</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>449100</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>158200</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>157500</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>195200</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>154800</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>169100</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>163900</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>208600</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>164600</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>210500</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>201600</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>221400</v>
       </c>
-      <c r="AA46" s="3">
+      <c r="AB46" s="3">
         <v>182900</v>
       </c>
     </row>
-    <row r="47" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3415,19 +3520,19 @@
         <v>0</v>
       </c>
       <c r="O47" s="3">
+        <v>0</v>
+      </c>
+      <c r="P47" s="3">
         <v>91800</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>97700</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>81300</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>79800</v>
-      </c>
-      <c r="S47" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="T47" s="3" t="s">
         <v>8</v>
@@ -3444,8 +3549,8 @@
       <c r="X47" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Y47" s="3">
-        <v>0</v>
+      <c r="Y47" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="Z47" s="3">
         <v>0</v>
@@ -3453,85 +3558,91 @@
       <c r="AA47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>2022800</v>
+      </c>
+      <c r="E48" s="3">
         <v>1987000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>1985300</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>1983000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>2014500</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>2002800</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>2006600</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>2025200</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>2056900</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>2074000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>2075700</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>2072600</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>1744100</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>1722200</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>1732600</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>913300</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>940100</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>936500</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>935300</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>935000</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>933500</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>913400</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>910600</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AA48" s="3">
         <v>910100</v>
       </c>
-      <c r="AA48" s="3">
+      <c r="AB48" s="3">
         <v>902600</v>
       </c>
     </row>
-    <row r="49" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3539,76 +3650,79 @@
         <v>251600</v>
       </c>
       <c r="E49" s="3">
-        <v>251700</v>
+        <v>251600</v>
       </c>
       <c r="F49" s="3">
         <v>251700</v>
       </c>
       <c r="G49" s="3">
+        <v>251700</v>
+      </c>
+      <c r="H49" s="3">
         <v>253200</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>253100</v>
-      </c>
-      <c r="I49" s="3">
-        <v>253200</v>
       </c>
       <c r="J49" s="3">
         <v>253200</v>
       </c>
       <c r="K49" s="3">
+        <v>253200</v>
+      </c>
+      <c r="L49" s="3">
         <v>253600</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>254300</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>254400</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>437200</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>20300</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>20200</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>20100</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>26200</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>26300</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>24500</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>24200</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>24100</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>23500</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>23400</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="Z49" s="3">
         <v>23200</v>
       </c>
-      <c r="Z49" s="3">
+      <c r="AA49" s="3">
         <v>23100</v>
       </c>
-      <c r="AA49" s="3">
+      <c r="AB49" s="3">
         <v>22800</v>
       </c>
     </row>
-    <row r="50" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3684,8 +3798,11 @@
       <c r="AA50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3761,85 +3878,91 @@
       <c r="AA51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>141900</v>
+      </c>
+      <c r="E52" s="3">
         <v>142200</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>149500</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>157900</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>139900</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>138100</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>131900</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>127400</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>106600</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>84300</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>75000</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>86300</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>76400</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>75500</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>84500</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>99700</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>186800</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>176600</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>164000</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>165300</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>153700</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>152100</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Z52" s="3">
         <v>141500</v>
       </c>
-      <c r="Z52" s="3">
+      <c r="AA52" s="3">
         <v>138700</v>
       </c>
-      <c r="AA52" s="3">
+      <c r="AB52" s="3">
         <v>96100</v>
       </c>
     </row>
-    <row r="53" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3915,85 +4038,91 @@
       <c r="AA53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>2734100</v>
+      </c>
+      <c r="E54" s="3">
         <v>2772400</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>2753700</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>2798100</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>2717700</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>2722300</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>2735400</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>2747100</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>2828100</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>2867300</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>2675800</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>2840600</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>2381800</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>2073800</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>2076100</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>1314100</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>1308100</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>1306600</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>1287300</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>1333100</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>1275300</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>1299300</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>1276800</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>1293300</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AB54" s="3">
         <v>1204400</v>
       </c>
     </row>
-    <row r="55" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4021,8 +4150,9 @@
       <c r="Y55" s="3"/>
       <c r="Z55" s="3"/>
       <c r="AA55" s="3"/>
-    </row>
-    <row r="56" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB55" s="3"/>
+    </row>
+    <row r="56" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4050,85 +4180,89 @@
       <c r="Y56" s="3"/>
       <c r="Z56" s="3"/>
       <c r="AA56" s="3"/>
-    </row>
-    <row r="57" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB56" s="3"/>
+    </row>
+    <row r="57" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>59000</v>
+      </c>
+      <c r="E57" s="3">
         <v>58900</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>61700</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>54100</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>52900</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>55400</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>56000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>58400</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>61500</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>57500</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>55900</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>61900</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>36100</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>36000</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>36400</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>49100</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>39100</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>38300</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>38800</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>51000</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>46600</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>46200</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>34900</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AA57" s="3">
         <v>41600</v>
       </c>
-      <c r="AA57" s="3">
+      <c r="AB57" s="3">
         <v>38900</v>
       </c>
     </row>
-    <row r="58" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -4204,228 +4338,237 @@
       <c r="AA58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>547100</v>
+      </c>
+      <c r="E59" s="3">
         <v>564600</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>532700</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>582200</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>504200</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>541800</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>501900</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>527600</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>478800</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>475100</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>451200</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>552600</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>397700</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>401000</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>410200</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>367400</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>304400</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>316300</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>305500</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>347000</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>276200</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>283700</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>288200</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>335000</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AB59" s="3">
         <v>265200</v>
       </c>
     </row>
-    <row r="60" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>606200</v>
+      </c>
+      <c r="E60" s="3">
         <v>623500</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>594400</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>636300</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>557100</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>597200</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>558000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>586100</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>540400</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>532700</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>507100</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>614600</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>433800</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>437000</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>446600</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>416500</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>343500</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>354600</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>344300</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>398000</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>322800</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>329900</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>323100</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>376500</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AB60" s="3">
         <v>304100</v>
       </c>
     </row>
-    <row r="61" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>467500</v>
+      </c>
+      <c r="E61" s="3">
         <v>467000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>466500</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>466000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>465500</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>465000</v>
-      </c>
-      <c r="I61" s="3">
-        <v>280000</v>
       </c>
       <c r="J61" s="3">
         <v>280000</v>
       </c>
       <c r="K61" s="3">
-        <v>376000</v>
+        <v>280000</v>
       </c>
       <c r="L61" s="3">
         <v>376000</v>
       </c>
       <c r="M61" s="3">
+        <v>376000</v>
+      </c>
+      <c r="N61" s="3">
         <v>380000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>290000</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>335000</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>35000</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>20000</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>10000</v>
-      </c>
-      <c r="S61" s="3">
-        <v>20000</v>
       </c>
       <c r="T61" s="3">
         <v>20000</v>
       </c>
       <c r="U61" s="3">
+        <v>20000</v>
+      </c>
+      <c r="V61" s="3">
         <v>30000</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>10000</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>30000</v>
       </c>
-      <c r="X61" s="3">
-        <v>0</v>
-      </c>
       <c r="Y61" s="3">
         <v>0</v>
       </c>
@@ -4435,85 +4578,91 @@
       <c r="AA61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>1336900</v>
+      </c>
+      <c r="E62" s="3">
         <v>1320200</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>1337500</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>1365700</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>1373200</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>1375500</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>1367500</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>1374000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>1379500</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>1402600</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>1369700</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>1364300</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>1079200</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>1061500</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>1067200</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>316600</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>331100</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>319300</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>318800</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>311600</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>339200</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>328900</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>326200</v>
       </c>
-      <c r="Z62" s="3">
+      <c r="AA62" s="3">
         <v>313600</v>
       </c>
-      <c r="AA62" s="3">
+      <c r="AB62" s="3">
         <v>310700</v>
       </c>
     </row>
-    <row r="63" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4589,8 +4738,11 @@
       <c r="AA63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4666,8 +4818,11 @@
       <c r="AA64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4743,85 +4898,91 @@
       <c r="AA65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>2410600</v>
+      </c>
+      <c r="E66" s="3">
         <v>2410700</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>2398400</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>2468000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>2395800</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>2437700</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>2205400</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>2240100</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>2295900</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>2311300</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>2256800</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>2268900</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>1848000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>1533500</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>1533800</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>743100</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>694700</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>693900</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>693200</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>719500</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>692000</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>658800</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>649300</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>690100</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AB66" s="3">
         <v>614800</v>
       </c>
     </row>
-    <row r="67" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4849,8 +5010,9 @@
       <c r="Y67" s="3"/>
       <c r="Z67" s="3"/>
       <c r="AA67" s="3"/>
-    </row>
-    <row r="68" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB67" s="3"/>
+    </row>
+    <row r="68" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4926,8 +5088,11 @@
       <c r="AA68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5003,8 +5168,11 @@
       <c r="AA69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5024,20 +5192,20 @@
         <v>0</v>
       </c>
       <c r="I70" s="3">
+        <v>0</v>
+      </c>
+      <c r="J70" s="3">
         <v>213500</v>
       </c>
-      <c r="J70" s="3">
+      <c r="K70" s="3">
         <v>218200</v>
       </c>
-      <c r="K70" s="3">
+      <c r="L70" s="3">
         <v>209900</v>
       </c>
-      <c r="L70" s="3">
+      <c r="M70" s="3">
         <v>204100</v>
       </c>
-      <c r="M70" s="3">
-        <v>0</v>
-      </c>
       <c r="N70" s="3">
         <v>0</v>
       </c>
@@ -5080,8 +5248,11 @@
       <c r="AA70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5157,85 +5328,91 @@
       <c r="AA71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>1187300</v>
+      </c>
+      <c r="E72" s="3">
         <v>1203700</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>1192300</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>1169200</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>1167000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>1134200</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>1114000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>1110100</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>1150700</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>1184900</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>1255800</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>1408300</v>
-      </c>
-      <c r="O72" s="3">
-        <v>1375700</v>
       </c>
       <c r="P72" s="3">
         <v>1375700</v>
       </c>
       <c r="Q72" s="3">
+        <v>1375700</v>
+      </c>
+      <c r="R72" s="3">
         <v>1355100</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>1384500</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>1383300</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>1369900</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>1354900</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>1345700</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>1301200</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>1288200</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>1261600</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>1238000</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AB72" s="3">
         <v>1217000</v>
       </c>
     </row>
-    <row r="73" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5311,8 +5488,11 @@
       <c r="AA73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5388,8 +5568,11 @@
       <c r="AA74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5465,85 +5648,91 @@
       <c r="AA75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>323500</v>
+      </c>
+      <c r="E76" s="3">
         <v>361700</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>355300</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>330200</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>321900</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>284600</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>316500</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>288700</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>322300</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>351900</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>419000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>571700</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>533800</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>540300</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>542200</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>571100</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>613400</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>612800</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>594200</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>613500</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>583400</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>640500</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>627500</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>603200</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>589500</v>
       </c>
     </row>
-    <row r="77" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5619,167 +5808,176 @@
       <c r="AA77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44831</v>
+      </c>
+      <c r="E80" s="2">
         <v>44740</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44649</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44558</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44467</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44376</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44285</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44194</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44103</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44012</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43921</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43830</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43739</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43648</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43557</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43466</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43375</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43284</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43193</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43102</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43011</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42920</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42829</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42738</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42640</v>
       </c>
     </row>
-    <row r="81" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-2400</v>
+      </c>
+      <c r="E81" s="3">
         <v>25700</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>23200</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>3300</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>32700</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>13100</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-1300</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-37300</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-33200</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-70500</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-136200</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>48700</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>16100</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>35500</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>27000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>16200</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>28500</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>28400</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>26000</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>57700</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>26400</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>38200</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>35000</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>32400</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>34600</v>
       </c>
     </row>
-    <row r="82" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5807,85 +6005,89 @@
       <c r="Y82" s="3"/>
       <c r="Z82" s="3"/>
       <c r="AA82" s="3"/>
-    </row>
-    <row r="83" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB82" s="3"/>
+    </row>
+    <row r="83" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>22700</v>
+      </c>
+      <c r="E83" s="3">
         <v>22600</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>21500</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>22800</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>22600</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>44200</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>22000</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>22600</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>22700</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>22600</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>23600</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>23800</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>21300</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>21700</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>21400</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>24200</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>24100</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>23700</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>24000</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>23200</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>23000</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>23300</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="Z83" s="3">
         <v>23200</v>
       </c>
-      <c r="Z83" s="3">
+      <c r="AA83" s="3">
         <v>23500</v>
       </c>
-      <c r="AA83" s="3">
+      <c r="AB83" s="3">
         <v>21600</v>
       </c>
     </row>
-    <row r="84" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5961,8 +6163,11 @@
       <c r="AA84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6038,8 +6243,11 @@
       <c r="AA85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6115,8 +6323,11 @@
       <c r="AA86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6192,8 +6403,11 @@
       <c r="AA87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6269,85 +6483,91 @@
       <c r="AA88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>11400</v>
+      </c>
+      <c r="E89" s="3">
         <v>54000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>33500</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>93800</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-11300</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>130400</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>21600</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>35600</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>2900</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-2700</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-33000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>102600</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>32400</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>50300</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>33500</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>109200</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>41600</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>65600</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>74900</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>84600</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>40300</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>65800</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>48100</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>86000</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AB89" s="3">
         <v>58100</v>
       </c>
     </row>
-    <row r="90" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6375,85 +6595,89 @@
       <c r="Y90" s="3"/>
       <c r="Z90" s="3"/>
       <c r="AA90" s="3"/>
-    </row>
-    <row r="91" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB90" s="3"/>
+    </row>
+    <row r="91" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-31700</v>
+      </c>
+      <c r="E91" s="3">
         <v>-17300</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-29100</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-17800</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-18300</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-30900</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-7200</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-12100</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-8800</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-13600</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-15800</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-27100</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-17300</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-16000</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-13400</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-24200</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-26800</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-21200</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-30700</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-47400</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-29700</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-24500</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-19500</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AA91" s="3">
         <v>-45600</v>
       </c>
-      <c r="AA91" s="3">
+      <c r="AB91" s="3">
         <v>10400</v>
       </c>
     </row>
-    <row r="92" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6529,8 +6753,11 @@
       <c r="AA92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6606,85 +6833,91 @@
       <c r="AA93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-32000</v>
+      </c>
+      <c r="E94" s="3">
         <v>-17400</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-28600</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-17700</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-18700</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-32200</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-8700</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-12300</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-9000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-13700</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-15900</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-290500</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-22000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-23100</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-27400</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-24500</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-39800</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-35100</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-31000</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-57100</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-30000</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-33700</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-19600</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>-87600</v>
       </c>
-      <c r="AA94" s="3">
+      <c r="AB94" s="3">
         <v>-30800</v>
       </c>
     </row>
-    <row r="95" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6712,13 +6945,14 @@
       <c r="Y95" s="3"/>
       <c r="Z95" s="3"/>
       <c r="AA95" s="3"/>
-    </row>
-    <row r="96" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB95" s="3"/>
+    </row>
+    <row r="96" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>0</v>
+        <v>-14100</v>
       </c>
       <c r="E96" s="3">
         <v>0</v>
@@ -6730,14 +6964,14 @@
         <v>0</v>
       </c>
       <c r="H96" s="3">
+        <v>0</v>
+      </c>
+      <c r="I96" s="3">
         <v>-300</v>
       </c>
-      <c r="I96" s="3">
+      <c r="J96" s="3">
         <v>-2200</v>
       </c>
-      <c r="J96" s="3">
-        <v>0</v>
-      </c>
       <c r="K96" s="3">
         <v>0</v>
       </c>
@@ -6745,52 +6979,55 @@
         <v>0</v>
       </c>
       <c r="M96" s="3">
+        <v>0</v>
+      </c>
+      <c r="N96" s="3">
         <v>-15800</v>
-      </c>
-      <c r="N96" s="3">
-        <v>-15700</v>
       </c>
       <c r="O96" s="3">
         <v>-15700</v>
       </c>
       <c r="P96" s="3">
+        <v>-15700</v>
+      </c>
+      <c r="Q96" s="3">
         <v>-14700</v>
       </c>
-      <c r="Q96" s="3">
+      <c r="R96" s="3">
         <v>-14600</v>
       </c>
-      <c r="R96" s="3">
+      <c r="S96" s="3">
         <v>-14800</v>
       </c>
-      <c r="S96" s="3">
+      <c r="T96" s="3">
         <v>-14900</v>
       </c>
-      <c r="T96" s="3">
+      <c r="U96" s="3">
         <v>-13400</v>
       </c>
-      <c r="U96" s="3">
+      <c r="V96" s="3">
         <v>-13200</v>
       </c>
-      <c r="V96" s="3">
+      <c r="W96" s="3">
         <v>-13300</v>
       </c>
-      <c r="W96" s="3">
+      <c r="X96" s="3">
         <v>-13500</v>
       </c>
-      <c r="X96" s="3">
+      <c r="Y96" s="3">
         <v>-11500</v>
       </c>
-      <c r="Y96" s="3">
+      <c r="Z96" s="3">
         <v>-11700</v>
       </c>
-      <c r="Z96" s="3">
+      <c r="AA96" s="3">
         <v>-11300</v>
       </c>
-      <c r="AA96" s="3">
+      <c r="AB96" s="3">
         <v>-11500</v>
       </c>
     </row>
-    <row r="97" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6866,8 +7103,11 @@
       <c r="AA97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6943,8 +7183,11 @@
       <c r="AA98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7020,124 +7263,130 @@
       <c r="AA99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-40700</v>
+      </c>
+      <c r="E100" s="3">
         <v>-25200</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-11000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-17500</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-700</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-90600</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>14300</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-113100</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-400</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>185500</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>71700</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-59900</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>273200</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-27100</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-10200</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-70600</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-18500</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-25900</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-25200</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-41200</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-56800</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>-31500</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>-16700</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>-10400</v>
       </c>
-      <c r="AA100" s="3">
+      <c r="AB100" s="3">
         <v>-47700</v>
       </c>
     </row>
-    <row r="101" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E101" s="3">
         <v>-100</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>100</v>
       </c>
-      <c r="F101" s="3">
-        <v>0</v>
-      </c>
       <c r="G101" s="3">
+        <v>0</v>
+      </c>
+      <c r="H101" s="3">
         <v>-100</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>100</v>
       </c>
-      <c r="I101" s="3">
-        <v>0</v>
-      </c>
       <c r="J101" s="3">
+        <v>0</v>
+      </c>
+      <c r="K101" s="3">
         <v>100</v>
       </c>
-      <c r="K101" s="3">
-        <v>0</v>
-      </c>
       <c r="L101" s="3">
+        <v>0</v>
+      </c>
+      <c r="M101" s="3">
         <v>100</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-200</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>100</v>
       </c>
-      <c r="O101" s="3">
-        <v>0</v>
-      </c>
       <c r="P101" s="3">
         <v>0</v>
       </c>
@@ -7145,11 +7394,11 @@
         <v>0</v>
       </c>
       <c r="R101" s="3">
+        <v>0</v>
+      </c>
+      <c r="S101" s="3">
         <v>-100</v>
       </c>
-      <c r="S101" s="3">
-        <v>0</v>
-      </c>
       <c r="T101" s="3">
         <v>0</v>
       </c>
@@ -7157,10 +7406,10 @@
         <v>0</v>
       </c>
       <c r="V101" s="3">
+        <v>0</v>
+      </c>
+      <c r="W101" s="3">
         <v>-100</v>
-      </c>
-      <c r="W101" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="X101" s="3" t="s">
         <v>8</v>
@@ -7174,81 +7423,87 @@
       <c r="AA101" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="102" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB101" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="102" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-61700</v>
+      </c>
+      <c r="E102" s="3">
         <v>11300</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-6100</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>58600</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-30700</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>7700</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>27300</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-89700</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-6400</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>169100</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>22600</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-247800</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>283600</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>100</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-4000</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>13900</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-16700</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>4600</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>18800</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-13800</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>-46500</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>600</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>11800</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>-12000</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AB102" s="3">
         <v>-13800</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/CAKE_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/CAKE_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="92">
   <si>
     <t>CAKE</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AB102"/>
+  <dimension ref="A5:AC102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,352 +665,365 @@
     <col min="1" max="1" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="27" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="28" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:29" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44929</v>
+      </c>
+      <c r="E7" s="2">
         <v>44831</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44740</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44649</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44558</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44467</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44376</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44285</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44194</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44103</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44012</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43921</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43830</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43739</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43648</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43557</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43466</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43375</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43284</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43193</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43102</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43011</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42920</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42829</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42738</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AC7" s="2">
         <v>42640</v>
       </c>
     </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>892800</v>
+      </c>
+      <c r="E8" s="3">
         <v>784000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>832600</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>793700</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>776700</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>754500</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>1396400</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>627400</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>554600</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>517700</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>295900</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>615100</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>694000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>586500</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>602600</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>599500</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>585200</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>575200</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>587300</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>584700</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>571800</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>555400</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>569900</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>563400</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AB8" s="3">
         <v>603100</v>
       </c>
-      <c r="AB8" s="3">
+      <c r="AC8" s="3">
         <v>560000</v>
       </c>
     </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>220500</v>
+      </c>
+      <c r="E9" s="3">
         <v>197800</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>204200</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>188500</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>178900</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>169400</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>304800</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>135900</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>127200</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>118100</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>72100</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>140900</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>158200</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>132900</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>134400</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>136200</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>134800</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>132200</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>131700</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>134200</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>134000</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>127500</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>128800</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AA9" s="3">
         <v>129100</v>
       </c>
-      <c r="AA9" s="3">
+      <c r="AB9" s="3">
         <v>140100</v>
       </c>
-      <c r="AB9" s="3">
+      <c r="AC9" s="3">
         <v>128800</v>
       </c>
     </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>672300</v>
+      </c>
+      <c r="E10" s="3">
         <v>586200</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>628400</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>605200</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>597800</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>585100</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>1091600</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>491500</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>427400</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>399600</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>223800</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>474200</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>535800</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>453600</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>468200</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>463300</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>450400</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>443000</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>455600</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>450500</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>437800</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>427900</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>441100</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AA10" s="3">
         <v>434300</v>
       </c>
-      <c r="AA10" s="3">
+      <c r="AB10" s="3">
         <v>463000</v>
       </c>
-      <c r="AB10" s="3">
+      <c r="AC10" s="3">
         <v>431200</v>
       </c>
     </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1039,8 +1052,9 @@
       <c r="Z11" s="3"/>
       <c r="AA11" s="3"/>
       <c r="AB11" s="3"/>
-    </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC11" s="3"/>
+    </row>
+    <row r="12" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1119,8 +1133,11 @@
       <c r="AB12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1199,13 +1216,16 @@
       <c r="AB13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>1100</v>
+        <v>41500</v>
       </c>
       <c r="E14" s="3">
         <v>1100</v>
@@ -1214,153 +1234,159 @@
         <v>1100</v>
       </c>
       <c r="G14" s="3">
+        <v>1100</v>
+      </c>
+      <c r="H14" s="3">
         <v>24500</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>700</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>12500</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>6000</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>20500</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>14500</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>2500</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>188700</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>23500</v>
       </c>
-      <c r="P14" s="3">
-        <v>0</v>
-      </c>
       <c r="Q14" s="3">
         <v>0</v>
       </c>
-      <c r="R14" s="3" t="s">
+      <c r="R14" s="3">
+        <v>0</v>
+      </c>
+      <c r="S14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>15000</v>
       </c>
-      <c r="T14" s="3">
+      <c r="U14" s="3">
         <v>300</v>
       </c>
-      <c r="U14" s="3">
+      <c r="V14" s="3">
         <v>2600</v>
       </c>
-      <c r="V14" s="3" t="s">
+      <c r="W14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="W14" s="3">
+      <c r="X14" s="3">
         <v>9100</v>
       </c>
-      <c r="X14" s="3">
-        <v>0</v>
-      </c>
       <c r="Y14" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z14" s="3">
         <v>400</v>
       </c>
-      <c r="Z14" s="3">
+      <c r="AA14" s="3">
         <v>800</v>
       </c>
-      <c r="AA14" s="3">
+      <c r="AB14" s="3">
         <v>100</v>
       </c>
-      <c r="AB14" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>25600</v>
+      </c>
+      <c r="E15" s="3">
         <v>22700</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>22600</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>21500</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>22800</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>22600</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>44200</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>22000</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>22600</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>22700</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>22600</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>23600</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>23800</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>21300</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>21700</v>
       </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3">
         <v>21400</v>
       </c>
-      <c r="S15" s="3">
+      <c r="T15" s="3">
         <v>24200</v>
       </c>
-      <c r="T15" s="3">
+      <c r="U15" s="3">
         <v>24100</v>
       </c>
-      <c r="U15" s="3">
+      <c r="V15" s="3">
         <v>23700</v>
       </c>
-      <c r="V15" s="3">
+      <c r="W15" s="3">
         <v>24000</v>
       </c>
-      <c r="W15" s="3">
+      <c r="X15" s="3">
         <v>23200</v>
       </c>
-      <c r="X15" s="3">
+      <c r="Y15" s="3">
         <v>23000</v>
       </c>
-      <c r="Y15" s="3">
+      <c r="Z15" s="3">
         <v>23300</v>
       </c>
-      <c r="Z15" s="3">
+      <c r="AA15" s="3">
         <v>23200</v>
       </c>
-      <c r="AA15" s="3">
+      <c r="AB15" s="3">
         <v>23500</v>
       </c>
-      <c r="AB15" s="3">
+      <c r="AC15" s="3">
         <v>21600</v>
       </c>
     </row>
-    <row r="16" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:29" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1386,168 +1412,175 @@
       <c r="Z16" s="3"/>
       <c r="AA16" s="3"/>
       <c r="AB16" s="3"/>
-    </row>
-    <row r="17" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC16" s="3"/>
+    </row>
+    <row r="17" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>907900</v>
+      </c>
+      <c r="E17" s="3">
         <v>786200</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>804700</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>765400</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>775700</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>723100</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>1346400</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>618600</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>593400</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>552600</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>379600</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>805200</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>687600</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>559600</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>562500</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>569300</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>565800</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>541700</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>552800</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>553100</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>547100</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>521100</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>519700</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>519900</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>556000</v>
       </c>
-      <c r="AB17" s="3">
+      <c r="AC17" s="3">
         <v>510000</v>
       </c>
     </row>
-    <row r="18" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-15100</v>
+      </c>
+      <c r="E18" s="3">
         <v>-2200</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>27900</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>28300</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>1000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>31400</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>50000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>8800</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-38800</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-34900</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-83700</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-190100</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>6400</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>26900</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>40100</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>30200</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>19400</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>33500</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>34500</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>31600</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>24700</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>34300</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>50200</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>43500</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3">
         <v>47100</v>
       </c>
-      <c r="AB18" s="3">
+      <c r="AC18" s="3">
         <v>50000</v>
       </c>
     </row>
-    <row r="19" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1576,168 +1609,175 @@
       <c r="Z19" s="3"/>
       <c r="AA19" s="3"/>
       <c r="AB19" s="3"/>
-    </row>
-    <row r="20" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC19" s="3"/>
+    </row>
+    <row r="20" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-2100</v>
+      </c>
+      <c r="E20" s="3">
         <v>-1300</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-1100</v>
-      </c>
-      <c r="F20" s="3">
-        <v>-1500</v>
       </c>
       <c r="G20" s="3">
         <v>-1500</v>
       </c>
       <c r="H20" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="I20" s="3">
         <v>-1800</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-7400</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-2700</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-1600</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-2900</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-2600</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-1500</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>50200</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-10300</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-1600</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-1500</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-3900</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-3300</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>-2900</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>-1500</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>-1900</v>
-      </c>
-      <c r="X20" s="3">
-        <v>-1600</v>
       </c>
       <c r="Y20" s="3">
         <v>-1600</v>
       </c>
       <c r="Z20" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="AA20" s="3">
         <v>-1200</v>
       </c>
-      <c r="AA20" s="3">
+      <c r="AB20" s="3">
         <v>-2200</v>
       </c>
-      <c r="AB20" s="3">
+      <c r="AC20" s="3">
         <v>-2500</v>
       </c>
     </row>
-    <row r="21" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>8400</v>
+      </c>
+      <c r="E21" s="3">
         <v>19100</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>49400</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>48400</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>22300</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>52200</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>86800</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>28200</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-17800</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-15100</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-63700</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-168000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>80300</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>38000</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>60100</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>50100</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>39700</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>54300</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>55400</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>54000</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>46000</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>55700</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>71900</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>65500</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AB21" s="3">
         <v>68300</v>
       </c>
-      <c r="AB21" s="3">
+      <c r="AC21" s="3">
         <v>69200</v>
       </c>
     </row>
-    <row r="22" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1816,168 +1856,177 @@
       <c r="AB22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-17300</v>
+      </c>
+      <c r="E23" s="3">
         <v>-3500</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>26800</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>26900</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-500</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>29600</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>42600</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>6200</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-40400</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-37800</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-86300</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-191600</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>56600</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>16600</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>38400</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>28700</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>15500</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>30200</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>31600</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>30000</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>22800</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>32700</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>48600</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>42300</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>44900</v>
       </c>
-      <c r="AB23" s="3">
+      <c r="AC23" s="3">
         <v>47600</v>
       </c>
     </row>
-    <row r="24" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>-14000</v>
+      </c>
+      <c r="E24" s="3">
         <v>-1100</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>1200</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>3700</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>-2600</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>-3100</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>5000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>2300</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>-8100</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>-9400</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>-29700</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>-55400</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>7900</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>500</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>2900</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>1700</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>-700</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>1700</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>3300</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>4000</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>3600</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>6300</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>10500</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AA24" s="3">
         <v>7300</v>
       </c>
-      <c r="AA24" s="3">
+      <c r="AB24" s="3">
         <v>12500</v>
       </c>
-      <c r="AB24" s="3">
+      <c r="AC24" s="3">
         <v>13000</v>
       </c>
     </row>
-    <row r="25" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2056,168 +2105,177 @@
       <c r="AB25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-3300</v>
+      </c>
+      <c r="E26" s="3">
         <v>-2400</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>25700</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>23200</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>2100</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>32700</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>37600</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>3900</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-32300</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-28300</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-56500</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-136200</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>48700</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>16100</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>35500</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>27000</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>16200</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>28500</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>28400</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>26000</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>19200</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>26400</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>38200</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>35000</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>32400</v>
       </c>
-      <c r="AB26" s="3">
+      <c r="AC26" s="3">
         <v>34600</v>
       </c>
     </row>
-    <row r="27" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-3300</v>
+      </c>
+      <c r="E27" s="3">
         <v>-2400</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>25700</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>23200</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>3300</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>32700</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>13100</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-1300</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-37300</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-33200</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-70500</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-136200</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>48700</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>16100</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>35500</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>27000</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>16200</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>28500</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>28400</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>26000</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>19200</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>26400</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>38200</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>35000</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>32400</v>
       </c>
-      <c r="AB27" s="3">
+      <c r="AC27" s="3">
         <v>34600</v>
       </c>
     </row>
-    <row r="28" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2296,8 +2354,11 @@
       <c r="AB28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2340,8 +2401,8 @@
       <c r="P29" s="3">
         <v>0</v>
       </c>
-      <c r="Q29" s="3" t="s">
-        <v>8</v>
+      <c r="Q29" s="3">
+        <v>0</v>
       </c>
       <c r="R29" s="3" t="s">
         <v>8</v>
@@ -2358,11 +2419,11 @@
       <c r="V29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="W29" s="3">
+      <c r="W29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="X29" s="3">
         <v>38500</v>
-      </c>
-      <c r="X29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="Y29" s="3" t="s">
         <v>8</v>
@@ -2376,8 +2437,11 @@
       <c r="AB29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2456,8 +2520,11 @@
       <c r="AB30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2536,168 +2603,177 @@
       <c r="AB31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>2100</v>
+      </c>
+      <c r="E32" s="3">
         <v>1300</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>1100</v>
-      </c>
-      <c r="F32" s="3">
-        <v>1500</v>
       </c>
       <c r="G32" s="3">
         <v>1500</v>
       </c>
       <c r="H32" s="3">
+        <v>1500</v>
+      </c>
+      <c r="I32" s="3">
         <v>1800</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>7400</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>2700</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>1600</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>2900</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>2600</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>1500</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-50200</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>10300</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>1600</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>1500</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>3900</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>3300</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>2900</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>1500</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>1900</v>
-      </c>
-      <c r="X32" s="3">
-        <v>1600</v>
       </c>
       <c r="Y32" s="3">
         <v>1600</v>
       </c>
       <c r="Z32" s="3">
+        <v>1600</v>
+      </c>
+      <c r="AA32" s="3">
         <v>1200</v>
       </c>
-      <c r="AA32" s="3">
+      <c r="AB32" s="3">
         <v>2200</v>
       </c>
-      <c r="AB32" s="3">
+      <c r="AC32" s="3">
         <v>2500</v>
       </c>
     </row>
-    <row r="33" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-3300</v>
+      </c>
+      <c r="E33" s="3">
         <v>-2400</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>25700</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>23200</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>3300</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>32700</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>13100</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-1300</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-37300</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-33200</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-70500</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-136200</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>48700</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>16100</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>35500</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>27000</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>16200</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>28500</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>28400</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>26000</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>57700</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>26400</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>38200</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>35000</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>32400</v>
       </c>
-      <c r="AB33" s="3">
+      <c r="AC33" s="3">
         <v>34600</v>
       </c>
     </row>
-    <row r="34" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2776,173 +2852,182 @@
       <c r="AB34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-3300</v>
+      </c>
+      <c r="E35" s="3">
         <v>-2400</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>25700</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>23200</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>3300</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>32700</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>13100</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-1300</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-37300</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-33200</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-70500</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-136200</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>48700</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>16100</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>35500</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>27000</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>16200</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>28500</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>28400</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>26000</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>57700</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>26400</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>38200</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>35000</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>32400</v>
       </c>
-      <c r="AB35" s="3">
+      <c r="AC35" s="3">
         <v>34600</v>
       </c>
     </row>
-    <row r="37" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44929</v>
+      </c>
+      <c r="E38" s="2">
         <v>44831</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44740</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44649</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44558</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44467</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44376</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44285</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44194</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44103</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44012</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43921</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43830</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43739</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43648</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43557</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43466</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43375</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43284</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43193</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43102</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43011</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42920</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42829</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42738</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AC38" s="2">
         <v>42640</v>
       </c>
     </row>
-    <row r="39" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2971,8 +3056,9 @@
       <c r="Z39" s="3"/>
       <c r="AA39" s="3"/>
       <c r="AB39" s="3"/>
-    </row>
-    <row r="40" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC39" s="3"/>
+    </row>
+    <row r="40" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3001,88 +3087,92 @@
       <c r="Z40" s="3"/>
       <c r="AA40" s="3"/>
       <c r="AB40" s="3"/>
-    </row>
-    <row r="41" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC40" s="3"/>
+    </row>
+    <row r="41" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>114800</v>
+      </c>
+      <c r="E41" s="3">
         <v>133200</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>194900</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>183600</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>189600</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>131000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>161800</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>181300</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>154100</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>243800</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>250200</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>81000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>58400</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>306300</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>22600</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>22500</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>26600</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>12600</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>29400</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>24800</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>6000</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>19800</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>66300</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>65700</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AB41" s="3">
         <v>53800</v>
       </c>
-      <c r="AB41" s="3">
+      <c r="AC41" s="3">
         <v>65800</v>
       </c>
     </row>
-    <row r="42" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -3161,328 +3251,343 @@
       <c r="AB42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>164600</v>
+      </c>
+      <c r="E43" s="3">
         <v>107000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>128200</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>120900</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>155100</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>120400</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>108400</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>109000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>130600</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>113100</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>145900</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>120000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>118100</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>74500</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>70100</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>67500</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>89100</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>54100</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>52100</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>44100</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>102400</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>52100</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>53000</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AA43" s="3">
         <v>44800</v>
       </c>
-      <c r="AA43" s="3">
+      <c r="AB43" s="3">
         <v>80200</v>
       </c>
-      <c r="AB43" s="3">
+      <c r="AC43" s="3">
         <v>45200</v>
       </c>
     </row>
-    <row r="44" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>55600</v>
+      </c>
+      <c r="E44" s="3">
         <v>62300</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>52300</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>46700</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>42800</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>43300</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>41900</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>39000</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>39300</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>37700</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>40500</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>47800</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>47200</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>47800</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>46000</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>42000</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>38900</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>39800</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>34700</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>41000</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>42600</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>44200</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="Z44" s="3">
         <v>40200</v>
       </c>
-      <c r="Z44" s="3">
+      <c r="AA44" s="3">
         <v>38500</v>
       </c>
-      <c r="AA44" s="3">
+      <c r="AB44" s="3">
         <v>34900</v>
       </c>
-      <c r="AB44" s="3">
+      <c r="AC44" s="3">
         <v>35500</v>
       </c>
     </row>
-    <row r="45" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>10800</v>
+      </c>
+      <c r="E45" s="3">
         <v>15300</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>16300</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>16200</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>18000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>15400</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>16200</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>14500</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>17400</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>16400</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>18100</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>21800</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>20800</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>20600</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>19400</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>25500</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>40600</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>48300</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>52900</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>54000</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>57700</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>48500</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>50900</v>
       </c>
-      <c r="Z45" s="3">
+      <c r="AA45" s="3">
         <v>52600</v>
       </c>
-      <c r="AA45" s="3">
+      <c r="AB45" s="3">
         <v>52400</v>
       </c>
-      <c r="AB45" s="3">
+      <c r="AC45" s="3">
         <v>36300</v>
       </c>
     </row>
-    <row r="46" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>345800</v>
+      </c>
+      <c r="E46" s="3">
         <v>317700</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>391700</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>367300</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>405600</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>310200</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>328300</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>343800</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>341400</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>411000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>454600</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>270700</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>244500</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>449100</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>158200</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>157500</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>195200</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>154800</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>169100</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>163900</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>208600</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>164600</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>210500</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>201600</v>
       </c>
-      <c r="AA46" s="3">
+      <c r="AB46" s="3">
         <v>221400</v>
       </c>
-      <c r="AB46" s="3">
+      <c r="AC46" s="3">
         <v>182900</v>
       </c>
     </row>
-    <row r="47" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3523,19 +3628,19 @@
         <v>0</v>
       </c>
       <c r="P47" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q47" s="3">
         <v>91800</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>97700</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>81300</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>79800</v>
-      </c>
-      <c r="T47" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="U47" s="3" t="s">
         <v>8</v>
@@ -3552,8 +3657,8 @@
       <c r="Y47" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Z47" s="3">
-        <v>0</v>
+      <c r="Z47" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="AA47" s="3">
         <v>0</v>
@@ -3561,168 +3666,177 @@
       <c r="AB47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>2015000</v>
+      </c>
+      <c r="E48" s="3">
         <v>2022800</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>1987000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>1985300</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>1983000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>2014500</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>2002800</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>2006600</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>2025200</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>2056900</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>2074000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>2075700</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>2072600</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>1744100</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>1722200</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>1732600</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>913300</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>940100</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>936500</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>935300</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>935000</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>933500</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>913400</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AA48" s="3">
         <v>910600</v>
       </c>
-      <c r="AA48" s="3">
+      <c r="AB48" s="3">
         <v>910100</v>
       </c>
-      <c r="AB48" s="3">
+      <c r="AC48" s="3">
         <v>902600</v>
       </c>
     </row>
-    <row r="49" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>251600</v>
+        <v>251500</v>
       </c>
       <c r="E49" s="3">
         <v>251600</v>
       </c>
       <c r="F49" s="3">
-        <v>251700</v>
+        <v>251600</v>
       </c>
       <c r="G49" s="3">
         <v>251700</v>
       </c>
       <c r="H49" s="3">
+        <v>251700</v>
+      </c>
+      <c r="I49" s="3">
         <v>253200</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>253100</v>
-      </c>
-      <c r="J49" s="3">
-        <v>253200</v>
       </c>
       <c r="K49" s="3">
         <v>253200</v>
       </c>
       <c r="L49" s="3">
+        <v>253200</v>
+      </c>
+      <c r="M49" s="3">
         <v>253600</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>254300</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>254400</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>437200</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>20300</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>20200</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>20100</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>26200</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>26300</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>24500</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>24200</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>24100</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>23500</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="Z49" s="3">
         <v>23400</v>
       </c>
-      <c r="Z49" s="3">
+      <c r="AA49" s="3">
         <v>23200</v>
       </c>
-      <c r="AA49" s="3">
+      <c r="AB49" s="3">
         <v>23100</v>
       </c>
-      <c r="AB49" s="3">
+      <c r="AC49" s="3">
         <v>22800</v>
       </c>
     </row>
-    <row r="50" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3801,8 +3915,11 @@
       <c r="AB50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3881,88 +3998,94 @@
       <c r="AB51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>162900</v>
+      </c>
+      <c r="E52" s="3">
         <v>141900</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>142200</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>149500</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>157900</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>139900</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>138100</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>131900</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>127400</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>106600</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>84300</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>75000</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>86300</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>76400</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>75500</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>84500</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>99700</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>186800</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>176600</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>164000</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>165300</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>153700</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Z52" s="3">
         <v>152100</v>
       </c>
-      <c r="Z52" s="3">
+      <c r="AA52" s="3">
         <v>141500</v>
       </c>
-      <c r="AA52" s="3">
+      <c r="AB52" s="3">
         <v>138700</v>
       </c>
-      <c r="AB52" s="3">
+      <c r="AC52" s="3">
         <v>96100</v>
       </c>
     </row>
-    <row r="53" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4041,88 +4164,94 @@
       <c r="AB53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>2775200</v>
+      </c>
+      <c r="E54" s="3">
         <v>2734100</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>2772400</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>2753700</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>2798100</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>2717700</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>2722300</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>2735400</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>2747100</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>2828100</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>2867300</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>2675800</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>2840600</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>2381800</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>2073800</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>2076100</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>1314100</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>1308100</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>1306600</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>1287300</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>1333100</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>1275300</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>1299300</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>1276800</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AB54" s="3">
         <v>1293300</v>
       </c>
-      <c r="AB54" s="3">
+      <c r="AC54" s="3">
         <v>1204400</v>
       </c>
     </row>
-    <row r="55" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4151,8 +4280,9 @@
       <c r="Z55" s="3"/>
       <c r="AA55" s="3"/>
       <c r="AB55" s="3"/>
-    </row>
-    <row r="56" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC55" s="3"/>
+    </row>
+    <row r="56" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4181,88 +4311,92 @@
       <c r="Z56" s="3"/>
       <c r="AA56" s="3"/>
       <c r="AB56" s="3"/>
-    </row>
-    <row r="57" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC56" s="3"/>
+    </row>
+    <row r="57" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>66600</v>
+      </c>
+      <c r="E57" s="3">
         <v>59000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>58900</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>61700</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>54100</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>52900</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>55400</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>56000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>58400</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>61500</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>57500</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>55900</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>61900</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>36100</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>36000</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>36400</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>49100</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>39100</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>38300</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>38800</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>51000</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>46600</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>46200</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AA57" s="3">
         <v>34900</v>
       </c>
-      <c r="AA57" s="3">
+      <c r="AB57" s="3">
         <v>41600</v>
       </c>
-      <c r="AB57" s="3">
+      <c r="AC57" s="3">
         <v>38900</v>
       </c>
     </row>
-    <row r="58" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -4341,237 +4475,246 @@
       <c r="AB58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>590000</v>
+      </c>
+      <c r="E59" s="3">
         <v>547100</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>564600</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>532700</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>582200</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>504200</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>541800</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>501900</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>527600</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>478800</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>475100</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>451200</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>552600</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>397700</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>401000</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>410200</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>367400</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>304400</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>316300</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>305500</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>347000</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>276200</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>283700</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>288200</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AB59" s="3">
         <v>335000</v>
       </c>
-      <c r="AB59" s="3">
+      <c r="AC59" s="3">
         <v>265200</v>
       </c>
     </row>
-    <row r="60" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>656700</v>
+      </c>
+      <c r="E60" s="3">
         <v>606200</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>623500</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>594400</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>636300</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>557100</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>597200</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>558000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>586100</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>540400</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>532700</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>507100</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>614600</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>433800</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>437000</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>446600</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>416500</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>343500</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>354600</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>344300</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>398000</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>322800</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>329900</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>323100</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AB60" s="3">
         <v>376500</v>
       </c>
-      <c r="AB60" s="3">
+      <c r="AC60" s="3">
         <v>304100</v>
       </c>
     </row>
-    <row r="61" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>468000</v>
+      </c>
+      <c r="E61" s="3">
         <v>467500</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>467000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>466500</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>466000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>465500</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>465000</v>
-      </c>
-      <c r="J61" s="3">
-        <v>280000</v>
       </c>
       <c r="K61" s="3">
         <v>280000</v>
       </c>
       <c r="L61" s="3">
-        <v>376000</v>
+        <v>280000</v>
       </c>
       <c r="M61" s="3">
         <v>376000</v>
       </c>
       <c r="N61" s="3">
+        <v>376000</v>
+      </c>
+      <c r="O61" s="3">
         <v>380000</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>290000</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>335000</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>35000</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>20000</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>10000</v>
-      </c>
-      <c r="T61" s="3">
-        <v>20000</v>
       </c>
       <c r="U61" s="3">
         <v>20000</v>
       </c>
       <c r="V61" s="3">
+        <v>20000</v>
+      </c>
+      <c r="W61" s="3">
         <v>30000</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>10000</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>30000</v>
       </c>
-      <c r="Y61" s="3">
-        <v>0</v>
-      </c>
       <c r="Z61" s="3">
         <v>0</v>
       </c>
@@ -4581,88 +4724,94 @@
       <c r="AB61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>1358500</v>
+      </c>
+      <c r="E62" s="3">
         <v>1336900</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>1320200</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>1337500</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>1365700</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>1373200</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>1375500</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>1367500</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>1374000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>1379500</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>1402600</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>1369700</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>1364300</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>1079200</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>1061500</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>1067200</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>316600</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>331100</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>319300</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>318800</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>311600</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>339200</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>328900</v>
       </c>
-      <c r="Z62" s="3">
+      <c r="AA62" s="3">
         <v>326200</v>
       </c>
-      <c r="AA62" s="3">
+      <c r="AB62" s="3">
         <v>313600</v>
       </c>
-      <c r="AB62" s="3">
+      <c r="AC62" s="3">
         <v>310700</v>
       </c>
     </row>
-    <row r="63" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4741,8 +4890,11 @@
       <c r="AB63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4821,8 +4973,11 @@
       <c r="AB64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4901,88 +5056,94 @@
       <c r="AB65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>2483200</v>
+      </c>
+      <c r="E66" s="3">
         <v>2410600</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>2410700</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>2398400</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>2468000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>2395800</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>2437700</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>2205400</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>2240100</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>2295900</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>2311300</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>2256800</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>2268900</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>1848000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>1533500</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>1533800</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>743100</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>694700</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>693900</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>693200</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>719500</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>692000</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>658800</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>649300</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AB66" s="3">
         <v>690100</v>
       </c>
-      <c r="AB66" s="3">
+      <c r="AC66" s="3">
         <v>614800</v>
       </c>
     </row>
-    <row r="67" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5011,8 +5172,9 @@
       <c r="Z67" s="3"/>
       <c r="AA67" s="3"/>
       <c r="AB67" s="3"/>
-    </row>
-    <row r="68" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC67" s="3"/>
+    </row>
+    <row r="68" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5091,8 +5253,11 @@
       <c r="AB68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5171,8 +5336,11 @@
       <c r="AB69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5195,20 +5363,20 @@
         <v>0</v>
       </c>
       <c r="J70" s="3">
+        <v>0</v>
+      </c>
+      <c r="K70" s="3">
         <v>213500</v>
       </c>
-      <c r="K70" s="3">
+      <c r="L70" s="3">
         <v>218200</v>
       </c>
-      <c r="L70" s="3">
+      <c r="M70" s="3">
         <v>209900</v>
       </c>
-      <c r="M70" s="3">
+      <c r="N70" s="3">
         <v>204100</v>
       </c>
-      <c r="N70" s="3">
-        <v>0</v>
-      </c>
       <c r="O70" s="3">
         <v>0</v>
       </c>
@@ -5251,8 +5419,11 @@
       <c r="AB70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5331,88 +5502,94 @@
       <c r="AB71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>1170100</v>
+      </c>
+      <c r="E72" s="3">
         <v>1187300</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>1203700</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>1192300</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>1169200</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>1167000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>1134200</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>1114000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>1110100</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>1150700</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>1184900</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>1255800</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>1408300</v>
-      </c>
-      <c r="P72" s="3">
-        <v>1375700</v>
       </c>
       <c r="Q72" s="3">
         <v>1375700</v>
       </c>
       <c r="R72" s="3">
+        <v>1375700</v>
+      </c>
+      <c r="S72" s="3">
         <v>1355100</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>1384500</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>1383300</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>1369900</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>1354900</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>1345700</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>1301200</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>1288200</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>1261600</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AB72" s="3">
         <v>1238000</v>
       </c>
-      <c r="AB72" s="3">
+      <c r="AC72" s="3">
         <v>1217000</v>
       </c>
     </row>
-    <row r="73" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5491,8 +5668,11 @@
       <c r="AB73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5571,8 +5751,11 @@
       <c r="AB74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5651,88 +5834,94 @@
       <c r="AB75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>292000</v>
+      </c>
+      <c r="E76" s="3">
         <v>323500</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>361700</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>355300</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>330200</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>321900</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>284600</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>316500</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>288700</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>322300</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>351900</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>419000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>571700</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>533800</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>540300</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>542200</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>571100</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>613400</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>612800</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>594200</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>613500</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>583400</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>640500</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>627500</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>603200</v>
       </c>
-      <c r="AB76" s="3">
+      <c r="AC76" s="3">
         <v>589500</v>
       </c>
     </row>
-    <row r="77" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5811,173 +6000,182 @@
       <c r="AB77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44929</v>
+      </c>
+      <c r="E80" s="2">
         <v>44831</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44740</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44649</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44558</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44467</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44376</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44285</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44194</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44103</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44012</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43921</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43830</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43739</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43648</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43557</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43466</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43375</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43284</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43193</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43102</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43011</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42920</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42829</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42738</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AC80" s="2">
         <v>42640</v>
       </c>
     </row>
-    <row r="81" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-3300</v>
+      </c>
+      <c r="E81" s="3">
         <v>-2400</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>25700</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>23200</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>3300</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>32700</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>13100</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-1300</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-37300</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-33200</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-70500</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-136200</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>48700</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>16100</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>35500</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>27000</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>16200</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>28500</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>28400</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>26000</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>57700</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>26400</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>38200</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>35000</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>32400</v>
       </c>
-      <c r="AB81" s="3">
+      <c r="AC81" s="3">
         <v>34600</v>
       </c>
     </row>
-    <row r="82" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6006,88 +6204,92 @@
       <c r="Z82" s="3"/>
       <c r="AA82" s="3"/>
       <c r="AB82" s="3"/>
-    </row>
-    <row r="83" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC82" s="3"/>
+    </row>
+    <row r="83" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>25600</v>
+      </c>
+      <c r="E83" s="3">
         <v>22700</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>22600</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>21500</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>22800</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>22600</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>44200</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>22000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>22600</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>22700</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>22600</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>23600</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>23800</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>21300</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>21700</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>21400</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>24200</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>24100</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>23700</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>24000</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>23200</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>23000</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="Z83" s="3">
         <v>23300</v>
       </c>
-      <c r="Z83" s="3">
+      <c r="AA83" s="3">
         <v>23200</v>
       </c>
-      <c r="AA83" s="3">
+      <c r="AB83" s="3">
         <v>23500</v>
       </c>
-      <c r="AB83" s="3">
+      <c r="AC83" s="3">
         <v>21600</v>
       </c>
     </row>
-    <row r="84" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6166,8 +6368,11 @@
       <c r="AB84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6246,8 +6451,11 @@
       <c r="AB85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6326,8 +6534,11 @@
       <c r="AB86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6406,8 +6617,11 @@
       <c r="AB87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6486,88 +6700,94 @@
       <c r="AB88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>63000</v>
+      </c>
+      <c r="E89" s="3">
         <v>11400</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>54000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>33500</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>93800</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-11300</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>130400</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>21600</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>35600</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>2900</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-2700</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-33000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>102600</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>32400</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>50300</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>33500</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>109200</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>41600</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>65600</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>74900</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>84600</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>40300</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>65800</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>48100</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AB89" s="3">
         <v>86000</v>
       </c>
-      <c r="AB89" s="3">
+      <c r="AC89" s="3">
         <v>58100</v>
       </c>
     </row>
-    <row r="90" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6596,88 +6816,92 @@
       <c r="Z90" s="3"/>
       <c r="AA90" s="3"/>
       <c r="AB90" s="3"/>
-    </row>
-    <row r="91" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC90" s="3"/>
+    </row>
+    <row r="91" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-34400</v>
+      </c>
+      <c r="E91" s="3">
         <v>-31700</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-17300</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-29100</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-17800</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-18300</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-30900</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-7200</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-12100</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-8800</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-13600</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-15800</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-27100</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-17300</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-16000</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-13400</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-24200</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-26800</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-21200</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-30700</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-47400</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-29700</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-24500</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AA91" s="3">
         <v>-19500</v>
       </c>
-      <c r="AA91" s="3">
+      <c r="AB91" s="3">
         <v>-45600</v>
       </c>
-      <c r="AB91" s="3">
+      <c r="AC91" s="3">
         <v>10400</v>
       </c>
     </row>
-    <row r="92" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6756,8 +6980,11 @@
       <c r="AB92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6836,88 +7063,94 @@
       <c r="AB93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-34800</v>
+      </c>
+      <c r="E94" s="3">
         <v>-32000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-17400</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-28600</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-17700</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-18700</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-32200</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-8700</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-12300</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-9000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-13700</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-15900</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-290500</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-22000</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-23100</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-27400</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-24500</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-39800</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-35100</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-31000</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-57100</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-30000</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-33700</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>-19600</v>
       </c>
-      <c r="AA94" s="3">
+      <c r="AB94" s="3">
         <v>-87600</v>
       </c>
-      <c r="AB94" s="3">
+      <c r="AC94" s="3">
         <v>-30800</v>
       </c>
     </row>
-    <row r="95" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6946,17 +7179,18 @@
       <c r="Z95" s="3"/>
       <c r="AA95" s="3"/>
       <c r="AB95" s="3"/>
-    </row>
-    <row r="96" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC95" s="3"/>
+    </row>
+    <row r="96" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-13900</v>
+      </c>
+      <c r="E96" s="3">
         <v>-14100</v>
       </c>
-      <c r="E96" s="3">
-        <v>0</v>
-      </c>
       <c r="F96" s="3">
         <v>0</v>
       </c>
@@ -6967,14 +7201,14 @@
         <v>0</v>
       </c>
       <c r="I96" s="3">
+        <v>0</v>
+      </c>
+      <c r="J96" s="3">
         <v>-300</v>
       </c>
-      <c r="J96" s="3">
+      <c r="K96" s="3">
         <v>-2200</v>
       </c>
-      <c r="K96" s="3">
-        <v>0</v>
-      </c>
       <c r="L96" s="3">
         <v>0</v>
       </c>
@@ -6982,52 +7216,55 @@
         <v>0</v>
       </c>
       <c r="N96" s="3">
+        <v>0</v>
+      </c>
+      <c r="O96" s="3">
         <v>-15800</v>
-      </c>
-      <c r="O96" s="3">
-        <v>-15700</v>
       </c>
       <c r="P96" s="3">
         <v>-15700</v>
       </c>
       <c r="Q96" s="3">
+        <v>-15700</v>
+      </c>
+      <c r="R96" s="3">
         <v>-14700</v>
       </c>
-      <c r="R96" s="3">
+      <c r="S96" s="3">
         <v>-14600</v>
       </c>
-      <c r="S96" s="3">
+      <c r="T96" s="3">
         <v>-14800</v>
       </c>
-      <c r="T96" s="3">
+      <c r="U96" s="3">
         <v>-14900</v>
       </c>
-      <c r="U96" s="3">
+      <c r="V96" s="3">
         <v>-13400</v>
       </c>
-      <c r="V96" s="3">
+      <c r="W96" s="3">
         <v>-13200</v>
       </c>
-      <c r="W96" s="3">
+      <c r="X96" s="3">
         <v>-13300</v>
       </c>
-      <c r="X96" s="3">
+      <c r="Y96" s="3">
         <v>-13500</v>
       </c>
-      <c r="Y96" s="3">
+      <c r="Z96" s="3">
         <v>-11500</v>
       </c>
-      <c r="Z96" s="3">
+      <c r="AA96" s="3">
         <v>-11700</v>
       </c>
-      <c r="AA96" s="3">
+      <c r="AB96" s="3">
         <v>-11300</v>
       </c>
-      <c r="AB96" s="3">
+      <c r="AC96" s="3">
         <v>-11500</v>
       </c>
     </row>
-    <row r="97" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7106,8 +7343,11 @@
       <c r="AB97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7186,8 +7426,11 @@
       <c r="AB98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7266,130 +7509,136 @@
       <c r="AB99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-46700</v>
+      </c>
+      <c r="E100" s="3">
         <v>-40700</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-25200</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-11000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-17500</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-700</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-90600</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>14300</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-113100</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-400</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>185500</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>71700</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-59900</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>273200</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-27100</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-10200</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-70600</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-18500</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-25900</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-25200</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-41200</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>-56800</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>-31500</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>-16700</v>
       </c>
-      <c r="AA100" s="3">
+      <c r="AB100" s="3">
         <v>-10400</v>
       </c>
-      <c r="AB100" s="3">
+      <c r="AC100" s="3">
         <v>-47700</v>
       </c>
     </row>
-    <row r="101" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>0</v>
+      </c>
+      <c r="E101" s="3">
         <v>-300</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>-100</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>100</v>
       </c>
-      <c r="G101" s="3">
-        <v>0</v>
-      </c>
       <c r="H101" s="3">
+        <v>0</v>
+      </c>
+      <c r="I101" s="3">
         <v>-100</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>100</v>
       </c>
-      <c r="J101" s="3">
-        <v>0</v>
-      </c>
       <c r="K101" s="3">
+        <v>0</v>
+      </c>
+      <c r="L101" s="3">
         <v>100</v>
       </c>
-      <c r="L101" s="3">
-        <v>0</v>
-      </c>
       <c r="M101" s="3">
+        <v>0</v>
+      </c>
+      <c r="N101" s="3">
         <v>100</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-200</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>100</v>
       </c>
-      <c r="P101" s="3">
-        <v>0</v>
-      </c>
       <c r="Q101" s="3">
         <v>0</v>
       </c>
@@ -7397,11 +7646,11 @@
         <v>0</v>
       </c>
       <c r="S101" s="3">
+        <v>0</v>
+      </c>
+      <c r="T101" s="3">
         <v>-100</v>
       </c>
-      <c r="T101" s="3">
-        <v>0</v>
-      </c>
       <c r="U101" s="3">
         <v>0</v>
       </c>
@@ -7409,10 +7658,10 @@
         <v>0</v>
       </c>
       <c r="W101" s="3">
+        <v>0</v>
+      </c>
+      <c r="X101" s="3">
         <v>-100</v>
-      </c>
-      <c r="X101" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="Y101" s="3" t="s">
         <v>8</v>
@@ -7426,84 +7675,90 @@
       <c r="AB101" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="102" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC101" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="102" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-18400</v>
+      </c>
+      <c r="E102" s="3">
         <v>-61700</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>11300</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-6100</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>58600</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-30700</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>7700</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>27300</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-89700</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-6400</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>169100</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>22600</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-247800</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>283600</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>100</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-4000</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>13900</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-16700</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>4600</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>18800</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>-13800</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>-46500</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>600</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>11800</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AB102" s="3">
         <v>-12000</v>
       </c>
-      <c r="AB102" s="3">
+      <c r="AC102" s="3">
         <v>-13800</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/CAKE_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/CAKE_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="92">
   <si>
     <t>CAKE</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AC102"/>
+  <dimension ref="A5:AD102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,365 +665,377 @@
     <col min="1" max="1" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="28" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="30" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="29" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="31" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45020</v>
+      </c>
+      <c r="E7" s="2">
         <v>44929</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44831</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44740</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44649</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44558</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44467</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44376</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44285</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44194</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44103</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44012</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43921</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43830</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43739</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43648</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43557</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43466</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43375</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43284</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43193</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43102</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>43011</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42920</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42829</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AC7" s="2">
         <v>42738</v>
       </c>
-      <c r="AC7" s="2">
+      <c r="AD7" s="2">
         <v>42640</v>
       </c>
     </row>
-    <row r="8" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>866100</v>
+      </c>
+      <c r="E8" s="3">
         <v>892800</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>784000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>832600</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>793700</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>776700</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>754500</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>1396400</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>627400</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>554600</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>517700</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>295900</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>615100</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>694000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>586500</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>602600</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>599500</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>585200</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>575200</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>587300</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>584700</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>571800</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>555400</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>569900</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AB8" s="3">
         <v>563400</v>
       </c>
-      <c r="AB8" s="3">
+      <c r="AC8" s="3">
         <v>603100</v>
       </c>
-      <c r="AC8" s="3">
+      <c r="AD8" s="3">
         <v>560000</v>
       </c>
     </row>
-    <row r="9" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>206200</v>
+      </c>
+      <c r="E9" s="3">
         <v>220500</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>197800</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>204200</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>188500</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>178900</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>169400</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>304800</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>135900</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>127200</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>118100</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>72100</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>140900</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>158200</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>132900</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>134400</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>136200</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>134800</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>132200</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>131700</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>134200</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>134000</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>127500</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AA9" s="3">
         <v>128800</v>
       </c>
-      <c r="AA9" s="3">
+      <c r="AB9" s="3">
         <v>129100</v>
       </c>
-      <c r="AB9" s="3">
+      <c r="AC9" s="3">
         <v>140100</v>
       </c>
-      <c r="AC9" s="3">
+      <c r="AD9" s="3">
         <v>128800</v>
       </c>
     </row>
-    <row r="10" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>659900</v>
+      </c>
+      <c r="E10" s="3">
         <v>672300</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>586200</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>628400</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>605200</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>597800</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>585100</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>1091600</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>491500</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>427400</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>399600</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>223800</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>474200</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>535800</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>453600</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>468200</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>463300</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>450400</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>443000</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>455600</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>450500</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>437800</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>427900</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AA10" s="3">
         <v>441100</v>
       </c>
-      <c r="AA10" s="3">
+      <c r="AB10" s="3">
         <v>434300</v>
       </c>
-      <c r="AB10" s="3">
+      <c r="AC10" s="3">
         <v>463000</v>
       </c>
-      <c r="AC10" s="3">
+      <c r="AD10" s="3">
         <v>431200</v>
       </c>
     </row>
-    <row r="11" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1053,8 +1065,9 @@
       <c r="AA11" s="3"/>
       <c r="AB11" s="3"/>
       <c r="AC11" s="3"/>
-    </row>
-    <row r="12" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD11" s="3"/>
+    </row>
+    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1136,8 +1149,11 @@
       <c r="AC12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1219,16 +1235,19 @@
       <c r="AC13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>3400</v>
+      </c>
+      <c r="E14" s="3">
         <v>41500</v>
-      </c>
-      <c r="E14" s="3">
-        <v>1100</v>
       </c>
       <c r="F14" s="3">
         <v>1100</v>
@@ -1237,156 +1256,162 @@
         <v>1100</v>
       </c>
       <c r="H14" s="3">
+        <v>1100</v>
+      </c>
+      <c r="I14" s="3">
         <v>24500</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>700</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>12500</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>6000</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>20500</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>14500</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>2500</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>188700</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>23500</v>
       </c>
-      <c r="Q14" s="3">
-        <v>0</v>
-      </c>
       <c r="R14" s="3">
         <v>0</v>
       </c>
-      <c r="S14" s="3" t="s">
+      <c r="S14" s="3">
+        <v>0</v>
+      </c>
+      <c r="T14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="T14" s="3">
+      <c r="U14" s="3">
         <v>15000</v>
       </c>
-      <c r="U14" s="3">
+      <c r="V14" s="3">
         <v>300</v>
       </c>
-      <c r="V14" s="3">
+      <c r="W14" s="3">
         <v>2600</v>
       </c>
-      <c r="W14" s="3" t="s">
+      <c r="X14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="X14" s="3">
+      <c r="Y14" s="3">
         <v>9100</v>
       </c>
-      <c r="Y14" s="3">
-        <v>0</v>
-      </c>
       <c r="Z14" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA14" s="3">
         <v>400</v>
       </c>
-      <c r="AA14" s="3">
+      <c r="AB14" s="3">
         <v>800</v>
       </c>
-      <c r="AB14" s="3">
+      <c r="AC14" s="3">
         <v>100</v>
       </c>
-      <c r="AC14" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>23000</v>
+      </c>
+      <c r="E15" s="3">
         <v>25600</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>22700</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>22600</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>21500</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>22800</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>22600</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>44200</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>22000</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>22600</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>22700</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>22600</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>23600</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>23800</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>21300</v>
       </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3">
         <v>21700</v>
       </c>
-      <c r="S15" s="3">
+      <c r="T15" s="3">
         <v>21400</v>
       </c>
-      <c r="T15" s="3">
+      <c r="U15" s="3">
         <v>24200</v>
       </c>
-      <c r="U15" s="3">
+      <c r="V15" s="3">
         <v>24100</v>
       </c>
-      <c r="V15" s="3">
+      <c r="W15" s="3">
         <v>23700</v>
       </c>
-      <c r="W15" s="3">
+      <c r="X15" s="3">
         <v>24000</v>
       </c>
-      <c r="X15" s="3">
+      <c r="Y15" s="3">
         <v>23200</v>
       </c>
-      <c r="Y15" s="3">
+      <c r="Z15" s="3">
         <v>23000</v>
       </c>
-      <c r="Z15" s="3">
+      <c r="AA15" s="3">
         <v>23300</v>
       </c>
-      <c r="AA15" s="3">
+      <c r="AB15" s="3">
         <v>23200</v>
       </c>
-      <c r="AB15" s="3">
+      <c r="AC15" s="3">
         <v>23500</v>
       </c>
-      <c r="AC15" s="3">
+      <c r="AD15" s="3">
         <v>21600</v>
       </c>
     </row>
-    <row r="16" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:30" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1413,174 +1438,181 @@
       <c r="AA16" s="3"/>
       <c r="AB16" s="3"/>
       <c r="AC16" s="3"/>
-    </row>
-    <row r="17" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD16" s="3"/>
+    </row>
+    <row r="17" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>832200</v>
+      </c>
+      <c r="E17" s="3">
         <v>907900</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>786200</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>804700</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>765400</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>775700</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>723100</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>1346400</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>618600</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>593400</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>552600</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>379600</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>805200</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>687600</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>559600</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>562500</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>569300</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>565800</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>541700</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>552800</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>553100</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>547100</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>521100</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>519700</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>519900</v>
       </c>
-      <c r="AB17" s="3">
+      <c r="AC17" s="3">
         <v>556000</v>
       </c>
-      <c r="AC17" s="3">
+      <c r="AD17" s="3">
         <v>510000</v>
       </c>
     </row>
-    <row r="18" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>33900</v>
+      </c>
+      <c r="E18" s="3">
         <v>-15100</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-2200</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>27900</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>28300</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>1000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>31400</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>50000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>8800</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-38800</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-34900</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-83700</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-190100</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>6400</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>26900</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>40100</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>30200</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>19400</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>33500</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>34500</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>31600</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>24700</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>34300</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>50200</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3">
         <v>43500</v>
       </c>
-      <c r="AB18" s="3">
+      <c r="AC18" s="3">
         <v>47100</v>
       </c>
-      <c r="AC18" s="3">
+      <c r="AD18" s="3">
         <v>50000</v>
       </c>
     </row>
-    <row r="19" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1610,174 +1642,181 @@
       <c r="AA19" s="3"/>
       <c r="AB19" s="3"/>
       <c r="AC19" s="3"/>
-    </row>
-    <row r="20" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD19" s="3"/>
+    </row>
+    <row r="20" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="E20" s="3">
         <v>-2100</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-1300</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-1100</v>
-      </c>
-      <c r="G20" s="3">
-        <v>-1500</v>
       </c>
       <c r="H20" s="3">
         <v>-1500</v>
       </c>
       <c r="I20" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="J20" s="3">
         <v>-1800</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-7400</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-2700</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-1600</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-2900</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-2600</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-1500</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>50200</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-10300</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-1600</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-1500</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-3900</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>-3300</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>-2900</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>-1500</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>-1900</v>
-      </c>
-      <c r="Y20" s="3">
-        <v>-1600</v>
       </c>
       <c r="Z20" s="3">
         <v>-1600</v>
       </c>
       <c r="AA20" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="AB20" s="3">
         <v>-1200</v>
       </c>
-      <c r="AB20" s="3">
+      <c r="AC20" s="3">
         <v>-2200</v>
       </c>
-      <c r="AC20" s="3">
+      <c r="AD20" s="3">
         <v>-2500</v>
       </c>
     </row>
-    <row r="21" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>55000</v>
+      </c>
+      <c r="E21" s="3">
         <v>8400</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>19100</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>49400</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>48400</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>22300</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>52200</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>86800</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>28200</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-17800</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-15100</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-63700</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-168000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>80300</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>38000</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>60100</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>50100</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>39700</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>54300</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>55400</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>54000</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>46000</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>55700</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>71900</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AB21" s="3">
         <v>65500</v>
       </c>
-      <c r="AB21" s="3">
+      <c r="AC21" s="3">
         <v>68300</v>
       </c>
-      <c r="AC21" s="3">
+      <c r="AD21" s="3">
         <v>69200</v>
       </c>
     </row>
-    <row r="22" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1859,174 +1898,183 @@
       <c r="AC22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>32000</v>
+      </c>
+      <c r="E23" s="3">
         <v>-17300</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-3500</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>26800</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>26900</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-500</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>29600</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>42600</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>6200</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-40400</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-37800</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-86300</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-191600</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>56600</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>16600</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>38400</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>28700</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>15500</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>30200</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>31600</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>30000</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>22800</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>32700</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>48600</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>42300</v>
       </c>
-      <c r="AB23" s="3">
+      <c r="AC23" s="3">
         <v>44900</v>
       </c>
-      <c r="AC23" s="3">
+      <c r="AD23" s="3">
         <v>47600</v>
       </c>
     </row>
-    <row r="24" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>4000</v>
+      </c>
+      <c r="E24" s="3">
         <v>-14000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>-1100</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>1200</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>3700</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>-2600</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>-3100</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>5000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>2300</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>-8100</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>-9400</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>-29700</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>-55400</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>7900</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>500</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>2900</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>1700</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>-700</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>1700</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>3300</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>4000</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>3600</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>6300</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AA24" s="3">
         <v>10500</v>
       </c>
-      <c r="AA24" s="3">
+      <c r="AB24" s="3">
         <v>7300</v>
       </c>
-      <c r="AB24" s="3">
+      <c r="AC24" s="3">
         <v>12500</v>
       </c>
-      <c r="AC24" s="3">
+      <c r="AD24" s="3">
         <v>13000</v>
       </c>
     </row>
-    <row r="25" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2108,174 +2156,183 @@
       <c r="AC25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>28100</v>
+      </c>
+      <c r="E26" s="3">
         <v>-3300</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-2400</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>25700</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>23200</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>2100</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>32700</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>37600</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>3900</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-32300</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-28300</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-56500</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-136200</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>48700</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>16100</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>35500</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>27000</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>16200</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>28500</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>28400</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>26000</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>19200</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>26400</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>38200</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>35000</v>
       </c>
-      <c r="AB26" s="3">
+      <c r="AC26" s="3">
         <v>32400</v>
       </c>
-      <c r="AC26" s="3">
+      <c r="AD26" s="3">
         <v>34600</v>
       </c>
     </row>
-    <row r="27" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>28100</v>
+      </c>
+      <c r="E27" s="3">
         <v>-3300</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-2400</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>25700</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>23200</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>3300</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>32700</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>13100</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-1300</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-37300</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-33200</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-70500</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-136200</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>48700</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>16100</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>35500</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>27000</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>16200</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>28500</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>28400</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>26000</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>19200</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>26400</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>38200</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>35000</v>
       </c>
-      <c r="AB27" s="3">
+      <c r="AC27" s="3">
         <v>32400</v>
       </c>
-      <c r="AC27" s="3">
+      <c r="AD27" s="3">
         <v>34600</v>
       </c>
     </row>
-    <row r="28" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2357,8 +2414,11 @@
       <c r="AC28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2404,8 +2464,8 @@
       <c r="Q29" s="3">
         <v>0</v>
       </c>
-      <c r="R29" s="3" t="s">
-        <v>8</v>
+      <c r="R29" s="3">
+        <v>0</v>
       </c>
       <c r="S29" s="3" t="s">
         <v>8</v>
@@ -2422,11 +2482,11 @@
       <c r="W29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="X29" s="3">
+      <c r="X29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Y29" s="3">
         <v>38500</v>
-      </c>
-      <c r="Y29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="Z29" s="3" t="s">
         <v>8</v>
@@ -2440,8 +2500,11 @@
       <c r="AC29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2523,8 +2586,11 @@
       <c r="AC30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2606,174 +2672,183 @@
       <c r="AC31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>1900</v>
+      </c>
+      <c r="E32" s="3">
         <v>2100</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>1300</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>1100</v>
-      </c>
-      <c r="G32" s="3">
-        <v>1500</v>
       </c>
       <c r="H32" s="3">
         <v>1500</v>
       </c>
       <c r="I32" s="3">
+        <v>1500</v>
+      </c>
+      <c r="J32" s="3">
         <v>1800</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>7400</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>2700</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>1600</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>2900</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>2600</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>1500</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-50200</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>10300</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>1600</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>1500</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>3900</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>3300</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>2900</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>1500</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>1900</v>
-      </c>
-      <c r="Y32" s="3">
-        <v>1600</v>
       </c>
       <c r="Z32" s="3">
         <v>1600</v>
       </c>
       <c r="AA32" s="3">
+        <v>1600</v>
+      </c>
+      <c r="AB32" s="3">
         <v>1200</v>
       </c>
-      <c r="AB32" s="3">
+      <c r="AC32" s="3">
         <v>2200</v>
       </c>
-      <c r="AC32" s="3">
+      <c r="AD32" s="3">
         <v>2500</v>
       </c>
     </row>
-    <row r="33" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>28100</v>
+      </c>
+      <c r="E33" s="3">
         <v>-3300</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-2400</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>25700</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>23200</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>3300</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>32700</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>13100</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-1300</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-37300</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-33200</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-70500</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-136200</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>48700</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>16100</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>35500</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>27000</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>16200</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>28500</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>28400</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>26000</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>57700</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>26400</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>38200</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>35000</v>
       </c>
-      <c r="AB33" s="3">
+      <c r="AC33" s="3">
         <v>32400</v>
       </c>
-      <c r="AC33" s="3">
+      <c r="AD33" s="3">
         <v>34600</v>
       </c>
     </row>
-    <row r="34" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2855,179 +2930,188 @@
       <c r="AC34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>28100</v>
+      </c>
+      <c r="E35" s="3">
         <v>-3300</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-2400</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>25700</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>23200</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>3300</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>32700</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>13100</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-1300</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-37300</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-33200</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-70500</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-136200</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>48700</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>16100</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>35500</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>27000</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>16200</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>28500</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>28400</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>26000</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>57700</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>26400</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>38200</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>35000</v>
       </c>
-      <c r="AB35" s="3">
+      <c r="AC35" s="3">
         <v>32400</v>
       </c>
-      <c r="AC35" s="3">
+      <c r="AD35" s="3">
         <v>34600</v>
       </c>
     </row>
-    <row r="37" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45020</v>
+      </c>
+      <c r="E38" s="2">
         <v>44929</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44831</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44740</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44649</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44558</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44467</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44376</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44285</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44194</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44103</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44012</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43921</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43830</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43739</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43648</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43557</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43466</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43375</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43284</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43193</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43102</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>43011</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42920</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42829</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AC38" s="2">
         <v>42738</v>
       </c>
-      <c r="AC38" s="2">
+      <c r="AD38" s="2">
         <v>42640</v>
       </c>
     </row>
-    <row r="39" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -3057,8 +3141,9 @@
       <c r="AA39" s="3"/>
       <c r="AB39" s="3"/>
       <c r="AC39" s="3"/>
-    </row>
-    <row r="40" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD39" s="3"/>
+    </row>
+    <row r="40" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3088,91 +3173,95 @@
       <c r="AA40" s="3"/>
       <c r="AB40" s="3"/>
       <c r="AC40" s="3"/>
-    </row>
-    <row r="41" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD40" s="3"/>
+    </row>
+    <row r="41" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>116200</v>
+      </c>
+      <c r="E41" s="3">
         <v>114800</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>133200</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>194900</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>183600</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>189600</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>131000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>161800</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>181300</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>154100</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>243800</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>250200</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>81000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>58400</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>306300</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>22600</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>22500</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>26600</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>12600</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>29400</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>24800</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>6000</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>19800</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>66300</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AB41" s="3">
         <v>65700</v>
       </c>
-      <c r="AB41" s="3">
+      <c r="AC41" s="3">
         <v>53800</v>
       </c>
-      <c r="AC41" s="3">
+      <c r="AD41" s="3">
         <v>65800</v>
       </c>
     </row>
-    <row r="42" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -3254,340 +3343,355 @@
       <c r="AC42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>108500</v>
+      </c>
+      <c r="E43" s="3">
         <v>164600</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>107000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>128200</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>120900</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>155100</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>120400</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>108400</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>109000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>130600</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>113100</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>145900</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>120000</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>118100</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>74500</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>70100</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>67500</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>89100</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>54100</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>52100</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>44100</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>102400</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>52100</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AA43" s="3">
         <v>53000</v>
       </c>
-      <c r="AA43" s="3">
+      <c r="AB43" s="3">
         <v>44800</v>
       </c>
-      <c r="AB43" s="3">
+      <c r="AC43" s="3">
         <v>80200</v>
       </c>
-      <c r="AC43" s="3">
+      <c r="AD43" s="3">
         <v>45200</v>
       </c>
     </row>
-    <row r="44" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>59000</v>
+      </c>
+      <c r="E44" s="3">
         <v>55600</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>62300</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>52300</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>46700</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>42800</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>43300</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>41900</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>39000</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>39300</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>37700</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>40500</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>47800</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>47200</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>47800</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>46000</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>42000</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>38900</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>39800</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>34700</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>41000</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>42600</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="Z44" s="3">
         <v>44200</v>
       </c>
-      <c r="Z44" s="3">
+      <c r="AA44" s="3">
         <v>40200</v>
       </c>
-      <c r="AA44" s="3">
+      <c r="AB44" s="3">
         <v>38500</v>
       </c>
-      <c r="AB44" s="3">
+      <c r="AC44" s="3">
         <v>34900</v>
       </c>
-      <c r="AC44" s="3">
+      <c r="AD44" s="3">
         <v>35500</v>
       </c>
     </row>
-    <row r="45" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>30000</v>
+      </c>
+      <c r="E45" s="3">
         <v>10800</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>15300</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>16300</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>16200</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>18000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>15400</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>16200</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>14500</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>17400</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>16400</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>18100</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>21800</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>20800</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>20600</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>19400</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>25500</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>40600</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>48300</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>52900</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>54000</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>57700</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>48500</v>
       </c>
-      <c r="Z45" s="3">
+      <c r="AA45" s="3">
         <v>50900</v>
       </c>
-      <c r="AA45" s="3">
+      <c r="AB45" s="3">
         <v>52600</v>
       </c>
-      <c r="AB45" s="3">
+      <c r="AC45" s="3">
         <v>52400</v>
       </c>
-      <c r="AC45" s="3">
+      <c r="AD45" s="3">
         <v>36300</v>
       </c>
     </row>
-    <row r="46" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>313600</v>
+      </c>
+      <c r="E46" s="3">
         <v>345800</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>317700</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>391700</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>367300</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>405600</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>310200</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>328300</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>343800</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>341400</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>411000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>454600</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>270700</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>244500</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>449100</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>158200</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>157500</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>195200</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>154800</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>169100</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>163900</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>208600</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>164600</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>210500</v>
       </c>
-      <c r="AA46" s="3">
+      <c r="AB46" s="3">
         <v>201600</v>
       </c>
-      <c r="AB46" s="3">
+      <c r="AC46" s="3">
         <v>221400</v>
       </c>
-      <c r="AC46" s="3">
+      <c r="AD46" s="3">
         <v>182900</v>
       </c>
     </row>
-    <row r="47" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3631,19 +3735,19 @@
         <v>0</v>
       </c>
       <c r="Q47" s="3">
+        <v>0</v>
+      </c>
+      <c r="R47" s="3">
         <v>91800</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>97700</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>81300</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>79800</v>
-      </c>
-      <c r="U47" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="V47" s="3" t="s">
         <v>8</v>
@@ -3660,8 +3764,8 @@
       <c r="Z47" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="AA47" s="3">
-        <v>0</v>
+      <c r="AA47" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="AB47" s="3">
         <v>0</v>
@@ -3669,91 +3773,97 @@
       <c r="AC47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>2013900</v>
+      </c>
+      <c r="E48" s="3">
         <v>2015000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>2022800</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>1987000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>1985300</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>1983000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>2014500</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>2002800</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>2006600</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>2025200</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>2056900</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>2074000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>2075700</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>2072600</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>1744100</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>1722200</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>1732600</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>913300</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>940100</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>936500</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>935300</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>935000</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>933500</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AA48" s="3">
         <v>913400</v>
       </c>
-      <c r="AA48" s="3">
+      <c r="AB48" s="3">
         <v>910600</v>
       </c>
-      <c r="AB48" s="3">
+      <c r="AC48" s="3">
         <v>910100</v>
       </c>
-      <c r="AC48" s="3">
+      <c r="AD48" s="3">
         <v>902600</v>
       </c>
     </row>
-    <row r="49" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3761,82 +3871,85 @@
         <v>251500</v>
       </c>
       <c r="E49" s="3">
-        <v>251600</v>
+        <v>251500</v>
       </c>
       <c r="F49" s="3">
         <v>251600</v>
       </c>
       <c r="G49" s="3">
-        <v>251700</v>
+        <v>251600</v>
       </c>
       <c r="H49" s="3">
         <v>251700</v>
       </c>
       <c r="I49" s="3">
+        <v>251700</v>
+      </c>
+      <c r="J49" s="3">
         <v>253200</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>253100</v>
-      </c>
-      <c r="K49" s="3">
-        <v>253200</v>
       </c>
       <c r="L49" s="3">
         <v>253200</v>
       </c>
       <c r="M49" s="3">
+        <v>253200</v>
+      </c>
+      <c r="N49" s="3">
         <v>253600</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>254300</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>254400</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>437200</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>20300</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>20200</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>20100</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>26200</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>26300</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>24500</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>24200</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>24100</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="Z49" s="3">
         <v>23500</v>
       </c>
-      <c r="Z49" s="3">
+      <c r="AA49" s="3">
         <v>23400</v>
       </c>
-      <c r="AA49" s="3">
+      <c r="AB49" s="3">
         <v>23200</v>
       </c>
-      <c r="AB49" s="3">
+      <c r="AC49" s="3">
         <v>23100</v>
       </c>
-      <c r="AC49" s="3">
+      <c r="AD49" s="3">
         <v>22800</v>
       </c>
     </row>
-    <row r="50" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3918,8 +4031,11 @@
       <c r="AC50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -4001,91 +4117,97 @@
       <c r="AC51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>163400</v>
+      </c>
+      <c r="E52" s="3">
         <v>162900</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>141900</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>142200</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>149500</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>157900</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>139900</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>138100</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>131900</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>127400</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>106600</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>84300</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>75000</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>86300</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>76400</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>75500</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>84500</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>99700</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>186800</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>176600</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>164000</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>165300</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Z52" s="3">
         <v>153700</v>
       </c>
-      <c r="Z52" s="3">
+      <c r="AA52" s="3">
         <v>152100</v>
       </c>
-      <c r="AA52" s="3">
+      <c r="AB52" s="3">
         <v>141500</v>
       </c>
-      <c r="AB52" s="3">
+      <c r="AC52" s="3">
         <v>138700</v>
       </c>
-      <c r="AC52" s="3">
+      <c r="AD52" s="3">
         <v>96100</v>
       </c>
     </row>
-    <row r="53" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4167,91 +4289,97 @@
       <c r="AC53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>2742500</v>
+      </c>
+      <c r="E54" s="3">
         <v>2775200</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>2734100</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>2772400</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>2753700</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>2798100</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>2717700</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>2722300</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>2735400</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>2747100</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>2828100</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>2867300</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>2675800</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>2840600</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>2381800</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>2073800</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>2076100</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>1314100</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>1308100</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>1306600</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>1287300</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>1333100</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>1275300</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>1299300</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AB54" s="3">
         <v>1276800</v>
       </c>
-      <c r="AB54" s="3">
+      <c r="AC54" s="3">
         <v>1293300</v>
       </c>
-      <c r="AC54" s="3">
+      <c r="AD54" s="3">
         <v>1204400</v>
       </c>
     </row>
-    <row r="55" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4281,8 +4409,9 @@
       <c r="AA55" s="3"/>
       <c r="AB55" s="3"/>
       <c r="AC55" s="3"/>
-    </row>
-    <row r="56" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD55" s="3"/>
+    </row>
+    <row r="56" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4312,91 +4441,95 @@
       <c r="AA56" s="3"/>
       <c r="AB56" s="3"/>
       <c r="AC56" s="3"/>
-    </row>
-    <row r="57" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD56" s="3"/>
+    </row>
+    <row r="57" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>57000</v>
+      </c>
+      <c r="E57" s="3">
         <v>66600</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>59000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>58900</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>61700</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>54100</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>52900</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>55400</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>56000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>58400</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>61500</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>57500</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>55900</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>61900</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>36100</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>36000</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>36400</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>49100</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>39100</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>38300</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>38800</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>51000</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>46600</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AA57" s="3">
         <v>46200</v>
       </c>
-      <c r="AA57" s="3">
+      <c r="AB57" s="3">
         <v>34900</v>
       </c>
-      <c r="AB57" s="3">
+      <c r="AC57" s="3">
         <v>41600</v>
       </c>
-      <c r="AC57" s="3">
+      <c r="AD57" s="3">
         <v>38900</v>
       </c>
     </row>
-    <row r="58" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -4478,246 +4611,255 @@
       <c r="AC58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>569700</v>
+      </c>
+      <c r="E59" s="3">
         <v>590000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>547100</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>564600</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>532700</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>582200</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>504200</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>541800</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>501900</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>527600</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>478800</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>475100</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>451200</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>552600</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>397700</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>401000</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>410200</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>367400</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>304400</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>316300</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>305500</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>347000</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>276200</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>283700</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AB59" s="3">
         <v>288200</v>
       </c>
-      <c r="AB59" s="3">
+      <c r="AC59" s="3">
         <v>335000</v>
       </c>
-      <c r="AC59" s="3">
+      <c r="AD59" s="3">
         <v>265200</v>
       </c>
     </row>
-    <row r="60" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>626700</v>
+      </c>
+      <c r="E60" s="3">
         <v>656700</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>606200</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>623500</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>594400</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>636300</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>557100</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>597200</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>558000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>586100</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>540400</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>532700</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>507100</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>614600</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>433800</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>437000</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>446600</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>416500</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>343500</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>354600</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>344300</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>398000</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>322800</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>329900</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AB60" s="3">
         <v>323100</v>
       </c>
-      <c r="AB60" s="3">
+      <c r="AC60" s="3">
         <v>376500</v>
       </c>
-      <c r="AC60" s="3">
+      <c r="AD60" s="3">
         <v>304100</v>
       </c>
     </row>
-    <row r="61" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>468500</v>
+      </c>
+      <c r="E61" s="3">
         <v>468000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>467500</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>467000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>466500</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>466000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>465500</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>465000</v>
-      </c>
-      <c r="K61" s="3">
-        <v>280000</v>
       </c>
       <c r="L61" s="3">
         <v>280000</v>
       </c>
       <c r="M61" s="3">
-        <v>376000</v>
+        <v>280000</v>
       </c>
       <c r="N61" s="3">
         <v>376000</v>
       </c>
       <c r="O61" s="3">
+        <v>376000</v>
+      </c>
+      <c r="P61" s="3">
         <v>380000</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>290000</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>335000</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>35000</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>20000</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>10000</v>
-      </c>
-      <c r="U61" s="3">
-        <v>20000</v>
       </c>
       <c r="V61" s="3">
         <v>20000</v>
       </c>
       <c r="W61" s="3">
+        <v>20000</v>
+      </c>
+      <c r="X61" s="3">
         <v>30000</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>10000</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="Z61" s="3">
         <v>30000</v>
       </c>
-      <c r="Z61" s="3">
-        <v>0</v>
-      </c>
       <c r="AA61" s="3">
         <v>0</v>
       </c>
@@ -4727,91 +4869,97 @@
       <c r="AC61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>1347400</v>
+      </c>
+      <c r="E62" s="3">
         <v>1358500</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>1336900</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>1320200</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>1337500</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>1365700</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>1373200</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>1375500</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>1367500</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>1374000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>1379500</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>1402600</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>1369700</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>1364300</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>1079200</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>1061500</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>1067200</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>316600</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>331100</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>319300</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>318800</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>311600</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>339200</v>
       </c>
-      <c r="Z62" s="3">
+      <c r="AA62" s="3">
         <v>328900</v>
       </c>
-      <c r="AA62" s="3">
+      <c r="AB62" s="3">
         <v>326200</v>
       </c>
-      <c r="AB62" s="3">
+      <c r="AC62" s="3">
         <v>313600</v>
       </c>
-      <c r="AC62" s="3">
+      <c r="AD62" s="3">
         <v>310700</v>
       </c>
     </row>
-    <row r="63" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4893,8 +5041,11 @@
       <c r="AC63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4976,8 +5127,11 @@
       <c r="AC64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -5059,91 +5213,97 @@
       <c r="AC65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>2442600</v>
+      </c>
+      <c r="E66" s="3">
         <v>2483200</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>2410600</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>2410700</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>2398400</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>2468000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>2395800</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>2437700</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>2205400</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>2240100</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>2295900</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>2311300</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>2256800</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>2268900</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>1848000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>1533500</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>1533800</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>743100</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>694700</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>693900</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>693200</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>719500</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>692000</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>658800</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AB66" s="3">
         <v>649300</v>
       </c>
-      <c r="AB66" s="3">
+      <c r="AC66" s="3">
         <v>690100</v>
       </c>
-      <c r="AC66" s="3">
+      <c r="AD66" s="3">
         <v>614800</v>
       </c>
     </row>
-    <row r="67" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5173,8 +5333,9 @@
       <c r="AA67" s="3"/>
       <c r="AB67" s="3"/>
       <c r="AC67" s="3"/>
-    </row>
-    <row r="68" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD67" s="3"/>
+    </row>
+    <row r="68" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5256,8 +5417,11 @@
       <c r="AC68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5339,8 +5503,11 @@
       <c r="AC69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5366,20 +5533,20 @@
         <v>0</v>
       </c>
       <c r="K70" s="3">
+        <v>0</v>
+      </c>
+      <c r="L70" s="3">
         <v>213500</v>
       </c>
-      <c r="L70" s="3">
+      <c r="M70" s="3">
         <v>218200</v>
       </c>
-      <c r="M70" s="3">
+      <c r="N70" s="3">
         <v>209900</v>
       </c>
-      <c r="N70" s="3">
+      <c r="O70" s="3">
         <v>204100</v>
       </c>
-      <c r="O70" s="3">
-        <v>0</v>
-      </c>
       <c r="P70" s="3">
         <v>0</v>
       </c>
@@ -5422,8 +5589,11 @@
       <c r="AC70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5505,91 +5675,97 @@
       <c r="AC71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>1184200</v>
+      </c>
+      <c r="E72" s="3">
         <v>1170100</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>1187300</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>1203700</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>1192300</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>1169200</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>1167000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>1134200</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>1114000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>1110100</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>1150700</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>1184900</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>1255800</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>1408300</v>
-      </c>
-      <c r="Q72" s="3">
-        <v>1375700</v>
       </c>
       <c r="R72" s="3">
         <v>1375700</v>
       </c>
       <c r="S72" s="3">
+        <v>1375700</v>
+      </c>
+      <c r="T72" s="3">
         <v>1355100</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>1384500</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>1383300</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>1369900</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>1354900</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>1345700</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>1301200</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>1288200</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AB72" s="3">
         <v>1261600</v>
       </c>
-      <c r="AB72" s="3">
+      <c r="AC72" s="3">
         <v>1238000</v>
       </c>
-      <c r="AC72" s="3">
+      <c r="AD72" s="3">
         <v>1217000</v>
       </c>
     </row>
-    <row r="73" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5671,8 +5847,11 @@
       <c r="AC73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5754,8 +5933,11 @@
       <c r="AC74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5837,91 +6019,97 @@
       <c r="AC75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>299800</v>
+      </c>
+      <c r="E76" s="3">
         <v>292000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>323500</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>361700</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>355300</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>330200</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>321900</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>284600</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>316500</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>288700</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>322300</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>351900</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>419000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>571700</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>533800</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>540300</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>542200</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>571100</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>613400</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>612800</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>594200</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>613500</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>583400</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>640500</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>627500</v>
       </c>
-      <c r="AB76" s="3">
+      <c r="AC76" s="3">
         <v>603200</v>
       </c>
-      <c r="AC76" s="3">
+      <c r="AD76" s="3">
         <v>589500</v>
       </c>
     </row>
-    <row r="77" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -6003,179 +6191,188 @@
       <c r="AC77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45020</v>
+      </c>
+      <c r="E80" s="2">
         <v>44929</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44831</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44740</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44649</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44558</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44467</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44376</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44285</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44194</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44103</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44012</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43921</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43830</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43739</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43648</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43557</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43466</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43375</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43284</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43193</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43102</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>43011</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42920</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42829</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AC80" s="2">
         <v>42738</v>
       </c>
-      <c r="AC80" s="2">
+      <c r="AD80" s="2">
         <v>42640</v>
       </c>
     </row>
-    <row r="81" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>28100</v>
+      </c>
+      <c r="E81" s="3">
         <v>-3300</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-2400</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>25700</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>23200</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>3300</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>32700</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>13100</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-1300</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-37300</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-33200</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-70500</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-136200</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>48700</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>16100</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>35500</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>27000</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>16200</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>28500</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>28400</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>26000</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>57700</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>26400</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>38200</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>35000</v>
       </c>
-      <c r="AB81" s="3">
+      <c r="AC81" s="3">
         <v>32400</v>
       </c>
-      <c r="AC81" s="3">
+      <c r="AD81" s="3">
         <v>34600</v>
       </c>
     </row>
-    <row r="82" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6205,91 +6402,95 @@
       <c r="AA82" s="3"/>
       <c r="AB82" s="3"/>
       <c r="AC82" s="3"/>
-    </row>
-    <row r="83" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD82" s="3"/>
+    </row>
+    <row r="83" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>23000</v>
+      </c>
+      <c r="E83" s="3">
         <v>25600</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>22700</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>22600</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>21500</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>22800</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>22600</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>44200</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>22000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>22600</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>22700</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>22600</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>23600</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>23800</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>21300</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>21700</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>21400</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>24200</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>24100</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>23700</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>24000</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>23200</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="Z83" s="3">
         <v>23000</v>
       </c>
-      <c r="Z83" s="3">
+      <c r="AA83" s="3">
         <v>23300</v>
       </c>
-      <c r="AA83" s="3">
+      <c r="AB83" s="3">
         <v>23200</v>
       </c>
-      <c r="AB83" s="3">
+      <c r="AC83" s="3">
         <v>23500</v>
       </c>
-      <c r="AC83" s="3">
+      <c r="AD83" s="3">
         <v>21600</v>
       </c>
     </row>
-    <row r="84" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6371,8 +6572,11 @@
       <c r="AC84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6454,8 +6658,11 @@
       <c r="AC85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6537,8 +6744,11 @@
       <c r="AC86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6620,8 +6830,11 @@
       <c r="AC87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6703,91 +6916,97 @@
       <c r="AC88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>65000</v>
+      </c>
+      <c r="E89" s="3">
         <v>63000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>11400</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>54000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>33500</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>93800</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-11300</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>130400</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>21600</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>35600</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>2900</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-2700</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-33000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>102600</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>32400</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>50300</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>33500</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>109200</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>41600</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>65600</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>74900</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>84600</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>40300</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>65800</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AB89" s="3">
         <v>48100</v>
       </c>
-      <c r="AB89" s="3">
+      <c r="AC89" s="3">
         <v>86000</v>
       </c>
-      <c r="AC89" s="3">
+      <c r="AD89" s="3">
         <v>58100</v>
       </c>
     </row>
-    <row r="90" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6817,91 +7036,95 @@
       <c r="AA90" s="3"/>
       <c r="AB90" s="3"/>
       <c r="AC90" s="3"/>
-    </row>
-    <row r="91" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD90" s="3"/>
+    </row>
+    <row r="91" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-34400</v>
+        <v>-38100</v>
       </c>
       <c r="E91" s="3">
-        <v>-31700</v>
+        <v>-34600</v>
       </c>
       <c r="F91" s="3">
+        <v>-31900</v>
+      </c>
+      <c r="G91" s="3">
+        <v>-17400</v>
+      </c>
+      <c r="H91" s="3">
+        <v>-29200</v>
+      </c>
+      <c r="I91" s="3">
+        <v>-17900</v>
+      </c>
+      <c r="J91" s="3">
+        <v>-18400</v>
+      </c>
+      <c r="K91" s="3">
+        <v>-30900</v>
+      </c>
+      <c r="L91" s="3">
+        <v>-7200</v>
+      </c>
+      <c r="M91" s="3">
+        <v>-12100</v>
+      </c>
+      <c r="N91" s="3">
+        <v>-8800</v>
+      </c>
+      <c r="O91" s="3">
+        <v>-13600</v>
+      </c>
+      <c r="P91" s="3">
+        <v>-15800</v>
+      </c>
+      <c r="Q91" s="3">
+        <v>-27100</v>
+      </c>
+      <c r="R91" s="3">
         <v>-17300</v>
       </c>
-      <c r="G91" s="3">
-        <v>-29100</v>
-      </c>
-      <c r="H91" s="3">
-        <v>-17800</v>
-      </c>
-      <c r="I91" s="3">
-        <v>-18300</v>
-      </c>
-      <c r="J91" s="3">
-        <v>-30900</v>
-      </c>
-      <c r="K91" s="3">
-        <v>-7200</v>
-      </c>
-      <c r="L91" s="3">
-        <v>-12100</v>
-      </c>
-      <c r="M91" s="3">
-        <v>-8800</v>
-      </c>
-      <c r="N91" s="3">
-        <v>-13600</v>
-      </c>
-      <c r="O91" s="3">
-        <v>-15800</v>
-      </c>
-      <c r="P91" s="3">
-        <v>-27100</v>
-      </c>
-      <c r="Q91" s="3">
-        <v>-17300</v>
-      </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-16000</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-13400</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-24200</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-26800</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-21200</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-30700</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-47400</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-29700</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AA91" s="3">
         <v>-24500</v>
       </c>
-      <c r="AA91" s="3">
+      <c r="AB91" s="3">
         <v>-19500</v>
       </c>
-      <c r="AB91" s="3">
+      <c r="AC91" s="3">
         <v>-45600</v>
       </c>
-      <c r="AC91" s="3">
+      <c r="AD91" s="3">
         <v>10400</v>
       </c>
     </row>
-    <row r="92" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6983,8 +7206,11 @@
       <c r="AC92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -7066,91 +7292,97 @@
       <c r="AC93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-38200</v>
+      </c>
+      <c r="E94" s="3">
         <v>-34800</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-32000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-17400</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-28600</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-17700</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-18700</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-32200</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-8700</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-12300</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-9000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-13700</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-15900</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-290500</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-22000</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-23100</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-27400</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-24500</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-39800</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-35100</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-31000</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-57100</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-30000</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>-33700</v>
       </c>
-      <c r="AA94" s="3">
+      <c r="AB94" s="3">
         <v>-19600</v>
       </c>
-      <c r="AB94" s="3">
+      <c r="AC94" s="3">
         <v>-87600</v>
       </c>
-      <c r="AC94" s="3">
+      <c r="AD94" s="3">
         <v>-30800</v>
       </c>
     </row>
-    <row r="95" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -7180,20 +7412,21 @@
       <c r="AA95" s="3"/>
       <c r="AB95" s="3"/>
       <c r="AC95" s="3"/>
-    </row>
-    <row r="96" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD95" s="3"/>
+    </row>
+    <row r="96" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-13200</v>
+      </c>
+      <c r="E96" s="3">
         <v>-13900</v>
       </c>
-      <c r="E96" s="3">
+      <c r="F96" s="3">
         <v>-14100</v>
       </c>
-      <c r="F96" s="3">
-        <v>0</v>
-      </c>
       <c r="G96" s="3">
         <v>0</v>
       </c>
@@ -7204,14 +7437,14 @@
         <v>0</v>
       </c>
       <c r="J96" s="3">
+        <v>0</v>
+      </c>
+      <c r="K96" s="3">
         <v>-300</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-2200</v>
       </c>
-      <c r="L96" s="3">
-        <v>0</v>
-      </c>
       <c r="M96" s="3">
         <v>0</v>
       </c>
@@ -7219,52 +7452,55 @@
         <v>0</v>
       </c>
       <c r="O96" s="3">
+        <v>0</v>
+      </c>
+      <c r="P96" s="3">
         <v>-15800</v>
-      </c>
-      <c r="P96" s="3">
-        <v>-15700</v>
       </c>
       <c r="Q96" s="3">
         <v>-15700</v>
       </c>
       <c r="R96" s="3">
+        <v>-15700</v>
+      </c>
+      <c r="S96" s="3">
         <v>-14700</v>
       </c>
-      <c r="S96" s="3">
+      <c r="T96" s="3">
         <v>-14600</v>
       </c>
-      <c r="T96" s="3">
+      <c r="U96" s="3">
         <v>-14800</v>
       </c>
-      <c r="U96" s="3">
+      <c r="V96" s="3">
         <v>-14900</v>
       </c>
-      <c r="V96" s="3">
+      <c r="W96" s="3">
         <v>-13400</v>
       </c>
-      <c r="W96" s="3">
+      <c r="X96" s="3">
         <v>-13200</v>
       </c>
-      <c r="X96" s="3">
+      <c r="Y96" s="3">
         <v>-13300</v>
       </c>
-      <c r="Y96" s="3">
+      <c r="Z96" s="3">
         <v>-13500</v>
       </c>
-      <c r="Z96" s="3">
+      <c r="AA96" s="3">
         <v>-11500</v>
       </c>
-      <c r="AA96" s="3">
+      <c r="AB96" s="3">
         <v>-11700</v>
       </c>
-      <c r="AB96" s="3">
+      <c r="AC96" s="3">
         <v>-11300</v>
       </c>
-      <c r="AC96" s="3">
+      <c r="AD96" s="3">
         <v>-11500</v>
       </c>
     </row>
-    <row r="97" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7346,8 +7582,11 @@
       <c r="AC97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7429,8 +7668,11 @@
       <c r="AC98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7512,136 +7754,142 @@
       <c r="AC99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-25600</v>
+      </c>
+      <c r="E100" s="3">
         <v>-46700</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-40700</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-25200</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-11000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-17500</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-700</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-90600</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>14300</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-113100</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-400</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>185500</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>71700</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-59900</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>273200</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-27100</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-10200</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-70600</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-18500</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-25900</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-25200</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>-41200</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>-56800</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>-31500</v>
       </c>
-      <c r="AA100" s="3">
+      <c r="AB100" s="3">
         <v>-16700</v>
       </c>
-      <c r="AB100" s="3">
+      <c r="AC100" s="3">
         <v>-10400</v>
       </c>
-      <c r="AC100" s="3">
+      <c r="AD100" s="3">
         <v>-47700</v>
       </c>
     </row>
-    <row r="101" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E101" s="3">
+        <v>0</v>
+      </c>
+      <c r="F101" s="3">
         <v>-300</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-100</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>100</v>
       </c>
-      <c r="H101" s="3">
-        <v>0</v>
-      </c>
       <c r="I101" s="3">
+        <v>0</v>
+      </c>
+      <c r="J101" s="3">
         <v>-100</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>100</v>
       </c>
-      <c r="K101" s="3">
-        <v>0</v>
-      </c>
       <c r="L101" s="3">
+        <v>0</v>
+      </c>
+      <c r="M101" s="3">
         <v>100</v>
       </c>
-      <c r="M101" s="3">
-        <v>0</v>
-      </c>
       <c r="N101" s="3">
+        <v>0</v>
+      </c>
+      <c r="O101" s="3">
         <v>100</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>-200</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>100</v>
       </c>
-      <c r="Q101" s="3">
-        <v>0</v>
-      </c>
       <c r="R101" s="3">
         <v>0</v>
       </c>
@@ -7649,11 +7897,11 @@
         <v>0</v>
       </c>
       <c r="T101" s="3">
+        <v>0</v>
+      </c>
+      <c r="U101" s="3">
         <v>-100</v>
       </c>
-      <c r="U101" s="3">
-        <v>0</v>
-      </c>
       <c r="V101" s="3">
         <v>0</v>
       </c>
@@ -7661,10 +7909,10 @@
         <v>0</v>
       </c>
       <c r="X101" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y101" s="3">
         <v>-100</v>
-      </c>
-      <c r="Y101" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="Z101" s="3" t="s">
         <v>8</v>
@@ -7678,87 +7926,93 @@
       <c r="AC101" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="102" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD101" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="102" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>1400</v>
+      </c>
+      <c r="E102" s="3">
         <v>-18400</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-61700</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>11300</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-6100</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>58600</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-30700</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>7700</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>27300</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-89700</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-6400</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>169100</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>22600</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-247800</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>283600</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>100</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-4000</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>13900</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-16700</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>4600</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>18800</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>-13800</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>-46500</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>600</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AB102" s="3">
         <v>11800</v>
       </c>
-      <c r="AB102" s="3">
+      <c r="AC102" s="3">
         <v>-12000</v>
       </c>
-      <c r="AC102" s="3">
+      <c r="AD102" s="3">
         <v>-13800</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/CAKE_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/CAKE_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="92">
   <si>
     <t>CAKE</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AD102"/>
+  <dimension ref="A5:AE102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,377 +665,389 @@
     <col min="1" max="1" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="29" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="31" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="6" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="30" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="32" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:31" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45111</v>
+      </c>
+      <c r="E7" s="2">
         <v>45020</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44929</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44831</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44740</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44649</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44558</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44467</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44376</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44285</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44194</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44103</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>44012</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43921</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43830</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43739</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43648</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43557</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43466</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43375</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43284</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43193</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>43102</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>43011</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42920</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AC7" s="2">
         <v>42829</v>
       </c>
-      <c r="AC7" s="2">
+      <c r="AD7" s="2">
         <v>42738</v>
       </c>
-      <c r="AD7" s="2">
+      <c r="AE7" s="2">
         <v>42640</v>
       </c>
     </row>
-    <row r="8" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>866200</v>
+      </c>
+      <c r="E8" s="3">
         <v>866100</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>892800</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>784000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>832600</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>793700</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>776700</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>754500</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>1396400</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>627400</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>554600</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>517700</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>295900</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>615100</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>694000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>586500</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>602600</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>599500</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>585200</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>575200</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>587300</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>584700</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>571800</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>555400</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AB8" s="3">
         <v>569900</v>
       </c>
-      <c r="AB8" s="3">
+      <c r="AC8" s="3">
         <v>563400</v>
       </c>
-      <c r="AC8" s="3">
+      <c r="AD8" s="3">
         <v>603100</v>
       </c>
-      <c r="AD8" s="3">
+      <c r="AE8" s="3">
         <v>560000</v>
       </c>
     </row>
-    <row r="9" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>201100</v>
+      </c>
+      <c r="E9" s="3">
         <v>206200</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>220500</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>197800</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>204200</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>188500</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>178900</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>169400</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>304800</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>135900</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>127200</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>118100</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>72100</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>140900</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>158200</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>132900</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>134400</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>136200</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>134800</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>132200</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>131700</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>134200</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>134000</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AA9" s="3">
         <v>127500</v>
       </c>
-      <c r="AA9" s="3">
+      <c r="AB9" s="3">
         <v>128800</v>
       </c>
-      <c r="AB9" s="3">
+      <c r="AC9" s="3">
         <v>129100</v>
       </c>
-      <c r="AC9" s="3">
+      <c r="AD9" s="3">
         <v>140100</v>
       </c>
-      <c r="AD9" s="3">
+      <c r="AE9" s="3">
         <v>128800</v>
       </c>
     </row>
-    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>665100</v>
+      </c>
+      <c r="E10" s="3">
         <v>659900</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>672300</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>586200</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>628400</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>605200</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>597800</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>585100</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>1091600</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>491500</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>427400</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>399600</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>223800</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>474200</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>535800</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>453600</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>468200</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>463300</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>450400</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>443000</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>455600</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>450500</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>437800</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AA10" s="3">
         <v>427900</v>
       </c>
-      <c r="AA10" s="3">
+      <c r="AB10" s="3">
         <v>441100</v>
       </c>
-      <c r="AB10" s="3">
+      <c r="AC10" s="3">
         <v>434300</v>
       </c>
-      <c r="AC10" s="3">
+      <c r="AD10" s="3">
         <v>463000</v>
       </c>
-      <c r="AD10" s="3">
+      <c r="AE10" s="3">
         <v>431200</v>
       </c>
     </row>
-    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1066,8 +1078,9 @@
       <c r="AB11" s="3"/>
       <c r="AC11" s="3"/>
       <c r="AD11" s="3"/>
-    </row>
-    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE11" s="3"/>
+    </row>
+    <row r="12" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1152,8 +1165,11 @@
       <c r="AD12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1238,19 +1254,22 @@
       <c r="AD13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>600</v>
+      </c>
+      <c r="E14" s="3">
         <v>3400</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>41500</v>
-      </c>
-      <c r="F14" s="3">
-        <v>1100</v>
       </c>
       <c r="G14" s="3">
         <v>1100</v>
@@ -1259,159 +1278,165 @@
         <v>1100</v>
       </c>
       <c r="I14" s="3">
+        <v>1100</v>
+      </c>
+      <c r="J14" s="3">
         <v>24500</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>700</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>12500</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>6000</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>20500</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>14500</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>2500</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>188700</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>23500</v>
       </c>
-      <c r="R14" s="3">
-        <v>0</v>
-      </c>
       <c r="S14" s="3">
         <v>0</v>
       </c>
-      <c r="T14" s="3" t="s">
+      <c r="T14" s="3">
+        <v>0</v>
+      </c>
+      <c r="U14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="U14" s="3">
+      <c r="V14" s="3">
         <v>15000</v>
       </c>
-      <c r="V14" s="3">
+      <c r="W14" s="3">
         <v>300</v>
       </c>
-      <c r="W14" s="3">
+      <c r="X14" s="3">
         <v>2600</v>
       </c>
-      <c r="X14" s="3" t="s">
+      <c r="Y14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Y14" s="3">
+      <c r="Z14" s="3">
         <v>9100</v>
       </c>
-      <c r="Z14" s="3">
-        <v>0</v>
-      </c>
       <c r="AA14" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB14" s="3">
         <v>400</v>
       </c>
-      <c r="AB14" s="3">
+      <c r="AC14" s="3">
         <v>800</v>
       </c>
-      <c r="AC14" s="3">
+      <c r="AD14" s="3">
         <v>100</v>
       </c>
-      <c r="AD14" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>23300</v>
+      </c>
+      <c r="E15" s="3">
         <v>23000</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>25600</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>22700</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>22600</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>21500</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>22800</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>22600</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>44200</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>22000</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>22600</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>22700</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>22600</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>23600</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>23800</v>
       </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3">
         <v>21300</v>
       </c>
-      <c r="S15" s="3">
+      <c r="T15" s="3">
         <v>21700</v>
       </c>
-      <c r="T15" s="3">
+      <c r="U15" s="3">
         <v>21400</v>
       </c>
-      <c r="U15" s="3">
+      <c r="V15" s="3">
         <v>24200</v>
       </c>
-      <c r="V15" s="3">
+      <c r="W15" s="3">
         <v>24100</v>
       </c>
-      <c r="W15" s="3">
+      <c r="X15" s="3">
         <v>23700</v>
       </c>
-      <c r="X15" s="3">
+      <c r="Y15" s="3">
         <v>24000</v>
       </c>
-      <c r="Y15" s="3">
+      <c r="Z15" s="3">
         <v>23200</v>
       </c>
-      <c r="Z15" s="3">
+      <c r="AA15" s="3">
         <v>23000</v>
       </c>
-      <c r="AA15" s="3">
+      <c r="AB15" s="3">
         <v>23300</v>
       </c>
-      <c r="AB15" s="3">
+      <c r="AC15" s="3">
         <v>23200</v>
       </c>
-      <c r="AC15" s="3">
+      <c r="AD15" s="3">
         <v>23500</v>
       </c>
-      <c r="AD15" s="3">
+      <c r="AE15" s="3">
         <v>21600</v>
       </c>
     </row>
-    <row r="16" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:31" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1439,180 +1464,187 @@
       <c r="AB16" s="3"/>
       <c r="AC16" s="3"/>
       <c r="AD16" s="3"/>
-    </row>
-    <row r="17" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE16" s="3"/>
+    </row>
+    <row r="17" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>818700</v>
+      </c>
+      <c r="E17" s="3">
         <v>832200</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>907900</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>786200</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>804700</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>765400</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>775700</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>723100</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>1346400</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>618600</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>593400</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>552600</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>379600</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>805200</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>687600</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>559600</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>562500</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>569300</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>565800</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>541700</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>552800</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>553100</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>547100</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>521100</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>519700</v>
       </c>
-      <c r="AB17" s="3">
+      <c r="AC17" s="3">
         <v>519900</v>
       </c>
-      <c r="AC17" s="3">
+      <c r="AD17" s="3">
         <v>556000</v>
       </c>
-      <c r="AD17" s="3">
+      <c r="AE17" s="3">
         <v>510000</v>
       </c>
     </row>
-    <row r="18" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>47500</v>
+      </c>
+      <c r="E18" s="3">
         <v>33900</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-15100</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-2200</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>27900</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>28300</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>1000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>31400</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>50000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>8800</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-38800</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-34900</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-83700</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-190100</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>6400</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>26900</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>40100</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>30200</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>19400</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>33500</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>34500</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>31600</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>24700</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>34300</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3">
         <v>50200</v>
       </c>
-      <c r="AB18" s="3">
+      <c r="AC18" s="3">
         <v>43500</v>
       </c>
-      <c r="AC18" s="3">
+      <c r="AD18" s="3">
         <v>47100</v>
       </c>
-      <c r="AD18" s="3">
+      <c r="AE18" s="3">
         <v>50000</v>
       </c>
     </row>
-    <row r="19" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1643,180 +1675,187 @@
       <c r="AB19" s="3"/>
       <c r="AC19" s="3"/>
       <c r="AD19" s="3"/>
-    </row>
-    <row r="20" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE19" s="3"/>
+    </row>
+    <row r="20" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-2200</v>
+      </c>
+      <c r="E20" s="3">
         <v>-1900</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-2100</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-1300</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-1100</v>
-      </c>
-      <c r="H20" s="3">
-        <v>-1500</v>
       </c>
       <c r="I20" s="3">
         <v>-1500</v>
       </c>
       <c r="J20" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="K20" s="3">
         <v>-1800</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-7400</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-2700</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-1600</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-2900</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-2600</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-1500</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>50200</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-10300</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-1600</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-1500</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>-3900</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>-3300</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>-2900</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>-1500</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>-1900</v>
-      </c>
-      <c r="Z20" s="3">
-        <v>-1600</v>
       </c>
       <c r="AA20" s="3">
         <v>-1600</v>
       </c>
       <c r="AB20" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="AC20" s="3">
         <v>-1200</v>
       </c>
-      <c r="AC20" s="3">
+      <c r="AD20" s="3">
         <v>-2200</v>
       </c>
-      <c r="AD20" s="3">
+      <c r="AE20" s="3">
         <v>-2500</v>
       </c>
     </row>
-    <row r="21" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>68600</v>
+      </c>
+      <c r="E21" s="3">
         <v>55000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>8400</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>19100</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>49400</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>48400</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>22300</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>52200</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>86800</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>28200</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-17800</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-15100</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-63700</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-168000</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>80300</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>38000</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>60100</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>50100</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>39700</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>54300</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>55400</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>54000</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>46000</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>55700</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AB21" s="3">
         <v>71900</v>
       </c>
-      <c r="AB21" s="3">
+      <c r="AC21" s="3">
         <v>65500</v>
       </c>
-      <c r="AC21" s="3">
+      <c r="AD21" s="3">
         <v>68300</v>
       </c>
-      <c r="AD21" s="3">
+      <c r="AE21" s="3">
         <v>69200</v>
       </c>
     </row>
-    <row r="22" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1901,180 +1940,189 @@
       <c r="AD22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>45300</v>
+      </c>
+      <c r="E23" s="3">
         <v>32000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-17300</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-3500</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>26800</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>26900</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-500</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>29600</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>42600</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>6200</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-40400</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-37800</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-86300</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-191600</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>56600</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>16600</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>38400</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>28700</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>15500</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>30200</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>31600</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>30000</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>22800</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>32700</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>48600</v>
       </c>
-      <c r="AB23" s="3">
+      <c r="AC23" s="3">
         <v>42300</v>
       </c>
-      <c r="AC23" s="3">
+      <c r="AD23" s="3">
         <v>44900</v>
       </c>
-      <c r="AD23" s="3">
+      <c r="AE23" s="3">
         <v>47600</v>
       </c>
     </row>
-    <row r="24" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>2600</v>
+      </c>
+      <c r="E24" s="3">
         <v>4000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>-14000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>-1100</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>1200</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>3700</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>-2600</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>-3100</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>5000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>2300</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>-8100</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>-9400</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>-29700</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>-55400</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>7900</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>500</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>2900</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>1700</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>-700</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>1700</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>3300</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>4000</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>3600</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AA24" s="3">
         <v>6300</v>
       </c>
-      <c r="AA24" s="3">
+      <c r="AB24" s="3">
         <v>10500</v>
       </c>
-      <c r="AB24" s="3">
+      <c r="AC24" s="3">
         <v>7300</v>
       </c>
-      <c r="AC24" s="3">
+      <c r="AD24" s="3">
         <v>12500</v>
       </c>
-      <c r="AD24" s="3">
+      <c r="AE24" s="3">
         <v>13000</v>
       </c>
     </row>
-    <row r="25" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2159,180 +2207,189 @@
       <c r="AD25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>42700</v>
+      </c>
+      <c r="E26" s="3">
         <v>28100</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-3300</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-2400</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>25700</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>23200</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>2100</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>32700</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>37600</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>3900</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-32300</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-28300</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-56500</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-136200</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>48700</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>16100</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>35500</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>27000</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>16200</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>28500</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>28400</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>26000</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>19200</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>26400</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>38200</v>
       </c>
-      <c r="AB26" s="3">
+      <c r="AC26" s="3">
         <v>35000</v>
       </c>
-      <c r="AC26" s="3">
+      <c r="AD26" s="3">
         <v>32400</v>
       </c>
-      <c r="AD26" s="3">
+      <c r="AE26" s="3">
         <v>34600</v>
       </c>
     </row>
-    <row r="27" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>42700</v>
+      </c>
+      <c r="E27" s="3">
         <v>28100</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-3300</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-2400</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>25700</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>23200</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>3300</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>32700</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>13100</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-1300</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-37300</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-33200</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-70500</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-136200</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>48700</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>16100</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>35500</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>27000</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>16200</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>28500</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>28400</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>26000</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>19200</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>26400</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>38200</v>
       </c>
-      <c r="AB27" s="3">
+      <c r="AC27" s="3">
         <v>35000</v>
       </c>
-      <c r="AC27" s="3">
+      <c r="AD27" s="3">
         <v>32400</v>
       </c>
-      <c r="AD27" s="3">
+      <c r="AE27" s="3">
         <v>34600</v>
       </c>
     </row>
-    <row r="28" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2417,8 +2474,11 @@
       <c r="AD28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2467,8 +2527,8 @@
       <c r="R29" s="3">
         <v>0</v>
       </c>
-      <c r="S29" s="3" t="s">
-        <v>8</v>
+      <c r="S29" s="3">
+        <v>0</v>
       </c>
       <c r="T29" s="3" t="s">
         <v>8</v>
@@ -2485,11 +2545,11 @@
       <c r="X29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Y29" s="3">
+      <c r="Y29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z29" s="3">
         <v>38500</v>
-      </c>
-      <c r="Z29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="AA29" s="3" t="s">
         <v>8</v>
@@ -2503,8 +2563,11 @@
       <c r="AD29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2589,8 +2652,11 @@
       <c r="AD30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2675,180 +2741,189 @@
       <c r="AD31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>2200</v>
+      </c>
+      <c r="E32" s="3">
         <v>1900</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>2100</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>1300</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>1100</v>
-      </c>
-      <c r="H32" s="3">
-        <v>1500</v>
       </c>
       <c r="I32" s="3">
         <v>1500</v>
       </c>
       <c r="J32" s="3">
+        <v>1500</v>
+      </c>
+      <c r="K32" s="3">
         <v>1800</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>7400</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>2700</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>1600</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>2900</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>2600</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>1500</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-50200</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>10300</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>1600</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>1500</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>3900</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>3300</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>2900</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>1500</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>1900</v>
-      </c>
-      <c r="Z32" s="3">
-        <v>1600</v>
       </c>
       <c r="AA32" s="3">
         <v>1600</v>
       </c>
       <c r="AB32" s="3">
+        <v>1600</v>
+      </c>
+      <c r="AC32" s="3">
         <v>1200</v>
       </c>
-      <c r="AC32" s="3">
+      <c r="AD32" s="3">
         <v>2200</v>
       </c>
-      <c r="AD32" s="3">
+      <c r="AE32" s="3">
         <v>2500</v>
       </c>
     </row>
-    <row r="33" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>42700</v>
+      </c>
+      <c r="E33" s="3">
         <v>28100</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-3300</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-2400</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>25700</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>23200</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>3300</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>32700</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>13100</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-1300</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-37300</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-33200</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-70500</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-136200</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>48700</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>16100</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>35500</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>27000</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>16200</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>28500</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>28400</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>26000</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>57700</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>26400</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>38200</v>
       </c>
-      <c r="AB33" s="3">
+      <c r="AC33" s="3">
         <v>35000</v>
       </c>
-      <c r="AC33" s="3">
+      <c r="AD33" s="3">
         <v>32400</v>
       </c>
-      <c r="AD33" s="3">
+      <c r="AE33" s="3">
         <v>34600</v>
       </c>
     </row>
-    <row r="34" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2933,185 +3008,194 @@
       <c r="AD34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>42700</v>
+      </c>
+      <c r="E35" s="3">
         <v>28100</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-3300</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-2400</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>25700</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>23200</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>3300</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>32700</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>13100</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-1300</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-37300</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-33200</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-70500</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-136200</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>48700</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>16100</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>35500</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>27000</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>16200</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>28500</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>28400</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>26000</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>57700</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>26400</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>38200</v>
       </c>
-      <c r="AB35" s="3">
+      <c r="AC35" s="3">
         <v>35000</v>
       </c>
-      <c r="AC35" s="3">
+      <c r="AD35" s="3">
         <v>32400</v>
       </c>
-      <c r="AD35" s="3">
+      <c r="AE35" s="3">
         <v>34600</v>
       </c>
     </row>
-    <row r="37" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45111</v>
+      </c>
+      <c r="E38" s="2">
         <v>45020</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44929</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44831</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44740</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44649</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44558</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44467</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44376</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44285</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44194</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44103</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>44012</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43921</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43830</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43739</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43648</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43557</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43466</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43375</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43284</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43193</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>43102</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>43011</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42920</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AC38" s="2">
         <v>42829</v>
       </c>
-      <c r="AC38" s="2">
+      <c r="AD38" s="2">
         <v>42738</v>
       </c>
-      <c r="AD38" s="2">
+      <c r="AE38" s="2">
         <v>42640</v>
       </c>
     </row>
-    <row r="39" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -3142,8 +3226,9 @@
       <c r="AB39" s="3"/>
       <c r="AC39" s="3"/>
       <c r="AD39" s="3"/>
-    </row>
-    <row r="40" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE39" s="3"/>
+    </row>
+    <row r="40" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3174,94 +3259,98 @@
       <c r="AB40" s="3"/>
       <c r="AC40" s="3"/>
       <c r="AD40" s="3"/>
-    </row>
-    <row r="41" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE40" s="3"/>
+    </row>
+    <row r="41" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>91600</v>
+      </c>
+      <c r="E41" s="3">
         <v>116200</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>114800</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>133200</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>194900</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>183600</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>189600</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>131000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>161800</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>181300</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>154100</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>243800</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>250200</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>81000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>58400</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>306300</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>22600</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>22500</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>26600</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>12600</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>29400</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>24800</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>6000</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>19800</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AB41" s="3">
         <v>66300</v>
       </c>
-      <c r="AB41" s="3">
+      <c r="AC41" s="3">
         <v>65700</v>
       </c>
-      <c r="AC41" s="3">
+      <c r="AD41" s="3">
         <v>53800</v>
       </c>
-      <c r="AD41" s="3">
+      <c r="AE41" s="3">
         <v>65800</v>
       </c>
     </row>
-    <row r="42" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -3346,352 +3435,367 @@
       <c r="AD42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>111500</v>
+      </c>
+      <c r="E43" s="3">
         <v>108500</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>164600</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>107000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>128200</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>120900</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>155100</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>120400</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>108400</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>109000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>130600</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>113100</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>145900</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>120000</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>118100</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>74500</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>70100</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>67500</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>89100</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>54100</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>52100</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>44100</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>102400</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AA43" s="3">
         <v>52100</v>
       </c>
-      <c r="AA43" s="3">
+      <c r="AB43" s="3">
         <v>53000</v>
       </c>
-      <c r="AB43" s="3">
+      <c r="AC43" s="3">
         <v>44800</v>
       </c>
-      <c r="AC43" s="3">
+      <c r="AD43" s="3">
         <v>80200</v>
       </c>
-      <c r="AD43" s="3">
+      <c r="AE43" s="3">
         <v>45200</v>
       </c>
     </row>
-    <row r="44" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>60900</v>
+      </c>
+      <c r="E44" s="3">
         <v>59000</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>55600</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>62300</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>52300</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>46700</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>42800</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>43300</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>41900</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>39000</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>39300</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>37700</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>40500</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>47800</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>47200</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>47800</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>46000</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>42000</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>38900</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>39800</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>34700</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>41000</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="Z44" s="3">
         <v>42600</v>
       </c>
-      <c r="Z44" s="3">
+      <c r="AA44" s="3">
         <v>44200</v>
       </c>
-      <c r="AA44" s="3">
+      <c r="AB44" s="3">
         <v>40200</v>
       </c>
-      <c r="AB44" s="3">
+      <c r="AC44" s="3">
         <v>38500</v>
       </c>
-      <c r="AC44" s="3">
+      <c r="AD44" s="3">
         <v>34900</v>
       </c>
-      <c r="AD44" s="3">
+      <c r="AE44" s="3">
         <v>35500</v>
       </c>
     </row>
-    <row r="45" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>35300</v>
+      </c>
+      <c r="E45" s="3">
         <v>30000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>10800</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>15300</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>16300</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>16200</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>18000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>15400</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>16200</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>14500</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>17400</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>16400</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>18100</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>21800</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>20800</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>20600</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>19400</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>25500</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>40600</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>48300</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>52900</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>54000</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>57700</v>
       </c>
-      <c r="Z45" s="3">
+      <c r="AA45" s="3">
         <v>48500</v>
       </c>
-      <c r="AA45" s="3">
+      <c r="AB45" s="3">
         <v>50900</v>
       </c>
-      <c r="AB45" s="3">
+      <c r="AC45" s="3">
         <v>52600</v>
       </c>
-      <c r="AC45" s="3">
+      <c r="AD45" s="3">
         <v>52400</v>
       </c>
-      <c r="AD45" s="3">
+      <c r="AE45" s="3">
         <v>36300</v>
       </c>
     </row>
-    <row r="46" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>299200</v>
+      </c>
+      <c r="E46" s="3">
         <v>313600</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>345800</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>317700</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>391700</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>367300</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>405600</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>310200</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>328300</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>343800</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>341400</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>411000</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>454600</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>270700</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>244500</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>449100</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>158200</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>157500</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>195200</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>154800</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>169100</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>163900</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>208600</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>164600</v>
       </c>
-      <c r="AA46" s="3">
+      <c r="AB46" s="3">
         <v>210500</v>
       </c>
-      <c r="AB46" s="3">
+      <c r="AC46" s="3">
         <v>201600</v>
       </c>
-      <c r="AC46" s="3">
+      <c r="AD46" s="3">
         <v>221400</v>
       </c>
-      <c r="AD46" s="3">
+      <c r="AE46" s="3">
         <v>182900</v>
       </c>
     </row>
-    <row r="47" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3738,19 +3842,19 @@
         <v>0</v>
       </c>
       <c r="R47" s="3">
+        <v>0</v>
+      </c>
+      <c r="S47" s="3">
         <v>91800</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>97700</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>81300</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>79800</v>
-      </c>
-      <c r="V47" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="W47" s="3" t="s">
         <v>8</v>
@@ -3767,8 +3871,8 @@
       <c r="AA47" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="AB47" s="3">
-        <v>0</v>
+      <c r="AB47" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="AC47" s="3">
         <v>0</v>
@@ -3776,180 +3880,189 @@
       <c r="AD47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>2051100</v>
+      </c>
+      <c r="E48" s="3">
         <v>2013900</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>2015000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>2022800</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>1987000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>1985300</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>1983000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>2014500</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>2002800</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>2006600</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>2025200</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>2056900</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>2074000</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>2075700</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>2072600</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>1744100</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>1722200</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>1732600</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>913300</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>940100</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>936500</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>935300</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>935000</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AA48" s="3">
         <v>933500</v>
       </c>
-      <c r="AA48" s="3">
+      <c r="AB48" s="3">
         <v>913400</v>
       </c>
-      <c r="AB48" s="3">
+      <c r="AC48" s="3">
         <v>910600</v>
       </c>
-      <c r="AC48" s="3">
+      <c r="AD48" s="3">
         <v>910100</v>
       </c>
-      <c r="AD48" s="3">
+      <c r="AE48" s="3">
         <v>902600</v>
       </c>
     </row>
-    <row r="49" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>251500</v>
+        <v>251600</v>
       </c>
       <c r="E49" s="3">
         <v>251500</v>
       </c>
       <c r="F49" s="3">
-        <v>251600</v>
+        <v>251500</v>
       </c>
       <c r="G49" s="3">
         <v>251600</v>
       </c>
       <c r="H49" s="3">
-        <v>251700</v>
+        <v>251600</v>
       </c>
       <c r="I49" s="3">
         <v>251700</v>
       </c>
       <c r="J49" s="3">
+        <v>251700</v>
+      </c>
+      <c r="K49" s="3">
         <v>253200</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>253100</v>
-      </c>
-      <c r="L49" s="3">
-        <v>253200</v>
       </c>
       <c r="M49" s="3">
         <v>253200</v>
       </c>
       <c r="N49" s="3">
+        <v>253200</v>
+      </c>
+      <c r="O49" s="3">
         <v>253600</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>254300</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>254400</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>437200</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>20300</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>20200</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>20100</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>26200</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>26300</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>24500</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>24200</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="Z49" s="3">
         <v>24100</v>
       </c>
-      <c r="Z49" s="3">
+      <c r="AA49" s="3">
         <v>23500</v>
       </c>
-      <c r="AA49" s="3">
+      <c r="AB49" s="3">
         <v>23400</v>
       </c>
-      <c r="AB49" s="3">
+      <c r="AC49" s="3">
         <v>23200</v>
       </c>
-      <c r="AC49" s="3">
+      <c r="AD49" s="3">
         <v>23100</v>
       </c>
-      <c r="AD49" s="3">
+      <c r="AE49" s="3">
         <v>22800</v>
       </c>
     </row>
-    <row r="50" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -4034,8 +4147,11 @@
       <c r="AD50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -4120,94 +4236,100 @@
       <c r="AD51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>167900</v>
+      </c>
+      <c r="E52" s="3">
         <v>163400</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>162900</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>141900</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>142200</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>149500</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>157900</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>139900</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>138100</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>131900</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>127400</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>106600</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>84300</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>75000</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>86300</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>76400</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>75500</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>84500</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>99700</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>186800</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>176600</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>164000</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Z52" s="3">
         <v>165300</v>
       </c>
-      <c r="Z52" s="3">
+      <c r="AA52" s="3">
         <v>153700</v>
       </c>
-      <c r="AA52" s="3">
+      <c r="AB52" s="3">
         <v>152100</v>
       </c>
-      <c r="AB52" s="3">
+      <c r="AC52" s="3">
         <v>141500</v>
       </c>
-      <c r="AC52" s="3">
+      <c r="AD52" s="3">
         <v>138700</v>
       </c>
-      <c r="AD52" s="3">
+      <c r="AE52" s="3">
         <v>96100</v>
       </c>
     </row>
-    <row r="53" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4292,94 +4414,100 @@
       <c r="AD53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>2769700</v>
+      </c>
+      <c r="E54" s="3">
         <v>2742500</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>2775200</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>2734100</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>2772400</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>2753700</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>2798100</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>2717700</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>2722300</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>2735400</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>2747100</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>2828100</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>2867300</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>2675800</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>2840600</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>2381800</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>2073800</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>2076100</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>1314100</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>1308100</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>1306600</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>1287300</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>1333100</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>1275300</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AB54" s="3">
         <v>1299300</v>
       </c>
-      <c r="AB54" s="3">
+      <c r="AC54" s="3">
         <v>1276800</v>
       </c>
-      <c r="AC54" s="3">
+      <c r="AD54" s="3">
         <v>1293300</v>
       </c>
-      <c r="AD54" s="3">
+      <c r="AE54" s="3">
         <v>1204400</v>
       </c>
     </row>
-    <row r="55" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4410,8 +4538,9 @@
       <c r="AB55" s="3"/>
       <c r="AC55" s="3"/>
       <c r="AD55" s="3"/>
-    </row>
-    <row r="56" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE55" s="3"/>
+    </row>
+    <row r="56" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4442,94 +4571,98 @@
       <c r="AB56" s="3"/>
       <c r="AC56" s="3"/>
       <c r="AD56" s="3"/>
-    </row>
-    <row r="57" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE56" s="3"/>
+    </row>
+    <row r="57" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>72700</v>
+      </c>
+      <c r="E57" s="3">
         <v>57000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>66600</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>59000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>58900</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>61700</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>54100</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>52900</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>55400</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>56000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>58400</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>61500</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>57500</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>55900</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>61900</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>36100</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>36000</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>36400</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>49100</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>39100</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>38300</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>38800</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>51000</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AA57" s="3">
         <v>46600</v>
       </c>
-      <c r="AA57" s="3">
+      <c r="AB57" s="3">
         <v>46200</v>
       </c>
-      <c r="AB57" s="3">
+      <c r="AC57" s="3">
         <v>34900</v>
       </c>
-      <c r="AC57" s="3">
+      <c r="AD57" s="3">
         <v>41600</v>
       </c>
-      <c r="AD57" s="3">
+      <c r="AE57" s="3">
         <v>38900</v>
       </c>
     </row>
-    <row r="58" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -4614,255 +4747,264 @@
       <c r="AD58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>550800</v>
+      </c>
+      <c r="E59" s="3">
         <v>569700</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>590000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>547100</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>564600</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>532700</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>582200</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>504200</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>541800</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>501900</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>527600</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>478800</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>475100</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>451200</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>552600</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>397700</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>401000</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>410200</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>367400</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>304400</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>316300</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>305500</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>347000</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>276200</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AB59" s="3">
         <v>283700</v>
       </c>
-      <c r="AB59" s="3">
+      <c r="AC59" s="3">
         <v>288200</v>
       </c>
-      <c r="AC59" s="3">
+      <c r="AD59" s="3">
         <v>335000</v>
       </c>
-      <c r="AD59" s="3">
+      <c r="AE59" s="3">
         <v>265200</v>
       </c>
     </row>
-    <row r="60" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>623500</v>
+      </c>
+      <c r="E60" s="3">
         <v>626700</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>656700</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>606200</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>623500</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>594400</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>636300</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>557100</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>597200</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>558000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>586100</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>540400</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>532700</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>507100</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>614600</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>433800</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>437000</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>446600</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>416500</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>343500</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>354600</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>344300</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>398000</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>322800</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AB60" s="3">
         <v>329900</v>
       </c>
-      <c r="AB60" s="3">
+      <c r="AC60" s="3">
         <v>323100</v>
       </c>
-      <c r="AC60" s="3">
+      <c r="AD60" s="3">
         <v>376500</v>
       </c>
-      <c r="AD60" s="3">
+      <c r="AE60" s="3">
         <v>304100</v>
       </c>
     </row>
-    <row r="61" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>469000</v>
+      </c>
+      <c r="E61" s="3">
         <v>468500</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>468000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>467500</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>467000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>466500</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>466000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>465500</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>465000</v>
-      </c>
-      <c r="L61" s="3">
-        <v>280000</v>
       </c>
       <c r="M61" s="3">
         <v>280000</v>
       </c>
       <c r="N61" s="3">
-        <v>376000</v>
+        <v>280000</v>
       </c>
       <c r="O61" s="3">
         <v>376000</v>
       </c>
       <c r="P61" s="3">
+        <v>376000</v>
+      </c>
+      <c r="Q61" s="3">
         <v>380000</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>290000</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>335000</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>35000</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>20000</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>10000</v>
-      </c>
-      <c r="V61" s="3">
-        <v>20000</v>
       </c>
       <c r="W61" s="3">
         <v>20000</v>
       </c>
       <c r="X61" s="3">
+        <v>20000</v>
+      </c>
+      <c r="Y61" s="3">
         <v>30000</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="Z61" s="3">
         <v>10000</v>
       </c>
-      <c r="Z61" s="3">
+      <c r="AA61" s="3">
         <v>30000</v>
       </c>
-      <c r="AA61" s="3">
-        <v>0</v>
-      </c>
       <c r="AB61" s="3">
         <v>0</v>
       </c>
@@ -4872,94 +5014,100 @@
       <c r="AD61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>1351300</v>
+      </c>
+      <c r="E62" s="3">
         <v>1347400</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>1358500</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>1336900</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>1320200</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>1337500</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>1365700</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>1373200</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>1375500</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>1367500</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>1374000</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>1379500</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>1402600</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>1369700</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>1364300</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>1079200</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>1061500</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>1067200</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>316600</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>331100</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>319300</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>318800</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>311600</v>
       </c>
-      <c r="Z62" s="3">
+      <c r="AA62" s="3">
         <v>339200</v>
       </c>
-      <c r="AA62" s="3">
+      <c r="AB62" s="3">
         <v>328900</v>
       </c>
-      <c r="AB62" s="3">
+      <c r="AC62" s="3">
         <v>326200</v>
       </c>
-      <c r="AC62" s="3">
+      <c r="AD62" s="3">
         <v>313600</v>
       </c>
-      <c r="AD62" s="3">
+      <c r="AE62" s="3">
         <v>310700</v>
       </c>
     </row>
-    <row r="63" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -5044,8 +5192,11 @@
       <c r="AD63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -5130,8 +5281,11 @@
       <c r="AD64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -5216,94 +5370,100 @@
       <c r="AD65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>2443800</v>
+      </c>
+      <c r="E66" s="3">
         <v>2442600</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>2483200</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>2410600</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>2410700</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>2398400</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>2468000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>2395800</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>2437700</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>2205400</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>2240100</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>2295900</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>2311300</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>2256800</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>2268900</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>1848000</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>1533500</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>1533800</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>743100</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>694700</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>693900</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>693200</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>719500</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>692000</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AB66" s="3">
         <v>658800</v>
       </c>
-      <c r="AB66" s="3">
+      <c r="AC66" s="3">
         <v>649300</v>
       </c>
-      <c r="AC66" s="3">
+      <c r="AD66" s="3">
         <v>690100</v>
       </c>
-      <c r="AD66" s="3">
+      <c r="AE66" s="3">
         <v>614800</v>
       </c>
     </row>
-    <row r="67" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5334,8 +5494,9 @@
       <c r="AB67" s="3"/>
       <c r="AC67" s="3"/>
       <c r="AD67" s="3"/>
-    </row>
-    <row r="68" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE67" s="3"/>
+    </row>
+    <row r="68" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5420,8 +5581,11 @@
       <c r="AD68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5506,8 +5670,11 @@
       <c r="AD69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5536,20 +5703,20 @@
         <v>0</v>
       </c>
       <c r="L70" s="3">
+        <v>0</v>
+      </c>
+      <c r="M70" s="3">
         <v>213500</v>
       </c>
-      <c r="M70" s="3">
+      <c r="N70" s="3">
         <v>218200</v>
       </c>
-      <c r="N70" s="3">
+      <c r="O70" s="3">
         <v>209900</v>
       </c>
-      <c r="O70" s="3">
+      <c r="P70" s="3">
         <v>204100</v>
       </c>
-      <c r="P70" s="3">
-        <v>0</v>
-      </c>
       <c r="Q70" s="3">
         <v>0</v>
       </c>
@@ -5592,8 +5759,11 @@
       <c r="AD70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5678,94 +5848,100 @@
       <c r="AD71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>1213100</v>
+      </c>
+      <c r="E72" s="3">
         <v>1184200</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>1170100</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>1187300</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>1203700</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>1192300</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>1169200</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>1167000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>1134200</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>1114000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>1110100</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>1150700</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>1184900</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>1255800</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>1408300</v>
-      </c>
-      <c r="R72" s="3">
-        <v>1375700</v>
       </c>
       <c r="S72" s="3">
         <v>1375700</v>
       </c>
       <c r="T72" s="3">
+        <v>1375700</v>
+      </c>
+      <c r="U72" s="3">
         <v>1355100</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>1384500</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>1383300</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>1369900</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>1354900</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>1345700</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>1301200</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AB72" s="3">
         <v>1288200</v>
       </c>
-      <c r="AB72" s="3">
+      <c r="AC72" s="3">
         <v>1261600</v>
       </c>
-      <c r="AC72" s="3">
+      <c r="AD72" s="3">
         <v>1238000</v>
       </c>
-      <c r="AD72" s="3">
+      <c r="AE72" s="3">
         <v>1217000</v>
       </c>
     </row>
-    <row r="73" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5850,8 +6026,11 @@
       <c r="AD73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5936,8 +6115,11 @@
       <c r="AD74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -6022,94 +6204,100 @@
       <c r="AD75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>325900</v>
+      </c>
+      <c r="E76" s="3">
         <v>299800</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>292000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>323500</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>361700</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>355300</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>330200</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>321900</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>284600</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>316500</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>288700</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>322300</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>351900</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>419000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>571700</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>533800</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>540300</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>542200</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>571100</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>613400</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>612800</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>594200</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>613500</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>583400</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>640500</v>
       </c>
-      <c r="AB76" s="3">
+      <c r="AC76" s="3">
         <v>627500</v>
       </c>
-      <c r="AC76" s="3">
+      <c r="AD76" s="3">
         <v>603200</v>
       </c>
-      <c r="AD76" s="3">
+      <c r="AE76" s="3">
         <v>589500</v>
       </c>
     </row>
-    <row r="77" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -6194,185 +6382,194 @@
       <c r="AD77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45111</v>
+      </c>
+      <c r="E80" s="2">
         <v>45020</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44929</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44831</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44740</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44649</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44558</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44467</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44376</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44285</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44194</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44103</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>44012</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43921</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43830</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43739</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43648</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43557</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43466</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43375</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43284</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43193</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>43102</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>43011</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42920</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AC80" s="2">
         <v>42829</v>
       </c>
-      <c r="AC80" s="2">
+      <c r="AD80" s="2">
         <v>42738</v>
       </c>
-      <c r="AD80" s="2">
+      <c r="AE80" s="2">
         <v>42640</v>
       </c>
     </row>
-    <row r="81" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>42700</v>
+      </c>
+      <c r="E81" s="3">
         <v>28100</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-3300</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-2400</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>25700</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>23200</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>3300</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>32700</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>13100</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-1300</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-37300</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-33200</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-70500</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-136200</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>48700</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>16100</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>35500</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>27000</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>16200</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>28500</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>28400</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>26000</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>57700</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>26400</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>38200</v>
       </c>
-      <c r="AB81" s="3">
+      <c r="AC81" s="3">
         <v>35000</v>
       </c>
-      <c r="AC81" s="3">
+      <c r="AD81" s="3">
         <v>32400</v>
       </c>
-      <c r="AD81" s="3">
+      <c r="AE81" s="3">
         <v>34600</v>
       </c>
     </row>
-    <row r="82" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6403,94 +6600,98 @@
       <c r="AB82" s="3"/>
       <c r="AC82" s="3"/>
       <c r="AD82" s="3"/>
-    </row>
-    <row r="83" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE82" s="3"/>
+    </row>
+    <row r="83" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>23300</v>
+      </c>
+      <c r="E83" s="3">
         <v>23000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>25600</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>22700</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>22600</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>21500</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>22800</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>22600</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>44200</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>22000</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>22600</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>22700</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>22600</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>23600</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>23800</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>21300</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>21700</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>21400</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>24200</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>24100</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>23700</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>24000</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="Z83" s="3">
         <v>23200</v>
       </c>
-      <c r="Z83" s="3">
+      <c r="AA83" s="3">
         <v>23000</v>
       </c>
-      <c r="AA83" s="3">
+      <c r="AB83" s="3">
         <v>23300</v>
       </c>
-      <c r="AB83" s="3">
+      <c r="AC83" s="3">
         <v>23200</v>
       </c>
-      <c r="AC83" s="3">
+      <c r="AD83" s="3">
         <v>23500</v>
       </c>
-      <c r="AD83" s="3">
+      <c r="AE83" s="3">
         <v>21600</v>
       </c>
     </row>
-    <row r="84" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6575,8 +6776,11 @@
       <c r="AD84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6661,8 +6865,11 @@
       <c r="AD85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6747,8 +6954,11 @@
       <c r="AD86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6833,8 +7043,11 @@
       <c r="AD87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6919,94 +7132,100 @@
       <c r="AD88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>36500</v>
+      </c>
+      <c r="E89" s="3">
         <v>65000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>63000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>11400</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>54000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>33500</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>93800</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-11300</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>130400</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>21600</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>35600</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>2900</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-2700</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-33000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>102600</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>32400</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>50300</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>33500</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>109200</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>41600</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>65600</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>74900</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>84600</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>40300</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AB89" s="3">
         <v>65800</v>
       </c>
-      <c r="AB89" s="3">
+      <c r="AC89" s="3">
         <v>48100</v>
       </c>
-      <c r="AC89" s="3">
+      <c r="AD89" s="3">
         <v>86000</v>
       </c>
-      <c r="AD89" s="3">
+      <c r="AE89" s="3">
         <v>58100</v>
       </c>
     </row>
-    <row r="90" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -7037,94 +7256,98 @@
       <c r="AB90" s="3"/>
       <c r="AC90" s="3"/>
       <c r="AD90" s="3"/>
-    </row>
-    <row r="91" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE90" s="3"/>
+    </row>
+    <row r="91" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-24900</v>
+      </c>
+      <c r="E91" s="3">
         <v>-38100</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-34600</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-31900</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-17400</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-29200</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-17900</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-18400</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-30900</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-7200</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-12100</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-8800</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-13600</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-15800</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-27100</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-17300</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-16000</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-13400</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-24200</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-26800</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-21200</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-30700</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-47400</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AA91" s="3">
         <v>-29700</v>
       </c>
-      <c r="AA91" s="3">
+      <c r="AB91" s="3">
         <v>-24500</v>
       </c>
-      <c r="AB91" s="3">
+      <c r="AC91" s="3">
         <v>-19500</v>
       </c>
-      <c r="AC91" s="3">
+      <c r="AD91" s="3">
         <v>-45600</v>
       </c>
-      <c r="AD91" s="3">
+      <c r="AE91" s="3">
         <v>10400</v>
       </c>
     </row>
-    <row r="92" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -7209,8 +7432,11 @@
       <c r="AD92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -7295,94 +7521,100 @@
       <c r="AD93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-25000</v>
+      </c>
+      <c r="E94" s="3">
         <v>-38200</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-34800</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-32000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-17400</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-28600</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-17700</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-18700</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-32200</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-8700</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-12300</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-9000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-13700</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-15900</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-290500</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-22000</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-23100</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-27400</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-24500</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-39800</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-35100</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-31000</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-57100</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>-30000</v>
       </c>
-      <c r="AA94" s="3">
+      <c r="AB94" s="3">
         <v>-33700</v>
       </c>
-      <c r="AB94" s="3">
+      <c r="AC94" s="3">
         <v>-19600</v>
       </c>
-      <c r="AC94" s="3">
+      <c r="AD94" s="3">
         <v>-87600</v>
       </c>
-      <c r="AD94" s="3">
+      <c r="AE94" s="3">
         <v>-30800</v>
       </c>
     </row>
-    <row r="95" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -7413,23 +7645,24 @@
       <c r="AB95" s="3"/>
       <c r="AC95" s="3"/>
       <c r="AD95" s="3"/>
-    </row>
-    <row r="96" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE95" s="3"/>
+    </row>
+    <row r="96" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-13800</v>
+      </c>
+      <c r="E96" s="3">
         <v>-13200</v>
       </c>
-      <c r="E96" s="3">
+      <c r="F96" s="3">
         <v>-13900</v>
       </c>
-      <c r="F96" s="3">
+      <c r="G96" s="3">
         <v>-14100</v>
       </c>
-      <c r="G96" s="3">
-        <v>0</v>
-      </c>
       <c r="H96" s="3">
         <v>0</v>
       </c>
@@ -7440,14 +7673,14 @@
         <v>0</v>
       </c>
       <c r="K96" s="3">
+        <v>0</v>
+      </c>
+      <c r="L96" s="3">
         <v>-300</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-2200</v>
       </c>
-      <c r="M96" s="3">
-        <v>0</v>
-      </c>
       <c r="N96" s="3">
         <v>0</v>
       </c>
@@ -7455,52 +7688,55 @@
         <v>0</v>
       </c>
       <c r="P96" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q96" s="3">
         <v>-15800</v>
-      </c>
-      <c r="Q96" s="3">
-        <v>-15700</v>
       </c>
       <c r="R96" s="3">
         <v>-15700</v>
       </c>
       <c r="S96" s="3">
+        <v>-15700</v>
+      </c>
+      <c r="T96" s="3">
         <v>-14700</v>
       </c>
-      <c r="T96" s="3">
+      <c r="U96" s="3">
         <v>-14600</v>
       </c>
-      <c r="U96" s="3">
+      <c r="V96" s="3">
         <v>-14800</v>
       </c>
-      <c r="V96" s="3">
+      <c r="W96" s="3">
         <v>-14900</v>
       </c>
-      <c r="W96" s="3">
+      <c r="X96" s="3">
         <v>-13400</v>
       </c>
-      <c r="X96" s="3">
+      <c r="Y96" s="3">
         <v>-13200</v>
       </c>
-      <c r="Y96" s="3">
+      <c r="Z96" s="3">
         <v>-13300</v>
       </c>
-      <c r="Z96" s="3">
+      <c r="AA96" s="3">
         <v>-13500</v>
       </c>
-      <c r="AA96" s="3">
+      <c r="AB96" s="3">
         <v>-11500</v>
       </c>
-      <c r="AB96" s="3">
+      <c r="AC96" s="3">
         <v>-11700</v>
       </c>
-      <c r="AC96" s="3">
+      <c r="AD96" s="3">
         <v>-11300</v>
       </c>
-      <c r="AD96" s="3">
+      <c r="AE96" s="3">
         <v>-11500</v>
       </c>
     </row>
-    <row r="97" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7585,8 +7821,11 @@
       <c r="AD97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7671,8 +7910,11 @@
       <c r="AD98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7757,94 +7999,100 @@
       <c r="AD99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-36100</v>
+      </c>
+      <c r="E100" s="3">
         <v>-25600</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-46700</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-40700</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-25200</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-11000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-17500</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-700</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-90600</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>14300</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-113100</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-400</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>185500</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>71700</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-59900</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>273200</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-27100</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-10200</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-70600</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-18500</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-25900</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>-25200</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>-41200</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>-56800</v>
       </c>
-      <c r="AA100" s="3">
+      <c r="AB100" s="3">
         <v>-31500</v>
       </c>
-      <c r="AB100" s="3">
+      <c r="AC100" s="3">
         <v>-16700</v>
       </c>
-      <c r="AC100" s="3">
+      <c r="AD100" s="3">
         <v>-10400</v>
       </c>
-      <c r="AD100" s="3">
+      <c r="AE100" s="3">
         <v>-47700</v>
       </c>
     </row>
-    <row r="101" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -7852,47 +8100,47 @@
         <v>100</v>
       </c>
       <c r="E101" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F101" s="3">
+        <v>0</v>
+      </c>
+      <c r="G101" s="3">
         <v>-300</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-100</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>100</v>
       </c>
-      <c r="I101" s="3">
-        <v>0</v>
-      </c>
       <c r="J101" s="3">
+        <v>0</v>
+      </c>
+      <c r="K101" s="3">
         <v>-100</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>100</v>
       </c>
-      <c r="L101" s="3">
-        <v>0</v>
-      </c>
       <c r="M101" s="3">
+        <v>0</v>
+      </c>
+      <c r="N101" s="3">
         <v>100</v>
       </c>
-      <c r="N101" s="3">
-        <v>0</v>
-      </c>
       <c r="O101" s="3">
+        <v>0</v>
+      </c>
+      <c r="P101" s="3">
         <v>100</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>-200</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>100</v>
       </c>
-      <c r="R101" s="3">
-        <v>0</v>
-      </c>
       <c r="S101" s="3">
         <v>0</v>
       </c>
@@ -7900,11 +8148,11 @@
         <v>0</v>
       </c>
       <c r="U101" s="3">
+        <v>0</v>
+      </c>
+      <c r="V101" s="3">
         <v>-100</v>
       </c>
-      <c r="V101" s="3">
-        <v>0</v>
-      </c>
       <c r="W101" s="3">
         <v>0</v>
       </c>
@@ -7912,10 +8160,10 @@
         <v>0</v>
       </c>
       <c r="Y101" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z101" s="3">
         <v>-100</v>
-      </c>
-      <c r="Z101" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="AA101" s="3" t="s">
         <v>8</v>
@@ -7929,90 +8177,96 @@
       <c r="AD101" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="102" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE101" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="102" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-24600</v>
+      </c>
+      <c r="E102" s="3">
         <v>1400</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-18400</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-61700</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>11300</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-6100</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>58600</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-30700</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>7700</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>27300</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-89700</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-6400</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>169100</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>22600</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-247800</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>283600</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>100</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-4000</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>13900</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-16700</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>4600</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>18800</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>-13800</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>-46500</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AB102" s="3">
         <v>600</v>
       </c>
-      <c r="AB102" s="3">
+      <c r="AC102" s="3">
         <v>11800</v>
       </c>
-      <c r="AC102" s="3">
+      <c r="AD102" s="3">
         <v>-12000</v>
       </c>
-      <c r="AD102" s="3">
+      <c r="AE102" s="3">
         <v>-13800</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/CAKE_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/CAKE_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="92">
   <si>
     <t>CAKE</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AE102"/>
+  <dimension ref="A5:AF102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,389 +665,401 @@
     <col min="1" max="1" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="6" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="30" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="32" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="7" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="31" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="33" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:32" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45202</v>
+      </c>
+      <c r="E7" s="2">
         <v>45111</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>45020</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44929</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44831</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44740</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44649</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44558</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44467</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44376</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44285</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44194</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>44103</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>44012</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43921</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43830</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43739</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43648</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43557</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43466</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43375</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43284</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>43193</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>43102</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>43011</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AC7" s="2">
         <v>42920</v>
       </c>
-      <c r="AC7" s="2">
+      <c r="AD7" s="2">
         <v>42829</v>
       </c>
-      <c r="AD7" s="2">
+      <c r="AE7" s="2">
         <v>42738</v>
       </c>
-      <c r="AE7" s="2">
+      <c r="AF7" s="2">
         <v>42640</v>
       </c>
     </row>
-    <row r="8" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>830200</v>
+      </c>
+      <c r="E8" s="3">
         <v>866200</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>866100</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>892800</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>784000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>832600</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>793700</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>776700</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>754500</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>1396400</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>627400</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>554600</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>517700</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>295900</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>615100</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>694000</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>586500</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>602600</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>599500</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>585200</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>575200</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>587300</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>584700</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>571800</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AB8" s="3">
         <v>555400</v>
       </c>
-      <c r="AB8" s="3">
+      <c r="AC8" s="3">
         <v>569900</v>
       </c>
-      <c r="AC8" s="3">
+      <c r="AD8" s="3">
         <v>563400</v>
       </c>
-      <c r="AD8" s="3">
+      <c r="AE8" s="3">
         <v>603100</v>
       </c>
-      <c r="AE8" s="3">
+      <c r="AF8" s="3">
         <v>560000</v>
       </c>
     </row>
-    <row r="9" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>194700</v>
+      </c>
+      <c r="E9" s="3">
         <v>201100</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>206200</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>220500</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>197800</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>204200</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>188500</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>178900</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>169400</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>304800</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>135900</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>127200</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>118100</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>72100</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>140900</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>158200</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>132900</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>134400</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>136200</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>134800</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>132200</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>131700</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>134200</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AA9" s="3">
         <v>134000</v>
       </c>
-      <c r="AA9" s="3">
+      <c r="AB9" s="3">
         <v>127500</v>
       </c>
-      <c r="AB9" s="3">
+      <c r="AC9" s="3">
         <v>128800</v>
       </c>
-      <c r="AC9" s="3">
+      <c r="AD9" s="3">
         <v>129100</v>
       </c>
-      <c r="AD9" s="3">
+      <c r="AE9" s="3">
         <v>140100</v>
       </c>
-      <c r="AE9" s="3">
+      <c r="AF9" s="3">
         <v>128800</v>
       </c>
     </row>
-    <row r="10" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>635500</v>
+      </c>
+      <c r="E10" s="3">
         <v>665100</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>659900</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>672300</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>586200</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>628400</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>605200</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>597800</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>585100</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>1091600</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>491500</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>427400</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>399600</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>223800</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>474200</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>535800</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>453600</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>468200</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>463300</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>450400</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>443000</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>455600</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>450500</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AA10" s="3">
         <v>437800</v>
       </c>
-      <c r="AA10" s="3">
+      <c r="AB10" s="3">
         <v>427900</v>
       </c>
-      <c r="AB10" s="3">
+      <c r="AC10" s="3">
         <v>441100</v>
       </c>
-      <c r="AC10" s="3">
+      <c r="AD10" s="3">
         <v>434300</v>
       </c>
-      <c r="AD10" s="3">
+      <c r="AE10" s="3">
         <v>463000</v>
       </c>
-      <c r="AE10" s="3">
+      <c r="AF10" s="3">
         <v>431200</v>
       </c>
     </row>
-    <row r="11" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1079,8 +1091,9 @@
       <c r="AC11" s="3"/>
       <c r="AD11" s="3"/>
       <c r="AE11" s="3"/>
-    </row>
-    <row r="12" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF11" s="3"/>
+    </row>
+    <row r="12" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1168,8 +1181,11 @@
       <c r="AE12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1257,22 +1273,25 @@
       <c r="AE13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>1500</v>
+      </c>
+      <c r="E14" s="3">
         <v>600</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>3400</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>41500</v>
-      </c>
-      <c r="G14" s="3">
-        <v>1100</v>
       </c>
       <c r="H14" s="3">
         <v>1100</v>
@@ -1281,162 +1300,168 @@
         <v>1100</v>
       </c>
       <c r="J14" s="3">
+        <v>1100</v>
+      </c>
+      <c r="K14" s="3">
         <v>24500</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>700</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>12500</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>6000</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>20500</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>14500</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>2500</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>188700</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>23500</v>
       </c>
-      <c r="S14" s="3">
-        <v>0</v>
-      </c>
       <c r="T14" s="3">
         <v>0</v>
       </c>
-      <c r="U14" s="3" t="s">
+      <c r="U14" s="3">
+        <v>0</v>
+      </c>
+      <c r="V14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="V14" s="3">
+      <c r="W14" s="3">
         <v>15000</v>
       </c>
-      <c r="W14" s="3">
+      <c r="X14" s="3">
         <v>300</v>
       </c>
-      <c r="X14" s="3">
+      <c r="Y14" s="3">
         <v>2600</v>
       </c>
-      <c r="Y14" s="3" t="s">
+      <c r="Z14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Z14" s="3">
+      <c r="AA14" s="3">
         <v>9100</v>
       </c>
-      <c r="AA14" s="3">
-        <v>0</v>
-      </c>
       <c r="AB14" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC14" s="3">
         <v>400</v>
       </c>
-      <c r="AC14" s="3">
+      <c r="AD14" s="3">
         <v>800</v>
       </c>
-      <c r="AD14" s="3">
+      <c r="AE14" s="3">
         <v>100</v>
       </c>
-      <c r="AE14" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>22800</v>
+      </c>
+      <c r="E15" s="3">
         <v>23300</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>23000</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>25600</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>22700</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>22600</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>21500</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>22800</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>22600</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>44200</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>22000</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>22600</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>22700</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>22600</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>23600</v>
       </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3">
         <v>23800</v>
       </c>
-      <c r="S15" s="3">
+      <c r="T15" s="3">
         <v>21300</v>
       </c>
-      <c r="T15" s="3">
+      <c r="U15" s="3">
         <v>21700</v>
       </c>
-      <c r="U15" s="3">
+      <c r="V15" s="3">
         <v>21400</v>
       </c>
-      <c r="V15" s="3">
+      <c r="W15" s="3">
         <v>24200</v>
       </c>
-      <c r="W15" s="3">
+      <c r="X15" s="3">
         <v>24100</v>
       </c>
-      <c r="X15" s="3">
+      <c r="Y15" s="3">
         <v>23700</v>
       </c>
-      <c r="Y15" s="3">
+      <c r="Z15" s="3">
         <v>24000</v>
       </c>
-      <c r="Z15" s="3">
+      <c r="AA15" s="3">
         <v>23200</v>
       </c>
-      <c r="AA15" s="3">
+      <c r="AB15" s="3">
         <v>23000</v>
       </c>
-      <c r="AB15" s="3">
+      <c r="AC15" s="3">
         <v>23300</v>
       </c>
-      <c r="AC15" s="3">
+      <c r="AD15" s="3">
         <v>23200</v>
       </c>
-      <c r="AD15" s="3">
+      <c r="AE15" s="3">
         <v>23500</v>
       </c>
-      <c r="AE15" s="3">
+      <c r="AF15" s="3">
         <v>21600</v>
       </c>
     </row>
-    <row r="16" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:32" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1465,186 +1490,193 @@
       <c r="AC16" s="3"/>
       <c r="AD16" s="3"/>
       <c r="AE16" s="3"/>
-    </row>
-    <row r="17" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF16" s="3"/>
+    </row>
+    <row r="17" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>811200</v>
+      </c>
+      <c r="E17" s="3">
         <v>818700</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>832200</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>907900</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>786200</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>804700</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>765400</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>775700</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>723100</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>1346400</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>618600</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>593400</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>552600</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>379600</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>805200</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>687600</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>559600</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>562500</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>569300</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>565800</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>541700</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>552800</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>553100</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>547100</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>521100</v>
       </c>
-      <c r="AB17" s="3">
+      <c r="AC17" s="3">
         <v>519700</v>
       </c>
-      <c r="AC17" s="3">
+      <c r="AD17" s="3">
         <v>519900</v>
       </c>
-      <c r="AD17" s="3">
+      <c r="AE17" s="3">
         <v>556000</v>
       </c>
-      <c r="AE17" s="3">
+      <c r="AF17" s="3">
         <v>510000</v>
       </c>
     </row>
-    <row r="18" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>19000</v>
+      </c>
+      <c r="E18" s="3">
         <v>47500</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>33900</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-15100</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-2200</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>27900</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>28300</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>1000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>31400</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>50000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>8800</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-38800</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-34900</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-83700</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-190100</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>6400</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>26900</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>40100</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>30200</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>19400</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>33500</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>34500</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>31600</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>24700</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3">
         <v>34300</v>
       </c>
-      <c r="AB18" s="3">
+      <c r="AC18" s="3">
         <v>50200</v>
       </c>
-      <c r="AC18" s="3">
+      <c r="AD18" s="3">
         <v>43500</v>
       </c>
-      <c r="AD18" s="3">
+      <c r="AE18" s="3">
         <v>47100</v>
       </c>
-      <c r="AE18" s="3">
+      <c r="AF18" s="3">
         <v>50000</v>
       </c>
     </row>
-    <row r="19" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1676,186 +1708,193 @@
       <c r="AC19" s="3"/>
       <c r="AD19" s="3"/>
       <c r="AE19" s="3"/>
-    </row>
-    <row r="20" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF19" s="3"/>
+    </row>
+    <row r="20" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="E20" s="3">
         <v>-2200</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-1900</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-2100</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-1300</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-1100</v>
-      </c>
-      <c r="I20" s="3">
-        <v>-1500</v>
       </c>
       <c r="J20" s="3">
         <v>-1500</v>
       </c>
       <c r="K20" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="L20" s="3">
         <v>-1800</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-7400</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-2700</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-1600</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-2900</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-2600</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-1500</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>50200</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-10300</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-1600</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>-1500</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>-3900</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>-3300</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>-2900</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>-1500</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AA20" s="3">
         <v>-1900</v>
-      </c>
-      <c r="AA20" s="3">
-        <v>-1600</v>
       </c>
       <c r="AB20" s="3">
         <v>-1600</v>
       </c>
       <c r="AC20" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="AD20" s="3">
         <v>-1200</v>
       </c>
-      <c r="AD20" s="3">
+      <c r="AE20" s="3">
         <v>-2200</v>
       </c>
-      <c r="AE20" s="3">
+      <c r="AF20" s="3">
         <v>-2500</v>
       </c>
     </row>
-    <row r="21" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>39800</v>
+      </c>
+      <c r="E21" s="3">
         <v>68600</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>55000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>8400</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>19100</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>49400</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>48400</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>22300</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>52200</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>86800</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>28200</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-17800</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-15100</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-63700</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>-168000</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>80300</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>38000</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>60100</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>50100</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>39700</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>54300</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>55400</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>54000</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>46000</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AB21" s="3">
         <v>55700</v>
       </c>
-      <c r="AB21" s="3">
+      <c r="AC21" s="3">
         <v>71900</v>
       </c>
-      <c r="AC21" s="3">
+      <c r="AD21" s="3">
         <v>65500</v>
       </c>
-      <c r="AD21" s="3">
+      <c r="AE21" s="3">
         <v>68300</v>
       </c>
-      <c r="AE21" s="3">
+      <c r="AF21" s="3">
         <v>69200</v>
       </c>
     </row>
-    <row r="22" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1943,186 +1982,195 @@
       <c r="AE22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>17000</v>
+      </c>
+      <c r="E23" s="3">
         <v>45300</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>32000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-17300</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-3500</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>26800</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>26900</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-500</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>29600</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>42600</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>6200</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-40400</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-37800</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-86300</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-191600</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>56600</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>16600</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>38400</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>28700</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>15500</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>30200</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>31600</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>30000</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>22800</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>32700</v>
       </c>
-      <c r="AB23" s="3">
+      <c r="AC23" s="3">
         <v>48600</v>
       </c>
-      <c r="AC23" s="3">
+      <c r="AD23" s="3">
         <v>42300</v>
       </c>
-      <c r="AD23" s="3">
+      <c r="AE23" s="3">
         <v>44900</v>
       </c>
-      <c r="AE23" s="3">
+      <c r="AF23" s="3">
         <v>47600</v>
       </c>
     </row>
-    <row r="24" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>-900</v>
+      </c>
+      <c r="E24" s="3">
         <v>2600</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>4000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>-14000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>-1100</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>1200</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>3700</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>-2600</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>-3100</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>5000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>2300</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>-8100</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>-9400</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>-29700</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>-55400</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>7900</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>500</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>2900</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>1700</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>-700</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>1700</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>3300</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>4000</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AA24" s="3">
         <v>3600</v>
       </c>
-      <c r="AA24" s="3">
+      <c r="AB24" s="3">
         <v>6300</v>
       </c>
-      <c r="AB24" s="3">
+      <c r="AC24" s="3">
         <v>10500</v>
       </c>
-      <c r="AC24" s="3">
+      <c r="AD24" s="3">
         <v>7300</v>
       </c>
-      <c r="AD24" s="3">
+      <c r="AE24" s="3">
         <v>12500</v>
       </c>
-      <c r="AE24" s="3">
+      <c r="AF24" s="3">
         <v>13000</v>
       </c>
     </row>
-    <row r="25" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2210,186 +2258,195 @@
       <c r="AE25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>17900</v>
+      </c>
+      <c r="E26" s="3">
         <v>42700</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>28100</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-3300</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-2400</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>25700</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>23200</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>2100</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>32700</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>37600</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>3900</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-32300</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-28300</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-56500</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-136200</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>48700</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>16100</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>35500</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>27000</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>16200</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>28500</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>28400</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>26000</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>19200</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>26400</v>
       </c>
-      <c r="AB26" s="3">
+      <c r="AC26" s="3">
         <v>38200</v>
       </c>
-      <c r="AC26" s="3">
+      <c r="AD26" s="3">
         <v>35000</v>
       </c>
-      <c r="AD26" s="3">
+      <c r="AE26" s="3">
         <v>32400</v>
       </c>
-      <c r="AE26" s="3">
+      <c r="AF26" s="3">
         <v>34600</v>
       </c>
     </row>
-    <row r="27" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>17900</v>
+      </c>
+      <c r="E27" s="3">
         <v>42700</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>28100</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-3300</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-2400</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>25700</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>23200</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>3300</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>32700</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>13100</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-1300</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-37300</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-33200</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-70500</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-136200</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>48700</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>16100</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>35500</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>27000</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>16200</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>28500</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>28400</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>26000</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>19200</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>26400</v>
       </c>
-      <c r="AB27" s="3">
+      <c r="AC27" s="3">
         <v>38200</v>
       </c>
-      <c r="AC27" s="3">
+      <c r="AD27" s="3">
         <v>35000</v>
       </c>
-      <c r="AD27" s="3">
+      <c r="AE27" s="3">
         <v>32400</v>
       </c>
-      <c r="AE27" s="3">
+      <c r="AF27" s="3">
         <v>34600</v>
       </c>
     </row>
-    <row r="28" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2477,8 +2534,11 @@
       <c r="AE28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2530,8 +2590,8 @@
       <c r="S29" s="3">
         <v>0</v>
       </c>
-      <c r="T29" s="3" t="s">
-        <v>8</v>
+      <c r="T29" s="3">
+        <v>0</v>
       </c>
       <c r="U29" s="3" t="s">
         <v>8</v>
@@ -2548,11 +2608,11 @@
       <c r="Y29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Z29" s="3">
+      <c r="Z29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AA29" s="3">
         <v>38500</v>
-      </c>
-      <c r="AA29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="AB29" s="3" t="s">
         <v>8</v>
@@ -2566,8 +2626,11 @@
       <c r="AE29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2655,8 +2718,11 @@
       <c r="AE30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2744,186 +2810,195 @@
       <c r="AE31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>2000</v>
+      </c>
+      <c r="E32" s="3">
         <v>2200</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>1900</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>2100</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>1300</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>1100</v>
-      </c>
-      <c r="I32" s="3">
-        <v>1500</v>
       </c>
       <c r="J32" s="3">
         <v>1500</v>
       </c>
       <c r="K32" s="3">
+        <v>1500</v>
+      </c>
+      <c r="L32" s="3">
         <v>1800</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>7400</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>2700</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>1600</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>2900</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>2600</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>1500</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-50200</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>10300</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>1600</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>1500</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>3900</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>3300</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>2900</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>1500</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AA32" s="3">
         <v>1900</v>
-      </c>
-      <c r="AA32" s="3">
-        <v>1600</v>
       </c>
       <c r="AB32" s="3">
         <v>1600</v>
       </c>
       <c r="AC32" s="3">
+        <v>1600</v>
+      </c>
+      <c r="AD32" s="3">
         <v>1200</v>
       </c>
-      <c r="AD32" s="3">
+      <c r="AE32" s="3">
         <v>2200</v>
       </c>
-      <c r="AE32" s="3">
+      <c r="AF32" s="3">
         <v>2500</v>
       </c>
     </row>
-    <row r="33" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>17900</v>
+      </c>
+      <c r="E33" s="3">
         <v>42700</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>28100</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-3300</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-2400</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>25700</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>23200</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>3300</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>32700</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>13100</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-1300</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-37300</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-33200</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-70500</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-136200</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>48700</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>16100</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>35500</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>27000</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>16200</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>28500</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>28400</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>26000</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>57700</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>26400</v>
       </c>
-      <c r="AB33" s="3">
+      <c r="AC33" s="3">
         <v>38200</v>
       </c>
-      <c r="AC33" s="3">
+      <c r="AD33" s="3">
         <v>35000</v>
       </c>
-      <c r="AD33" s="3">
+      <c r="AE33" s="3">
         <v>32400</v>
       </c>
-      <c r="AE33" s="3">
+      <c r="AF33" s="3">
         <v>34600</v>
       </c>
     </row>
-    <row r="34" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -3011,191 +3086,200 @@
       <c r="AE34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>17900</v>
+      </c>
+      <c r="E35" s="3">
         <v>42700</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>28100</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-3300</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-2400</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>25700</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>23200</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>3300</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>32700</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>13100</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-1300</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-37300</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-33200</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-70500</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-136200</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>48700</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>16100</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>35500</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>27000</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>16200</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>28500</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>28400</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>26000</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>57700</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>26400</v>
       </c>
-      <c r="AB35" s="3">
+      <c r="AC35" s="3">
         <v>38200</v>
       </c>
-      <c r="AC35" s="3">
+      <c r="AD35" s="3">
         <v>35000</v>
       </c>
-      <c r="AD35" s="3">
+      <c r="AE35" s="3">
         <v>32400</v>
       </c>
-      <c r="AE35" s="3">
+      <c r="AF35" s="3">
         <v>34600</v>
       </c>
     </row>
-    <row r="37" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45202</v>
+      </c>
+      <c r="E38" s="2">
         <v>45111</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>45020</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44929</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44831</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44740</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44649</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44558</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44467</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44376</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44285</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44194</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>44103</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>44012</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43921</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43830</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43739</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43648</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43557</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43466</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43375</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43284</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>43193</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>43102</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>43011</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AC38" s="2">
         <v>42920</v>
       </c>
-      <c r="AC38" s="2">
+      <c r="AD38" s="2">
         <v>42829</v>
       </c>
-      <c r="AD38" s="2">
+      <c r="AE38" s="2">
         <v>42738</v>
       </c>
-      <c r="AE38" s="2">
+      <c r="AF38" s="2">
         <v>42640</v>
       </c>
     </row>
-    <row r="39" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -3227,8 +3311,9 @@
       <c r="AC39" s="3"/>
       <c r="AD39" s="3"/>
       <c r="AE39" s="3"/>
-    </row>
-    <row r="40" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF39" s="3"/>
+    </row>
+    <row r="40" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3260,97 +3345,101 @@
       <c r="AC40" s="3"/>
       <c r="AD40" s="3"/>
       <c r="AE40" s="3"/>
-    </row>
-    <row r="41" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF40" s="3"/>
+    </row>
+    <row r="41" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>64000</v>
+      </c>
+      <c r="E41" s="3">
         <v>91600</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>116200</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>114800</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>133200</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>194900</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>183600</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>189600</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>131000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>161800</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>181300</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>154100</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>243800</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>250200</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>81000</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>58400</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>306300</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>22600</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>22500</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>26600</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>12600</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>29400</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>24800</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>6000</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AB41" s="3">
         <v>19800</v>
       </c>
-      <c r="AB41" s="3">
+      <c r="AC41" s="3">
         <v>66300</v>
       </c>
-      <c r="AC41" s="3">
+      <c r="AD41" s="3">
         <v>65700</v>
       </c>
-      <c r="AD41" s="3">
+      <c r="AE41" s="3">
         <v>53800</v>
       </c>
-      <c r="AE41" s="3">
+      <c r="AF41" s="3">
         <v>65800</v>
       </c>
     </row>
-    <row r="42" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -3438,364 +3527,379 @@
       <c r="AE42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>110100</v>
+      </c>
+      <c r="E43" s="3">
         <v>111500</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>108500</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>164600</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>107000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>128200</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>120900</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>155100</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>120400</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>108400</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>109000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>130600</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>113100</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>145900</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>120000</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>118100</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>74500</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>70100</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>67500</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>89100</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>54100</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>52100</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>44100</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AA43" s="3">
         <v>102400</v>
       </c>
-      <c r="AA43" s="3">
+      <c r="AB43" s="3">
         <v>52100</v>
       </c>
-      <c r="AB43" s="3">
+      <c r="AC43" s="3">
         <v>53000</v>
       </c>
-      <c r="AC43" s="3">
+      <c r="AD43" s="3">
         <v>44800</v>
       </c>
-      <c r="AD43" s="3">
+      <c r="AE43" s="3">
         <v>80200</v>
       </c>
-      <c r="AE43" s="3">
+      <c r="AF43" s="3">
         <v>45200</v>
       </c>
     </row>
-    <row r="44" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>58700</v>
+      </c>
+      <c r="E44" s="3">
         <v>60900</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>59000</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>55600</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>62300</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>52300</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>46700</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>42800</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>43300</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>41900</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>39000</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>39300</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>37700</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>40500</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>47800</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>47200</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>47800</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>46000</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>42000</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>38900</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>39800</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>34700</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="Z44" s="3">
         <v>41000</v>
       </c>
-      <c r="Z44" s="3">
+      <c r="AA44" s="3">
         <v>42600</v>
       </c>
-      <c r="AA44" s="3">
+      <c r="AB44" s="3">
         <v>44200</v>
       </c>
-      <c r="AB44" s="3">
+      <c r="AC44" s="3">
         <v>40200</v>
       </c>
-      <c r="AC44" s="3">
+      <c r="AD44" s="3">
         <v>38500</v>
       </c>
-      <c r="AD44" s="3">
+      <c r="AE44" s="3">
         <v>34900</v>
       </c>
-      <c r="AE44" s="3">
+      <c r="AF44" s="3">
         <v>35500</v>
       </c>
     </row>
-    <row r="45" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>39600</v>
+      </c>
+      <c r="E45" s="3">
         <v>35300</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>30000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>10800</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>15300</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>16300</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>16200</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>18000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>15400</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>16200</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>14500</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>17400</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>16400</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>18100</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>21800</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>20800</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>20600</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>19400</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>25500</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>40600</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>48300</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>52900</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>54000</v>
       </c>
-      <c r="Z45" s="3">
+      <c r="AA45" s="3">
         <v>57700</v>
       </c>
-      <c r="AA45" s="3">
+      <c r="AB45" s="3">
         <v>48500</v>
       </c>
-      <c r="AB45" s="3">
+      <c r="AC45" s="3">
         <v>50900</v>
       </c>
-      <c r="AC45" s="3">
+      <c r="AD45" s="3">
         <v>52600</v>
       </c>
-      <c r="AD45" s="3">
+      <c r="AE45" s="3">
         <v>52400</v>
       </c>
-      <c r="AE45" s="3">
+      <c r="AF45" s="3">
         <v>36300</v>
       </c>
     </row>
-    <row r="46" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>272400</v>
+      </c>
+      <c r="E46" s="3">
         <v>299200</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>313600</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>345800</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>317700</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>391700</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>367300</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>405600</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>310200</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>328300</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>343800</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>341400</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>411000</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>454600</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>270700</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>244500</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>449100</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>158200</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>157500</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>195200</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>154800</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>169100</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>163900</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>208600</v>
       </c>
-      <c r="AA46" s="3">
+      <c r="AB46" s="3">
         <v>164600</v>
       </c>
-      <c r="AB46" s="3">
+      <c r="AC46" s="3">
         <v>210500</v>
       </c>
-      <c r="AC46" s="3">
+      <c r="AD46" s="3">
         <v>201600</v>
       </c>
-      <c r="AD46" s="3">
+      <c r="AE46" s="3">
         <v>221400</v>
       </c>
-      <c r="AE46" s="3">
+      <c r="AF46" s="3">
         <v>182900</v>
       </c>
     </row>
-    <row r="47" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3845,19 +3949,19 @@
         <v>0</v>
       </c>
       <c r="S47" s="3">
+        <v>0</v>
+      </c>
+      <c r="T47" s="3">
         <v>91800</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>97700</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>81300</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>79800</v>
-      </c>
-      <c r="W47" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="X47" s="3" t="s">
         <v>8</v>
@@ -3874,8 +3978,8 @@
       <c r="AB47" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="AC47" s="3">
-        <v>0</v>
+      <c r="AC47" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="AD47" s="3">
         <v>0</v>
@@ -3883,186 +3987,195 @@
       <c r="AE47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>2085000</v>
+      </c>
+      <c r="E48" s="3">
         <v>2051100</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>2013900</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>2015000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>2022800</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>1987000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>1985300</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>1983000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>2014500</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>2002800</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>2006600</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>2025200</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>2056900</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>2074000</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>2075700</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>2072600</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>1744100</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>1722200</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>1732600</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>913300</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>940100</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>936500</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>935300</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AA48" s="3">
         <v>935000</v>
       </c>
-      <c r="AA48" s="3">
+      <c r="AB48" s="3">
         <v>933500</v>
       </c>
-      <c r="AB48" s="3">
+      <c r="AC48" s="3">
         <v>913400</v>
       </c>
-      <c r="AC48" s="3">
+      <c r="AD48" s="3">
         <v>910600</v>
       </c>
-      <c r="AD48" s="3">
+      <c r="AE48" s="3">
         <v>910100</v>
       </c>
-      <c r="AE48" s="3">
+      <c r="AF48" s="3">
         <v>902600</v>
       </c>
     </row>
-    <row r="49" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>251500</v>
+      </c>
+      <c r="E49" s="3">
         <v>251600</v>
-      </c>
-      <c r="E49" s="3">
-        <v>251500</v>
       </c>
       <c r="F49" s="3">
         <v>251500</v>
       </c>
       <c r="G49" s="3">
-        <v>251600</v>
+        <v>251500</v>
       </c>
       <c r="H49" s="3">
         <v>251600</v>
       </c>
       <c r="I49" s="3">
-        <v>251700</v>
+        <v>251600</v>
       </c>
       <c r="J49" s="3">
         <v>251700</v>
       </c>
       <c r="K49" s="3">
+        <v>251700</v>
+      </c>
+      <c r="L49" s="3">
         <v>253200</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>253100</v>
-      </c>
-      <c r="M49" s="3">
-        <v>253200</v>
       </c>
       <c r="N49" s="3">
         <v>253200</v>
       </c>
       <c r="O49" s="3">
+        <v>253200</v>
+      </c>
+      <c r="P49" s="3">
         <v>253600</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>254300</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>254400</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>437200</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>20300</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>20200</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>20100</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>26200</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>26300</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>24500</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="Z49" s="3">
         <v>24200</v>
       </c>
-      <c r="Z49" s="3">
+      <c r="AA49" s="3">
         <v>24100</v>
       </c>
-      <c r="AA49" s="3">
+      <c r="AB49" s="3">
         <v>23500</v>
       </c>
-      <c r="AB49" s="3">
+      <c r="AC49" s="3">
         <v>23400</v>
       </c>
-      <c r="AC49" s="3">
+      <c r="AD49" s="3">
         <v>23200</v>
       </c>
-      <c r="AD49" s="3">
+      <c r="AE49" s="3">
         <v>23100</v>
       </c>
-      <c r="AE49" s="3">
+      <c r="AF49" s="3">
         <v>22800</v>
       </c>
     </row>
-    <row r="50" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -4150,8 +4263,11 @@
       <c r="AE50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -4239,97 +4355,103 @@
       <c r="AE51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>168000</v>
+      </c>
+      <c r="E52" s="3">
         <v>167900</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>163400</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>162900</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>141900</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>142200</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>149500</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>157900</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>139900</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>138100</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>131900</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>127400</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>106600</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>84300</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>75000</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>86300</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>76400</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>75500</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>84500</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>99700</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>186800</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>176600</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Z52" s="3">
         <v>164000</v>
       </c>
-      <c r="Z52" s="3">
+      <c r="AA52" s="3">
         <v>165300</v>
       </c>
-      <c r="AA52" s="3">
+      <c r="AB52" s="3">
         <v>153700</v>
       </c>
-      <c r="AB52" s="3">
+      <c r="AC52" s="3">
         <v>152100</v>
       </c>
-      <c r="AC52" s="3">
+      <c r="AD52" s="3">
         <v>141500</v>
       </c>
-      <c r="AD52" s="3">
+      <c r="AE52" s="3">
         <v>138700</v>
       </c>
-      <c r="AE52" s="3">
+      <c r="AF52" s="3">
         <v>96100</v>
       </c>
     </row>
-    <row r="53" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4417,97 +4539,103 @@
       <c r="AE53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>2776900</v>
+      </c>
+      <c r="E54" s="3">
         <v>2769700</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>2742500</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>2775200</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>2734100</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>2772400</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>2753700</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>2798100</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>2717700</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>2722300</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>2735400</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>2747100</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>2828100</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>2867300</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>2675800</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>2840600</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>2381800</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>2073800</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>2076100</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>1314100</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>1308100</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>1306600</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>1287300</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>1333100</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AB54" s="3">
         <v>1275300</v>
       </c>
-      <c r="AB54" s="3">
+      <c r="AC54" s="3">
         <v>1299300</v>
       </c>
-      <c r="AC54" s="3">
+      <c r="AD54" s="3">
         <v>1276800</v>
       </c>
-      <c r="AD54" s="3">
+      <c r="AE54" s="3">
         <v>1293300</v>
       </c>
-      <c r="AE54" s="3">
+      <c r="AF54" s="3">
         <v>1204400</v>
       </c>
     </row>
-    <row r="55" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4539,8 +4667,9 @@
       <c r="AC55" s="3"/>
       <c r="AD55" s="3"/>
       <c r="AE55" s="3"/>
-    </row>
-    <row r="56" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF55" s="3"/>
+    </row>
+    <row r="56" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4572,97 +4701,101 @@
       <c r="AC56" s="3"/>
       <c r="AD56" s="3"/>
       <c r="AE56" s="3"/>
-    </row>
-    <row r="57" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF56" s="3"/>
+    </row>
+    <row r="57" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>53400</v>
+      </c>
+      <c r="E57" s="3">
         <v>72700</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>57000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>66600</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>59000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>58900</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>61700</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>54100</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>52900</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>55400</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>56000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>58400</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>61500</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>57500</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>55900</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>61900</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>36100</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>36000</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>36400</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>49100</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>39100</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>38300</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>38800</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AA57" s="3">
         <v>51000</v>
       </c>
-      <c r="AA57" s="3">
+      <c r="AB57" s="3">
         <v>46600</v>
       </c>
-      <c r="AB57" s="3">
+      <c r="AC57" s="3">
         <v>46200</v>
       </c>
-      <c r="AC57" s="3">
+      <c r="AD57" s="3">
         <v>34900</v>
       </c>
-      <c r="AD57" s="3">
+      <c r="AE57" s="3">
         <v>41600</v>
       </c>
-      <c r="AE57" s="3">
+      <c r="AF57" s="3">
         <v>38900</v>
       </c>
     </row>
-    <row r="58" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -4750,264 +4883,273 @@
       <c r="AE58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>565100</v>
+      </c>
+      <c r="E59" s="3">
         <v>550800</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>569700</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>590000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>547100</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>564600</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>532700</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>582200</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>504200</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>541800</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>501900</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>527600</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>478800</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>475100</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>451200</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>552600</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>397700</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>401000</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>410200</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>367400</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>304400</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>316300</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>305500</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>347000</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AB59" s="3">
         <v>276200</v>
       </c>
-      <c r="AB59" s="3">
+      <c r="AC59" s="3">
         <v>283700</v>
       </c>
-      <c r="AC59" s="3">
+      <c r="AD59" s="3">
         <v>288200</v>
       </c>
-      <c r="AD59" s="3">
+      <c r="AE59" s="3">
         <v>335000</v>
       </c>
-      <c r="AE59" s="3">
+      <c r="AF59" s="3">
         <v>265200</v>
       </c>
     </row>
-    <row r="60" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>618500</v>
+      </c>
+      <c r="E60" s="3">
         <v>623500</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>626700</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>656700</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>606200</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>623500</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>594400</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>636300</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>557100</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>597200</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>558000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>586100</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>540400</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>532700</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>507100</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>614600</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>433800</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>437000</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>446600</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>416500</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>343500</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>354600</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>344300</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>398000</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AB60" s="3">
         <v>322800</v>
       </c>
-      <c r="AB60" s="3">
+      <c r="AC60" s="3">
         <v>329900</v>
       </c>
-      <c r="AC60" s="3">
+      <c r="AD60" s="3">
         <v>323100</v>
       </c>
-      <c r="AD60" s="3">
+      <c r="AE60" s="3">
         <v>376500</v>
       </c>
-      <c r="AE60" s="3">
+      <c r="AF60" s="3">
         <v>304100</v>
       </c>
     </row>
-    <row r="61" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>469500</v>
+      </c>
+      <c r="E61" s="3">
         <v>469000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>468500</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>468000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>467500</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>467000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>466500</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>466000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>465500</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>465000</v>
-      </c>
-      <c r="M61" s="3">
-        <v>280000</v>
       </c>
       <c r="N61" s="3">
         <v>280000</v>
       </c>
       <c r="O61" s="3">
-        <v>376000</v>
+        <v>280000</v>
       </c>
       <c r="P61" s="3">
         <v>376000</v>
       </c>
       <c r="Q61" s="3">
+        <v>376000</v>
+      </c>
+      <c r="R61" s="3">
         <v>380000</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>290000</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>335000</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>35000</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>20000</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>10000</v>
-      </c>
-      <c r="W61" s="3">
-        <v>20000</v>
       </c>
       <c r="X61" s="3">
         <v>20000</v>
       </c>
       <c r="Y61" s="3">
+        <v>20000</v>
+      </c>
+      <c r="Z61" s="3">
         <v>30000</v>
       </c>
-      <c r="Z61" s="3">
+      <c r="AA61" s="3">
         <v>10000</v>
       </c>
-      <c r="AA61" s="3">
+      <c r="AB61" s="3">
         <v>30000</v>
       </c>
-      <c r="AB61" s="3">
-        <v>0</v>
-      </c>
       <c r="AC61" s="3">
         <v>0</v>
       </c>
@@ -5017,97 +5159,103 @@
       <c r="AE61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>1367200</v>
+      </c>
+      <c r="E62" s="3">
         <v>1351300</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>1347400</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>1358500</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>1336900</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>1320200</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>1337500</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>1365700</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>1373200</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>1375500</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>1367500</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>1374000</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>1379500</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>1402600</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>1369700</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>1364300</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>1079200</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>1061500</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>1067200</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>316600</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>331100</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>319300</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>318800</v>
       </c>
-      <c r="Z62" s="3">
+      <c r="AA62" s="3">
         <v>311600</v>
       </c>
-      <c r="AA62" s="3">
+      <c r="AB62" s="3">
         <v>339200</v>
       </c>
-      <c r="AB62" s="3">
+      <c r="AC62" s="3">
         <v>328900</v>
       </c>
-      <c r="AC62" s="3">
+      <c r="AD62" s="3">
         <v>326200</v>
       </c>
-      <c r="AD62" s="3">
+      <c r="AE62" s="3">
         <v>313600</v>
       </c>
-      <c r="AE62" s="3">
+      <c r="AF62" s="3">
         <v>310700</v>
       </c>
     </row>
-    <row r="63" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -5195,8 +5343,11 @@
       <c r="AE63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -5284,8 +5435,11 @@
       <c r="AE64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -5373,97 +5527,103 @@
       <c r="AE65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>2455200</v>
+      </c>
+      <c r="E66" s="3">
         <v>2443800</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>2442600</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>2483200</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>2410600</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>2410700</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>2398400</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>2468000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>2395800</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>2437700</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>2205400</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>2240100</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>2295900</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>2311300</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>2256800</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>2268900</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>1848000</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>1533500</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>1533800</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>743100</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>694700</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>693900</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>693200</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>719500</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AB66" s="3">
         <v>692000</v>
       </c>
-      <c r="AB66" s="3">
+      <c r="AC66" s="3">
         <v>658800</v>
       </c>
-      <c r="AC66" s="3">
+      <c r="AD66" s="3">
         <v>649300</v>
       </c>
-      <c r="AD66" s="3">
+      <c r="AE66" s="3">
         <v>690100</v>
       </c>
-      <c r="AE66" s="3">
+      <c r="AF66" s="3">
         <v>614800</v>
       </c>
     </row>
-    <row r="67" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5495,8 +5655,9 @@
       <c r="AC67" s="3"/>
       <c r="AD67" s="3"/>
       <c r="AE67" s="3"/>
-    </row>
-    <row r="68" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF67" s="3"/>
+    </row>
+    <row r="68" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5584,8 +5745,11 @@
       <c r="AE68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5673,8 +5837,11 @@
       <c r="AE69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5706,20 +5873,20 @@
         <v>0</v>
       </c>
       <c r="M70" s="3">
+        <v>0</v>
+      </c>
+      <c r="N70" s="3">
         <v>213500</v>
       </c>
-      <c r="N70" s="3">
+      <c r="O70" s="3">
         <v>218200</v>
       </c>
-      <c r="O70" s="3">
+      <c r="P70" s="3">
         <v>209900</v>
       </c>
-      <c r="P70" s="3">
+      <c r="Q70" s="3">
         <v>204100</v>
       </c>
-      <c r="Q70" s="3">
-        <v>0</v>
-      </c>
       <c r="R70" s="3">
         <v>0</v>
       </c>
@@ -5762,8 +5929,11 @@
       <c r="AE70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5851,97 +6021,103 @@
       <c r="AE71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>1217300</v>
+      </c>
+      <c r="E72" s="3">
         <v>1213100</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>1184200</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>1170100</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>1187300</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>1203700</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>1192300</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>1169200</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>1167000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>1134200</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>1114000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>1110100</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>1150700</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>1184900</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>1255800</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>1408300</v>
-      </c>
-      <c r="S72" s="3">
-        <v>1375700</v>
       </c>
       <c r="T72" s="3">
         <v>1375700</v>
       </c>
       <c r="U72" s="3">
+        <v>1375700</v>
+      </c>
+      <c r="V72" s="3">
         <v>1355100</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>1384500</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>1383300</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>1369900</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>1354900</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>1345700</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AB72" s="3">
         <v>1301200</v>
       </c>
-      <c r="AB72" s="3">
+      <c r="AC72" s="3">
         <v>1288200</v>
       </c>
-      <c r="AC72" s="3">
+      <c r="AD72" s="3">
         <v>1261600</v>
       </c>
-      <c r="AD72" s="3">
+      <c r="AE72" s="3">
         <v>1238000</v>
       </c>
-      <c r="AE72" s="3">
+      <c r="AF72" s="3">
         <v>1217000</v>
       </c>
     </row>
-    <row r="73" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -6029,8 +6205,11 @@
       <c r="AE73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -6118,8 +6297,11 @@
       <c r="AE74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -6207,97 +6389,103 @@
       <c r="AE75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>321600</v>
+      </c>
+      <c r="E76" s="3">
         <v>325900</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>299800</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>292000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>323500</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>361700</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>355300</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>330200</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>321900</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>284600</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>316500</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>288700</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>322300</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>351900</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>419000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>571700</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>533800</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>540300</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>542200</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>571100</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>613400</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>612800</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>594200</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>613500</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>583400</v>
       </c>
-      <c r="AB76" s="3">
+      <c r="AC76" s="3">
         <v>640500</v>
       </c>
-      <c r="AC76" s="3">
+      <c r="AD76" s="3">
         <v>627500</v>
       </c>
-      <c r="AD76" s="3">
+      <c r="AE76" s="3">
         <v>603200</v>
       </c>
-      <c r="AE76" s="3">
+      <c r="AF76" s="3">
         <v>589500</v>
       </c>
     </row>
-    <row r="77" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -6385,191 +6573,200 @@
       <c r="AE77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45202</v>
+      </c>
+      <c r="E80" s="2">
         <v>45111</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>45020</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44929</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44831</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44740</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44649</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44558</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44467</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44376</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44285</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44194</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>44103</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>44012</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43921</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43830</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43739</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43648</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43557</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43466</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43375</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43284</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>43193</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>43102</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>43011</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AC80" s="2">
         <v>42920</v>
       </c>
-      <c r="AC80" s="2">
+      <c r="AD80" s="2">
         <v>42829</v>
       </c>
-      <c r="AD80" s="2">
+      <c r="AE80" s="2">
         <v>42738</v>
       </c>
-      <c r="AE80" s="2">
+      <c r="AF80" s="2">
         <v>42640</v>
       </c>
     </row>
-    <row r="81" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>17900</v>
+      </c>
+      <c r="E81" s="3">
         <v>42700</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>28100</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-3300</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-2400</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>25700</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>23200</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>3300</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>32700</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>13100</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-1300</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-37300</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-33200</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-70500</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-136200</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>48700</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>16100</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>35500</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>27000</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>16200</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>28500</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>28400</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>26000</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>57700</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>26400</v>
       </c>
-      <c r="AB81" s="3">
+      <c r="AC81" s="3">
         <v>38200</v>
       </c>
-      <c r="AC81" s="3">
+      <c r="AD81" s="3">
         <v>35000</v>
       </c>
-      <c r="AD81" s="3">
+      <c r="AE81" s="3">
         <v>32400</v>
       </c>
-      <c r="AE81" s="3">
+      <c r="AF81" s="3">
         <v>34600</v>
       </c>
     </row>
-    <row r="82" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6601,97 +6798,101 @@
       <c r="AC82" s="3"/>
       <c r="AD82" s="3"/>
       <c r="AE82" s="3"/>
-    </row>
-    <row r="83" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF82" s="3"/>
+    </row>
+    <row r="83" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>22800</v>
+      </c>
+      <c r="E83" s="3">
         <v>23300</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>23000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>25600</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>22700</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>22600</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>21500</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>22800</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>22600</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>44200</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>22000</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>22600</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>22700</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>22600</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>23600</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>23800</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>21300</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>21700</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>21400</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>24200</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>24100</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>23700</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="Z83" s="3">
         <v>24000</v>
       </c>
-      <c r="Z83" s="3">
+      <c r="AA83" s="3">
         <v>23200</v>
       </c>
-      <c r="AA83" s="3">
+      <c r="AB83" s="3">
         <v>23000</v>
       </c>
-      <c r="AB83" s="3">
+      <c r="AC83" s="3">
         <v>23300</v>
       </c>
-      <c r="AC83" s="3">
+      <c r="AD83" s="3">
         <v>23200</v>
       </c>
-      <c r="AD83" s="3">
+      <c r="AE83" s="3">
         <v>23500</v>
       </c>
-      <c r="AE83" s="3">
+      <c r="AF83" s="3">
         <v>21600</v>
       </c>
     </row>
-    <row r="84" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6779,8 +6980,11 @@
       <c r="AE84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6868,8 +7072,11 @@
       <c r="AE85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6957,8 +7164,11 @@
       <c r="AE86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -7046,8 +7256,11 @@
       <c r="AE87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -7135,97 +7348,103 @@
       <c r="AE88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>49000</v>
+      </c>
+      <c r="E89" s="3">
         <v>36500</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>65000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>63000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>11400</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>54000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>33500</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>93800</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-11300</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>130400</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>21600</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>35600</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>2900</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-2700</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-33000</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>102600</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>32400</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>50300</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>33500</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>109200</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>41600</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>65600</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>74900</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>84600</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AB89" s="3">
         <v>40300</v>
       </c>
-      <c r="AB89" s="3">
+      <c r="AC89" s="3">
         <v>65800</v>
       </c>
-      <c r="AC89" s="3">
+      <c r="AD89" s="3">
         <v>48100</v>
       </c>
-      <c r="AD89" s="3">
+      <c r="AE89" s="3">
         <v>86000</v>
       </c>
-      <c r="AE89" s="3">
+      <c r="AF89" s="3">
         <v>58100</v>
       </c>
     </row>
-    <row r="90" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -7257,97 +7476,101 @@
       <c r="AC90" s="3"/>
       <c r="AD90" s="3"/>
       <c r="AE90" s="3"/>
-    </row>
-    <row r="91" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF90" s="3"/>
+    </row>
+    <row r="91" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-37400</v>
+      </c>
+      <c r="E91" s="3">
         <v>-24900</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-38100</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-34600</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-31900</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-17400</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-29200</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-17900</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-18400</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-30900</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-7200</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-12100</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-8800</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-13600</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-15800</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-27100</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-17300</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-16000</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-13400</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-24200</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-26800</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-21200</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-30700</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AA91" s="3">
         <v>-47400</v>
       </c>
-      <c r="AA91" s="3">
+      <c r="AB91" s="3">
         <v>-29700</v>
       </c>
-      <c r="AB91" s="3">
+      <c r="AC91" s="3">
         <v>-24500</v>
       </c>
-      <c r="AC91" s="3">
+      <c r="AD91" s="3">
         <v>-19500</v>
       </c>
-      <c r="AD91" s="3">
+      <c r="AE91" s="3">
         <v>-45600</v>
       </c>
-      <c r="AE91" s="3">
+      <c r="AF91" s="3">
         <v>10400</v>
       </c>
     </row>
-    <row r="92" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -7435,8 +7658,11 @@
       <c r="AE92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -7524,97 +7750,103 @@
       <c r="AE93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-37400</v>
+      </c>
+      <c r="E94" s="3">
         <v>-25000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-38200</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-34800</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-32000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-17400</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-28600</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-17700</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-18700</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-32200</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-8700</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-12300</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-9000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-13700</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-15900</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-290500</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-22000</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-23100</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-27400</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-24500</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-39800</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-35100</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-31000</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>-57100</v>
       </c>
-      <c r="AA94" s="3">
+      <c r="AB94" s="3">
         <v>-30000</v>
       </c>
-      <c r="AB94" s="3">
+      <c r="AC94" s="3">
         <v>-33700</v>
       </c>
-      <c r="AC94" s="3">
+      <c r="AD94" s="3">
         <v>-19600</v>
       </c>
-      <c r="AD94" s="3">
+      <c r="AE94" s="3">
         <v>-87600</v>
       </c>
-      <c r="AE94" s="3">
+      <c r="AF94" s="3">
         <v>-30800</v>
       </c>
     </row>
-    <row r="95" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -7646,26 +7878,27 @@
       <c r="AC95" s="3"/>
       <c r="AD95" s="3"/>
       <c r="AE95" s="3"/>
-    </row>
-    <row r="96" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF95" s="3"/>
+    </row>
+    <row r="96" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-13100</v>
+      </c>
+      <c r="E96" s="3">
         <v>-13800</v>
       </c>
-      <c r="E96" s="3">
+      <c r="F96" s="3">
         <v>-13200</v>
       </c>
-      <c r="F96" s="3">
+      <c r="G96" s="3">
         <v>-13900</v>
       </c>
-      <c r="G96" s="3">
+      <c r="H96" s="3">
         <v>-14100</v>
       </c>
-      <c r="H96" s="3">
-        <v>0</v>
-      </c>
       <c r="I96" s="3">
         <v>0</v>
       </c>
@@ -7676,14 +7909,14 @@
         <v>0</v>
       </c>
       <c r="L96" s="3">
+        <v>0</v>
+      </c>
+      <c r="M96" s="3">
         <v>-300</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-2200</v>
       </c>
-      <c r="N96" s="3">
-        <v>0</v>
-      </c>
       <c r="O96" s="3">
         <v>0</v>
       </c>
@@ -7691,52 +7924,55 @@
         <v>0</v>
       </c>
       <c r="Q96" s="3">
+        <v>0</v>
+      </c>
+      <c r="R96" s="3">
         <v>-15800</v>
-      </c>
-      <c r="R96" s="3">
-        <v>-15700</v>
       </c>
       <c r="S96" s="3">
         <v>-15700</v>
       </c>
       <c r="T96" s="3">
+        <v>-15700</v>
+      </c>
+      <c r="U96" s="3">
         <v>-14700</v>
       </c>
-      <c r="U96" s="3">
+      <c r="V96" s="3">
         <v>-14600</v>
       </c>
-      <c r="V96" s="3">
+      <c r="W96" s="3">
         <v>-14800</v>
       </c>
-      <c r="W96" s="3">
+      <c r="X96" s="3">
         <v>-14900</v>
       </c>
-      <c r="X96" s="3">
+      <c r="Y96" s="3">
         <v>-13400</v>
       </c>
-      <c r="Y96" s="3">
+      <c r="Z96" s="3">
         <v>-13200</v>
       </c>
-      <c r="Z96" s="3">
+      <c r="AA96" s="3">
         <v>-13300</v>
       </c>
-      <c r="AA96" s="3">
+      <c r="AB96" s="3">
         <v>-13500</v>
       </c>
-      <c r="AB96" s="3">
+      <c r="AC96" s="3">
         <v>-11500</v>
       </c>
-      <c r="AC96" s="3">
+      <c r="AD96" s="3">
         <v>-11700</v>
       </c>
-      <c r="AD96" s="3">
+      <c r="AE96" s="3">
         <v>-11300</v>
       </c>
-      <c r="AE96" s="3">
+      <c r="AF96" s="3">
         <v>-11500</v>
       </c>
     </row>
-    <row r="97" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7824,8 +8060,11 @@
       <c r="AE97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7913,8 +8152,11 @@
       <c r="AE98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -8002,148 +8244,154 @@
       <c r="AE99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-38900</v>
+      </c>
+      <c r="E100" s="3">
         <v>-36100</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-25600</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-46700</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-40700</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-25200</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-11000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-17500</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-700</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-90600</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>14300</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-113100</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-400</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>185500</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>71700</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-59900</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>273200</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-27100</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-10200</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-70600</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-18500</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>-25900</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>-25200</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>-41200</v>
       </c>
-      <c r="AA100" s="3">
+      <c r="AB100" s="3">
         <v>-56800</v>
       </c>
-      <c r="AB100" s="3">
+      <c r="AC100" s="3">
         <v>-31500</v>
       </c>
-      <c r="AC100" s="3">
+      <c r="AD100" s="3">
         <v>-16700</v>
       </c>
-      <c r="AD100" s="3">
+      <c r="AE100" s="3">
         <v>-10400</v>
       </c>
-      <c r="AE100" s="3">
+      <c r="AF100" s="3">
         <v>-47700</v>
       </c>
     </row>
-    <row r="101" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>100</v>
+        <v>-200</v>
       </c>
       <c r="E101" s="3">
         <v>100</v>
       </c>
       <c r="F101" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G101" s="3">
+        <v>0</v>
+      </c>
+      <c r="H101" s="3">
         <v>-300</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>-100</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>100</v>
       </c>
-      <c r="J101" s="3">
-        <v>0</v>
-      </c>
       <c r="K101" s="3">
+        <v>0</v>
+      </c>
+      <c r="L101" s="3">
         <v>-100</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>100</v>
       </c>
-      <c r="M101" s="3">
-        <v>0</v>
-      </c>
       <c r="N101" s="3">
+        <v>0</v>
+      </c>
+      <c r="O101" s="3">
         <v>100</v>
       </c>
-      <c r="O101" s="3">
-        <v>0</v>
-      </c>
       <c r="P101" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q101" s="3">
         <v>100</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>-200</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>100</v>
       </c>
-      <c r="S101" s="3">
-        <v>0</v>
-      </c>
       <c r="T101" s="3">
         <v>0</v>
       </c>
@@ -8151,11 +8399,11 @@
         <v>0</v>
       </c>
       <c r="V101" s="3">
+        <v>0</v>
+      </c>
+      <c r="W101" s="3">
         <v>-100</v>
       </c>
-      <c r="W101" s="3">
-        <v>0</v>
-      </c>
       <c r="X101" s="3">
         <v>0</v>
       </c>
@@ -8163,10 +8411,10 @@
         <v>0</v>
       </c>
       <c r="Z101" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA101" s="3">
         <v>-100</v>
-      </c>
-      <c r="AA101" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="AB101" s="3" t="s">
         <v>8</v>
@@ -8180,93 +8428,99 @@
       <c r="AE101" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="102" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF101" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="102" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-27600</v>
+      </c>
+      <c r="E102" s="3">
         <v>-24600</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>1400</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-18400</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-61700</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>11300</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-6100</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>58600</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-30700</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>7700</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>27300</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-89700</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-6400</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>169100</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>22600</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-247800</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>283600</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>100</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-4000</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>13900</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>-16700</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>4600</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>18800</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>-13800</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AB102" s="3">
         <v>-46500</v>
       </c>
-      <c r="AB102" s="3">
+      <c r="AC102" s="3">
         <v>600</v>
       </c>
-      <c r="AC102" s="3">
+      <c r="AD102" s="3">
         <v>11800</v>
       </c>
-      <c r="AD102" s="3">
+      <c r="AE102" s="3">
         <v>-12000</v>
       </c>
-      <c r="AE102" s="3">
+      <c r="AF102" s="3">
         <v>-13800</v>
       </c>
     </row>
